--- a/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - IC Canteen - OTH.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - IC Canteen - OTH.xlsx
@@ -5,15 +5,20 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Canteen" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Canteen!$A$1:$AL$53</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">canteen!#REF!</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Canteen!$A$1:$AL$53</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">canteen!#REF!</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Canteen!$A$1:$AL$53</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Canteen!$A$1:$AL$53</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Canteen!$A$1:$AL$53</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Canteen!$A$1:$AL$53</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Canteen!$A$1:$AL$53</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -25,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="250">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -148,49 +153,6 @@
   </si>
   <si>
     <t xml:space="preserve">Group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Availability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Представленность</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coolers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильники</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coolers: Doors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильник: Двери</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coolers: Quality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильник: Качество</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34
-35
-36
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Activations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Активации</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29
-30
-37
-40
-</t>
   </si>
   <si>
     <t xml:space="preserve">STANDARD 1</t>
@@ -216,235 +178,34 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">STANDARD 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Water Availability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Представленность Воды</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-11
-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tea Availability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Представленность Чая</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14
-15
-16
-17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juice Availability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Представленность Сока</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19
-20
-21
-22
-23
-24
-25
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Energy Availability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Представленность Энергетиков</t>
+    <t xml:space="preserve">Coca-Cola - 0.25L Slim/0.33L Glass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола - 0.25л слим/0.33л стекло</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of facings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola - 0.25L Slim, Coca-Cola - 0.33L Glass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000008046, 50112128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKUs</t>
   </si>
   <si>
     <t xml:space="preserve">Other</t>
   </si>
   <si>
-    <t xml:space="preserve">Weighted Average </t>
-  </si>
-  <si>
-    <t xml:space="preserve">STANDARD 17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Activation bufet line</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Активация Линии Раздачи</t>
-  </si>
-  <si>
-    <t xml:space="preserve">number of facings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manufacture: TCCC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coca-Cola, Dobriy, Rich, Fuzetea, Bonaqua, SmartWater</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAN in CAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.25, 0.33, 0.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Activation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bufet line</t>
+    <t xml:space="preserve">Panoramic Photo</t>
   </si>
   <si>
     <t xml:space="preserve">BINARY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Activation cash zone </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Активация Зоны кассы</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.25, 0.33, 0.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cash Zone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STANDARD 22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cooler: Doors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильники: Количество Дверей</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sum of atomic KPI result</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PROPORTIONAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Store Master Data attr15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31
-32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STANDARD 18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cooler: Prime Position</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильники: Лучшее место</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scenes with no tagging</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panoramic photo of Cooler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NUM_SCENES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calculate if at least one door was passed KPI "Cooler: CCH Cooler Doors"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cooler: CCH Cooler Doors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cooler: w/o other products</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильники: Без чужой продукции</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Share of CCH doors which have 98% TCCC facings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manufacturer: TCCC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cooler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calculate only for doors that were passed KPI "Cooler: CCH Cooler Doors"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cooler: Max 15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильники: Максимум 15 СКЮ на дверь</t>
-  </si>
-  <si>
-    <t xml:space="preserve">number of SKUs/Number of cooler Doors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BINARY </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Local 21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juice&amp;Meal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Активация Активация Сок и еда</t>
-  </si>
-  <si>
-    <t xml:space="preserve">number of atomic KPI Passed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Menu Board, Cash Zone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37
-38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coke&amp;Food</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Активация Кола и еда</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40
-41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coca-Cola - 0.25L Slim/0.33L Glass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кока-Кола - 0.25л слим/0.33л стекло</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coca-Cola - 0.25L Slim, Coca-Cola - 0.33L Glass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5449000008046, 50112128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKUs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panoramic Photo</t>
   </si>
   <si>
     <t xml:space="preserve">Coca-Cola Zero-0.25L Slim/0.33L Glass /Coca-Cola Zero Cherry-0.25L Slim</t>
@@ -542,6 +303,23 @@
     <t xml:space="preserve">BRAND</t>
   </si>
   <si>
+    <t xml:space="preserve">0.25, 0.33, 0.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STANDARD 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water Availability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Представленность Воды</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+11
+12</t>
+  </si>
+  <si>
     <t xml:space="preserve">BonAqua Still/Carb - 0.5L/0.33L Glass/SmartWater Still - 0.6L</t>
   </si>
   <si>
@@ -567,6 +345,18 @@
     <t xml:space="preserve">5449000152190, 5449000214270, 5449000214263</t>
   </si>
   <si>
+    <t xml:space="preserve">Tea Availability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Представленность Чая</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14
+15
+16
+17</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fuze Lemon-Lemongrass - 0.33L/Fuze Mango-Camomile - 0.33L</t>
   </si>
   <si>
@@ -609,6 +399,22 @@
     <t xml:space="preserve">5449000233615, 5449000235770, 5449000189370</t>
   </si>
   <si>
+    <t xml:space="preserve">Juice Availability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Представленность Сока</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19
+20
+21
+22
+23
+24
+25
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dobriy -Apple - 0.33L/Rich -Apple - 0.3L /0.2L Glass</t>
   </si>
   <si>
@@ -675,6 +481,15 @@
     <t xml:space="preserve">4607174579262, 4650075420423, 4650075420508, 4607174579248, 4650075420485, 4650075420447</t>
   </si>
   <si>
+    <t xml:space="preserve">Energy Availability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Представленность Энергетиков</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weighted Average </t>
+  </si>
+  <si>
     <t xml:space="preserve">Energy : Burn/Monster/Powerade any</t>
   </si>
   <si>
@@ -690,12 +505,79 @@
     <t xml:space="preserve">0.33, 0.5</t>
   </si>
   <si>
+    <t xml:space="preserve">STANDARD 17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Activation bufet line</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Активация Линии Раздачи</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manufacture: TCCC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola, Dobriy, Rich, Fuzetea, Bonaqua, SmartWater</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Activation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bufet line</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Activation cash zone </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Активация Зоны кассы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.25, 0.33, 0.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cash Zone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STANDARD 22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Doors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Количество Дверей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sum of atomic KPI result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROPORTIONAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Store Master Data attr15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31
+32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: CCH Cooler Doors</t>
+  </si>
+  <si>
     <t xml:space="preserve">Холодильники: Количество Дверей Холодильников Компании</t>
   </si>
   <si>
     <t xml:space="preserve">number of doors of filled Coolers</t>
   </si>
   <si>
+    <t xml:space="preserve">Manufacturer: TCCC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler</t>
+  </si>
+  <si>
     <t xml:space="preserve">SOS with empty more than 80%</t>
   </si>
   <si>
@@ -708,9 +590,79 @@
     <t xml:space="preserve">facings TCCC/40</t>
   </si>
   <si>
+    <t xml:space="preserve">TCCC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAN</t>
+  </si>
+  <si>
     <t xml:space="preserve">Other Coolers, Cold Shelf</t>
   </si>
   <si>
+    <t xml:space="preserve">STANDARD 18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Prime Position</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Лучшее место</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scenes with no tagging</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panoramic photo of Cooler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NUM_SCENES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calculate if at least one door was passed KPI "Cooler: CCH Cooler Doors"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: w/o other products</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Без чужой продукции</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Share of CCH doors which have 98% TCCC facings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calculate only for doors that were passed KPI "Cooler: CCH Cooler Doors"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Max 15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Максимум 15 СКЮ на дверь</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of SKUs/Number of cooler Doors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BINARY </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Local 21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice&amp;Meal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Активация Активация Сок и еда</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of atomic KPI Passed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Menu Board, Cash Zone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37
+38</t>
+  </si>
+  <si>
     <t xml:space="preserve">Juice&amp;Meal: Juice</t>
   </si>
   <si>
@@ -726,9 +678,6 @@
     <t xml:space="preserve">IC Activation</t>
   </si>
   <si>
-    <t xml:space="preserve">SUB_CATEGORY</t>
-  </si>
-  <si>
     <t xml:space="preserve">Juice&amp;Meal:Food</t>
   </si>
   <si>
@@ -741,6 +690,16 @@
     <t xml:space="preserve">Food should be near Image</t>
   </si>
   <si>
+    <t xml:space="preserve">Coke&amp;Food</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Активация Кола и еда</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40
+41</t>
+  </si>
+  <si>
     <t xml:space="preserve">Coke&amp;Food: Coca-Cola </t>
   </si>
   <si>
@@ -771,7 +730,7 @@
     <t xml:space="preserve">COOLER_QUALITY</t>
   </si>
   <si>
-    <t xml:space="preserve">CCH coolers quality (Prime Pos, Max15, Merch STD, Occupancy, Lights&amp;clean)</t>
+    <t xml:space="preserve">CCH coolers quality (Prime Pos- Max15- Merch STD- Occupancy- Lights&amp;clean)</t>
   </si>
   <si>
     <t xml:space="preserve">sum of KPI scores</t>
@@ -781,6 +740,13 @@
   </si>
   <si>
     <t xml:space="preserve">SESSION LEVEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29
+30
+37
+40
+</t>
   </si>
   <si>
     <t xml:space="preserve">ACTIVATION_OTHER</t>
@@ -831,6 +797,42 @@
   <si>
     <t xml:space="preserve">AtWork
 No_AtWork</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Availability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Представленность</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coolers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coolers: Doors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильник: Двери</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coolers: Quality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильник: Качество</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34
+35
+36
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Activations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Активации</t>
   </si>
 </sst>
 </file>
@@ -839,14 +841,14 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0.00%"/>
-    <numFmt numFmtId="166" formatCode="0"/>
-    <numFmt numFmtId="167" formatCode="0.00"/>
-    <numFmt numFmtId="168" formatCode="0%"/>
-    <numFmt numFmtId="169" formatCode="@"/>
-    <numFmt numFmtId="170" formatCode="0.00000%"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* \-??\ _₽_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="#,##0.0000000"/>
+    <numFmt numFmtId="167" formatCode="0"/>
+    <numFmt numFmtId="168" formatCode="@"/>
+    <numFmt numFmtId="169" formatCode="0.00"/>
+    <numFmt numFmtId="170" formatCode="0.00%"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -876,6 +878,12 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <b val="true"/>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -896,7 +904,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -911,13 +919,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FF579D1C"/>
+        <bgColor rgb="FF808000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC00"/>
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC00"/>
+        <fgColor rgb="FFFF3300"/>
+        <bgColor rgb="FFFF6600"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
@@ -957,18 +977,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -977,35 +997,35 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1017,19 +1037,43 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1037,19 +1081,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1057,15 +1089,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="4" fillId="0" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="170" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1083,7 +1107,7 @@
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FFFF3300"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -1130,7 +1154,7 @@
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF579D1C"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
@@ -1154,58 +1178,57 @@
   <dimension ref="1:53"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topRight" activeCell="N1" activeCellId="0" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="1:1"/>
+      <selection pane="bottomRight" activeCell="P27" activeCellId="0" sqref="P27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="22.45"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.78542510121457"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0404858299595"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="12.6194331983806"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.8825910931174"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="11.9919028340081"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="72"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="72.9392712550607"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="40.0283400809717"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="15.7692307692308"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="8.9919028340081"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="12.9311740890688"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.4048582995951"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="130.433198380567"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="79.5587044534413"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="18.919028340081"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="44.5910931174089"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="18.1336032388664"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="13.4048582995951"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="11.9919028340081"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="13.8744939271255"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="16.8663967611336"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="21.4372469635628"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="20.9676113360324"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="21.753036437247"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="19.2307692307692"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="24.2712550607287"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="24.7449392712551"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="15.1376518218623"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="15.6113360323887"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="2" width="12.9311740890688"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="12.1457489878543"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="12.6194331983806"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="58.1376518218624"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="20.9676113360324"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="7.5748987854251"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.2834008097166"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0323886639676"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.9271255060729"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="12.5344129554656"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="75.0890688259109"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="76.0526315789474"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="41.5627530364373"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.497975708502"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="136.46963562753"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="83.0161943319838"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="46.4898785425101"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="13.497975708502"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="12.5344129554656"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="13.9271255060729"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="17.4615384615385"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="25.2793522267206"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="2" width="11.5708502024291"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="60.5222672064777"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="7.60728744939271"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="1" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="10.5708502024292"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="9.1497975708502"/>
-    <col collapsed="false" hidden="false" max="1020" min="39" style="1" width="9.1417004048583"/>
-    <col collapsed="false" hidden="false" max="1025" min="1021" style="3" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="10.6032388663968"/>
+    <col collapsed="false" hidden="false" max="1020" min="38" style="1" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1025" min="1021" style="3" width="9.10526315789474"/>
   </cols>
   <sheetData>
-    <row r="1" s="8" customFormat="true" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" s="8" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1325,9 +1348,9 @@
       <c r="AMI1" s="9"/>
       <c r="AMJ1" s="9"/>
     </row>
-    <row r="2" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="10" t="n">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>38</v>
@@ -1338,24 +1361,26 @@
       <c r="D2" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="11" t="s">
+      <c r="E2" s="10" t="s">
         <v>41</v>
       </c>
+      <c r="F2" s="10" t="s">
+        <v>42</v>
+      </c>
       <c r="G2" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>40</v>
+        <v>43</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>44</v>
       </c>
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
       <c r="K2" s="10"/>
       <c r="L2" s="10"/>
       <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
       <c r="Q2" s="10"/>
       <c r="R2" s="10"/>
       <c r="S2" s="10"/>
@@ -1368,24 +1393,30 @@
       <c r="Z2" s="10"/>
       <c r="AA2" s="10"/>
       <c r="AB2" s="10"/>
-      <c r="AC2" s="10"/>
-      <c r="AD2" s="10"/>
-      <c r="AE2" s="12"/>
+      <c r="AC2" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD2" s="12"/>
+      <c r="AE2" s="10"/>
       <c r="AF2" s="10"/>
       <c r="AG2" s="10"/>
-      <c r="AH2" s="13"/>
-      <c r="AI2" s="13" t="n">
+      <c r="AH2" s="10"/>
+      <c r="AI2" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ2" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="AJ2" s="13" t="n">
+      <c r="AK2" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL2" s="10" t="n">
         <v>300</v>
       </c>
-      <c r="AK2" s="10"/>
-      <c r="AL2" s="10"/>
     </row>
-    <row r="3" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="10" t="n">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>38</v>
@@ -1396,54 +1427,76 @@
       <c r="D3" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>40</v>
+      <c r="E3" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>48</v>
       </c>
       <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
+      <c r="J3" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="K3" s="10"/>
       <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
+      <c r="M3" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="N3" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="R3" s="10" t="s">
+        <v>52</v>
+      </c>
       <c r="S3" s="10"/>
       <c r="T3" s="10"/>
       <c r="U3" s="10"/>
-      <c r="V3" s="10"/>
+      <c r="V3" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="W3" s="10"/>
       <c r="X3" s="10"/>
-      <c r="Y3" s="10"/>
+      <c r="Y3" s="10" t="s">
+        <v>54</v>
+      </c>
       <c r="Z3" s="10"/>
       <c r="AA3" s="10"/>
       <c r="AB3" s="10"/>
-      <c r="AC3" s="10"/>
-      <c r="AD3" s="10"/>
-      <c r="AE3" s="12"/>
+      <c r="AC3" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD3" s="12" t="n">
+        <v>0.03502</v>
+      </c>
+      <c r="AE3" s="10"/>
       <c r="AF3" s="10"/>
       <c r="AG3" s="10"/>
-      <c r="AH3" s="13"/>
-      <c r="AI3" s="13" t="n">
+      <c r="AH3" s="10"/>
+      <c r="AI3" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ3" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK3" s="10"/>
+      <c r="AL3" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="AJ3" s="13" t="n">
-        <v>310</v>
-      </c>
-      <c r="AK3" s="10"/>
-      <c r="AL3" s="13"/>
     </row>
-    <row r="4" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="10" t="n">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>38</v>
@@ -1454,56 +1507,76 @@
       <c r="D4" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>40</v>
+      <c r="E4" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>48</v>
       </c>
       <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
+      <c r="J4" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="K4" s="10"/>
       <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
+      <c r="M4" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="N4" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="R4" s="10" t="s">
+        <v>52</v>
+      </c>
       <c r="S4" s="10"/>
       <c r="T4" s="10"/>
       <c r="U4" s="10"/>
-      <c r="V4" s="10"/>
+      <c r="V4" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="W4" s="10"/>
       <c r="X4" s="10"/>
-      <c r="Y4" s="10"/>
+      <c r="Y4" s="10" t="s">
+        <v>54</v>
+      </c>
       <c r="Z4" s="10"/>
       <c r="AA4" s="10"/>
       <c r="AB4" s="10"/>
-      <c r="AC4" s="10"/>
-      <c r="AD4" s="10"/>
-      <c r="AE4" s="12"/>
+      <c r="AC4" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD4" s="12" t="n">
+        <v>0.0325</v>
+      </c>
+      <c r="AE4" s="10"/>
       <c r="AF4" s="10"/>
       <c r="AG4" s="10"/>
-      <c r="AH4" s="13"/>
-      <c r="AI4" s="13" t="n">
+      <c r="AH4" s="10"/>
+      <c r="AI4" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ4" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK4" s="10"/>
+      <c r="AL4" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="AJ4" s="13" t="n">
-        <v>311</v>
-      </c>
-      <c r="AK4" s="10"/>
-      <c r="AL4" s="13" t="n">
-        <v>310</v>
-      </c>
     </row>
-    <row r="5" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="10" t="n">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>38</v>
@@ -1514,58 +1587,76 @@
       <c r="D5" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="G5" s="11" t="s">
+      <c r="E5" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="H5" s="11" t="s">
-        <v>40</v>
-      </c>
       <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
+      <c r="J5" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="K5" s="10"/>
       <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
+      <c r="M5" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="N5" s="11" t="n">
+        <v>54491472</v>
+      </c>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="R5" s="10" t="s">
+        <v>52</v>
+      </c>
       <c r="S5" s="10"/>
       <c r="T5" s="10"/>
       <c r="U5" s="10"/>
-      <c r="V5" s="10"/>
+      <c r="V5" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="W5" s="10"/>
       <c r="X5" s="10"/>
-      <c r="Y5" s="10"/>
+      <c r="Y5" s="10" t="s">
+        <v>54</v>
+      </c>
       <c r="Z5" s="10"/>
       <c r="AA5" s="10"/>
       <c r="AB5" s="10"/>
-      <c r="AC5" s="10"/>
-      <c r="AD5" s="10"/>
-      <c r="AE5" s="12"/>
+      <c r="AC5" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD5" s="12" t="n">
+        <v>0.0325</v>
+      </c>
+      <c r="AE5" s="10"/>
       <c r="AF5" s="10"/>
       <c r="AG5" s="10"/>
-      <c r="AH5" s="13"/>
-      <c r="AI5" s="13" t="n">
+      <c r="AH5" s="10"/>
+      <c r="AI5" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ5" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK5" s="10"/>
+      <c r="AL5" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="AJ5" s="13" t="n">
-        <v>312</v>
-      </c>
-      <c r="AK5" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="AL5" s="13" t="n">
-        <v>310</v>
-      </c>
     </row>
-    <row r="6" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="10" t="n">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>38</v>
@@ -1576,56 +1667,76 @@
       <c r="D6" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>40</v>
+      <c r="E6" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>48</v>
       </c>
       <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
+      <c r="J6" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="K6" s="10"/>
       <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
+      <c r="M6" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="N6" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="R6" s="10" t="s">
+        <v>52</v>
+      </c>
       <c r="S6" s="10"/>
       <c r="T6" s="10"/>
       <c r="U6" s="10"/>
-      <c r="V6" s="10"/>
+      <c r="V6" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="W6" s="10"/>
       <c r="X6" s="10"/>
-      <c r="Y6" s="10"/>
+      <c r="Y6" s="10" t="s">
+        <v>54</v>
+      </c>
       <c r="Z6" s="10"/>
       <c r="AA6" s="10"/>
       <c r="AB6" s="10"/>
-      <c r="AC6" s="10"/>
-      <c r="AD6" s="10"/>
-      <c r="AE6" s="12"/>
+      <c r="AC6" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD6" s="12" t="n">
+        <v>0.0325</v>
+      </c>
+      <c r="AE6" s="10"/>
       <c r="AF6" s="10"/>
       <c r="AG6" s="10"/>
-      <c r="AH6" s="13"/>
-      <c r="AI6" s="13" t="n">
+      <c r="AH6" s="10"/>
+      <c r="AI6" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ6" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK6" s="10"/>
+      <c r="AL6" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="AJ6" s="13" t="n">
-        <v>400</v>
-      </c>
-      <c r="AK6" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="AL6" s="13"/>
     </row>
-    <row r="7" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="10" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>38</v>
@@ -1637,61 +1748,75 @@
         <v>40</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>55</v>
+        <v>66</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>67</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
+      <c r="J7" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
+      <c r="M7" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="N7" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="R7" s="10" t="s">
+        <v>52</v>
+      </c>
       <c r="S7" s="10"/>
       <c r="T7" s="10"/>
       <c r="U7" s="10"/>
-      <c r="V7" s="10"/>
+      <c r="V7" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="W7" s="10"/>
       <c r="X7" s="10"/>
-      <c r="Y7" s="10"/>
+      <c r="Y7" s="10" t="s">
+        <v>54</v>
+      </c>
       <c r="Z7" s="10"/>
       <c r="AA7" s="10"/>
       <c r="AB7" s="10"/>
       <c r="AC7" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD7" s="12"/>
+        <v>55</v>
+      </c>
+      <c r="AD7" s="12" t="n">
+        <v>0.0325</v>
+      </c>
       <c r="AE7" s="10"/>
       <c r="AF7" s="10"/>
       <c r="AG7" s="10"/>
       <c r="AH7" s="10"/>
       <c r="AI7" s="10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ7" s="10" t="n">
+        <v>6</v>
+      </c>
+      <c r="AK7" s="10"/>
+      <c r="AL7" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="AK7" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL7" s="10" t="n">
-        <v>300</v>
-      </c>
     </row>
-    <row r="8" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="10" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>38</v>
@@ -1703,61 +1828,75 @@
         <v>40</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>60</v>
+        <v>70</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>71</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
+      <c r="J8" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="K8" s="10"/>
       <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
+      <c r="M8" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="N8" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="R8" s="10" t="s">
+        <v>52</v>
+      </c>
       <c r="S8" s="10"/>
       <c r="T8" s="10"/>
       <c r="U8" s="10"/>
-      <c r="V8" s="10"/>
+      <c r="V8" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="W8" s="10"/>
       <c r="X8" s="10"/>
-      <c r="Y8" s="10"/>
+      <c r="Y8" s="10" t="s">
+        <v>54</v>
+      </c>
       <c r="Z8" s="10"/>
       <c r="AA8" s="10"/>
       <c r="AB8" s="10"/>
       <c r="AC8" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD8" s="12"/>
+        <v>55</v>
+      </c>
+      <c r="AD8" s="12" t="n">
+        <v>0.01166</v>
+      </c>
       <c r="AE8" s="10"/>
       <c r="AF8" s="10"/>
       <c r="AG8" s="10"/>
       <c r="AH8" s="10"/>
       <c r="AI8" s="10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ8" s="10" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK8" s="14" t="s">
-        <v>61</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="AK8" s="10"/>
       <c r="AL8" s="10" t="n">
-        <v>300</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="10" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>38</v>
@@ -1769,61 +1908,75 @@
         <v>40</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>63</v>
+        <v>74</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>75</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
+      <c r="J9" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="K9" s="10"/>
       <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
+      <c r="M9" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="N9" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="R9" s="10" t="s">
+        <v>52</v>
+      </c>
       <c r="S9" s="10"/>
       <c r="T9" s="10"/>
       <c r="U9" s="10"/>
-      <c r="V9" s="10"/>
+      <c r="V9" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="W9" s="10"/>
       <c r="X9" s="10"/>
-      <c r="Y9" s="10"/>
+      <c r="Y9" s="10" t="s">
+        <v>54</v>
+      </c>
       <c r="Z9" s="10"/>
       <c r="AA9" s="10"/>
       <c r="AB9" s="10"/>
       <c r="AC9" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD9" s="12"/>
+        <v>55</v>
+      </c>
+      <c r="AD9" s="12" t="n">
+        <v>0.01166</v>
+      </c>
       <c r="AE9" s="10"/>
       <c r="AF9" s="10"/>
       <c r="AG9" s="10"/>
       <c r="AH9" s="10"/>
       <c r="AI9" s="10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ9" s="10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK9" s="14" t="s">
-        <v>64</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="AK9" s="10"/>
       <c r="AL9" s="10" t="n">
-        <v>300</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="10" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>38</v>
@@ -1835,61 +1988,77 @@
         <v>40</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>66</v>
+        <v>41</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>79</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
+      <c r="J10" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
       <c r="M10" s="10"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="10"/>
-      <c r="S10" s="10"/>
+      <c r="N10" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q10" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="R10" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="S10" s="17" t="s">
+        <v>82</v>
+      </c>
       <c r="T10" s="10"/>
       <c r="U10" s="10"/>
-      <c r="V10" s="10"/>
+      <c r="V10" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="W10" s="10"/>
       <c r="X10" s="10"/>
-      <c r="Y10" s="10"/>
+      <c r="Y10" s="10" t="s">
+        <v>54</v>
+      </c>
       <c r="Z10" s="10"/>
       <c r="AA10" s="10"/>
       <c r="AB10" s="10"/>
       <c r="AC10" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD10" s="12"/>
+        <v>55</v>
+      </c>
+      <c r="AD10" s="12" t="n">
+        <v>0.01166</v>
+      </c>
       <c r="AE10" s="10"/>
       <c r="AF10" s="10"/>
       <c r="AG10" s="10"/>
       <c r="AH10" s="10"/>
       <c r="AI10" s="10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ10" s="10" t="n">
-        <v>18</v>
-      </c>
-      <c r="AK10" s="14" t="s">
-        <v>67</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="AK10" s="10"/>
       <c r="AL10" s="10" t="n">
-        <v>300</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="10" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>38</v>
@@ -1901,33 +2070,31 @@
         <v>40</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="13"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
       <c r="S11" s="10"/>
       <c r="T11" s="10"/>
       <c r="U11" s="10"/>
-      <c r="V11" s="10" t="s">
-        <v>70</v>
-      </c>
+      <c r="V11" s="10"/>
       <c r="W11" s="10"/>
       <c r="X11" s="10"/>
       <c r="Y11" s="10"/>
@@ -1935,9 +2102,9 @@
       <c r="AA11" s="10"/>
       <c r="AB11" s="10"/>
       <c r="AC11" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="AD11" s="15"/>
+        <v>44</v>
+      </c>
+      <c r="AD11" s="12"/>
       <c r="AE11" s="10"/>
       <c r="AF11" s="10"/>
       <c r="AG11" s="10"/>
@@ -1946,18 +2113,18 @@
         <v>2</v>
       </c>
       <c r="AJ11" s="10" t="n">
-        <v>26</v>
-      </c>
-      <c r="AK11" s="10" t="n">
-        <v>27</v>
+        <v>10</v>
+      </c>
+      <c r="AK11" s="13" t="s">
+        <v>86</v>
       </c>
       <c r="AL11" s="10" t="n">
         <v>300</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="10" t="n">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>38</v>
@@ -1969,77 +2136,75 @@
         <v>40</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>74</v>
+        <v>87</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>88</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="I12" s="10"/>
       <c r="J12" s="10" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
-      <c r="M12" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="N12" s="10"/>
+      <c r="M12" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="N12" s="11" t="s">
+        <v>90</v>
+      </c>
       <c r="O12" s="10"/>
-      <c r="P12" s="10" t="s">
-        <v>77</v>
-      </c>
+      <c r="P12" s="10"/>
       <c r="Q12" s="10" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="R12" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="S12" s="10" t="s">
-        <v>80</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="S12" s="10"/>
       <c r="T12" s="10"/>
       <c r="U12" s="10"/>
-      <c r="V12" s="10"/>
-      <c r="W12" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="X12" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="Y12" s="10"/>
+      <c r="V12" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="W12" s="10"/>
+      <c r="X12" s="10"/>
+      <c r="Y12" s="10" t="s">
+        <v>54</v>
+      </c>
       <c r="Z12" s="10"/>
       <c r="AA12" s="10"/>
       <c r="AB12" s="10"/>
       <c r="AC12" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="AD12" s="15" t="n">
-        <v>0.045</v>
+        <v>55</v>
+      </c>
+      <c r="AD12" s="12" t="n">
+        <v>0.034986</v>
       </c>
       <c r="AE12" s="10"/>
       <c r="AF12" s="10"/>
       <c r="AG12" s="10"/>
       <c r="AH12" s="10"/>
       <c r="AI12" s="10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ12" s="10" t="n">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="AK12" s="10"/>
       <c r="AL12" s="10" t="n">
-        <v>400</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="10" t="n">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>38</v>
@@ -2051,77 +2216,75 @@
         <v>40</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>85</v>
+        <v>91</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>92</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="I13" s="10"/>
       <c r="J13" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K13" s="10"/>
       <c r="L13" s="10"/>
       <c r="M13" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="N13" s="10"/>
+        <v>93</v>
+      </c>
+      <c r="N13" s="11" t="s">
+        <v>94</v>
+      </c>
       <c r="O13" s="10"/>
-      <c r="P13" s="10" t="s">
-        <v>77</v>
-      </c>
+      <c r="P13" s="10"/>
       <c r="Q13" s="10" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="R13" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="S13" s="10" t="s">
-        <v>86</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="S13" s="10"/>
       <c r="T13" s="10"/>
       <c r="U13" s="10"/>
-      <c r="V13" s="10"/>
-      <c r="W13" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="X13" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="Y13" s="10"/>
+      <c r="V13" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="W13" s="10"/>
+      <c r="X13" s="10"/>
+      <c r="Y13" s="10" t="s">
+        <v>54</v>
+      </c>
       <c r="Z13" s="10"/>
       <c r="AA13" s="10"/>
       <c r="AB13" s="10"/>
       <c r="AC13" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="AD13" s="15" t="n">
-        <v>0.045</v>
+        <v>55</v>
+      </c>
+      <c r="AD13" s="12" t="n">
+        <v>0.01496</v>
       </c>
       <c r="AE13" s="10"/>
       <c r="AF13" s="10"/>
       <c r="AG13" s="10"/>
       <c r="AH13" s="10"/>
       <c r="AI13" s="10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ13" s="10" t="n">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="AK13" s="10"/>
       <c r="AL13" s="10" t="n">
-        <v>400</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="10" t="n">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>38</v>
@@ -2133,28 +2296,26 @@
         <v>40</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>91</v>
+        <v>44</v>
       </c>
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
       <c r="L14" s="10"/>
       <c r="M14" s="10"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="10" t="s">
-        <v>92</v>
-      </c>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="10"/>
       <c r="R14" s="10"/>
       <c r="S14" s="10"/>
       <c r="T14" s="10"/>
@@ -2167,33 +2328,29 @@
       <c r="AA14" s="10"/>
       <c r="AB14" s="10"/>
       <c r="AC14" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="AD14" s="15" t="n">
-        <v>0.135</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="AD14" s="12"/>
       <c r="AE14" s="10"/>
       <c r="AF14" s="10"/>
-      <c r="AG14" s="10" t="s">
-        <v>94</v>
-      </c>
+      <c r="AG14" s="10"/>
       <c r="AH14" s="10"/>
       <c r="AI14" s="10" t="n">
         <v>2</v>
       </c>
       <c r="AJ14" s="10" t="n">
-        <v>30</v>
-      </c>
-      <c r="AK14" s="14" t="s">
-        <v>95</v>
+        <v>13</v>
+      </c>
+      <c r="AK14" s="13" t="s">
+        <v>97</v>
       </c>
       <c r="AL14" s="10" t="n">
-        <v>311</v>
+        <v>300</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="10" t="n">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>38</v>
@@ -2205,16 +2362,16 @@
         <v>40</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="G15" s="10" t="s">
         <v>98</v>
       </c>
+      <c r="G15" s="14" t="s">
+        <v>99</v>
+      </c>
       <c r="H15" s="10" t="s">
-        <v>99</v>
+        <v>48</v>
       </c>
       <c r="I15" s="10"/>
       <c r="J15" s="10" t="n">
@@ -2222,58 +2379,58 @@
       </c>
       <c r="K15" s="10"/>
       <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10" t="s">
+      <c r="M15" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="10"/>
+      <c r="N15" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="R15" s="10" t="s">
-        <v>101</v>
+        <v>52</v>
       </c>
       <c r="S15" s="10"/>
       <c r="T15" s="10"/>
       <c r="U15" s="10"/>
-      <c r="V15" s="10"/>
-      <c r="W15" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="X15" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="Y15" s="10"/>
+      <c r="V15" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="W15" s="10"/>
+      <c r="X15" s="10"/>
+      <c r="Y15" s="10" t="s">
+        <v>54</v>
+      </c>
       <c r="Z15" s="10"/>
       <c r="AA15" s="10"/>
       <c r="AB15" s="10"/>
       <c r="AC15" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="AD15" s="15" t="n">
-        <v>0.045</v>
+        <v>55</v>
+      </c>
+      <c r="AD15" s="12" t="n">
+        <v>0.034986</v>
       </c>
       <c r="AE15" s="10"/>
       <c r="AF15" s="10"/>
-      <c r="AG15" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="AH15" s="10" t="s">
-        <v>103</v>
-      </c>
+      <c r="AG15" s="10"/>
+      <c r="AH15" s="10"/>
       <c r="AI15" s="10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ15" s="10" t="n">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="AK15" s="10"/>
-      <c r="AL15" s="16" t="n">
-        <v>312</v>
+      <c r="AL15" s="10" t="n">
+        <v>13</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="10" t="n">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>38</v>
@@ -2285,16 +2442,16 @@
         <v>40</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="F16" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>105</v>
+        <v>83</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>103</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>106</v>
+        <v>48</v>
       </c>
       <c r="I16" s="10"/>
       <c r="J16" s="10" t="n">
@@ -2303,55 +2460,57 @@
       <c r="K16" s="10"/>
       <c r="L16" s="10"/>
       <c r="M16" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="10"/>
+        <v>102</v>
+      </c>
+      <c r="N16" s="20" t="n">
+        <v>4607042430879</v>
+      </c>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="R16" s="10" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
       <c r="S16" s="10"/>
       <c r="T16" s="10"/>
       <c r="U16" s="10"/>
-      <c r="V16" s="10"/>
-      <c r="W16" s="10" t="s">
-        <v>109</v>
-      </c>
+      <c r="V16" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="W16" s="10"/>
       <c r="X16" s="10"/>
-      <c r="Y16" s="10"/>
+      <c r="Y16" s="10" t="s">
+        <v>54</v>
+      </c>
       <c r="Z16" s="10"/>
       <c r="AA16" s="10"/>
       <c r="AB16" s="10"/>
       <c r="AC16" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="AD16" s="15" t="n">
-        <v>0.045</v>
+        <v>55</v>
+      </c>
+      <c r="AD16" s="12" t="n">
+        <v>0.023766</v>
       </c>
       <c r="AE16" s="10"/>
       <c r="AF16" s="10"/>
-      <c r="AG16" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="AH16" s="10" t="s">
-        <v>103</v>
-      </c>
+      <c r="AG16" s="10"/>
+      <c r="AH16" s="10"/>
       <c r="AI16" s="10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ16" s="10" t="n">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="AK16" s="10"/>
-      <c r="AL16" s="16" t="n">
-        <v>312</v>
+      <c r="AL16" s="10" t="n">
+        <v>13</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="10" t="n">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>38</v>
@@ -2363,73 +2522,75 @@
         <v>40</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="H17" s="18" t="s">
-        <v>113</v>
+        <v>104</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>48</v>
       </c>
       <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10" t="n">
+      <c r="J17" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="L17" s="10" t="n">
-        <v>15</v>
-      </c>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
       <c r="M17" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="N17" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="R17" s="10" t="s">
+        <v>52</v>
+      </c>
       <c r="S17" s="10"/>
       <c r="T17" s="10"/>
       <c r="U17" s="10"/>
-      <c r="V17" s="10"/>
-      <c r="W17" s="10" t="s">
-        <v>109</v>
-      </c>
+      <c r="V17" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="W17" s="10"/>
       <c r="X17" s="10"/>
-      <c r="Y17" s="10"/>
+      <c r="Y17" s="10" t="s">
+        <v>54</v>
+      </c>
       <c r="Z17" s="10"/>
       <c r="AA17" s="10"/>
       <c r="AB17" s="10"/>
       <c r="AC17" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="AD17" s="15" t="n">
-        <v>0.045</v>
+        <v>55</v>
+      </c>
+      <c r="AD17" s="12" t="n">
+        <v>0.023766</v>
       </c>
       <c r="AE17" s="10"/>
       <c r="AF17" s="10"/>
-      <c r="AG17" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="AH17" s="10" t="s">
-        <v>103</v>
-      </c>
+      <c r="AG17" s="10"/>
+      <c r="AH17" s="10"/>
       <c r="AI17" s="10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ17" s="10" t="n">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="AK17" s="10"/>
-      <c r="AL17" s="16" t="n">
-        <v>312</v>
+      <c r="AL17" s="10" t="n">
+        <v>13</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="10" t="n">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>38</v>
@@ -2441,71 +2602,75 @@
         <v>40</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>117</v>
+        <v>108</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>109</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>118</v>
+        <v>48</v>
       </c>
       <c r="I18" s="10"/>
       <c r="J18" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K18" s="10"/>
       <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
+      <c r="M18" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="N18" s="11" t="s">
+        <v>111</v>
+      </c>
       <c r="O18" s="10"/>
       <c r="P18" s="10"/>
       <c r="Q18" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="R18" s="10"/>
+        <v>51</v>
+      </c>
+      <c r="R18" s="10" t="s">
+        <v>52</v>
+      </c>
       <c r="S18" s="10"/>
       <c r="T18" s="10"/>
       <c r="U18" s="10"/>
-      <c r="V18" s="10"/>
-      <c r="W18" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="X18" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="Y18" s="10"/>
+      <c r="V18" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="W18" s="10"/>
+      <c r="X18" s="10"/>
+      <c r="Y18" s="10" t="s">
+        <v>54</v>
+      </c>
       <c r="Z18" s="10"/>
       <c r="AA18" s="10"/>
       <c r="AB18" s="10"/>
       <c r="AC18" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="AD18" s="15" t="n">
-        <v>0.05</v>
+        <v>55</v>
+      </c>
+      <c r="AD18" s="12" t="n">
+        <v>0.01496</v>
       </c>
       <c r="AE18" s="10"/>
       <c r="AF18" s="10"/>
       <c r="AG18" s="10"/>
       <c r="AH18" s="10"/>
       <c r="AI18" s="10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ18" s="10" t="n">
-        <v>36</v>
-      </c>
-      <c r="AK18" s="14" t="s">
-        <v>120</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="AK18" s="10"/>
       <c r="AL18" s="10" t="n">
-        <v>400</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="10" t="n">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>38</v>
@@ -2517,51 +2682,41 @@
         <v>40</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>118</v>
+        <v>44</v>
       </c>
       <c r="I19" s="10"/>
-      <c r="J19" s="10" t="n">
-        <v>2</v>
-      </c>
+      <c r="J19" s="10"/>
       <c r="K19" s="10"/>
       <c r="L19" s="10"/>
       <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="10" t="s">
-        <v>78</v>
-      </c>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="10"/>
       <c r="R19" s="10"/>
       <c r="S19" s="10"/>
       <c r="T19" s="10"/>
       <c r="U19" s="10"/>
       <c r="V19" s="10"/>
-      <c r="W19" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="X19" s="10" t="s">
-        <v>119</v>
-      </c>
+      <c r="W19" s="10"/>
+      <c r="X19" s="10"/>
       <c r="Y19" s="10"/>
       <c r="Z19" s="10"/>
       <c r="AA19" s="10"/>
       <c r="AB19" s="10"/>
       <c r="AC19" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="AD19" s="15" t="n">
-        <v>0.05</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="AD19" s="12"/>
       <c r="AE19" s="10"/>
       <c r="AF19" s="10"/>
       <c r="AG19" s="10"/>
@@ -2570,18 +2725,18 @@
         <v>2</v>
       </c>
       <c r="AJ19" s="10" t="n">
-        <v>39</v>
-      </c>
-      <c r="AK19" s="14" t="s">
-        <v>123</v>
+        <v>18</v>
+      </c>
+      <c r="AK19" s="13" t="s">
+        <v>114</v>
       </c>
       <c r="AL19" s="10" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="10" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>38</v>
@@ -2593,16 +2748,16 @@
         <v>40</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="G20" s="19" t="s">
-        <v>125</v>
+        <v>115</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>116</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="I20" s="10"/>
       <c r="J20" s="10" t="n">
@@ -2611,38 +2766,38 @@
       <c r="K20" s="10"/>
       <c r="L20" s="10"/>
       <c r="M20" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="N20" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="O20" s="13"/>
-      <c r="P20" s="13"/>
+        <v>117</v>
+      </c>
+      <c r="N20" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
       <c r="Q20" s="10" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="R20" s="10" t="s">
-        <v>128</v>
+        <v>52</v>
       </c>
       <c r="S20" s="10"/>
       <c r="T20" s="10"/>
       <c r="U20" s="10"/>
       <c r="V20" s="10" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="W20" s="10"/>
       <c r="X20" s="10"/>
       <c r="Y20" s="10" t="s">
-        <v>129</v>
+        <v>54</v>
       </c>
       <c r="Z20" s="10"/>
       <c r="AA20" s="10"/>
       <c r="AB20" s="10"/>
       <c r="AC20" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="AD20" s="15" t="n">
-        <v>0.03502</v>
+        <v>55</v>
+      </c>
+      <c r="AD20" s="12" t="n">
+        <v>0.034986</v>
       </c>
       <c r="AE20" s="10"/>
       <c r="AF20" s="10"/>
@@ -2652,16 +2807,16 @@
         <v>3</v>
       </c>
       <c r="AJ20" s="10" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="AK20" s="10"/>
       <c r="AL20" s="10" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="10" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>38</v>
@@ -2673,16 +2828,16 @@
         <v>40</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="G21" s="19" t="s">
-        <v>131</v>
+        <v>119</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>120</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="I21" s="10"/>
       <c r="J21" s="10" t="n">
@@ -2690,39 +2845,39 @@
       </c>
       <c r="K21" s="10"/>
       <c r="L21" s="10"/>
-      <c r="M21" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="N21" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="O21" s="13"/>
-      <c r="P21" s="13"/>
+      <c r="M21" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="N21" s="11" t="n">
+        <v>4607174577787</v>
+      </c>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
       <c r="Q21" s="10" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="R21" s="10" t="s">
-        <v>128</v>
+        <v>52</v>
       </c>
       <c r="S21" s="10"/>
       <c r="T21" s="10"/>
       <c r="U21" s="10"/>
       <c r="V21" s="10" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="W21" s="10"/>
       <c r="X21" s="10"/>
       <c r="Y21" s="10" t="s">
-        <v>129</v>
+        <v>54</v>
       </c>
       <c r="Z21" s="10"/>
       <c r="AA21" s="10"/>
       <c r="AB21" s="10"/>
       <c r="AC21" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="AD21" s="15" t="n">
-        <v>0.0325</v>
+        <v>55</v>
+      </c>
+      <c r="AD21" s="12" t="n">
+        <v>0.023766</v>
       </c>
       <c r="AE21" s="10"/>
       <c r="AF21" s="10"/>
@@ -2732,16 +2887,16 @@
         <v>3</v>
       </c>
       <c r="AJ21" s="10" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="AK21" s="10"/>
       <c r="AL21" s="10" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="10" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>38</v>
@@ -2753,16 +2908,16 @@
         <v>40</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="G22" s="19" t="s">
-        <v>135</v>
+        <v>121</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>122</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="I22" s="10"/>
       <c r="J22" s="10" t="n">
@@ -2771,38 +2926,38 @@
       <c r="K22" s="10"/>
       <c r="L22" s="10"/>
       <c r="M22" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="N22" s="13" t="n">
-        <v>54491472</v>
-      </c>
-      <c r="O22" s="13"/>
-      <c r="P22" s="13"/>
+        <v>123</v>
+      </c>
+      <c r="N22" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
       <c r="Q22" s="10" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="R22" s="10" t="s">
-        <v>128</v>
+        <v>52</v>
       </c>
       <c r="S22" s="10"/>
       <c r="T22" s="10"/>
       <c r="U22" s="10"/>
       <c r="V22" s="10" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="W22" s="10"/>
       <c r="X22" s="10"/>
       <c r="Y22" s="10" t="s">
-        <v>129</v>
+        <v>54</v>
       </c>
       <c r="Z22" s="10"/>
       <c r="AA22" s="10"/>
       <c r="AB22" s="10"/>
       <c r="AC22" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="AD22" s="15" t="n">
-        <v>0.0325</v>
+        <v>55</v>
+      </c>
+      <c r="AD22" s="12" t="n">
+        <v>0.023766</v>
       </c>
       <c r="AE22" s="10"/>
       <c r="AF22" s="10"/>
@@ -2812,16 +2967,16 @@
         <v>3</v>
       </c>
       <c r="AJ22" s="10" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="AK22" s="10"/>
       <c r="AL22" s="10" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="10" t="n">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>38</v>
@@ -2833,16 +2988,16 @@
         <v>40</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="G23" s="19" t="s">
-        <v>137</v>
+        <v>125</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>126</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="I23" s="10"/>
       <c r="J23" s="10" t="n">
@@ -2851,38 +3006,38 @@
       <c r="K23" s="10"/>
       <c r="L23" s="10"/>
       <c r="M23" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="N23" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="O23" s="13"/>
-      <c r="P23" s="13"/>
+        <v>125</v>
+      </c>
+      <c r="N23" s="11" t="n">
+        <v>4650075420980</v>
+      </c>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
       <c r="Q23" s="10" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="R23" s="10" t="s">
-        <v>128</v>
+        <v>52</v>
       </c>
       <c r="S23" s="10"/>
       <c r="T23" s="10"/>
       <c r="U23" s="10"/>
       <c r="V23" s="10" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="W23" s="10"/>
       <c r="X23" s="10"/>
       <c r="Y23" s="10" t="s">
-        <v>129</v>
+        <v>54</v>
       </c>
       <c r="Z23" s="10"/>
       <c r="AA23" s="10"/>
       <c r="AB23" s="10"/>
       <c r="AC23" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="AD23" s="15" t="n">
-        <v>0.0325</v>
+        <v>55</v>
+      </c>
+      <c r="AD23" s="12" t="n">
+        <v>0.023766</v>
       </c>
       <c r="AE23" s="10"/>
       <c r="AF23" s="10"/>
@@ -2892,16 +3047,16 @@
         <v>3</v>
       </c>
       <c r="AJ23" s="10" t="n">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="AK23" s="10"/>
       <c r="AL23" s="10" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="10" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>38</v>
@@ -2913,16 +3068,16 @@
         <v>40</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="G24" s="19" t="s">
-        <v>141</v>
+        <v>127</v>
+      </c>
+      <c r="G24" s="14" t="s">
+        <v>128</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="I24" s="10"/>
       <c r="J24" s="10" t="n">
@@ -2931,38 +3086,38 @@
       <c r="K24" s="10"/>
       <c r="L24" s="10"/>
       <c r="M24" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="N24" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="O24" s="13"/>
-      <c r="P24" s="13"/>
+        <v>129</v>
+      </c>
+      <c r="N24" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
       <c r="Q24" s="10" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="R24" s="10" t="s">
-        <v>128</v>
+        <v>52</v>
       </c>
       <c r="S24" s="10"/>
       <c r="T24" s="10"/>
       <c r="U24" s="10"/>
       <c r="V24" s="10" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="W24" s="10"/>
       <c r="X24" s="10"/>
       <c r="Y24" s="10" t="s">
-        <v>129</v>
+        <v>54</v>
       </c>
       <c r="Z24" s="10"/>
       <c r="AA24" s="10"/>
       <c r="AB24" s="10"/>
       <c r="AC24" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="AD24" s="15" t="n">
-        <v>0.0325</v>
+        <v>55</v>
+      </c>
+      <c r="AD24" s="12" t="n">
+        <v>0.023766</v>
       </c>
       <c r="AE24" s="10"/>
       <c r="AF24" s="10"/>
@@ -2972,16 +3127,16 @@
         <v>3</v>
       </c>
       <c r="AJ24" s="10" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="AK24" s="10"/>
       <c r="AL24" s="10" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="10" t="n">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>38</v>
@@ -2993,16 +3148,16 @@
         <v>40</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="G25" s="19" t="s">
-        <v>145</v>
+        <v>131</v>
+      </c>
+      <c r="G25" s="14" t="s">
+        <v>132</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="I25" s="10"/>
       <c r="J25" s="10" t="n">
@@ -3010,39 +3165,39 @@
       </c>
       <c r="K25" s="10"/>
       <c r="L25" s="10"/>
-      <c r="M25" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="N25" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="O25" s="13"/>
-      <c r="P25" s="13"/>
+      <c r="M25" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="N25" s="11" t="n">
+        <v>4607174579729</v>
+      </c>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
       <c r="Q25" s="10" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="R25" s="10" t="s">
-        <v>128</v>
+        <v>52</v>
       </c>
       <c r="S25" s="10"/>
       <c r="T25" s="10"/>
       <c r="U25" s="10"/>
       <c r="V25" s="10" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="W25" s="10"/>
       <c r="X25" s="10"/>
       <c r="Y25" s="10" t="s">
-        <v>129</v>
+        <v>54</v>
       </c>
       <c r="Z25" s="10"/>
       <c r="AA25" s="10"/>
       <c r="AB25" s="10"/>
       <c r="AC25" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="AD25" s="15" t="n">
-        <v>0.01166</v>
+        <v>55</v>
+      </c>
+      <c r="AD25" s="12" t="n">
+        <v>0.023766</v>
       </c>
       <c r="AE25" s="10"/>
       <c r="AF25" s="10"/>
@@ -3052,16 +3207,16 @@
         <v>3</v>
       </c>
       <c r="AJ25" s="10" t="n">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="AK25" s="10"/>
       <c r="AL25" s="10" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="10" t="n">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>38</v>
@@ -3073,16 +3228,16 @@
         <v>40</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="G26" s="19" t="s">
-        <v>149</v>
+        <v>133</v>
+      </c>
+      <c r="G26" s="14" t="s">
+        <v>134</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="I26" s="10"/>
       <c r="J26" s="10" t="n">
@@ -3091,38 +3246,38 @@
       <c r="K26" s="10"/>
       <c r="L26" s="10"/>
       <c r="M26" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="N26" s="13" t="s">
-        <v>151</v>
+        <v>135</v>
+      </c>
+      <c r="N26" s="11" t="s">
+        <v>136</v>
       </c>
       <c r="O26" s="10"/>
       <c r="P26" s="10"/>
       <c r="Q26" s="10" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="R26" s="10" t="s">
-        <v>128</v>
+        <v>52</v>
       </c>
       <c r="S26" s="10"/>
       <c r="T26" s="10"/>
       <c r="U26" s="10"/>
       <c r="V26" s="10" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="W26" s="10"/>
       <c r="X26" s="10"/>
       <c r="Y26" s="10" t="s">
-        <v>129</v>
+        <v>54</v>
       </c>
       <c r="Z26" s="10"/>
       <c r="AA26" s="10"/>
       <c r="AB26" s="10"/>
       <c r="AC26" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="AD26" s="15" t="n">
-        <v>0.01166</v>
+        <v>55</v>
+      </c>
+      <c r="AD26" s="12" t="n">
+        <v>0.014994</v>
       </c>
       <c r="AE26" s="10"/>
       <c r="AF26" s="10"/>
@@ -3132,16 +3287,16 @@
         <v>3</v>
       </c>
       <c r="AJ26" s="10" t="n">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="AK26" s="10"/>
       <c r="AL26" s="10" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="10" t="n">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>38</v>
@@ -3153,75 +3308,63 @@
         <v>40</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="F27" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="G27" s="22" t="s">
-        <v>153</v>
+        <v>83</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>138</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="I27" s="10"/>
-      <c r="J27" s="10" t="n">
-        <v>1</v>
-      </c>
+      <c r="J27" s="10"/>
       <c r="K27" s="10"/>
       <c r="L27" s="10"/>
       <c r="M27" s="10"/>
-      <c r="N27" s="21"/>
-      <c r="O27" s="13"/>
-      <c r="P27" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q27" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="R27" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="S27" s="17" t="s">
-        <v>80</v>
-      </c>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="11"/>
+      <c r="S27" s="10"/>
       <c r="T27" s="10"/>
       <c r="U27" s="10"/>
       <c r="V27" s="10" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="W27" s="10"/>
       <c r="X27" s="10"/>
-      <c r="Y27" s="10" t="s">
-        <v>129</v>
-      </c>
+      <c r="Y27" s="10"/>
       <c r="Z27" s="10"/>
       <c r="AA27" s="10"/>
       <c r="AB27" s="10"/>
       <c r="AC27" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="AD27" s="15" t="n">
-        <v>0.01166</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="AD27" s="12"/>
       <c r="AE27" s="10"/>
       <c r="AF27" s="10"/>
       <c r="AG27" s="10"/>
       <c r="AH27" s="10"/>
       <c r="AI27" s="10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ27" s="10" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK27" s="10"/>
+        <v>26</v>
+      </c>
+      <c r="AK27" s="10" t="n">
+        <v>27</v>
+      </c>
       <c r="AL27" s="10" t="n">
-        <v>1</v>
+        <v>300</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="10" t="n">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B28" s="10" t="s">
         <v>38</v>
@@ -3233,16 +3376,16 @@
         <v>40</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="G28" s="19" t="s">
-        <v>157</v>
+        <v>140</v>
+      </c>
+      <c r="G28" s="14" t="s">
+        <v>141</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>75</v>
+        <v>142</v>
       </c>
       <c r="I28" s="10"/>
       <c r="J28" s="10" t="n">
@@ -3250,39 +3393,41 @@
       </c>
       <c r="K28" s="10"/>
       <c r="L28" s="10"/>
-      <c r="M28" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="N28" s="13" t="s">
-        <v>159</v>
+      <c r="M28" s="10"/>
+      <c r="N28" s="19" t="s">
+        <v>143</v>
       </c>
       <c r="O28" s="10"/>
-      <c r="P28" s="10"/>
+      <c r="P28" s="11" t="s">
+        <v>143</v>
+      </c>
       <c r="Q28" s="10" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="R28" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="S28" s="10"/>
+        <v>81</v>
+      </c>
+      <c r="S28" s="10" t="s">
+        <v>144</v>
+      </c>
       <c r="T28" s="10"/>
       <c r="U28" s="10"/>
       <c r="V28" s="10" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="W28" s="10"/>
       <c r="X28" s="10"/>
       <c r="Y28" s="10" t="s">
-        <v>129</v>
+        <v>54</v>
       </c>
       <c r="Z28" s="10"/>
       <c r="AA28" s="10"/>
       <c r="AB28" s="10"/>
       <c r="AC28" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="AD28" s="15" t="n">
-        <v>0.034986</v>
+        <v>55</v>
+      </c>
+      <c r="AD28" s="12" t="n">
+        <v>0.023766</v>
       </c>
       <c r="AE28" s="10"/>
       <c r="AF28" s="10"/>
@@ -3292,16 +3437,16 @@
         <v>3</v>
       </c>
       <c r="AJ28" s="10" t="n">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="AK28" s="10"/>
       <c r="AL28" s="10" t="n">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="10" t="n">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="B29" s="10" t="s">
         <v>38</v>
@@ -3313,75 +3458,79 @@
         <v>40</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>58</v>
+        <v>145</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="G29" s="19" t="s">
-        <v>161</v>
+        <v>146</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>147</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="I29" s="10"/>
       <c r="J29" s="10" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K29" s="10"/>
       <c r="L29" s="10"/>
       <c r="M29" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="N29" s="13" t="s">
-        <v>163</v>
+        <v>148</v>
+      </c>
+      <c r="N29" s="21" t="s">
+        <v>149</v>
       </c>
       <c r="O29" s="10"/>
-      <c r="P29" s="10"/>
+      <c r="P29" s="10" t="s">
+        <v>149</v>
+      </c>
       <c r="Q29" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="R29" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="S29" s="10"/>
+        <v>51</v>
+      </c>
+      <c r="R29" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="S29" s="10" t="s">
+        <v>82</v>
+      </c>
       <c r="T29" s="10"/>
       <c r="U29" s="10"/>
-      <c r="V29" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="W29" s="10"/>
-      <c r="X29" s="10"/>
-      <c r="Y29" s="10" t="s">
-        <v>129</v>
-      </c>
+      <c r="V29" s="10"/>
+      <c r="W29" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="X29" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y29" s="10"/>
       <c r="Z29" s="10"/>
       <c r="AA29" s="10"/>
       <c r="AB29" s="10"/>
       <c r="AC29" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="AD29" s="15" t="n">
-        <v>0.01496</v>
+        <v>55</v>
+      </c>
+      <c r="AD29" s="12" t="n">
+        <v>0.045</v>
       </c>
       <c r="AE29" s="10"/>
       <c r="AF29" s="10"/>
       <c r="AG29" s="10"/>
       <c r="AH29" s="10"/>
       <c r="AI29" s="10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ29" s="10" t="n">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="AK29" s="10"/>
       <c r="AL29" s="10" t="n">
-        <v>10</v>
+        <v>400</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="10" t="n">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="B30" s="10" t="s">
         <v>38</v>
@@ -3393,75 +3542,79 @@
         <v>40</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>58</v>
+        <v>145</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="G30" s="19" t="s">
-        <v>165</v>
+        <v>152</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>153</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="I30" s="10"/>
       <c r="J30" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K30" s="10"/>
       <c r="L30" s="10"/>
       <c r="M30" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="N30" s="23" t="s">
-        <v>167</v>
+        <v>148</v>
+      </c>
+      <c r="N30" s="21" t="s">
+        <v>149</v>
       </c>
       <c r="O30" s="10"/>
-      <c r="P30" s="10"/>
+      <c r="P30" s="10" t="s">
+        <v>149</v>
+      </c>
       <c r="Q30" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="R30" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="S30" s="10"/>
+        <v>51</v>
+      </c>
+      <c r="R30" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="S30" s="10" t="s">
+        <v>154</v>
+      </c>
       <c r="T30" s="10"/>
       <c r="U30" s="10"/>
-      <c r="V30" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="W30" s="10"/>
-      <c r="X30" s="10"/>
-      <c r="Y30" s="10" t="s">
-        <v>129</v>
-      </c>
+      <c r="V30" s="10"/>
+      <c r="W30" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="X30" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y30" s="10"/>
       <c r="Z30" s="10"/>
       <c r="AA30" s="10"/>
       <c r="AB30" s="10"/>
       <c r="AC30" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="AD30" s="15" t="n">
-        <v>0.034986</v>
+        <v>55</v>
+      </c>
+      <c r="AD30" s="12" t="n">
+        <v>0.045</v>
       </c>
       <c r="AE30" s="10"/>
       <c r="AF30" s="10"/>
       <c r="AG30" s="10"/>
       <c r="AH30" s="10"/>
       <c r="AI30" s="10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ30" s="10" t="n">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="AK30" s="10"/>
       <c r="AL30" s="10" t="n">
-        <v>13</v>
+        <v>400</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="10" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="B31" s="10" t="s">
         <v>38</v>
@@ -3473,75 +3626,67 @@
         <v>40</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>58</v>
+        <v>156</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="G31" s="19" t="s">
-        <v>169</v>
+        <v>157</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>158</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>75</v>
+        <v>159</v>
       </c>
       <c r="I31" s="10"/>
-      <c r="J31" s="10" t="n">
-        <v>1</v>
-      </c>
+      <c r="J31" s="10"/>
       <c r="K31" s="10"/>
       <c r="L31" s="10"/>
-      <c r="M31" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="N31" s="23" t="n">
-        <v>4607042430879</v>
-      </c>
-      <c r="O31" s="10"/>
-      <c r="P31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
       <c r="Q31" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="R31" s="10" t="s">
-        <v>128</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="R31" s="10"/>
       <c r="S31" s="10"/>
       <c r="T31" s="10"/>
       <c r="U31" s="10"/>
-      <c r="V31" s="10" t="s">
-        <v>70</v>
-      </c>
+      <c r="V31" s="10"/>
       <c r="W31" s="10"/>
       <c r="X31" s="10"/>
-      <c r="Y31" s="10" t="s">
-        <v>129</v>
-      </c>
+      <c r="Y31" s="10"/>
       <c r="Z31" s="10"/>
       <c r="AA31" s="10"/>
       <c r="AB31" s="10"/>
       <c r="AC31" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="AD31" s="15" t="n">
-        <v>0.023766</v>
+        <v>161</v>
+      </c>
+      <c r="AD31" s="12" t="n">
+        <v>0.135</v>
       </c>
       <c r="AE31" s="10"/>
       <c r="AF31" s="10"/>
-      <c r="AG31" s="10"/>
+      <c r="AG31" s="10" t="s">
+        <v>162</v>
+      </c>
       <c r="AH31" s="10"/>
       <c r="AI31" s="10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ31" s="10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK31" s="10"/>
+        <v>30</v>
+      </c>
+      <c r="AK31" s="13" t="s">
+        <v>163</v>
+      </c>
       <c r="AL31" s="10" t="n">
-        <v>13</v>
+        <v>311</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="10" t="n">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="B32" s="10" t="s">
         <v>38</v>
@@ -3553,75 +3698,67 @@
         <v>40</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>58</v>
+        <v>156</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="G32" s="19" t="s">
-        <v>171</v>
+        <v>164</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>165</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>75</v>
+        <v>166</v>
       </c>
       <c r="I32" s="10"/>
       <c r="J32" s="10" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K32" s="10"/>
       <c r="L32" s="10"/>
       <c r="M32" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="N32" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="O32" s="10"/>
-      <c r="P32" s="10"/>
-      <c r="Q32" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="R32" s="10" t="s">
-        <v>128</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="N32" s="11"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="10"/>
+      <c r="R32" s="10"/>
       <c r="S32" s="10"/>
       <c r="T32" s="10"/>
       <c r="U32" s="10"/>
-      <c r="V32" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="W32" s="10"/>
+      <c r="V32" s="10"/>
+      <c r="W32" s="10" t="s">
+        <v>168</v>
+      </c>
       <c r="X32" s="10"/>
-      <c r="Y32" s="10" t="s">
-        <v>129</v>
-      </c>
+      <c r="Y32" s="10"/>
       <c r="Z32" s="10"/>
       <c r="AA32" s="10"/>
       <c r="AB32" s="10"/>
       <c r="AC32" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="AD32" s="15" t="n">
-        <v>0.023766</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="AD32" s="12"/>
       <c r="AE32" s="10"/>
       <c r="AF32" s="10"/>
-      <c r="AG32" s="10"/>
+      <c r="AG32" s="10" t="s">
+        <v>169</v>
+      </c>
       <c r="AH32" s="10"/>
       <c r="AI32" s="10" t="n">
         <v>3</v>
       </c>
       <c r="AJ32" s="10" t="n">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="AK32" s="10"/>
       <c r="AL32" s="10" t="n">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="10" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="B33" s="10" t="s">
         <v>38</v>
@@ -3633,57 +3770,51 @@
         <v>40</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>58</v>
+        <v>156</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="G33" s="19" t="s">
-        <v>175</v>
+        <v>170</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>171</v>
       </c>
       <c r="H33" s="10" t="s">
-        <v>75</v>
+        <v>172</v>
       </c>
       <c r="I33" s="10"/>
       <c r="J33" s="10" t="n">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="K33" s="10"/>
       <c r="L33" s="10"/>
       <c r="M33" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="N33" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="O33" s="10"/>
-      <c r="P33" s="10"/>
-      <c r="Q33" s="10" t="s">
-        <v>78</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="N33" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="O33" s="11"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="10"/>
       <c r="R33" s="10" t="s">
-        <v>128</v>
+        <v>174</v>
       </c>
       <c r="S33" s="10"/>
       <c r="T33" s="10"/>
       <c r="U33" s="10"/>
-      <c r="V33" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="W33" s="10"/>
+      <c r="V33" s="10"/>
+      <c r="W33" s="10" t="s">
+        <v>175</v>
+      </c>
       <c r="X33" s="10"/>
-      <c r="Y33" s="10" t="s">
-        <v>129</v>
-      </c>
+      <c r="Y33" s="10"/>
       <c r="Z33" s="10"/>
       <c r="AA33" s="10"/>
       <c r="AB33" s="10"/>
       <c r="AC33" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="AD33" s="15" t="n">
-        <v>0.01496</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="AD33" s="12"/>
       <c r="AE33" s="10"/>
       <c r="AF33" s="10"/>
       <c r="AG33" s="10"/>
@@ -3692,16 +3823,16 @@
         <v>3</v>
       </c>
       <c r="AJ33" s="10" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="AK33" s="10"/>
       <c r="AL33" s="10" t="n">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="10" t="n">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="B34" s="10" t="s">
         <v>38</v>
@@ -3713,16 +3844,16 @@
         <v>40</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>58</v>
+        <v>176</v>
       </c>
       <c r="F34" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="G34" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="G34" s="19" t="s">
+      <c r="H34" s="10" t="s">
         <v>179</v>
-      </c>
-      <c r="H34" s="10" t="s">
-        <v>75</v>
       </c>
       <c r="I34" s="10"/>
       <c r="J34" s="10" t="n">
@@ -3730,58 +3861,58 @@
       </c>
       <c r="K34" s="10"/>
       <c r="L34" s="10"/>
-      <c r="M34" s="10" t="s">
+      <c r="M34" s="10"/>
+      <c r="N34" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="N34" s="13" t="s">
+      <c r="O34" s="11"/>
+      <c r="P34" s="11"/>
+      <c r="Q34" s="10"/>
+      <c r="R34" s="10" t="s">
         <v>181</v>
-      </c>
-      <c r="O34" s="10"/>
-      <c r="P34" s="10"/>
-      <c r="Q34" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="R34" s="10" t="s">
-        <v>128</v>
       </c>
       <c r="S34" s="10"/>
       <c r="T34" s="10"/>
       <c r="U34" s="10"/>
-      <c r="V34" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="W34" s="10"/>
-      <c r="X34" s="10"/>
-      <c r="Y34" s="10" t="s">
-        <v>129</v>
-      </c>
+      <c r="V34" s="10"/>
+      <c r="W34" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="X34" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="Y34" s="10"/>
       <c r="Z34" s="10"/>
       <c r="AA34" s="10"/>
       <c r="AB34" s="10"/>
       <c r="AC34" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="AD34" s="15" t="n">
-        <v>0.034986</v>
+        <v>55</v>
+      </c>
+      <c r="AD34" s="12" t="n">
+        <v>0.045</v>
       </c>
       <c r="AE34" s="10"/>
       <c r="AF34" s="10"/>
-      <c r="AG34" s="10"/>
-      <c r="AH34" s="10"/>
+      <c r="AG34" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="AH34" s="10" t="s">
+        <v>164</v>
+      </c>
       <c r="AI34" s="10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ34" s="10" t="n">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="AK34" s="10"/>
-      <c r="AL34" s="10" t="n">
-        <v>18</v>
+      <c r="AL34" s="22" t="n">
+        <v>312</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="10" t="n">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B35" s="10" t="s">
         <v>38</v>
@@ -3793,16 +3924,16 @@
         <v>40</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="F35" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="G35" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="F35" s="17" t="s">
         <v>183</v>
       </c>
+      <c r="G35" s="10" t="s">
+        <v>184</v>
+      </c>
       <c r="H35" s="10" t="s">
-        <v>75</v>
+        <v>185</v>
       </c>
       <c r="I35" s="10"/>
       <c r="J35" s="10" t="n">
@@ -3811,57 +3942,57 @@
       <c r="K35" s="10"/>
       <c r="L35" s="10"/>
       <c r="M35" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="N35" s="13" t="n">
-        <v>4607174577787</v>
-      </c>
-      <c r="O35" s="10"/>
-      <c r="P35" s="10"/>
-      <c r="Q35" s="10" t="s">
-        <v>78</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="N35" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="O35" s="11"/>
+      <c r="P35" s="11"/>
+      <c r="Q35" s="10"/>
       <c r="R35" s="10" t="s">
-        <v>128</v>
+        <v>174</v>
       </c>
       <c r="S35" s="10"/>
       <c r="T35" s="10"/>
       <c r="U35" s="10"/>
-      <c r="V35" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="W35" s="10"/>
+      <c r="V35" s="10"/>
+      <c r="W35" s="10" t="s">
+        <v>168</v>
+      </c>
       <c r="X35" s="10"/>
-      <c r="Y35" s="10" t="s">
-        <v>129</v>
-      </c>
+      <c r="Y35" s="10"/>
       <c r="Z35" s="10"/>
       <c r="AA35" s="10"/>
       <c r="AB35" s="10"/>
       <c r="AC35" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="AD35" s="15" t="n">
-        <v>0.023766</v>
+        <v>161</v>
+      </c>
+      <c r="AD35" s="12" t="n">
+        <v>0.045</v>
       </c>
       <c r="AE35" s="10"/>
       <c r="AF35" s="10"/>
-      <c r="AG35" s="10"/>
-      <c r="AH35" s="10"/>
+      <c r="AG35" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="AH35" s="10" t="s">
+        <v>164</v>
+      </c>
       <c r="AI35" s="10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ35" s="10" t="n">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="AK35" s="10"/>
-      <c r="AL35" s="10" t="n">
-        <v>18</v>
+      <c r="AL35" s="22" t="n">
+        <v>312</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="10" t="n">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="B36" s="10" t="s">
         <v>38</v>
@@ -3873,75 +4004,73 @@
         <v>40</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>58</v>
+        <v>176</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="G36" s="19" t="s">
-        <v>185</v>
-      </c>
-      <c r="H36" s="10" t="s">
-        <v>75</v>
+        <v>187</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="H36" s="23" t="s">
+        <v>189</v>
       </c>
       <c r="I36" s="10"/>
-      <c r="J36" s="10" t="n">
+      <c r="J36" s="10"/>
+      <c r="K36" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="K36" s="10"/>
-      <c r="L36" s="10"/>
+      <c r="L36" s="10" t="n">
+        <v>15</v>
+      </c>
       <c r="M36" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="N36" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="O36" s="10"/>
-      <c r="P36" s="10"/>
-      <c r="Q36" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="R36" s="10" t="s">
-        <v>128</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="N36" s="11"/>
+      <c r="O36" s="11"/>
+      <c r="P36" s="11"/>
+      <c r="Q36" s="10"/>
+      <c r="R36" s="10"/>
       <c r="S36" s="10"/>
       <c r="T36" s="10"/>
       <c r="U36" s="10"/>
-      <c r="V36" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="W36" s="10"/>
+      <c r="V36" s="10"/>
+      <c r="W36" s="10" t="s">
+        <v>168</v>
+      </c>
       <c r="X36" s="10"/>
-      <c r="Y36" s="10" t="s">
-        <v>129</v>
-      </c>
+      <c r="Y36" s="10"/>
       <c r="Z36" s="10"/>
       <c r="AA36" s="10"/>
       <c r="AB36" s="10"/>
       <c r="AC36" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="AD36" s="15" t="n">
-        <v>0.023766</v>
+        <v>190</v>
+      </c>
+      <c r="AD36" s="12" t="n">
+        <v>0.045</v>
       </c>
       <c r="AE36" s="10"/>
       <c r="AF36" s="10"/>
-      <c r="AG36" s="10"/>
-      <c r="AH36" s="10"/>
+      <c r="AG36" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="AH36" s="10" t="s">
+        <v>164</v>
+      </c>
       <c r="AI36" s="10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ36" s="10" t="n">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="AK36" s="10"/>
-      <c r="AL36" s="10" t="n">
-        <v>18</v>
+      <c r="AL36" s="22" t="n">
+        <v>312</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="10" t="n">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="B37" s="10" t="s">
         <v>38</v>
@@ -3953,75 +4082,71 @@
         <v>40</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>58</v>
+        <v>191</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="G37" s="19" t="s">
-        <v>189</v>
+        <v>192</v>
+      </c>
+      <c r="G37" s="10" t="s">
+        <v>193</v>
       </c>
       <c r="H37" s="10" t="s">
-        <v>75</v>
+        <v>194</v>
       </c>
       <c r="I37" s="10"/>
       <c r="J37" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K37" s="10"/>
       <c r="L37" s="10"/>
-      <c r="M37" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="N37" s="13" t="n">
-        <v>4650075420980</v>
-      </c>
+      <c r="M37" s="10"/>
+      <c r="N37" s="10"/>
       <c r="O37" s="10"/>
       <c r="P37" s="10"/>
       <c r="Q37" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="R37" s="10" t="s">
-        <v>128</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="R37" s="10"/>
       <c r="S37" s="10"/>
       <c r="T37" s="10"/>
       <c r="U37" s="10"/>
-      <c r="V37" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="W37" s="10"/>
-      <c r="X37" s="10"/>
-      <c r="Y37" s="10" t="s">
-        <v>129</v>
-      </c>
+      <c r="V37" s="10"/>
+      <c r="W37" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="X37" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="Y37" s="10"/>
       <c r="Z37" s="10"/>
       <c r="AA37" s="10"/>
       <c r="AB37" s="10"/>
       <c r="AC37" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="AD37" s="15" t="n">
-        <v>0.023766</v>
+        <v>55</v>
+      </c>
+      <c r="AD37" s="12" t="n">
+        <v>0.05</v>
       </c>
       <c r="AE37" s="10"/>
       <c r="AF37" s="10"/>
       <c r="AG37" s="10"/>
       <c r="AH37" s="10"/>
       <c r="AI37" s="10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ37" s="10" t="n">
-        <v>22</v>
-      </c>
-      <c r="AK37" s="10"/>
+        <v>36</v>
+      </c>
+      <c r="AK37" s="13" t="s">
+        <v>196</v>
+      </c>
       <c r="AL37" s="10" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="10" t="n">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="B38" s="10" t="s">
         <v>38</v>
@@ -4033,16 +4158,16 @@
         <v>40</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>58</v>
+        <v>191</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="G38" s="19" t="s">
-        <v>191</v>
+        <v>197</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>198</v>
       </c>
       <c r="H38" s="10" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="I38" s="10"/>
       <c r="J38" s="10" t="n">
@@ -4051,39 +4176,41 @@
       <c r="K38" s="10"/>
       <c r="L38" s="10"/>
       <c r="M38" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="N38" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="O38" s="10"/>
-      <c r="P38" s="10"/>
+        <v>199</v>
+      </c>
+      <c r="N38" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="O38" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="P38" s="10" t="s">
+        <v>200</v>
+      </c>
       <c r="Q38" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="R38" s="10" t="s">
-        <v>128</v>
+        <v>51</v>
+      </c>
+      <c r="R38" s="21" t="s">
+        <v>81</v>
       </c>
       <c r="S38" s="10"/>
       <c r="T38" s="10"/>
       <c r="U38" s="10"/>
-      <c r="V38" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="W38" s="10"/>
-      <c r="X38" s="10"/>
-      <c r="Y38" s="10" t="s">
-        <v>129</v>
-      </c>
+      <c r="V38" s="10"/>
+      <c r="W38" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="X38" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="Y38" s="10"/>
       <c r="Z38" s="10"/>
       <c r="AA38" s="10"/>
       <c r="AB38" s="10"/>
       <c r="AC38" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="AD38" s="15" t="n">
-        <v>0.023766</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="AD38" s="12"/>
       <c r="AE38" s="10"/>
       <c r="AF38" s="10"/>
       <c r="AG38" s="10"/>
@@ -4092,16 +4219,16 @@
         <v>3</v>
       </c>
       <c r="AJ38" s="10" t="n">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="AK38" s="10"/>
       <c r="AL38" s="10" t="n">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="10" t="n">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="B39" s="10" t="s">
         <v>38</v>
@@ -4113,16 +4240,16 @@
         <v>40</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>58</v>
+        <v>191</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="G39" s="19" t="s">
-        <v>195</v>
+        <v>202</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>203</v>
       </c>
       <c r="H39" s="10" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="I39" s="10"/>
       <c r="J39" s="10" t="n">
@@ -4130,58 +4257,60 @@
       </c>
       <c r="K39" s="10"/>
       <c r="L39" s="10"/>
-      <c r="M39" s="17" t="s">
-        <v>194</v>
-      </c>
-      <c r="N39" s="13" t="n">
-        <v>4607174579729</v>
-      </c>
-      <c r="O39" s="10"/>
+      <c r="M39" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="N39" s="10" t="n">
+        <v>5000034</v>
+      </c>
+      <c r="O39" s="10" t="s">
+        <v>201</v>
+      </c>
       <c r="P39" s="10"/>
       <c r="Q39" s="10" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="R39" s="10" t="s">
-        <v>128</v>
+        <v>52</v>
       </c>
       <c r="S39" s="10"/>
       <c r="T39" s="10"/>
       <c r="U39" s="10"/>
-      <c r="V39" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="W39" s="10"/>
-      <c r="X39" s="10"/>
-      <c r="Y39" s="10" t="s">
-        <v>129</v>
-      </c>
+      <c r="V39" s="10"/>
+      <c r="W39" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="X39" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="Y39" s="10"/>
       <c r="Z39" s="10"/>
       <c r="AA39" s="10"/>
       <c r="AB39" s="10"/>
       <c r="AC39" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="AD39" s="15" t="n">
-        <v>0.023766</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="AD39" s="12"/>
       <c r="AE39" s="10"/>
       <c r="AF39" s="10"/>
-      <c r="AG39" s="10"/>
+      <c r="AG39" s="10" t="s">
+        <v>205</v>
+      </c>
       <c r="AH39" s="10"/>
       <c r="AI39" s="10" t="n">
         <v>3</v>
       </c>
       <c r="AJ39" s="10" t="n">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="AK39" s="10"/>
       <c r="AL39" s="10" t="n">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="10" t="n">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="B40" s="10" t="s">
         <v>38</v>
@@ -4193,75 +4322,71 @@
         <v>40</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>58</v>
+        <v>191</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="G40" s="19" t="s">
-        <v>197</v>
+        <v>206</v>
+      </c>
+      <c r="G40" s="10" t="s">
+        <v>207</v>
       </c>
       <c r="H40" s="10" t="s">
-        <v>75</v>
+        <v>194</v>
       </c>
       <c r="I40" s="10"/>
       <c r="J40" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K40" s="10"/>
       <c r="L40" s="10"/>
-      <c r="M40" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="N40" s="13" t="s">
-        <v>199</v>
-      </c>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10"/>
       <c r="O40" s="10"/>
       <c r="P40" s="10"/>
       <c r="Q40" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="R40" s="10" t="s">
-        <v>128</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="R40" s="10"/>
       <c r="S40" s="10"/>
       <c r="T40" s="10"/>
       <c r="U40" s="10"/>
-      <c r="V40" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="W40" s="10"/>
-      <c r="X40" s="10"/>
-      <c r="Y40" s="10" t="s">
-        <v>129</v>
-      </c>
+      <c r="V40" s="10"/>
+      <c r="W40" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="X40" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="Y40" s="10"/>
       <c r="Z40" s="10"/>
       <c r="AA40" s="10"/>
       <c r="AB40" s="10"/>
       <c r="AC40" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="AD40" s="15" t="n">
-        <v>0.014994</v>
+        <v>55</v>
+      </c>
+      <c r="AD40" s="12" t="n">
+        <v>0.05</v>
       </c>
       <c r="AE40" s="10"/>
       <c r="AF40" s="10"/>
       <c r="AG40" s="10"/>
       <c r="AH40" s="10"/>
       <c r="AI40" s="10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ40" s="10" t="n">
-        <v>25</v>
-      </c>
-      <c r="AK40" s="10"/>
+        <v>39</v>
+      </c>
+      <c r="AK40" s="13" t="s">
+        <v>208</v>
+      </c>
       <c r="AL40" s="10" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="10" t="n">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B41" s="10" t="s">
         <v>38</v>
@@ -4273,16 +4398,16 @@
         <v>40</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>58</v>
+        <v>191</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="G41" s="19" t="s">
-        <v>201</v>
+        <v>209</v>
+      </c>
+      <c r="G41" s="10" t="s">
+        <v>210</v>
       </c>
       <c r="H41" s="10" t="s">
-        <v>202</v>
+        <v>48</v>
       </c>
       <c r="I41" s="10"/>
       <c r="J41" s="10" t="n">
@@ -4290,40 +4415,42 @@
       </c>
       <c r="K41" s="10"/>
       <c r="L41" s="10"/>
-      <c r="M41" s="10"/>
-      <c r="N41" s="13"/>
-      <c r="O41" s="10"/>
-      <c r="P41" s="13" t="s">
-        <v>203</v>
+      <c r="M41" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="N41" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="O41" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="P41" s="10" t="s">
+        <v>213</v>
       </c>
       <c r="Q41" s="10" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="R41" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="S41" s="10" t="s">
-        <v>204</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="S41" s="10"/>
       <c r="T41" s="10"/>
       <c r="U41" s="10"/>
-      <c r="V41" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="W41" s="10"/>
-      <c r="X41" s="10"/>
-      <c r="Y41" s="10" t="s">
-        <v>129</v>
-      </c>
+      <c r="V41" s="10"/>
+      <c r="W41" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="X41" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="Y41" s="10"/>
       <c r="Z41" s="10"/>
       <c r="AA41" s="10"/>
       <c r="AB41" s="10"/>
       <c r="AC41" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="AD41" s="15" t="n">
-        <v>0.023766</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="AD41" s="12"/>
       <c r="AE41" s="10"/>
       <c r="AF41" s="10"/>
       <c r="AG41" s="10"/>
@@ -4332,16 +4459,16 @@
         <v>3</v>
       </c>
       <c r="AJ41" s="10" t="n">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="AK41" s="10"/>
       <c r="AL41" s="10" t="n">
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="10" t="n">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B42" s="10" t="s">
         <v>38</v>
@@ -4353,69 +4480,77 @@
         <v>40</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>88</v>
+        <v>191</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>103</v>
+        <v>214</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="H42" s="10" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="I42" s="10"/>
       <c r="J42" s="10" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K42" s="10"/>
       <c r="L42" s="10"/>
       <c r="M42" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="N42" s="13"/>
-      <c r="O42" s="13"/>
-      <c r="P42" s="13"/>
-      <c r="Q42" s="10"/>
-      <c r="R42" s="10"/>
+        <v>204</v>
+      </c>
+      <c r="N42" s="10" t="n">
+        <v>5000034</v>
+      </c>
+      <c r="O42" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="P42" s="10"/>
+      <c r="Q42" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="R42" s="10" t="s">
+        <v>52</v>
+      </c>
       <c r="S42" s="10"/>
       <c r="T42" s="10"/>
       <c r="U42" s="10"/>
       <c r="V42" s="10"/>
       <c r="W42" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="X42" s="10"/>
+        <v>150</v>
+      </c>
+      <c r="X42" s="10" t="s">
+        <v>195</v>
+      </c>
       <c r="Y42" s="10"/>
       <c r="Z42" s="10"/>
       <c r="AA42" s="10"/>
       <c r="AB42" s="10"/>
       <c r="AC42" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="AD42" s="15" t="n">
-        <v>0</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="AD42" s="12"/>
       <c r="AE42" s="10"/>
       <c r="AF42" s="10"/>
       <c r="AG42" s="10" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AH42" s="10"/>
       <c r="AI42" s="10" t="n">
         <v>3</v>
       </c>
       <c r="AJ42" s="10" t="n">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="AK42" s="10"/>
       <c r="AL42" s="10" t="n">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="10" t="n">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="B43" s="10" t="s">
         <v>38</v>
@@ -4424,72 +4559,62 @@
         <v>39</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E43" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="F43" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="G43" s="10" t="s">
-        <v>209</v>
+        <v>217</v>
+      </c>
+      <c r="E43" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="F43" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="G43" s="22" t="s">
+        <v>219</v>
       </c>
       <c r="H43" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="I43" s="10"/>
-      <c r="J43" s="10" t="n">
-        <v>0.01</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="I43" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="J43" s="10"/>
       <c r="K43" s="10"/>
       <c r="L43" s="10"/>
-      <c r="M43" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="N43" s="13"/>
-      <c r="O43" s="13"/>
-      <c r="P43" s="13"/>
+      <c r="M43" s="10"/>
+      <c r="N43" s="10"/>
+      <c r="O43" s="10"/>
+      <c r="P43" s="10"/>
       <c r="Q43" s="10"/>
       <c r="R43" s="10" t="s">
-        <v>108</v>
+        <v>222</v>
       </c>
       <c r="S43" s="10"/>
       <c r="T43" s="10"/>
       <c r="U43" s="10"/>
       <c r="V43" s="10"/>
-      <c r="W43" s="10" t="s">
-        <v>211</v>
-      </c>
+      <c r="W43" s="10"/>
       <c r="X43" s="10"/>
       <c r="Y43" s="10"/>
       <c r="Z43" s="10"/>
       <c r="AA43" s="10"/>
       <c r="AB43" s="10"/>
-      <c r="AC43" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="AD43" s="15" t="n">
-        <v>0</v>
-      </c>
+      <c r="AC43" s="10"/>
+      <c r="AD43" s="12"/>
       <c r="AE43" s="10"/>
       <c r="AF43" s="10"/>
       <c r="AG43" s="10"/>
       <c r="AH43" s="10"/>
-      <c r="AI43" s="10" t="n">
-        <v>3</v>
-      </c>
+      <c r="AI43" s="10"/>
       <c r="AJ43" s="10" t="n">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="AK43" s="10"/>
-      <c r="AL43" s="10" t="n">
-        <v>30</v>
+      <c r="AL43" s="13" t="s">
+        <v>223</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="10" t="n">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B44" s="10" t="s">
         <v>38</v>
@@ -4498,82 +4623,62 @@
         <v>39</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>40</v>
+        <v>217</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="F44" s="10" t="s">
-        <v>212</v>
+        <v>191</v>
+      </c>
+      <c r="F44" s="22" t="s">
+        <v>224</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="H44" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="I44" s="10"/>
-      <c r="J44" s="10" t="n">
-        <v>1</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="I44" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="J44" s="10"/>
       <c r="K44" s="10"/>
       <c r="L44" s="10"/>
-      <c r="M44" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="N44" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="O44" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="P44" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q44" s="10" t="s">
-        <v>78</v>
-      </c>
+      <c r="M44" s="10"/>
+      <c r="N44" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="O44" s="10"/>
+      <c r="P44" s="10"/>
+      <c r="Q44" s="10"/>
       <c r="R44" s="10" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="S44" s="10"/>
       <c r="T44" s="10"/>
       <c r="U44" s="10"/>
       <c r="V44" s="10"/>
-      <c r="W44" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="X44" s="10" t="s">
-        <v>119</v>
-      </c>
+      <c r="W44" s="10"/>
+      <c r="X44" s="10"/>
       <c r="Y44" s="10"/>
       <c r="Z44" s="10"/>
       <c r="AA44" s="10"/>
       <c r="AB44" s="10"/>
-      <c r="AC44" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="AD44" s="15" t="n">
-        <v>0</v>
-      </c>
+      <c r="AC44" s="10"/>
+      <c r="AD44" s="12"/>
       <c r="AE44" s="10"/>
       <c r="AF44" s="10"/>
       <c r="AG44" s="10"/>
       <c r="AH44" s="10"/>
-      <c r="AI44" s="10" t="n">
-        <v>3</v>
-      </c>
+      <c r="AI44" s="10"/>
       <c r="AJ44" s="10" t="n">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="AK44" s="10"/>
-      <c r="AL44" s="10" t="n">
-        <v>36</v>
-      </c>
+      <c r="AL44" s="10"/>
     </row>
-    <row r="45" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="10" t="n">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B45" s="10" t="s">
         <v>38</v>
@@ -4582,82 +4687,62 @@
         <v>39</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>40</v>
+        <v>217</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="F45" s="10" t="s">
-        <v>218</v>
+        <v>191</v>
+      </c>
+      <c r="F45" s="22" t="s">
+        <v>224</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="H45" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="I45" s="10"/>
-      <c r="J45" s="10" t="n">
-        <v>1</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="I45" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="J45" s="10"/>
       <c r="K45" s="10"/>
       <c r="L45" s="10"/>
-      <c r="M45" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="N45" s="10" t="n">
-        <v>5000034</v>
-      </c>
-      <c r="O45" s="10" t="s">
-        <v>216</v>
-      </c>
+      <c r="M45" s="10"/>
+      <c r="N45" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="O45" s="10"/>
       <c r="P45" s="10"/>
-      <c r="Q45" s="10" t="s">
-        <v>78</v>
-      </c>
+      <c r="Q45" s="10"/>
       <c r="R45" s="10" t="s">
-        <v>128</v>
+        <v>222</v>
       </c>
       <c r="S45" s="10"/>
       <c r="T45" s="10"/>
       <c r="U45" s="10"/>
       <c r="V45" s="10"/>
-      <c r="W45" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="X45" s="10" t="s">
-        <v>119</v>
-      </c>
+      <c r="W45" s="10"/>
+      <c r="X45" s="10"/>
       <c r="Y45" s="10"/>
       <c r="Z45" s="10"/>
       <c r="AA45" s="10"/>
       <c r="AB45" s="10"/>
-      <c r="AC45" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="AD45" s="15" t="n">
-        <v>0</v>
-      </c>
+      <c r="AC45" s="10"/>
+      <c r="AD45" s="12"/>
       <c r="AE45" s="10"/>
       <c r="AF45" s="10"/>
-      <c r="AG45" s="10" t="s">
-        <v>221</v>
-      </c>
+      <c r="AG45" s="10"/>
       <c r="AH45" s="10"/>
-      <c r="AI45" s="10" t="n">
-        <v>3</v>
-      </c>
+      <c r="AI45" s="10"/>
       <c r="AJ45" s="10" t="n">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="AK45" s="10"/>
-      <c r="AL45" s="10" t="n">
-        <v>36</v>
-      </c>
+      <c r="AL45" s="10"/>
     </row>
-    <row r="46" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="10" t="n">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B46" s="10" t="s">
         <v>38</v>
@@ -4666,82 +4751,62 @@
         <v>39</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E46" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="F46" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="G46" s="10" t="s">
-        <v>223</v>
+        <v>217</v>
+      </c>
+      <c r="E46" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="F46" s="22" t="s">
+        <v>230</v>
+      </c>
+      <c r="G46" s="22" t="s">
+        <v>231</v>
       </c>
       <c r="H46" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="I46" s="10"/>
-      <c r="J46" s="10" t="n">
-        <v>1</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="I46" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="J46" s="10"/>
       <c r="K46" s="10"/>
       <c r="L46" s="10"/>
-      <c r="M46" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="N46" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="O46" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="P46" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q46" s="10" t="s">
-        <v>78</v>
-      </c>
+      <c r="M46" s="10"/>
+      <c r="N46" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="O46" s="10"/>
+      <c r="P46" s="10"/>
+      <c r="Q46" s="10"/>
       <c r="R46" s="10" t="s">
-        <v>128</v>
+        <v>222</v>
       </c>
       <c r="S46" s="10"/>
       <c r="T46" s="10"/>
       <c r="U46" s="10"/>
       <c r="V46" s="10"/>
-      <c r="W46" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="X46" s="10" t="s">
-        <v>119</v>
-      </c>
+      <c r="W46" s="10"/>
+      <c r="X46" s="10"/>
       <c r="Y46" s="10"/>
       <c r="Z46" s="10"/>
       <c r="AA46" s="10"/>
       <c r="AB46" s="10"/>
-      <c r="AC46" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="AD46" s="15" t="n">
-        <v>0</v>
-      </c>
+      <c r="AC46" s="10"/>
+      <c r="AD46" s="12"/>
       <c r="AE46" s="10"/>
       <c r="AF46" s="10"/>
       <c r="AG46" s="10"/>
       <c r="AH46" s="10"/>
-      <c r="AI46" s="10" t="n">
-        <v>3</v>
-      </c>
+      <c r="AI46" s="10"/>
       <c r="AJ46" s="10" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AK46" s="10"/>
-      <c r="AL46" s="10" t="n">
-        <v>39</v>
-      </c>
+      <c r="AL46" s="10"/>
     </row>
-    <row r="47" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="10" t="n">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B47" s="10" t="s">
         <v>38</v>
@@ -4750,82 +4815,62 @@
         <v>39</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E47" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="F47" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="E47" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="F47" s="22" t="s">
+        <v>230</v>
+      </c>
+      <c r="G47" s="22" t="s">
+        <v>231</v>
+      </c>
+      <c r="H47" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="I47" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="G47" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="H47" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="I47" s="10"/>
-      <c r="J47" s="10" t="n">
-        <v>1</v>
-      </c>
+      <c r="J47" s="10"/>
       <c r="K47" s="10"/>
       <c r="L47" s="10"/>
-      <c r="M47" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="N47" s="10" t="n">
-        <v>5000034</v>
-      </c>
-      <c r="O47" s="10" t="s">
-        <v>216</v>
-      </c>
+      <c r="M47" s="10"/>
+      <c r="N47" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="O47" s="10"/>
       <c r="P47" s="10"/>
-      <c r="Q47" s="10" t="s">
-        <v>78</v>
-      </c>
+      <c r="Q47" s="10"/>
       <c r="R47" s="10" t="s">
-        <v>128</v>
+        <v>222</v>
       </c>
       <c r="S47" s="10"/>
       <c r="T47" s="10"/>
       <c r="U47" s="10"/>
       <c r="V47" s="10"/>
-      <c r="W47" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="X47" s="10" t="s">
-        <v>119</v>
-      </c>
+      <c r="W47" s="10"/>
+      <c r="X47" s="10"/>
       <c r="Y47" s="10"/>
       <c r="Z47" s="10"/>
       <c r="AA47" s="10"/>
       <c r="AB47" s="10"/>
-      <c r="AC47" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="AD47" s="15" t="n">
-        <v>0</v>
-      </c>
+      <c r="AC47" s="10"/>
+      <c r="AD47" s="12"/>
       <c r="AE47" s="10"/>
       <c r="AF47" s="10"/>
-      <c r="AG47" s="10" t="s">
-        <v>221</v>
-      </c>
+      <c r="AG47" s="10"/>
       <c r="AH47" s="10"/>
-      <c r="AI47" s="10" t="n">
-        <v>3</v>
-      </c>
+      <c r="AI47" s="10"/>
       <c r="AJ47" s="10" t="n">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="AK47" s="10"/>
-      <c r="AL47" s="10" t="n">
-        <v>39</v>
-      </c>
+      <c r="AL47" s="10"/>
     </row>
-    <row r="48" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="10" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B48" s="10" t="s">
         <v>38</v>
@@ -4834,33 +4879,35 @@
         <v>39</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="E48" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="F48" s="16" t="s">
-        <v>231</v>
-      </c>
-      <c r="G48" s="16" t="s">
-        <v>232</v>
-      </c>
-      <c r="H48" s="10" t="s">
-        <v>233</v>
+        <v>217</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="F48" s="22" t="s">
+        <v>235</v>
+      </c>
+      <c r="G48" s="22" t="s">
+        <v>236</v>
+      </c>
+      <c r="H48" s="17" t="s">
+        <v>237</v>
       </c>
       <c r="I48" s="10" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="J48" s="10"/>
       <c r="K48" s="10"/>
       <c r="L48" s="10"/>
       <c r="M48" s="10"/>
-      <c r="N48" s="10"/>
+      <c r="N48" s="13" t="s">
+        <v>238</v>
+      </c>
       <c r="O48" s="10"/>
       <c r="P48" s="10"/>
       <c r="Q48" s="10"/>
       <c r="R48" s="10" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="S48" s="10"/>
       <c r="T48" s="10"/>
@@ -4873,23 +4920,21 @@
       <c r="AA48" s="10"/>
       <c r="AB48" s="10"/>
       <c r="AC48" s="10"/>
-      <c r="AD48" s="24"/>
+      <c r="AD48" s="12"/>
       <c r="AE48" s="10"/>
       <c r="AF48" s="10"/>
       <c r="AG48" s="10"/>
       <c r="AH48" s="10"/>
       <c r="AI48" s="10"/>
       <c r="AJ48" s="10" t="n">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="AK48" s="10"/>
-      <c r="AL48" s="14" t="s">
-        <v>52</v>
-      </c>
+      <c r="AL48" s="10"/>
     </row>
-    <row r="49" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="10" t="n">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B49" s="10" t="s">
         <v>38</v>
@@ -4898,36 +4943,28 @@
         <v>39</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="E49" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="F49" s="16" t="s">
-        <v>236</v>
+        <v>40</v>
+      </c>
+      <c r="E49" s="10"/>
+      <c r="F49" s="24" t="s">
+        <v>239</v>
       </c>
       <c r="G49" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="H49" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="I49" s="10" t="s">
-        <v>239</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="H49" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="I49" s="10"/>
       <c r="J49" s="10"/>
       <c r="K49" s="10"/>
       <c r="L49" s="10"/>
       <c r="M49" s="10"/>
-      <c r="N49" s="14" t="s">
-        <v>240</v>
-      </c>
+      <c r="N49" s="10"/>
       <c r="O49" s="10"/>
       <c r="P49" s="10"/>
       <c r="Q49" s="10"/>
-      <c r="R49" s="10" t="s">
-        <v>235</v>
-      </c>
+      <c r="R49" s="10"/>
       <c r="S49" s="10"/>
       <c r="T49" s="10"/>
       <c r="U49" s="10"/>
@@ -4939,21 +4976,23 @@
       <c r="AA49" s="10"/>
       <c r="AB49" s="10"/>
       <c r="AC49" s="10"/>
-      <c r="AD49" s="24"/>
-      <c r="AE49" s="10"/>
+      <c r="AD49" s="12"/>
+      <c r="AE49" s="25"/>
       <c r="AF49" s="10"/>
       <c r="AG49" s="10"/>
-      <c r="AH49" s="10"/>
-      <c r="AI49" s="10"/>
-      <c r="AJ49" s="10" t="n">
-        <v>44</v>
+      <c r="AH49" s="11"/>
+      <c r="AI49" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ49" s="11" t="n">
+        <v>300</v>
       </c>
       <c r="AK49" s="10"/>
       <c r="AL49" s="10"/>
     </row>
-    <row r="50" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="10" t="n">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B50" s="10" t="s">
         <v>38</v>
@@ -4962,36 +5001,28 @@
         <v>39</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="E50" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="F50" s="16" t="s">
-        <v>236</v>
-      </c>
-      <c r="G50" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="H50" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="I50" s="10" t="s">
-        <v>239</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="E50" s="10"/>
+      <c r="F50" s="24" t="s">
+        <v>241</v>
+      </c>
+      <c r="G50" s="24" t="s">
+        <v>242</v>
+      </c>
+      <c r="H50" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="I50" s="10"/>
       <c r="J50" s="10"/>
       <c r="K50" s="10"/>
       <c r="L50" s="10"/>
       <c r="M50" s="10"/>
-      <c r="N50" s="14" t="s">
-        <v>241</v>
-      </c>
+      <c r="N50" s="10"/>
       <c r="O50" s="10"/>
       <c r="P50" s="10"/>
       <c r="Q50" s="10"/>
-      <c r="R50" s="10" t="s">
-        <v>235</v>
-      </c>
+      <c r="R50" s="10"/>
       <c r="S50" s="10"/>
       <c r="T50" s="10"/>
       <c r="U50" s="10"/>
@@ -5003,21 +5034,23 @@
       <c r="AA50" s="10"/>
       <c r="AB50" s="10"/>
       <c r="AC50" s="10"/>
-      <c r="AD50" s="24"/>
-      <c r="AE50" s="10"/>
+      <c r="AD50" s="12"/>
+      <c r="AE50" s="25"/>
       <c r="AF50" s="10"/>
       <c r="AG50" s="10"/>
-      <c r="AH50" s="10"/>
-      <c r="AI50" s="10"/>
-      <c r="AJ50" s="10" t="n">
-        <v>45</v>
+      <c r="AH50" s="11"/>
+      <c r="AI50" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ50" s="11" t="n">
+        <v>310</v>
       </c>
       <c r="AK50" s="10"/>
-      <c r="AL50" s="10"/>
+      <c r="AL50" s="11"/>
     </row>
-    <row r="51" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="10" t="n">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B51" s="10" t="s">
         <v>38</v>
@@ -5026,36 +5059,28 @@
         <v>39</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="E51" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="F51" s="16" t="s">
-        <v>242</v>
-      </c>
-      <c r="G51" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E51" s="10"/>
+      <c r="F51" s="24" t="s">
         <v>243</v>
       </c>
-      <c r="H51" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="I51" s="10" t="s">
-        <v>239</v>
-      </c>
+      <c r="G51" s="24" t="s">
+        <v>244</v>
+      </c>
+      <c r="H51" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="I51" s="10"/>
       <c r="J51" s="10"/>
       <c r="K51" s="10"/>
       <c r="L51" s="10"/>
       <c r="M51" s="10"/>
-      <c r="N51" s="14" t="s">
-        <v>244</v>
-      </c>
+      <c r="N51" s="10"/>
       <c r="O51" s="10"/>
       <c r="P51" s="10"/>
       <c r="Q51" s="10"/>
-      <c r="R51" s="10" t="s">
-        <v>235</v>
-      </c>
+      <c r="R51" s="10"/>
       <c r="S51" s="10"/>
       <c r="T51" s="10"/>
       <c r="U51" s="10"/>
@@ -5067,21 +5092,25 @@
       <c r="AA51" s="10"/>
       <c r="AB51" s="10"/>
       <c r="AC51" s="10"/>
-      <c r="AD51" s="24"/>
-      <c r="AE51" s="10"/>
+      <c r="AD51" s="12"/>
+      <c r="AE51" s="25"/>
       <c r="AF51" s="10"/>
       <c r="AG51" s="10"/>
-      <c r="AH51" s="10"/>
-      <c r="AI51" s="10"/>
-      <c r="AJ51" s="10" t="n">
-        <v>46</v>
+      <c r="AH51" s="11"/>
+      <c r="AI51" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ51" s="11" t="n">
+        <v>311</v>
       </c>
       <c r="AK51" s="10"/>
-      <c r="AL51" s="10"/>
+      <c r="AL51" s="11" t="n">
+        <v>310</v>
+      </c>
     </row>
-    <row r="52" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="10" t="n">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B52" s="10" t="s">
         <v>38</v>
@@ -5090,36 +5119,28 @@
         <v>39</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="E52" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="F52" s="16" t="s">
-        <v>242</v>
-      </c>
-      <c r="G52" s="16" t="s">
-        <v>243</v>
-      </c>
-      <c r="H52" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="I52" s="10" t="s">
-        <v>239</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="E52" s="10"/>
+      <c r="F52" s="24" t="s">
+        <v>245</v>
+      </c>
+      <c r="G52" s="24" t="s">
+        <v>246</v>
+      </c>
+      <c r="H52" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="I52" s="10"/>
       <c r="J52" s="10"/>
       <c r="K52" s="10"/>
       <c r="L52" s="10"/>
       <c r="M52" s="10"/>
-      <c r="N52" s="14" t="s">
-        <v>245</v>
-      </c>
+      <c r="N52" s="10"/>
       <c r="O52" s="10"/>
       <c r="P52" s="10"/>
       <c r="Q52" s="10"/>
-      <c r="R52" s="10" t="s">
-        <v>235</v>
-      </c>
+      <c r="R52" s="10"/>
       <c r="S52" s="10"/>
       <c r="T52" s="10"/>
       <c r="U52" s="10"/>
@@ -5131,21 +5152,27 @@
       <c r="AA52" s="10"/>
       <c r="AB52" s="10"/>
       <c r="AC52" s="10"/>
-      <c r="AD52" s="24"/>
-      <c r="AE52" s="10"/>
+      <c r="AD52" s="12"/>
+      <c r="AE52" s="25"/>
       <c r="AF52" s="10"/>
       <c r="AG52" s="10"/>
-      <c r="AH52" s="10"/>
-      <c r="AI52" s="10"/>
-      <c r="AJ52" s="10" t="n">
-        <v>47</v>
-      </c>
-      <c r="AK52" s="10"/>
-      <c r="AL52" s="10"/>
+      <c r="AH52" s="11"/>
+      <c r="AI52" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ52" s="11" t="n">
+        <v>312</v>
+      </c>
+      <c r="AK52" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="AL52" s="11" t="n">
+        <v>310</v>
+      </c>
     </row>
-    <row r="53" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="10" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B53" s="10" t="s">
         <v>38</v>
@@ -5154,36 +5181,28 @@
         <v>39</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="E53" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="F53" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="G53" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E53" s="10"/>
+      <c r="F53" s="24" t="s">
         <v>248</v>
       </c>
-      <c r="H53" s="17" t="s">
+      <c r="G53" s="24" t="s">
         <v>249</v>
       </c>
-      <c r="I53" s="10" t="s">
-        <v>239</v>
-      </c>
+      <c r="H53" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="I53" s="10"/>
       <c r="J53" s="10"/>
       <c r="K53" s="10"/>
       <c r="L53" s="10"/>
       <c r="M53" s="10"/>
-      <c r="N53" s="14" t="s">
-        <v>250</v>
-      </c>
+      <c r="N53" s="10"/>
       <c r="O53" s="10"/>
       <c r="P53" s="10"/>
       <c r="Q53" s="10"/>
-      <c r="R53" s="10" t="s">
-        <v>235</v>
-      </c>
+      <c r="R53" s="10"/>
       <c r="S53" s="10"/>
       <c r="T53" s="10"/>
       <c r="U53" s="10"/>
@@ -5195,17 +5214,21 @@
       <c r="AA53" s="10"/>
       <c r="AB53" s="10"/>
       <c r="AC53" s="10"/>
-      <c r="AD53" s="24"/>
-      <c r="AE53" s="10"/>
+      <c r="AD53" s="12"/>
+      <c r="AE53" s="25"/>
       <c r="AF53" s="10"/>
       <c r="AG53" s="10"/>
-      <c r="AH53" s="10"/>
-      <c r="AI53" s="10"/>
-      <c r="AJ53" s="10" t="n">
-        <v>48</v>
-      </c>
-      <c r="AK53" s="10"/>
-      <c r="AL53" s="10"/>
+      <c r="AH53" s="11"/>
+      <c r="AI53" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ53" s="11" t="n">
+        <v>400</v>
+      </c>
+      <c r="AK53" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="AL53" s="11"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:AL53"/>

--- a/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - IC Canteen - OTH.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - IC Canteen - OTH.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Canteen" sheetId="1" state="visible" r:id="rId2"/>
@@ -19,6 +19,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Canteen!$A$1:$AL$53</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Canteen!$A$1:$AL$53</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Canteen!$A$1:$AL$53</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Canteen!$A$1:$AL$53</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="251">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -636,6 +637,9 @@
   </si>
   <si>
     <t xml:space="preserve">Холодильники: Максимум 15 СКЮ на дверь</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DUMMY</t>
   </si>
   <si>
     <t xml:space="preserve">number of SKUs/Number of cooler Doors</t>
@@ -919,8 +923,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF579D1C"/>
-        <bgColor rgb="FF808000"/>
+        <fgColor rgb="FF66FFFF"/>
+        <bgColor rgb="FF33CCCC"/>
       </patternFill>
     </fill>
     <fill>
@@ -1141,7 +1145,7 @@
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FF66FFFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFC7CE"/>
@@ -1154,7 +1158,7 @@
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF579D1C"/>
+      <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
@@ -1178,49 +1182,49 @@
   <dimension ref="1:53"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D26" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="N1" activeCellId="0" sqref="N1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P27" activeCellId="0" sqref="P27"/>
+      <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A26" activeCellId="0" sqref="A26"/>
+      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.2834008097166"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="13.2834008097166"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="12.5344129554656"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="75.0890688259109"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="76.0526315789474"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="41.5627530364373"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="75.7327935222672"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="76.6963562753036"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="41.8825910931174"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="136.46963562753"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="83.0161943319838"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="46.4898785425101"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="137.647773279352"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="83.7651821862348"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="46.8097165991903"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="18.7449392712551"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="12.5344129554656"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="12.6396761133603"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="17.4615384615385"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="21.7449392712551"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="19.8178137651822"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="25.2793522267206"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="25.6032388663968"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="15.6396761133603"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="17.5668016194332"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="21.9595141700405"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="19.9230769230769"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="16.1740890688259"/>
     <col collapsed="false" hidden="false" max="30" min="30" style="2" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="12.6396761133603"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="13.1740890688259"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="60.5222672064777"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="12.748987854251"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="61.0566801619433"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="21.9595141700405"/>
     <col collapsed="false" hidden="false" max="35" min="35" style="1" width="7.60728744939271"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="1" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="1" width="10.6032388663968"/>
@@ -4015,7 +4019,9 @@
       <c r="H36" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="I36" s="10"/>
+      <c r="I36" s="23" t="s">
+        <v>190</v>
+      </c>
       <c r="J36" s="10"/>
       <c r="K36" s="10" t="n">
         <v>1</v>
@@ -4044,7 +4050,7 @@
       <c r="AA36" s="10"/>
       <c r="AB36" s="10"/>
       <c r="AC36" s="10" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AD36" s="12" t="n">
         <v>0.045</v>
@@ -4082,16 +4088,16 @@
         <v>40</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H37" s="10" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I37" s="10"/>
       <c r="J37" s="10" t="n">
@@ -4115,7 +4121,7 @@
         <v>150</v>
       </c>
       <c r="X37" s="10" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Y37" s="10"/>
       <c r="Z37" s="10"/>
@@ -4138,7 +4144,7 @@
         <v>36</v>
       </c>
       <c r="AK37" s="13" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AL37" s="10" t="n">
         <v>400</v>
@@ -4158,13 +4164,13 @@
         <v>40</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H38" s="10" t="s">
         <v>48</v>
@@ -4176,16 +4182,16 @@
       <c r="K38" s="10"/>
       <c r="L38" s="10"/>
       <c r="M38" s="10" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="N38" s="10" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O38" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="P38" s="10" t="s">
         <v>201</v>
-      </c>
-      <c r="P38" s="10" t="s">
-        <v>200</v>
       </c>
       <c r="Q38" s="10" t="s">
         <v>51</v>
@@ -4201,7 +4207,7 @@
         <v>150</v>
       </c>
       <c r="X38" s="10" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Y38" s="10"/>
       <c r="Z38" s="10"/>
@@ -4240,13 +4246,13 @@
         <v>40</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H39" s="10" t="s">
         <v>48</v>
@@ -4258,13 +4264,13 @@
       <c r="K39" s="10"/>
       <c r="L39" s="10"/>
       <c r="M39" s="10" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="N39" s="10" t="n">
         <v>5000034</v>
       </c>
       <c r="O39" s="10" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P39" s="10"/>
       <c r="Q39" s="10" t="s">
@@ -4281,7 +4287,7 @@
         <v>150</v>
       </c>
       <c r="X39" s="10" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Y39" s="10"/>
       <c r="Z39" s="10"/>
@@ -4294,7 +4300,7 @@
       <c r="AE39" s="10"/>
       <c r="AF39" s="10"/>
       <c r="AG39" s="10" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AH39" s="10"/>
       <c r="AI39" s="10" t="n">
@@ -4322,16 +4328,16 @@
         <v>40</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H40" s="10" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I40" s="10"/>
       <c r="J40" s="10" t="n">
@@ -4355,7 +4361,7 @@
         <v>150</v>
       </c>
       <c r="X40" s="10" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Y40" s="10"/>
       <c r="Z40" s="10"/>
@@ -4378,7 +4384,7 @@
         <v>39</v>
       </c>
       <c r="AK40" s="13" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AL40" s="10" t="n">
         <v>400</v>
@@ -4398,13 +4404,13 @@
         <v>40</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H41" s="10" t="s">
         <v>48</v>
@@ -4416,16 +4422,16 @@
       <c r="K41" s="10"/>
       <c r="L41" s="10"/>
       <c r="M41" s="10" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="N41" s="10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="O41" s="10" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P41" s="10" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q41" s="10" t="s">
         <v>51</v>
@@ -4441,7 +4447,7 @@
         <v>150</v>
       </c>
       <c r="X41" s="10" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Y41" s="10"/>
       <c r="Z41" s="10"/>
@@ -4480,16 +4486,16 @@
         <v>40</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H42" s="10" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="I42" s="10"/>
       <c r="J42" s="10" t="n">
@@ -4498,13 +4504,13 @@
       <c r="K42" s="10"/>
       <c r="L42" s="10"/>
       <c r="M42" s="10" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="N42" s="10" t="n">
         <v>5000034</v>
       </c>
       <c r="O42" s="10" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P42" s="10"/>
       <c r="Q42" s="10" t="s">
@@ -4521,7 +4527,7 @@
         <v>150</v>
       </c>
       <c r="X42" s="10" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Y42" s="10"/>
       <c r="Z42" s="10"/>
@@ -4534,7 +4540,7 @@
       <c r="AE42" s="10"/>
       <c r="AF42" s="10"/>
       <c r="AG42" s="10" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AH42" s="10"/>
       <c r="AI42" s="10" t="n">
@@ -4559,22 +4565,22 @@
         <v>39</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E43" s="22" t="s">
         <v>176</v>
       </c>
       <c r="F43" s="22" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G43" s="22" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H43" s="10" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I43" s="10" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="J43" s="10"/>
       <c r="K43" s="10"/>
@@ -4585,7 +4591,7 @@
       <c r="P43" s="10"/>
       <c r="Q43" s="10"/>
       <c r="R43" s="10" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="S43" s="10"/>
       <c r="T43" s="10"/>
@@ -4609,7 +4615,7 @@
       </c>
       <c r="AK43" s="10"/>
       <c r="AL43" s="13" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4623,35 +4629,35 @@
         <v>39</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F44" s="22" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H44" s="10" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I44" s="10" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="J44" s="10"/>
       <c r="K44" s="10"/>
       <c r="L44" s="10"/>
       <c r="M44" s="10"/>
       <c r="N44" s="13" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O44" s="10"/>
       <c r="P44" s="10"/>
       <c r="Q44" s="10"/>
       <c r="R44" s="10" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="S44" s="10"/>
       <c r="T44" s="10"/>
@@ -4687,35 +4693,35 @@
         <v>39</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F45" s="22" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H45" s="10" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I45" s="10" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="J45" s="10"/>
       <c r="K45" s="10"/>
       <c r="L45" s="10"/>
       <c r="M45" s="10"/>
       <c r="N45" s="13" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O45" s="10"/>
       <c r="P45" s="10"/>
       <c r="Q45" s="10"/>
       <c r="R45" s="10" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="S45" s="10"/>
       <c r="T45" s="10"/>
@@ -4751,35 +4757,35 @@
         <v>39</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E46" s="22" t="s">
         <v>145</v>
       </c>
       <c r="F46" s="22" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G46" s="22" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H46" s="10" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I46" s="10" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="J46" s="10"/>
       <c r="K46" s="10"/>
       <c r="L46" s="10"/>
       <c r="M46" s="10"/>
       <c r="N46" s="13" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O46" s="10"/>
       <c r="P46" s="10"/>
       <c r="Q46" s="10"/>
       <c r="R46" s="10" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="S46" s="10"/>
       <c r="T46" s="10"/>
@@ -4815,35 +4821,35 @@
         <v>39</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E47" s="22" t="s">
         <v>145</v>
       </c>
       <c r="F47" s="22" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G47" s="22" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H47" s="10" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I47" s="10" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="J47" s="10"/>
       <c r="K47" s="10"/>
       <c r="L47" s="10"/>
       <c r="M47" s="10"/>
       <c r="N47" s="13" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O47" s="10"/>
       <c r="P47" s="10"/>
       <c r="Q47" s="10"/>
       <c r="R47" s="10" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="S47" s="10"/>
       <c r="T47" s="10"/>
@@ -4879,35 +4885,35 @@
         <v>39</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F48" s="22" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G48" s="22" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H48" s="17" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I48" s="10" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="J48" s="10"/>
       <c r="K48" s="10"/>
       <c r="L48" s="10"/>
       <c r="M48" s="10"/>
       <c r="N48" s="13" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="O48" s="10"/>
       <c r="P48" s="10"/>
       <c r="Q48" s="10"/>
       <c r="R48" s="10" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="S48" s="10"/>
       <c r="T48" s="10"/>
@@ -4947,10 +4953,10 @@
       </c>
       <c r="E49" s="10"/>
       <c r="F49" s="24" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G49" s="10" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H49" s="24" t="s">
         <v>40</v>
@@ -5005,10 +5011,10 @@
       </c>
       <c r="E50" s="10"/>
       <c r="F50" s="24" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G50" s="24" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H50" s="24" t="s">
         <v>40</v>
@@ -5063,10 +5069,10 @@
       </c>
       <c r="E51" s="10"/>
       <c r="F51" s="24" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G51" s="24" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H51" s="24" t="s">
         <v>40</v>
@@ -5123,10 +5129,10 @@
       </c>
       <c r="E52" s="10"/>
       <c r="F52" s="24" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G52" s="24" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H52" s="24" t="s">
         <v>40</v>
@@ -5164,7 +5170,7 @@
         <v>312</v>
       </c>
       <c r="AK52" s="13" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AL52" s="11" t="n">
         <v>310</v>
@@ -5185,10 +5191,10 @@
       </c>
       <c r="E53" s="10"/>
       <c r="F53" s="24" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G53" s="24" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H53" s="24" t="s">
         <v>40</v>
@@ -5226,7 +5232,7 @@
         <v>400</v>
       </c>
       <c r="AK53" s="13" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AL53" s="11"/>
     </row>

--- a/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - IC Canteen - OTH.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - IC Canteen - OTH.xlsx
@@ -12,9 +12,9 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Canteen!$A$1:$AL$53</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Canteen!$A$1:$AL$53</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Canteen!$A$1:$AL$53</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Canteen!$A$1:$AL$53</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">Canteen!$A$1:$AL$53</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">Canteen!$A$1:$AL$53</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Canteen!$A$1:$AF$53</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="251">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -354,7 +354,7 @@
     <t xml:space="preserve">Фьюз Манго-Ромашка - 0.5л</t>
   </si>
   <si>
-    <t xml:space="preserve">4607042430879, 5449000027450, 5449000193124, 5449000259455</t>
+    <t xml:space="preserve">4607042430879, 5449000027450</t>
   </si>
   <si>
     <t xml:space="preserve">Fuze Berry-Hibiscus - 0.5L/Fuze Lemon-Lemongrass - 0.5L</t>
@@ -366,7 +366,7 @@
     <t xml:space="preserve">Fuze Berry-Hibiscus - 0.5L, Fuze Lemon-Lemongrass - 0.5L</t>
   </si>
   <si>
-    <t xml:space="preserve">5449000189301, 5449000235947</t>
+    <t xml:space="preserve">5449000189301, 5449000235947, 5449000193124, 5449000259455</t>
   </si>
   <si>
     <t xml:space="preserve">Fuze Green Strawberry-Raspberry - 0.5L/Peach-Rose/Green Citrus - 0.5L</t>
@@ -623,10 +623,7 @@
     <t xml:space="preserve">Холодильники: Максимум 15 СКЮ на дверь</t>
   </si>
   <si>
-    <t xml:space="preserve">DUMMY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">number of SKUs/Number of cooler Doors</t>
+    <t xml:space="preserve">number of SKU per Door RANGE TOTAL</t>
   </si>
   <si>
     <t xml:space="preserve">BINARY </t>
@@ -898,8 +895,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF99FF"/>
-        <bgColor rgb="FFCC99FF"/>
+        <fgColor rgb="FFCCFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -917,7 +914,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFCCFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -967,7 +964,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1040,6 +1037,10 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1102,7 +1103,7 @@
       <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFCCFF00"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF800000"/>
@@ -1113,7 +1114,7 @@
       <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99FF"/>
+      <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFC7CE"/>
       <rgbColor rgb="FF3366FF"/>
@@ -1148,55 +1149,56 @@
   </sheetPr>
   <dimension ref="1:53"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="H28" activeCellId="0" sqref="H28"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.0688259109312"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="12.9595141700405"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="12.3198380566802"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="73.8056680161943"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="74.7692307692308"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="40.919028340081"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="33.1012145748988"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.1740890688259"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="134.004048582996"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="81.6234817813765"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="19.3886639676113"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="45.6315789473684"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="18.4251012145749"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="12.3198380566802"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="17.246963562753"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="22.0647773279352"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="22.3886639676113"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="24.8502024291498"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="25.3886639676113"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="15.4251012145749"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="15.8542510121457"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="13.1740890688259"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="12.4251012145749"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="12.9595141700405"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="59.4493927125506"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="7.60728744939271"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.78542510121457"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0404858299595"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="12.6194331983806"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.8825910931174"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="11.9919028340081"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="72"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="72.9392712550607"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="40.0283400809717"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="15.7692307692308"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="8.9919028340081"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="12.9311740890688"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.4048582995951"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="130.433198380567"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="79.5587044534413"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="18.919028340081"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="44.5910931174089"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="18.1336032388664"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="13.0890688259109"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="11.9919028340081"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="13.8744939271255"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="16.8663967611336"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="21.4372469635628"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="20.9676113360324"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="21.753036437247"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="19.2307692307692"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="24.2712550607287"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="15.1376518218623"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="15.6113360323887"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="12.9311740890688"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="12.1457489878543"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="12.6194331983806"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="58.1376518218624"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="20.9676113360324"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="7.5748987854251"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="1" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="1025" min="38" style="1" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="10.5708502024292"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="9.1497975708502"/>
+    <col collapsed="false" hidden="false" max="1025" min="39" style="1" width="9.1417004048583"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1316,7 +1318,7 @@
       <c r="AMI1" s="6"/>
       <c r="AMJ1" s="6"/>
     </row>
-    <row r="2" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="n">
         <v>1</v>
       </c>
@@ -1382,7 +1384,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="n">
         <v>2</v>
       </c>
@@ -1462,7 +1464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="n">
         <v>3</v>
       </c>
@@ -1542,7 +1544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="n">
         <v>4</v>
       </c>
@@ -1622,7 +1624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="n">
         <v>5</v>
       </c>
@@ -1702,7 +1704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="n">
         <v>6</v>
       </c>
@@ -1782,7 +1784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="n">
         <v>7</v>
       </c>
@@ -1862,7 +1864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="n">
         <v>8</v>
       </c>
@@ -1942,7 +1944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="n">
         <v>9</v>
       </c>
@@ -2024,7 +2026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="n">
         <v>10</v>
       </c>
@@ -2090,7 +2092,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="n">
         <v>11</v>
       </c>
@@ -2170,7 +2172,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="7" t="n">
         <v>12</v>
       </c>
@@ -2250,7 +2252,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="7" t="n">
         <v>13</v>
       </c>
@@ -2316,7 +2318,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="7" t="n">
         <v>14</v>
       </c>
@@ -2396,7 +2398,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="7" t="n">
         <v>15</v>
       </c>
@@ -2476,7 +2478,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="7" t="n">
         <v>16</v>
       </c>
@@ -2510,7 +2512,7 @@
       <c r="M17" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="N17" s="18" t="s">
+      <c r="N17" s="19" t="s">
         <v>108</v>
       </c>
       <c r="O17" s="7"/>
@@ -2556,7 +2558,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="7" t="n">
         <v>17</v>
       </c>
@@ -2636,7 +2638,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="7" t="n">
         <v>18</v>
       </c>
@@ -2702,7 +2704,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="7" t="n">
         <v>19</v>
       </c>
@@ -2782,7 +2784,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="7" t="n">
         <v>20</v>
       </c>
@@ -2862,7 +2864,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="7" t="n">
         <v>21</v>
       </c>
@@ -2942,7 +2944,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="7" t="n">
         <v>22</v>
       </c>
@@ -3022,7 +3024,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="7" t="n">
         <v>23</v>
       </c>
@@ -3102,7 +3104,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="7" t="n">
         <v>24</v>
       </c>
@@ -3182,7 +3184,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="7" t="n">
         <v>25</v>
       </c>
@@ -3262,7 +3264,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="7" t="n">
         <v>26</v>
       </c>
@@ -3330,7 +3332,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="7" t="n">
         <v>27</v>
       </c>
@@ -3412,7 +3414,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="7" t="n">
         <v>28</v>
       </c>
@@ -3446,7 +3448,7 @@
       <c r="M29" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="N29" s="19" t="s">
+      <c r="N29" s="20" t="s">
         <v>151</v>
       </c>
       <c r="O29" s="7"/>
@@ -3456,7 +3458,7 @@
       <c r="Q29" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="R29" s="19" t="s">
+      <c r="R29" s="20" t="s">
         <v>81</v>
       </c>
       <c r="S29" s="7"/>
@@ -3494,7 +3496,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="7" t="n">
         <v>29</v>
       </c>
@@ -3528,7 +3530,7 @@
       <c r="M30" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="N30" s="19" t="s">
+      <c r="N30" s="20" t="s">
         <v>151</v>
       </c>
       <c r="O30" s="7"/>
@@ -3538,7 +3540,7 @@
       <c r="Q30" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="R30" s="19" t="s">
+      <c r="R30" s="20" t="s">
         <v>81</v>
       </c>
       <c r="S30" s="7"/>
@@ -3576,7 +3578,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="7" t="n">
         <v>30</v>
       </c>
@@ -3648,7 +3650,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="7" t="n">
         <v>31</v>
       </c>
@@ -3720,7 +3722,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="7" t="n">
         <v>32</v>
       </c>
@@ -3794,7 +3796,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="7" t="n">
         <v>33</v>
       </c>
@@ -3870,11 +3872,11 @@
         <v>33</v>
       </c>
       <c r="AK34" s="7"/>
-      <c r="AL34" s="20" t="n">
+      <c r="AL34" s="21" t="n">
         <v>312</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="7" t="n">
         <v>34</v>
       </c>
@@ -3950,11 +3952,11 @@
         <v>34</v>
       </c>
       <c r="AK35" s="7"/>
-      <c r="AL35" s="20" t="n">
+      <c r="AL35" s="21" t="n">
         <v>312</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="7" t="n">
         <v>35</v>
       </c>
@@ -3976,12 +3978,10 @@
       <c r="G36" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="H36" s="21" t="s">
+      <c r="H36" s="22" t="s">
         <v>191</v>
       </c>
-      <c r="I36" s="21" t="s">
-        <v>192</v>
-      </c>
+      <c r="I36" s="7"/>
       <c r="J36" s="7"/>
       <c r="K36" s="7" t="n">
         <v>1</v>
@@ -3992,11 +3992,15 @@
       <c r="M36" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="N36" s="8"/>
+      <c r="N36" s="8" t="s">
+        <v>175</v>
+      </c>
       <c r="O36" s="8"/>
       <c r="P36" s="8"/>
       <c r="Q36" s="7"/>
-      <c r="R36" s="7"/>
+      <c r="R36" s="7" t="s">
+        <v>176</v>
+      </c>
       <c r="S36" s="7"/>
       <c r="T36" s="7"/>
       <c r="U36" s="7"/>
@@ -4010,7 +4014,7 @@
       <c r="AA36" s="7"/>
       <c r="AB36" s="7"/>
       <c r="AC36" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AD36" s="9" t="n">
         <v>0.045</v>
@@ -4030,11 +4034,11 @@
         <v>35</v>
       </c>
       <c r="AK36" s="7"/>
-      <c r="AL36" s="20" t="n">
+      <c r="AL36" s="21" t="n">
         <v>312</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="7" t="n">
         <v>36</v>
       </c>
@@ -4048,16 +4052,16 @@
         <v>40</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="G37" s="7" t="s">
+      <c r="H37" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="H37" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="I37" s="7"/>
       <c r="J37" s="7" t="n">
@@ -4081,7 +4085,7 @@
         <v>153</v>
       </c>
       <c r="X37" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="Y37" s="7"/>
       <c r="Z37" s="7"/>
@@ -4104,13 +4108,13 @@
         <v>36</v>
       </c>
       <c r="AK37" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AL37" s="7" t="n">
         <v>400</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="7" t="n">
         <v>37</v>
       </c>
@@ -4124,13 +4128,13 @@
         <v>40</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F38" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="G38" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="H38" s="7" t="s">
         <v>48</v>
@@ -4142,21 +4146,21 @@
       <c r="K38" s="7"/>
       <c r="L38" s="7"/>
       <c r="M38" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="N38" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="N38" s="7" t="s">
+      <c r="O38" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="O38" s="7" t="s">
-        <v>204</v>
-      </c>
       <c r="P38" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Q38" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="R38" s="19" t="s">
+      <c r="R38" s="20" t="s">
         <v>81</v>
       </c>
       <c r="S38" s="7"/>
@@ -4167,7 +4171,7 @@
         <v>153</v>
       </c>
       <c r="X38" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="Y38" s="7"/>
       <c r="Z38" s="7"/>
@@ -4192,7 +4196,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="7" t="n">
         <v>38</v>
       </c>
@@ -4206,13 +4210,13 @@
         <v>40</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F39" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="G39" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="H39" s="7" t="s">
         <v>48</v>
@@ -4224,13 +4228,13 @@
       <c r="K39" s="7"/>
       <c r="L39" s="7"/>
       <c r="M39" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="N39" s="7" t="n">
         <v>5000034</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="P39" s="7"/>
       <c r="Q39" s="7" t="s">
@@ -4247,7 +4251,7 @@
         <v>153</v>
       </c>
       <c r="X39" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="Y39" s="7"/>
       <c r="Z39" s="7"/>
@@ -4260,7 +4264,7 @@
       <c r="AE39" s="7"/>
       <c r="AF39" s="7"/>
       <c r="AG39" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AH39" s="7"/>
       <c r="AI39" s="7" t="n">
@@ -4274,7 +4278,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="7" t="n">
         <v>39</v>
       </c>
@@ -4288,16 +4292,16 @@
         <v>40</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F40" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G40" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="G40" s="7" t="s">
-        <v>210</v>
-      </c>
       <c r="H40" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I40" s="7"/>
       <c r="J40" s="7" t="n">
@@ -4321,7 +4325,7 @@
         <v>153</v>
       </c>
       <c r="X40" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="Y40" s="7"/>
       <c r="Z40" s="7"/>
@@ -4344,13 +4348,13 @@
         <v>39</v>
       </c>
       <c r="AK40" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AL40" s="7" t="n">
         <v>400</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="7" t="n">
         <v>40</v>
       </c>
@@ -4364,13 +4368,13 @@
         <v>40</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F41" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="G41" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="H41" s="7" t="s">
         <v>48</v>
@@ -4382,16 +4386,16 @@
       <c r="K41" s="7"/>
       <c r="L41" s="7"/>
       <c r="M41" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="N41" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="N41" s="7" t="s">
+      <c r="O41" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="P41" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="O41" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="P41" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="Q41" s="7" t="s">
         <v>51</v>
@@ -4407,7 +4411,7 @@
         <v>153</v>
       </c>
       <c r="X41" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="Y41" s="7"/>
       <c r="Z41" s="7"/>
@@ -4432,7 +4436,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="7" t="n">
         <v>41</v>
       </c>
@@ -4446,16 +4450,16 @@
         <v>40</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F42" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="G42" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="G42" s="7" t="s">
+      <c r="H42" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="H42" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="I42" s="7"/>
       <c r="J42" s="7" t="n">
@@ -4464,13 +4468,13 @@
       <c r="K42" s="7"/>
       <c r="L42" s="7"/>
       <c r="M42" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="N42" s="7" t="n">
         <v>5000034</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="P42" s="7"/>
       <c r="Q42" s="7" t="s">
@@ -4487,7 +4491,7 @@
         <v>153</v>
       </c>
       <c r="X42" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="Y42" s="7"/>
       <c r="Z42" s="7"/>
@@ -4500,7 +4504,7 @@
       <c r="AE42" s="7"/>
       <c r="AF42" s="7"/>
       <c r="AG42" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AH42" s="7"/>
       <c r="AI42" s="7" t="n">
@@ -4514,7 +4518,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="7" t="n">
         <v>45</v>
       </c>
@@ -4525,22 +4529,22 @@
         <v>39</v>
       </c>
       <c r="D43" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="E43" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="F43" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="E43" s="20" t="s">
-        <v>178</v>
-      </c>
-      <c r="F43" s="20" t="s">
+      <c r="G43" s="21" t="s">
         <v>221</v>
       </c>
-      <c r="G43" s="20" t="s">
+      <c r="H43" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="H43" s="7" t="s">
+      <c r="I43" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="I43" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="J43" s="7"/>
       <c r="K43" s="7"/>
@@ -4551,7 +4555,7 @@
       <c r="P43" s="7"/>
       <c r="Q43" s="7"/>
       <c r="R43" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="S43" s="7"/>
       <c r="T43" s="7"/>
@@ -4575,10 +4579,10 @@
       </c>
       <c r="AK43" s="7"/>
       <c r="AL43" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="7" t="n">
         <v>46</v>
       </c>
@@ -4589,35 +4593,35 @@
         <v>39</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="F44" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="F44" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="G44" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="G44" s="7" t="s">
+      <c r="H44" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="H44" s="7" t="s">
+      <c r="I44" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="I44" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="J44" s="7"/>
       <c r="K44" s="7"/>
       <c r="L44" s="7"/>
       <c r="M44" s="7"/>
       <c r="N44" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O44" s="7"/>
       <c r="P44" s="7"/>
       <c r="Q44" s="7"/>
       <c r="R44" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="S44" s="7"/>
       <c r="T44" s="7"/>
@@ -4642,7 +4646,7 @@
       <c r="AK44" s="7"/>
       <c r="AL44" s="7"/>
     </row>
-    <row r="45" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="7" t="n">
         <v>47</v>
       </c>
@@ -4653,35 +4657,35 @@
         <v>39</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="F45" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="F45" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="G45" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="G45" s="7" t="s">
+      <c r="H45" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="H45" s="7" t="s">
+      <c r="I45" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="I45" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="J45" s="7"/>
       <c r="K45" s="7"/>
       <c r="L45" s="7"/>
       <c r="M45" s="7"/>
       <c r="N45" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O45" s="7"/>
       <c r="P45" s="7"/>
       <c r="Q45" s="7"/>
       <c r="R45" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="S45" s="7"/>
       <c r="T45" s="7"/>
@@ -4706,7 +4710,7 @@
       <c r="AK45" s="7"/>
       <c r="AL45" s="7"/>
     </row>
-    <row r="46" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="7" t="n">
         <v>48</v>
       </c>
@@ -4717,35 +4721,35 @@
         <v>39</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="E46" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="E46" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="F46" s="20" t="s">
+      <c r="F46" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="G46" s="21" t="s">
         <v>233</v>
       </c>
-      <c r="G46" s="20" t="s">
-        <v>234</v>
-      </c>
       <c r="H46" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="I46" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="I46" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="J46" s="7"/>
       <c r="K46" s="7"/>
       <c r="L46" s="7"/>
       <c r="M46" s="7"/>
       <c r="N46" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O46" s="7"/>
       <c r="P46" s="7"/>
       <c r="Q46" s="7"/>
       <c r="R46" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="S46" s="7"/>
       <c r="T46" s="7"/>
@@ -4770,7 +4774,7 @@
       <c r="AK46" s="7"/>
       <c r="AL46" s="7"/>
     </row>
-    <row r="47" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="7" t="n">
         <v>49</v>
       </c>
@@ -4781,35 +4785,35 @@
         <v>39</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="E47" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="E47" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="F47" s="20" t="s">
+      <c r="F47" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="G47" s="21" t="s">
         <v>233</v>
       </c>
-      <c r="G47" s="20" t="s">
-        <v>234</v>
-      </c>
       <c r="H47" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="I47" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="I47" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="J47" s="7"/>
       <c r="K47" s="7"/>
       <c r="L47" s="7"/>
       <c r="M47" s="7"/>
       <c r="N47" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O47" s="7"/>
       <c r="P47" s="7"/>
       <c r="Q47" s="7"/>
       <c r="R47" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="S47" s="7"/>
       <c r="T47" s="7"/>
@@ -4834,7 +4838,7 @@
       <c r="AK47" s="7"/>
       <c r="AL47" s="7"/>
     </row>
-    <row r="48" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="7" t="n">
         <v>50</v>
       </c>
@@ -4845,35 +4849,35 @@
         <v>39</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E48" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F48" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="F48" s="20" t="s">
+      <c r="G48" s="21" t="s">
         <v>238</v>
       </c>
-      <c r="G48" s="20" t="s">
-        <v>239</v>
-      </c>
       <c r="H48" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="I48" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="I48" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="J48" s="7"/>
       <c r="K48" s="7"/>
       <c r="L48" s="7"/>
       <c r="M48" s="7"/>
       <c r="N48" s="10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="O48" s="7"/>
       <c r="P48" s="7"/>
       <c r="Q48" s="7"/>
       <c r="R48" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="S48" s="7"/>
       <c r="T48" s="7"/>
@@ -4898,7 +4902,7 @@
       <c r="AK48" s="7"/>
       <c r="AL48" s="7"/>
     </row>
-    <row r="49" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="7" t="n">
         <v>51</v>
       </c>
@@ -4912,13 +4916,13 @@
         <v>40</v>
       </c>
       <c r="E49" s="7"/>
-      <c r="F49" s="22" t="s">
+      <c r="F49" s="23" t="s">
+        <v>240</v>
+      </c>
+      <c r="G49" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="G49" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="H49" s="22" t="s">
+      <c r="H49" s="23" t="s">
         <v>40</v>
       </c>
       <c r="I49" s="7"/>
@@ -4943,7 +4947,7 @@
       <c r="AB49" s="7"/>
       <c r="AC49" s="7"/>
       <c r="AD49" s="9"/>
-      <c r="AE49" s="23"/>
+      <c r="AE49" s="24"/>
       <c r="AF49" s="7"/>
       <c r="AG49" s="7"/>
       <c r="AH49" s="8"/>
@@ -4956,7 +4960,7 @@
       <c r="AK49" s="7"/>
       <c r="AL49" s="7"/>
     </row>
-    <row r="50" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="7" t="n">
         <v>52</v>
       </c>
@@ -4970,13 +4974,13 @@
         <v>40</v>
       </c>
       <c r="E50" s="7"/>
-      <c r="F50" s="22" t="s">
+      <c r="F50" s="23" t="s">
+        <v>242</v>
+      </c>
+      <c r="G50" s="23" t="s">
         <v>243</v>
       </c>
-      <c r="G50" s="22" t="s">
-        <v>244</v>
-      </c>
-      <c r="H50" s="22" t="s">
+      <c r="H50" s="23" t="s">
         <v>40</v>
       </c>
       <c r="I50" s="7"/>
@@ -5001,7 +5005,7 @@
       <c r="AB50" s="7"/>
       <c r="AC50" s="7"/>
       <c r="AD50" s="9"/>
-      <c r="AE50" s="23"/>
+      <c r="AE50" s="24"/>
       <c r="AF50" s="7"/>
       <c r="AG50" s="7"/>
       <c r="AH50" s="8"/>
@@ -5014,7 +5018,7 @@
       <c r="AK50" s="7"/>
       <c r="AL50" s="8"/>
     </row>
-    <row r="51" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="7" t="n">
         <v>53</v>
       </c>
@@ -5028,13 +5032,13 @@
         <v>40</v>
       </c>
       <c r="E51" s="7"/>
-      <c r="F51" s="22" t="s">
+      <c r="F51" s="23" t="s">
+        <v>244</v>
+      </c>
+      <c r="G51" s="23" t="s">
         <v>245</v>
       </c>
-      <c r="G51" s="22" t="s">
-        <v>246</v>
-      </c>
-      <c r="H51" s="22" t="s">
+      <c r="H51" s="23" t="s">
         <v>40</v>
       </c>
       <c r="I51" s="7"/>
@@ -5059,7 +5063,7 @@
       <c r="AB51" s="7"/>
       <c r="AC51" s="7"/>
       <c r="AD51" s="9"/>
-      <c r="AE51" s="23"/>
+      <c r="AE51" s="24"/>
       <c r="AF51" s="7"/>
       <c r="AG51" s="7"/>
       <c r="AH51" s="8"/>
@@ -5074,7 +5078,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="7" t="n">
         <v>54</v>
       </c>
@@ -5088,13 +5092,13 @@
         <v>40</v>
       </c>
       <c r="E52" s="7"/>
-      <c r="F52" s="22" t="s">
+      <c r="F52" s="23" t="s">
+        <v>246</v>
+      </c>
+      <c r="G52" s="23" t="s">
         <v>247</v>
       </c>
-      <c r="G52" s="22" t="s">
-        <v>248</v>
-      </c>
-      <c r="H52" s="22" t="s">
+      <c r="H52" s="23" t="s">
         <v>40</v>
       </c>
       <c r="I52" s="7"/>
@@ -5119,7 +5123,7 @@
       <c r="AB52" s="7"/>
       <c r="AC52" s="7"/>
       <c r="AD52" s="9"/>
-      <c r="AE52" s="23"/>
+      <c r="AE52" s="24"/>
       <c r="AF52" s="7"/>
       <c r="AG52" s="7"/>
       <c r="AH52" s="8"/>
@@ -5130,13 +5134,13 @@
         <v>312</v>
       </c>
       <c r="AK52" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AL52" s="8" t="n">
         <v>310</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="7" t="n">
         <v>55</v>
       </c>
@@ -5150,13 +5154,13 @@
         <v>40</v>
       </c>
       <c r="E53" s="7"/>
-      <c r="F53" s="22" t="s">
+      <c r="F53" s="23" t="s">
+        <v>249</v>
+      </c>
+      <c r="G53" s="23" t="s">
         <v>250</v>
       </c>
-      <c r="G53" s="22" t="s">
-        <v>251</v>
-      </c>
-      <c r="H53" s="22" t="s">
+      <c r="H53" s="23" t="s">
         <v>40</v>
       </c>
       <c r="I53" s="7"/>
@@ -5181,7 +5185,7 @@
       <c r="AB53" s="7"/>
       <c r="AC53" s="7"/>
       <c r="AD53" s="9"/>
-      <c r="AE53" s="23"/>
+      <c r="AE53" s="24"/>
       <c r="AF53" s="7"/>
       <c r="AG53" s="7"/>
       <c r="AH53" s="8"/>
@@ -5192,7 +5196,7 @@
         <v>400</v>
       </c>
       <c r="AK53" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AL53" s="8"/>
     </row>

--- a/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - IC Canteen - OTH.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - IC Canteen - OTH.xlsx
@@ -11,10 +11,13 @@
     <sheet name="Canteen" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Canteen!$A$1:$AL$53</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Canteen!$A$1:$AF$53</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">Canteen!$A$1:$AL$53</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">Canteen!$A$1:$AL$53</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Canteen!$A$1:$AF$53</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Canteen!$A$1:$AL$53</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Canteen!$A$1:$AF$53</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Canteen!$A$1:$AL$53</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Canteen!$A$1:$AF$53</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -514,7 +517,7 @@
     <t xml:space="preserve">Bufet line</t>
   </si>
   <si>
-    <t xml:space="preserve">Activation cash zone </t>
+    <t xml:space="preserve">Activation cash zone</t>
   </si>
   <si>
     <t xml:space="preserve">Активация Зоны кассы</t>
@@ -890,13 +893,13 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor rgb="FFCCCCFF"/>
+        <bgColor rgb="FFDDDDDD"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCCFF00"/>
-        <bgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
     <fill>
@@ -914,7 +917,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFCCFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -1100,10 +1103,10 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FFDDDDDD"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFCCFF00"/>
+      <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF800000"/>
@@ -1150,52 +1153,51 @@
   <dimension ref="1:53"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.78542510121457"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0404858299595"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="12.6194331983806"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.8825910931174"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="11.9919028340081"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="72"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="72.9392712550607"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="40.0283400809717"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="15.7692307692308"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="8.9919028340081"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="12.9311740890688"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.4048582995951"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="130.433198380567"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="79.5587044534413"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="18.919028340081"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="44.5910931174089"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="18.1336032388664"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="13.0890688259109"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="11.9919028340081"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="13.8744939271255"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="16.8663967611336"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="21.4372469635628"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="20.9676113360324"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="21.753036437247"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="19.2307692307692"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="24.2712550607287"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="24.7449392712551"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="15.1376518218623"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="15.6113360323887"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="12.9311740890688"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="12.1457489878543"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="12.6194331983806"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="58.1376518218624"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="20.9676113360324"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="7.5748987854251"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.0688259109312"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0323886639676"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.9271255060729"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="12.3198380566802"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="73.8056680161943"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="74.7692307692308"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="40.919028340081"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.497975708502"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="134.004048582996"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="81.6234817813765"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="45.6315789473684"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="12.3198380566802"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="13.9271255060729"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="17.246963562753"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="22.0647773279352"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="24.8502024291498"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="25.3886639676113"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="12.4251012145749"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="59.4493927125506"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="7.60728744939271"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="1" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="10.5708502024292"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="9.1497975708502"/>
-    <col collapsed="false" hidden="false" max="1025" min="39" style="1" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="10.6032388663968"/>
+    <col collapsed="false" hidden="false" max="1025" min="38" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5201,7 +5203,7 @@
       <c r="AL53" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL53"/>
+  <autoFilter ref="A1:AF53"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - IC Canteen - OTH.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - IC Canteen - OTH.xlsx
@@ -5,19 +5,20 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Canteen" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Canteen!$A$1:$AF$53</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Canteen!$A$1:$AL$53</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">Canteen!$A$1:$AL$53</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">Canteen!$A$1:$AL$53</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Canteen!$A$1:$AL$53</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Canteen!$A$1:$AF$53</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Canteen!$A$1:$AL$53</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Canteen!$A$1:$AF$53</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Canteen!$A$1:$AF$53</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Canteen!$A$1:$AL$53</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Canteen!$A$1:$AF$53</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Canteen!$A$1:$AL$53</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Canteen!$A$1:$AF$53</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="254">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -152,6 +153,49 @@
   </si>
   <si>
     <t xml:space="preserve">Group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Availability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Представленность</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coolers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coolers: Doors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильник: Двери</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coolers: Quality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильник: Качество</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34
+35
+36
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Activations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Активации</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29
+30
+37
+40
+</t>
   </si>
   <si>
     <t xml:space="preserve">STANDARD 1</t>
@@ -730,13 +774,6 @@
     <t xml:space="preserve">SESSION LEVEL</t>
   </si>
   <si>
-    <t xml:space="preserve">29
-30
-37
-40
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">ACTIVATION_OTHER</t>
   </si>
   <si>
@@ -784,40 +821,13 @@
 No_AtWork</t>
   </si>
   <si>
-    <t xml:space="preserve">Availability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Представленность</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coolers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильники</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coolers: Doors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильник: Двери</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coolers: Quality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильник: Качество</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34
-35
-36
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Activations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Активации</t>
+    <t xml:space="preserve">PLAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Integer</t>
   </si>
 </sst>
 </file>
@@ -829,9 +839,9 @@
     <numFmt numFmtId="165" formatCode="0"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* \-??\ _₽_-;_-@_-"/>
     <numFmt numFmtId="167" formatCode="#,##0.0000000"/>
-    <numFmt numFmtId="168" formatCode="@"/>
-    <numFmt numFmtId="169" formatCode="0.00"/>
-    <numFmt numFmtId="170" formatCode="0.00%"/>
+    <numFmt numFmtId="168" formatCode="0.00"/>
+    <numFmt numFmtId="169" formatCode="0.00%"/>
+    <numFmt numFmtId="170" formatCode="@"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -1000,12 +1010,20 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="6" fillId="0" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1020,7 +1038,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1040,11 +1058,11 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1057,14 +1075,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1150,50 +1160,50 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:53"/>
+  <dimension ref="1:65536"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A54" activeCellId="0" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.0688259109312"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.1781376518219"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="13.0688259109312"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="12.3198380566802"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="73.8056680161943"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="74.7692307692308"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="40.919028340081"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="12.4251012145749"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="74.4493927125506"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="75.4129554655871"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="41.2388663967611"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="16.1740890688259"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.2834008097166"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="134.004048582996"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="81.6234817813765"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="19.3886639676113"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="45.6315789473684"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="135.182186234818"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="82.3724696356275"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="46.0607287449393"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="18.5303643724696"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="1" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="12.3198380566802"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="12.4251012145749"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="17.246963562753"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="22.0647773279352"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="22.3886639676113"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="24.8502024291498"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="25.3886639676113"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="15.4251012145749"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="15.8542510121457"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="13.1740890688259"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="12.4251012145749"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="12.9595141700405"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="59.4493927125506"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="17.3522267206478"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="22.2793522267206"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="25.0647773279352"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="12.5344129554656"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="59.9878542510121"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="21.5303643724696"/>
     <col collapsed="false" hidden="false" max="35" min="35" style="1" width="7.60728744939271"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="1" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="1" width="10.6032388663968"/>
@@ -1322,7 +1332,7 @@
     </row>
     <row r="2" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="n">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>38</v>
@@ -1333,26 +1343,24 @@
       <c r="D2" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="7"/>
+      <c r="F2" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="G2" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>44</v>
+      <c r="H2" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
       <c r="Q2" s="7"/>
       <c r="R2" s="7"/>
       <c r="S2" s="7"/>
@@ -1365,30 +1373,24 @@
       <c r="Z2" s="7"/>
       <c r="AA2" s="7"/>
       <c r="AB2" s="7"/>
-      <c r="AC2" s="7" t="s">
-        <v>44</v>
-      </c>
+      <c r="AC2" s="7"/>
       <c r="AD2" s="9"/>
-      <c r="AE2" s="7"/>
+      <c r="AE2" s="10"/>
       <c r="AF2" s="7"/>
       <c r="AG2" s="7"/>
-      <c r="AH2" s="7"/>
-      <c r="AI2" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="AJ2" s="7" t="n">
+      <c r="AH2" s="11"/>
+      <c r="AI2" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="AK2" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL2" s="7" t="n">
+      <c r="AJ2" s="11" t="n">
         <v>300</v>
       </c>
+      <c r="AK2" s="7"/>
+      <c r="AL2" s="7"/>
     </row>
     <row r="3" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="n">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>38</v>
@@ -1399,76 +1401,54 @@
       <c r="D3" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>48</v>
+      <c r="E3" s="7"/>
+      <c r="F3" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="I3" s="7"/>
-      <c r="J3" s="7" t="n">
-        <v>1</v>
-      </c>
+      <c r="J3" s="7"/>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
-      <c r="M3" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="R3" s="7" t="s">
-        <v>52</v>
-      </c>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
       <c r="S3" s="7"/>
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
-      <c r="V3" s="7" t="s">
-        <v>53</v>
-      </c>
+      <c r="V3" s="7"/>
       <c r="W3" s="7"/>
       <c r="X3" s="7"/>
-      <c r="Y3" s="7" t="s">
-        <v>54</v>
-      </c>
+      <c r="Y3" s="7"/>
       <c r="Z3" s="7"/>
       <c r="AA3" s="7"/>
       <c r="AB3" s="7"/>
-      <c r="AC3" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD3" s="9" t="n">
-        <v>0.03502</v>
-      </c>
-      <c r="AE3" s="7"/>
+      <c r="AC3" s="7"/>
+      <c r="AD3" s="9"/>
+      <c r="AE3" s="10"/>
       <c r="AF3" s="7"/>
       <c r="AG3" s="7"/>
-      <c r="AH3" s="7"/>
-      <c r="AI3" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="AJ3" s="7" t="n">
-        <v>2</v>
+      <c r="AH3" s="11"/>
+      <c r="AI3" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ3" s="11" t="n">
+        <v>310</v>
       </c>
       <c r="AK3" s="7"/>
-      <c r="AL3" s="7" t="n">
-        <v>1</v>
-      </c>
+      <c r="AL3" s="11"/>
     </row>
     <row r="4" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="n">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>38</v>
@@ -1479,76 +1459,56 @@
       <c r="D4" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>48</v>
+      <c r="E4" s="7"/>
+      <c r="F4" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="I4" s="7"/>
-      <c r="J4" s="7" t="n">
-        <v>1</v>
-      </c>
+      <c r="J4" s="7"/>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
-      <c r="M4" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="N4" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="R4" s="7" t="s">
-        <v>52</v>
-      </c>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
       <c r="S4" s="7"/>
       <c r="T4" s="7"/>
       <c r="U4" s="7"/>
-      <c r="V4" s="7" t="s">
-        <v>53</v>
-      </c>
+      <c r="V4" s="7"/>
       <c r="W4" s="7"/>
       <c r="X4" s="7"/>
-      <c r="Y4" s="7" t="s">
-        <v>54</v>
-      </c>
+      <c r="Y4" s="7"/>
       <c r="Z4" s="7"/>
       <c r="AA4" s="7"/>
       <c r="AB4" s="7"/>
-      <c r="AC4" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD4" s="9" t="n">
-        <v>0.0325</v>
-      </c>
-      <c r="AE4" s="7"/>
+      <c r="AC4" s="7"/>
+      <c r="AD4" s="9"/>
+      <c r="AE4" s="10"/>
       <c r="AF4" s="7"/>
       <c r="AG4" s="7"/>
-      <c r="AH4" s="7"/>
-      <c r="AI4" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="AJ4" s="7" t="n">
-        <v>3</v>
+      <c r="AH4" s="11"/>
+      <c r="AI4" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ4" s="11" t="n">
+        <v>311</v>
       </c>
       <c r="AK4" s="7"/>
-      <c r="AL4" s="7" t="n">
-        <v>1</v>
+      <c r="AL4" s="11" t="n">
+        <v>310</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="n">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>38</v>
@@ -1559,76 +1519,58 @@
       <c r="D5" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="H5" s="7" t="s">
+      <c r="E5" s="7"/>
+      <c r="F5" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="8" t="s">
         <v>48</v>
       </c>
+      <c r="H5" s="8" t="s">
+        <v>40</v>
+      </c>
       <c r="I5" s="7"/>
-      <c r="J5" s="7" t="n">
-        <v>1</v>
-      </c>
+      <c r="J5" s="7"/>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
-      <c r="M5" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="N5" s="8" t="n">
-        <v>54491472</v>
-      </c>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="R5" s="7" t="s">
-        <v>52</v>
-      </c>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
       <c r="S5" s="7"/>
       <c r="T5" s="7"/>
       <c r="U5" s="7"/>
-      <c r="V5" s="7" t="s">
-        <v>53</v>
-      </c>
+      <c r="V5" s="7"/>
       <c r="W5" s="7"/>
       <c r="X5" s="7"/>
-      <c r="Y5" s="7" t="s">
-        <v>54</v>
-      </c>
+      <c r="Y5" s="7"/>
       <c r="Z5" s="7"/>
       <c r="AA5" s="7"/>
       <c r="AB5" s="7"/>
-      <c r="AC5" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD5" s="9" t="n">
-        <v>0.0325</v>
-      </c>
-      <c r="AE5" s="7"/>
+      <c r="AC5" s="7"/>
+      <c r="AD5" s="9"/>
+      <c r="AE5" s="10"/>
       <c r="AF5" s="7"/>
       <c r="AG5" s="7"/>
-      <c r="AH5" s="7"/>
-      <c r="AI5" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="AJ5" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="AK5" s="7"/>
-      <c r="AL5" s="7" t="n">
+      <c r="AH5" s="11"/>
+      <c r="AI5" s="11" t="n">
         <v>1</v>
+      </c>
+      <c r="AJ5" s="11" t="n">
+        <v>312</v>
+      </c>
+      <c r="AK5" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL5" s="11" t="n">
+        <v>310</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="n">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>38</v>
@@ -1639,76 +1581,56 @@
       <c r="D6" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>48</v>
+      <c r="E6" s="7"/>
+      <c r="F6" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="I6" s="7"/>
-      <c r="J6" s="7" t="n">
-        <v>1</v>
-      </c>
+      <c r="J6" s="7"/>
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
-      <c r="M6" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="N6" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="R6" s="7" t="s">
-        <v>52</v>
-      </c>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
       <c r="S6" s="7"/>
       <c r="T6" s="7"/>
       <c r="U6" s="7"/>
-      <c r="V6" s="7" t="s">
-        <v>53</v>
-      </c>
+      <c r="V6" s="7"/>
       <c r="W6" s="7"/>
       <c r="X6" s="7"/>
-      <c r="Y6" s="7" t="s">
-        <v>54</v>
-      </c>
+      <c r="Y6" s="7"/>
       <c r="Z6" s="7"/>
       <c r="AA6" s="7"/>
       <c r="AB6" s="7"/>
-      <c r="AC6" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD6" s="9" t="n">
-        <v>0.0325</v>
-      </c>
-      <c r="AE6" s="7"/>
+      <c r="AC6" s="7"/>
+      <c r="AD6" s="9"/>
+      <c r="AE6" s="10"/>
       <c r="AF6" s="7"/>
       <c r="AG6" s="7"/>
-      <c r="AH6" s="7"/>
-      <c r="AI6" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="AJ6" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK6" s="7"/>
-      <c r="AL6" s="7" t="n">
+      <c r="AH6" s="11"/>
+      <c r="AI6" s="11" t="n">
         <v>1</v>
       </c>
+      <c r="AJ6" s="11" t="n">
+        <v>400</v>
+      </c>
+      <c r="AK6" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL6" s="11"/>
     </row>
     <row r="7" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>38</v>
@@ -1720,75 +1642,61 @@
         <v>40</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>67</v>
+        <v>54</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="I7" s="7"/>
-      <c r="J7" s="7" t="n">
-        <v>1</v>
-      </c>
+      <c r="J7" s="7"/>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
-      <c r="M7" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="N7" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="R7" s="7" t="s">
-        <v>52</v>
-      </c>
+      <c r="M7" s="7"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
       <c r="S7" s="7"/>
       <c r="T7" s="7"/>
       <c r="U7" s="7"/>
-      <c r="V7" s="7" t="s">
-        <v>53</v>
-      </c>
+      <c r="V7" s="7"/>
       <c r="W7" s="7"/>
       <c r="X7" s="7"/>
-      <c r="Y7" s="7" t="s">
-        <v>54</v>
-      </c>
+      <c r="Y7" s="7"/>
       <c r="Z7" s="7"/>
       <c r="AA7" s="7"/>
       <c r="AB7" s="7"/>
       <c r="AC7" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD7" s="9" t="n">
-        <v>0.0325</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="AD7" s="9"/>
       <c r="AE7" s="7"/>
       <c r="AF7" s="7"/>
       <c r="AG7" s="7"/>
       <c r="AH7" s="7"/>
       <c r="AI7" s="7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ7" s="7" t="n">
-        <v>6</v>
-      </c>
-      <c r="AK7" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="AK7" s="12" t="s">
+        <v>57</v>
+      </c>
       <c r="AL7" s="7" t="n">
-        <v>1</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>38</v>
@@ -1800,16 +1708,16 @@
         <v>40</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>71</v>
+        <v>58</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>59</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7" t="n">
@@ -1818,38 +1726,38 @@
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
       <c r="M8" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="N8" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
+        <v>61</v>
+      </c>
+      <c r="N8" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
       <c r="Q8" s="7" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="R8" s="7" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="S8" s="7"/>
       <c r="T8" s="7"/>
       <c r="U8" s="7"/>
       <c r="V8" s="7" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="W8" s="7"/>
       <c r="X8" s="7"/>
       <c r="Y8" s="7" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="Z8" s="7"/>
       <c r="AA8" s="7"/>
       <c r="AB8" s="7"/>
       <c r="AC8" s="7" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="AD8" s="9" t="n">
-        <v>0.01166</v>
+        <v>0.03502</v>
       </c>
       <c r="AE8" s="7"/>
       <c r="AF8" s="7"/>
@@ -1859,7 +1767,7 @@
         <v>3</v>
       </c>
       <c r="AJ8" s="7" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AK8" s="7"/>
       <c r="AL8" s="7" t="n">
@@ -1868,7 +1776,7 @@
     </row>
     <row r="9" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>38</v>
@@ -1880,16 +1788,16 @@
         <v>40</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>75</v>
+        <v>68</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>69</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="I9" s="7"/>
       <c r="J9" s="7" t="n">
@@ -1898,38 +1806,38 @@
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
       <c r="M9" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="N9" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
+        <v>70</v>
+      </c>
+      <c r="N9" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
       <c r="Q9" s="7" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="R9" s="7" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="S9" s="7"/>
       <c r="T9" s="7"/>
       <c r="U9" s="7"/>
       <c r="V9" s="7" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="W9" s="7"/>
       <c r="X9" s="7"/>
       <c r="Y9" s="7" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="Z9" s="7"/>
       <c r="AA9" s="7"/>
       <c r="AB9" s="7"/>
       <c r="AC9" s="7" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="AD9" s="9" t="n">
-        <v>0.01166</v>
+        <v>0.0325</v>
       </c>
       <c r="AE9" s="7"/>
       <c r="AF9" s="7"/>
@@ -1939,7 +1847,7 @@
         <v>3</v>
       </c>
       <c r="AJ9" s="7" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AK9" s="7"/>
       <c r="AL9" s="7" t="n">
@@ -1948,7 +1856,7 @@
     </row>
     <row r="10" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>38</v>
@@ -1960,16 +1868,16 @@
         <v>40</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>79</v>
+        <v>53</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>73</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="I10" s="7"/>
       <c r="J10" s="7" t="n">
@@ -1977,41 +1885,39 @@
       </c>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8" t="s">
-        <v>80</v>
-      </c>
+      <c r="M10" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="N10" s="11" t="n">
+        <v>54491472</v>
+      </c>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
       <c r="Q10" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="R10" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="S10" s="14" t="s">
-        <v>82</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="R10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="S10" s="7"/>
       <c r="T10" s="7"/>
       <c r="U10" s="7"/>
       <c r="V10" s="7" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="W10" s="7"/>
       <c r="X10" s="7"/>
       <c r="Y10" s="7" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="Z10" s="7"/>
       <c r="AA10" s="7"/>
       <c r="AB10" s="7"/>
       <c r="AC10" s="7" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="AD10" s="9" t="n">
-        <v>0.01166</v>
+        <v>0.0325</v>
       </c>
       <c r="AE10" s="7"/>
       <c r="AF10" s="7"/>
@@ -2021,7 +1927,7 @@
         <v>3</v>
       </c>
       <c r="AJ10" s="7" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AK10" s="7"/>
       <c r="AL10" s="7" t="n">
@@ -2030,7 +1936,7 @@
     </row>
     <row r="11" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>38</v>
@@ -2042,61 +1948,75 @@
         <v>40</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>85</v>
+        <v>74</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>75</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
+      <c r="J11" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
+      <c r="M11" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="N11" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="R11" s="7" t="s">
+        <v>64</v>
+      </c>
       <c r="S11" s="7"/>
       <c r="T11" s="7"/>
       <c r="U11" s="7"/>
-      <c r="V11" s="7"/>
+      <c r="V11" s="7" t="s">
+        <v>65</v>
+      </c>
       <c r="W11" s="7"/>
       <c r="X11" s="7"/>
-      <c r="Y11" s="7"/>
+      <c r="Y11" s="7" t="s">
+        <v>66</v>
+      </c>
       <c r="Z11" s="7"/>
       <c r="AA11" s="7"/>
       <c r="AB11" s="7"/>
       <c r="AC11" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="AD11" s="9"/>
+        <v>67</v>
+      </c>
+      <c r="AD11" s="9" t="n">
+        <v>0.0325</v>
+      </c>
       <c r="AE11" s="7"/>
       <c r="AF11" s="7"/>
       <c r="AG11" s="7"/>
       <c r="AH11" s="7"/>
       <c r="AI11" s="7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ11" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK11" s="10" t="s">
-        <v>86</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="AK11" s="7"/>
       <c r="AL11" s="7" t="n">
-        <v>300</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>38</v>
@@ -2108,16 +2028,16 @@
         <v>40</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>88</v>
+        <v>78</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>79</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="I12" s="7"/>
       <c r="J12" s="7" t="n">
@@ -2125,39 +2045,39 @@
       </c>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
-      <c r="M12" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="N12" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
+      <c r="M12" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="N12" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
       <c r="Q12" s="7" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="R12" s="7" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="S12" s="7"/>
       <c r="T12" s="7"/>
       <c r="U12" s="7"/>
       <c r="V12" s="7" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="W12" s="7"/>
       <c r="X12" s="7"/>
       <c r="Y12" s="7" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="Z12" s="7"/>
       <c r="AA12" s="7"/>
       <c r="AB12" s="7"/>
       <c r="AC12" s="7" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="AD12" s="9" t="n">
-        <v>0.034986</v>
+        <v>0.0325</v>
       </c>
       <c r="AE12" s="7"/>
       <c r="AF12" s="7"/>
@@ -2167,16 +2087,16 @@
         <v>3</v>
       </c>
       <c r="AJ12" s="7" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AK12" s="7"/>
       <c r="AL12" s="7" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="7" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>38</v>
@@ -2188,16 +2108,16 @@
         <v>40</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G13" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>92</v>
-      </c>
       <c r="H13" s="7" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="I13" s="7"/>
       <c r="J13" s="7" t="n">
@@ -2206,38 +2126,38 @@
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
       <c r="M13" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="N13" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
+        <v>84</v>
+      </c>
+      <c r="N13" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
       <c r="Q13" s="7" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="R13" s="7" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="S13" s="7"/>
       <c r="T13" s="7"/>
       <c r="U13" s="7"/>
       <c r="V13" s="7" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="W13" s="7"/>
       <c r="X13" s="7"/>
       <c r="Y13" s="7" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="Z13" s="7"/>
       <c r="AA13" s="7"/>
       <c r="AB13" s="7"/>
       <c r="AC13" s="7" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="AD13" s="9" t="n">
-        <v>0.01496</v>
+        <v>0.01166</v>
       </c>
       <c r="AE13" s="7"/>
       <c r="AF13" s="7"/>
@@ -2247,16 +2167,16 @@
         <v>3</v>
       </c>
       <c r="AJ13" s="7" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AK13" s="7"/>
       <c r="AL13" s="7" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="7" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>38</v>
@@ -2268,61 +2188,75 @@
         <v>40</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>96</v>
+        <v>86</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>87</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
+      <c r="J14" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
+      <c r="M14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="N14" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="R14" s="7" t="s">
+        <v>64</v>
+      </c>
       <c r="S14" s="7"/>
       <c r="T14" s="7"/>
       <c r="U14" s="7"/>
-      <c r="V14" s="7"/>
+      <c r="V14" s="7" t="s">
+        <v>65</v>
+      </c>
       <c r="W14" s="7"/>
       <c r="X14" s="7"/>
-      <c r="Y14" s="7"/>
+      <c r="Y14" s="7" t="s">
+        <v>66</v>
+      </c>
       <c r="Z14" s="7"/>
       <c r="AA14" s="7"/>
       <c r="AB14" s="7"/>
       <c r="AC14" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="AD14" s="9"/>
+        <v>67</v>
+      </c>
+      <c r="AD14" s="9" t="n">
+        <v>0.01166</v>
+      </c>
       <c r="AE14" s="7"/>
       <c r="AF14" s="7"/>
       <c r="AG14" s="7"/>
       <c r="AH14" s="7"/>
       <c r="AI14" s="7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ14" s="7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK14" s="10" t="s">
-        <v>97</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="AK14" s="7"/>
       <c r="AL14" s="7" t="n">
-        <v>300</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="7" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>38</v>
@@ -2334,16 +2268,16 @@
         <v>40</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>99</v>
+        <v>53</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>91</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="I15" s="7"/>
       <c r="J15" s="7" t="n">
@@ -2351,39 +2285,41 @@
       </c>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
-      <c r="M15" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="N15" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11" t="s">
+        <v>92</v>
+      </c>
       <c r="Q15" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="R15" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="S15" s="7"/>
+        <v>63</v>
+      </c>
+      <c r="R15" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="S15" s="16" t="s">
+        <v>94</v>
+      </c>
       <c r="T15" s="7"/>
       <c r="U15" s="7"/>
       <c r="V15" s="7" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="W15" s="7"/>
       <c r="X15" s="7"/>
       <c r="Y15" s="7" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="Z15" s="7"/>
       <c r="AA15" s="7"/>
       <c r="AB15" s="7"/>
       <c r="AC15" s="7" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="AD15" s="9" t="n">
-        <v>0.034986</v>
+        <v>0.01166</v>
       </c>
       <c r="AE15" s="7"/>
       <c r="AF15" s="7"/>
@@ -2393,16 +2329,16 @@
         <v>3</v>
       </c>
       <c r="AJ15" s="7" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AK15" s="7"/>
       <c r="AL15" s="7" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="7" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>38</v>
@@ -2414,75 +2350,61 @@
         <v>40</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>103</v>
+        <v>96</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>97</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="I16" s="7"/>
-      <c r="J16" s="7" t="n">
-        <v>1</v>
-      </c>
+      <c r="J16" s="7"/>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
-      <c r="M16" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="N16" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="R16" s="7" t="s">
-        <v>52</v>
-      </c>
+      <c r="M16" s="7"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
       <c r="S16" s="7"/>
       <c r="T16" s="7"/>
       <c r="U16" s="7"/>
-      <c r="V16" s="7" t="s">
-        <v>53</v>
-      </c>
+      <c r="V16" s="7"/>
       <c r="W16" s="7"/>
       <c r="X16" s="7"/>
-      <c r="Y16" s="7" t="s">
-        <v>54</v>
-      </c>
+      <c r="Y16" s="7"/>
       <c r="Z16" s="7"/>
       <c r="AA16" s="7"/>
       <c r="AB16" s="7"/>
       <c r="AC16" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD16" s="9" t="n">
-        <v>0.023766</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="AD16" s="9"/>
       <c r="AE16" s="7"/>
       <c r="AF16" s="7"/>
       <c r="AG16" s="7"/>
       <c r="AH16" s="7"/>
       <c r="AI16" s="7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ16" s="7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK16" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="AK16" s="12" t="s">
+        <v>98</v>
+      </c>
       <c r="AL16" s="7" t="n">
-        <v>13</v>
+        <v>300</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="7" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>38</v>
@@ -2494,16 +2416,16 @@
         <v>40</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>106</v>
+        <v>99</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>100</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="I17" s="7"/>
       <c r="J17" s="7" t="n">
@@ -2511,39 +2433,39 @@
       </c>
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
-      <c r="M17" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="N17" s="19" t="s">
-        <v>108</v>
+      <c r="M17" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="N17" s="11" t="s">
+        <v>102</v>
       </c>
       <c r="O17" s="7"/>
       <c r="P17" s="7"/>
       <c r="Q17" s="7" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="R17" s="7" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="S17" s="7"/>
       <c r="T17" s="7"/>
       <c r="U17" s="7"/>
       <c r="V17" s="7" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="W17" s="7"/>
       <c r="X17" s="7"/>
       <c r="Y17" s="7" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="Z17" s="7"/>
       <c r="AA17" s="7"/>
       <c r="AB17" s="7"/>
       <c r="AC17" s="7" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="AD17" s="9" t="n">
-        <v>0.023766</v>
+        <v>0.034986</v>
       </c>
       <c r="AE17" s="7"/>
       <c r="AF17" s="7"/>
@@ -2553,16 +2475,16 @@
         <v>3</v>
       </c>
       <c r="AJ17" s="7" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="AK17" s="7"/>
       <c r="AL17" s="7" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="7" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>38</v>
@@ -2574,16 +2496,16 @@
         <v>40</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>110</v>
+        <v>103</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>104</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="I18" s="7"/>
       <c r="J18" s="7" t="n">
@@ -2592,35 +2514,35 @@
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
       <c r="M18" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="N18" s="8" t="s">
-        <v>112</v>
+        <v>105</v>
+      </c>
+      <c r="N18" s="11" t="s">
+        <v>106</v>
       </c>
       <c r="O18" s="7"/>
       <c r="P18" s="7"/>
       <c r="Q18" s="7" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="R18" s="7" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="S18" s="7"/>
       <c r="T18" s="7"/>
       <c r="U18" s="7"/>
       <c r="V18" s="7" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="W18" s="7"/>
       <c r="X18" s="7"/>
       <c r="Y18" s="7" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="Z18" s="7"/>
       <c r="AA18" s="7"/>
       <c r="AB18" s="7"/>
       <c r="AC18" s="7" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="AD18" s="9" t="n">
         <v>0.01496</v>
@@ -2633,16 +2555,16 @@
         <v>3</v>
       </c>
       <c r="AJ18" s="7" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AK18" s="7"/>
       <c r="AL18" s="7" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="7" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>38</v>
@@ -2654,25 +2576,25 @@
         <v>40</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
       <c r="Q19" s="7"/>
       <c r="R19" s="7"/>
       <c r="S19" s="7"/>
@@ -2686,7 +2608,7 @@
       <c r="AA19" s="7"/>
       <c r="AB19" s="7"/>
       <c r="AC19" s="7" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="AD19" s="9"/>
       <c r="AE19" s="7"/>
@@ -2697,10 +2619,10 @@
         <v>2</v>
       </c>
       <c r="AJ19" s="7" t="n">
-        <v>18</v>
-      </c>
-      <c r="AK19" s="10" t="s">
-        <v>115</v>
+        <v>13</v>
+      </c>
+      <c r="AK19" s="12" t="s">
+        <v>109</v>
       </c>
       <c r="AL19" s="7" t="n">
         <v>300</v>
@@ -2708,7 +2630,7 @@
     </row>
     <row r="20" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="7" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>38</v>
@@ -2720,16 +2642,16 @@
         <v>40</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>117</v>
+        <v>110</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>111</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="I20" s="7"/>
       <c r="J20" s="7" t="n">
@@ -2738,35 +2660,35 @@
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
       <c r="M20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="N20" s="8" t="s">
-        <v>119</v>
+        <v>112</v>
+      </c>
+      <c r="N20" s="19" t="s">
+        <v>113</v>
       </c>
       <c r="O20" s="7"/>
       <c r="P20" s="7"/>
       <c r="Q20" s="7" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="R20" s="7" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="S20" s="7"/>
       <c r="T20" s="7"/>
       <c r="U20" s="7"/>
       <c r="V20" s="7" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="W20" s="7"/>
       <c r="X20" s="7"/>
       <c r="Y20" s="7" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="Z20" s="7"/>
       <c r="AA20" s="7"/>
       <c r="AB20" s="7"/>
       <c r="AC20" s="7" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="AD20" s="9" t="n">
         <v>0.034986</v>
@@ -2779,16 +2701,16 @@
         <v>3</v>
       </c>
       <c r="AJ20" s="7" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="AK20" s="7"/>
       <c r="AL20" s="7" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="7" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>38</v>
@@ -2800,16 +2722,16 @@
         <v>40</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G21" s="11" t="s">
-        <v>121</v>
+        <v>114</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>115</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="I21" s="7"/>
       <c r="J21" s="7" t="n">
@@ -2818,35 +2740,35 @@
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
       <c r="M21" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="N21" s="8" t="n">
-        <v>4607174577787</v>
+        <v>114</v>
+      </c>
+      <c r="N21" s="20" t="s">
+        <v>116</v>
       </c>
       <c r="O21" s="7"/>
       <c r="P21" s="7"/>
       <c r="Q21" s="7" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="R21" s="7" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="S21" s="7"/>
       <c r="T21" s="7"/>
       <c r="U21" s="7"/>
       <c r="V21" s="7" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="W21" s="7"/>
       <c r="X21" s="7"/>
       <c r="Y21" s="7" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="Z21" s="7"/>
       <c r="AA21" s="7"/>
       <c r="AB21" s="7"/>
       <c r="AC21" s="7" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="AD21" s="9" t="n">
         <v>0.023766</v>
@@ -2859,16 +2781,16 @@
         <v>3</v>
       </c>
       <c r="AJ21" s="7" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="AK21" s="7"/>
       <c r="AL21" s="7" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="7" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>38</v>
@@ -2880,16 +2802,16 @@
         <v>40</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="G22" s="11" t="s">
-        <v>123</v>
+        <v>117</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>118</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="I22" s="7"/>
       <c r="J22" s="7" t="n">
@@ -2898,35 +2820,35 @@
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
       <c r="M22" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="N22" s="8" t="s">
-        <v>125</v>
+        <v>119</v>
+      </c>
+      <c r="N22" s="21" t="s">
+        <v>120</v>
       </c>
       <c r="O22" s="7"/>
       <c r="P22" s="7"/>
       <c r="Q22" s="7" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="R22" s="7" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="S22" s="7"/>
       <c r="T22" s="7"/>
       <c r="U22" s="7"/>
       <c r="V22" s="7" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="W22" s="7"/>
       <c r="X22" s="7"/>
       <c r="Y22" s="7" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="Z22" s="7"/>
       <c r="AA22" s="7"/>
       <c r="AB22" s="7"/>
       <c r="AC22" s="7" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="AD22" s="9" t="n">
         <v>0.023766</v>
@@ -2939,16 +2861,16 @@
         <v>3</v>
       </c>
       <c r="AJ22" s="7" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AK22" s="7"/>
       <c r="AL22" s="7" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="7" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>38</v>
@@ -2960,16 +2882,16 @@
         <v>40</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>127</v>
+        <v>121</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>122</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="I23" s="7"/>
       <c r="J23" s="7" t="n">
@@ -2978,38 +2900,38 @@
       <c r="K23" s="7"/>
       <c r="L23" s="7"/>
       <c r="M23" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="N23" s="8" t="n">
-        <v>4650075420980</v>
+        <v>123</v>
+      </c>
+      <c r="N23" s="11" t="s">
+        <v>124</v>
       </c>
       <c r="O23" s="7"/>
       <c r="P23" s="7"/>
       <c r="Q23" s="7" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="R23" s="7" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="S23" s="7"/>
       <c r="T23" s="7"/>
       <c r="U23" s="7"/>
       <c r="V23" s="7" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="W23" s="7"/>
       <c r="X23" s="7"/>
       <c r="Y23" s="7" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="Z23" s="7"/>
       <c r="AA23" s="7"/>
       <c r="AB23" s="7"/>
       <c r="AC23" s="7" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="AD23" s="9" t="n">
-        <v>0.023766</v>
+        <v>0.01496</v>
       </c>
       <c r="AE23" s="7"/>
       <c r="AF23" s="7"/>
@@ -3019,16 +2941,16 @@
         <v>3</v>
       </c>
       <c r="AJ23" s="7" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="AK23" s="7"/>
       <c r="AL23" s="7" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="7" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>38</v>
@@ -3040,75 +2962,61 @@
         <v>40</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>129</v>
+        <v>125</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>126</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="I24" s="7"/>
-      <c r="J24" s="7" t="n">
-        <v>1</v>
-      </c>
+      <c r="J24" s="7"/>
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
-      <c r="M24" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="N24" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="O24" s="7"/>
-      <c r="P24" s="7"/>
-      <c r="Q24" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="R24" s="7" t="s">
-        <v>52</v>
-      </c>
+      <c r="M24" s="7"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
       <c r="S24" s="7"/>
       <c r="T24" s="7"/>
       <c r="U24" s="7"/>
-      <c r="V24" s="7" t="s">
-        <v>53</v>
-      </c>
+      <c r="V24" s="7"/>
       <c r="W24" s="7"/>
       <c r="X24" s="7"/>
-      <c r="Y24" s="7" t="s">
-        <v>54</v>
-      </c>
+      <c r="Y24" s="7"/>
       <c r="Z24" s="7"/>
       <c r="AA24" s="7"/>
       <c r="AB24" s="7"/>
       <c r="AC24" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD24" s="9" t="n">
-        <v>0.023766</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="AD24" s="9"/>
       <c r="AE24" s="7"/>
       <c r="AF24" s="7"/>
       <c r="AG24" s="7"/>
       <c r="AH24" s="7"/>
       <c r="AI24" s="7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ24" s="7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK24" s="7"/>
+        <v>18</v>
+      </c>
+      <c r="AK24" s="12" t="s">
+        <v>127</v>
+      </c>
       <c r="AL24" s="7" t="n">
-        <v>18</v>
+        <v>300</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="7" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>38</v>
@@ -3120,16 +3028,16 @@
         <v>40</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="G25" s="11" t="s">
-        <v>133</v>
+        <v>128</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>129</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="I25" s="7"/>
       <c r="J25" s="7" t="n">
@@ -3137,39 +3045,39 @@
       </c>
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
-      <c r="M25" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="N25" s="8" t="n">
-        <v>4607174579729</v>
+      <c r="M25" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="N25" s="11" t="s">
+        <v>131</v>
       </c>
       <c r="O25" s="7"/>
       <c r="P25" s="7"/>
       <c r="Q25" s="7" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="R25" s="7" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="S25" s="7"/>
       <c r="T25" s="7"/>
       <c r="U25" s="7"/>
       <c r="V25" s="7" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="W25" s="7"/>
       <c r="X25" s="7"/>
       <c r="Y25" s="7" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="Z25" s="7"/>
       <c r="AA25" s="7"/>
       <c r="AB25" s="7"/>
       <c r="AC25" s="7" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="AD25" s="9" t="n">
-        <v>0.023766</v>
+        <v>0.034986</v>
       </c>
       <c r="AE25" s="7"/>
       <c r="AF25" s="7"/>
@@ -3179,7 +3087,7 @@
         <v>3</v>
       </c>
       <c r="AJ25" s="7" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="AK25" s="7"/>
       <c r="AL25" s="7" t="n">
@@ -3188,7 +3096,7 @@
     </row>
     <row r="26" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="7" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>38</v>
@@ -3200,16 +3108,16 @@
         <v>40</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="G26" s="11" t="s">
-        <v>135</v>
+        <v>132</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>133</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="I26" s="7"/>
       <c r="J26" s="7" t="n">
@@ -3218,38 +3126,38 @@
       <c r="K26" s="7"/>
       <c r="L26" s="7"/>
       <c r="M26" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="N26" s="8" t="s">
-        <v>137</v>
+        <v>132</v>
+      </c>
+      <c r="N26" s="11" t="n">
+        <v>4607174577787</v>
       </c>
       <c r="O26" s="7"/>
       <c r="P26" s="7"/>
       <c r="Q26" s="7" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="R26" s="7" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="S26" s="7"/>
       <c r="T26" s="7"/>
       <c r="U26" s="7"/>
       <c r="V26" s="7" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="W26" s="7"/>
       <c r="X26" s="7"/>
       <c r="Y26" s="7" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="Z26" s="7"/>
       <c r="AA26" s="7"/>
       <c r="AB26" s="7"/>
       <c r="AC26" s="7" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="AD26" s="9" t="n">
-        <v>0.014994</v>
+        <v>0.023766</v>
       </c>
       <c r="AE26" s="7"/>
       <c r="AF26" s="7"/>
@@ -3259,7 +3167,7 @@
         <v>3</v>
       </c>
       <c r="AJ26" s="7" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AK26" s="7"/>
       <c r="AL26" s="7" t="n">
@@ -3268,7 +3176,7 @@
     </row>
     <row r="27" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="7" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>38</v>
@@ -3280,63 +3188,75 @@
         <v>40</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>139</v>
+        <v>134</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>135</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
+      <c r="J27" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="8"/>
-      <c r="P27" s="8"/>
-      <c r="Q27" s="8"/>
-      <c r="R27" s="8"/>
+      <c r="M27" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="N27" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="R27" s="7" t="s">
+        <v>64</v>
+      </c>
       <c r="S27" s="7"/>
       <c r="T27" s="7"/>
       <c r="U27" s="7"/>
       <c r="V27" s="7" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="W27" s="7"/>
       <c r="X27" s="7"/>
-      <c r="Y27" s="7"/>
+      <c r="Y27" s="7" t="s">
+        <v>66</v>
+      </c>
       <c r="Z27" s="7"/>
       <c r="AA27" s="7"/>
       <c r="AB27" s="7"/>
       <c r="AC27" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="AD27" s="9"/>
+        <v>67</v>
+      </c>
+      <c r="AD27" s="9" t="n">
+        <v>0.023766</v>
+      </c>
       <c r="AE27" s="7"/>
       <c r="AF27" s="7"/>
       <c r="AG27" s="7"/>
       <c r="AH27" s="7"/>
       <c r="AI27" s="7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ27" s="7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AK27" s="7" t="n">
-        <v>27</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="AK27" s="7"/>
       <c r="AL27" s="7" t="n">
-        <v>300</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="7" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>38</v>
@@ -3348,16 +3268,16 @@
         <v>40</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G28" s="11" t="s">
-        <v>142</v>
+        <v>138</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>139</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>143</v>
+        <v>60</v>
       </c>
       <c r="I28" s="7"/>
       <c r="J28" s="7" t="n">
@@ -3365,38 +3285,36 @@
       </c>
       <c r="K28" s="7"/>
       <c r="L28" s="7"/>
-      <c r="M28" s="7"/>
-      <c r="N28" s="16" t="s">
-        <v>144</v>
+      <c r="M28" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="N28" s="11" t="n">
+        <v>4650075420980</v>
       </c>
       <c r="O28" s="7"/>
-      <c r="P28" s="8" t="s">
-        <v>145</v>
-      </c>
+      <c r="P28" s="7"/>
       <c r="Q28" s="7" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="R28" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="S28" s="7" t="s">
-        <v>146</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="S28" s="7"/>
       <c r="T28" s="7"/>
       <c r="U28" s="7"/>
       <c r="V28" s="7" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="W28" s="7"/>
       <c r="X28" s="7"/>
       <c r="Y28" s="7" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="Z28" s="7"/>
       <c r="AA28" s="7"/>
       <c r="AB28" s="7"/>
       <c r="AC28" s="7" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="AD28" s="9" t="n">
         <v>0.023766</v>
@@ -3409,16 +3327,16 @@
         <v>3</v>
       </c>
       <c r="AJ28" s="7" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="AK28" s="7"/>
       <c r="AL28" s="7" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="7" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>38</v>
@@ -3430,77 +3348,75 @@
         <v>40</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>147</v>
+        <v>95</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>149</v>
+        <v>140</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>141</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="I29" s="7"/>
       <c r="J29" s="7" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="K29" s="7"/>
       <c r="L29" s="7"/>
       <c r="M29" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="N29" s="20" t="s">
-        <v>151</v>
+        <v>142</v>
+      </c>
+      <c r="N29" s="11" t="s">
+        <v>143</v>
       </c>
       <c r="O29" s="7"/>
-      <c r="P29" s="7" t="s">
-        <v>152</v>
-      </c>
+      <c r="P29" s="7"/>
       <c r="Q29" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="R29" s="20" t="s">
-        <v>81</v>
+        <v>63</v>
+      </c>
+      <c r="R29" s="7" t="s">
+        <v>64</v>
       </c>
       <c r="S29" s="7"/>
       <c r="T29" s="7"/>
       <c r="U29" s="7"/>
-      <c r="V29" s="7"/>
-      <c r="W29" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="X29" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="Y29" s="7"/>
+      <c r="V29" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="W29" s="7"/>
+      <c r="X29" s="7"/>
+      <c r="Y29" s="7" t="s">
+        <v>66</v>
+      </c>
       <c r="Z29" s="7"/>
       <c r="AA29" s="7"/>
       <c r="AB29" s="7"/>
       <c r="AC29" s="7" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="AD29" s="9" t="n">
-        <v>0.045</v>
+        <v>0.023766</v>
       </c>
       <c r="AE29" s="7"/>
       <c r="AF29" s="7"/>
       <c r="AG29" s="7"/>
       <c r="AH29" s="7"/>
       <c r="AI29" s="7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ29" s="7" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AK29" s="7"/>
       <c r="AL29" s="7" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="7" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>38</v>
@@ -3512,77 +3428,75 @@
         <v>40</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>147</v>
+        <v>95</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>156</v>
+        <v>144</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>145</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="I30" s="7"/>
       <c r="J30" s="7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K30" s="7"/>
       <c r="L30" s="7"/>
-      <c r="M30" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="N30" s="20" t="s">
-        <v>151</v>
+      <c r="M30" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="N30" s="11" t="n">
+        <v>4607174579729</v>
       </c>
       <c r="O30" s="7"/>
-      <c r="P30" s="7" t="s">
-        <v>152</v>
-      </c>
+      <c r="P30" s="7"/>
       <c r="Q30" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="R30" s="20" t="s">
-        <v>81</v>
+        <v>63</v>
+      </c>
+      <c r="R30" s="7" t="s">
+        <v>64</v>
       </c>
       <c r="S30" s="7"/>
       <c r="T30" s="7"/>
       <c r="U30" s="7"/>
-      <c r="V30" s="7"/>
-      <c r="W30" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="X30" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="Y30" s="7"/>
+      <c r="V30" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="W30" s="7"/>
+      <c r="X30" s="7"/>
+      <c r="Y30" s="7" t="s">
+        <v>66</v>
+      </c>
       <c r="Z30" s="7"/>
       <c r="AA30" s="7"/>
       <c r="AB30" s="7"/>
       <c r="AC30" s="7" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="AD30" s="9" t="n">
-        <v>0.045</v>
+        <v>0.023766</v>
       </c>
       <c r="AE30" s="7"/>
       <c r="AF30" s="7"/>
       <c r="AG30" s="7"/>
       <c r="AH30" s="7"/>
       <c r="AI30" s="7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ30" s="7" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="AK30" s="7"/>
       <c r="AL30" s="7" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="7" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>38</v>
@@ -3594,67 +3508,75 @@
         <v>40</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>158</v>
+        <v>95</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>160</v>
+        <v>146</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>147</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>161</v>
+        <v>60</v>
       </c>
       <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
+      <c r="J31" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="K31" s="7"/>
       <c r="L31" s="7"/>
-      <c r="M31" s="7"/>
-      <c r="N31" s="8"/>
-      <c r="O31" s="8"/>
-      <c r="P31" s="8"/>
+      <c r="M31" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="N31" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="O31" s="7"/>
+      <c r="P31" s="7"/>
       <c r="Q31" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="R31" s="7"/>
+        <v>63</v>
+      </c>
+      <c r="R31" s="7" t="s">
+        <v>64</v>
+      </c>
       <c r="S31" s="7"/>
       <c r="T31" s="7"/>
       <c r="U31" s="7"/>
-      <c r="V31" s="7"/>
+      <c r="V31" s="7" t="s">
+        <v>65</v>
+      </c>
       <c r="W31" s="7"/>
       <c r="X31" s="7"/>
-      <c r="Y31" s="7"/>
+      <c r="Y31" s="7" t="s">
+        <v>66</v>
+      </c>
       <c r="Z31" s="7"/>
       <c r="AA31" s="7"/>
       <c r="AB31" s="7"/>
       <c r="AC31" s="7" t="s">
-        <v>163</v>
+        <v>67</v>
       </c>
       <c r="AD31" s="9" t="n">
-        <v>0.135</v>
+        <v>0.014994</v>
       </c>
       <c r="AE31" s="7"/>
       <c r="AF31" s="7"/>
-      <c r="AG31" s="7" t="s">
-        <v>164</v>
-      </c>
+      <c r="AG31" s="7"/>
       <c r="AH31" s="7"/>
       <c r="AI31" s="7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ31" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="AK31" s="10" t="s">
-        <v>165</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="AK31" s="7"/>
       <c r="AL31" s="7" t="n">
-        <v>311</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="7" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>38</v>
@@ -3666,67 +3588,63 @@
         <v>40</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>158</v>
+        <v>95</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>168</v>
+        <v>56</v>
       </c>
       <c r="I32" s="7"/>
-      <c r="J32" s="7" t="n">
-        <v>0.5</v>
-      </c>
+      <c r="J32" s="7"/>
       <c r="K32" s="7"/>
       <c r="L32" s="7"/>
-      <c r="M32" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="N32" s="8"/>
-      <c r="O32" s="8"/>
-      <c r="P32" s="8"/>
-      <c r="Q32" s="7"/>
-      <c r="R32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="11"/>
       <c r="S32" s="7"/>
       <c r="T32" s="7"/>
       <c r="U32" s="7"/>
-      <c r="V32" s="7"/>
-      <c r="W32" s="7" t="s">
-        <v>170</v>
-      </c>
+      <c r="V32" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="W32" s="7"/>
       <c r="X32" s="7"/>
       <c r="Y32" s="7"/>
       <c r="Z32" s="7"/>
       <c r="AA32" s="7"/>
       <c r="AB32" s="7"/>
       <c r="AC32" s="7" t="s">
-        <v>55</v>
+        <v>152</v>
       </c>
       <c r="AD32" s="9"/>
       <c r="AE32" s="7"/>
       <c r="AF32" s="7"/>
-      <c r="AG32" s="7" t="s">
-        <v>171</v>
-      </c>
+      <c r="AG32" s="7"/>
       <c r="AH32" s="7"/>
       <c r="AI32" s="7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ32" s="7" t="n">
-        <v>31</v>
-      </c>
-      <c r="AK32" s="7"/>
+        <v>26</v>
+      </c>
+      <c r="AK32" s="7" t="n">
+        <v>27</v>
+      </c>
       <c r="AL32" s="7" t="n">
-        <v>30</v>
+        <v>300</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="7" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>38</v>
@@ -3738,51 +3656,59 @@
         <v>40</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>158</v>
+        <v>95</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>173</v>
+        <v>153</v>
+      </c>
+      <c r="G33" s="13" t="s">
+        <v>154</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="I33" s="7"/>
       <c r="J33" s="7" t="n">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="K33" s="7"/>
       <c r="L33" s="7"/>
-      <c r="M33" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="N33" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="O33" s="8"/>
-      <c r="P33" s="8"/>
-      <c r="Q33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="O33" s="7"/>
+      <c r="P33" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="R33" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="S33" s="7"/>
+        <v>93</v>
+      </c>
+      <c r="S33" s="7" t="s">
+        <v>158</v>
+      </c>
       <c r="T33" s="7"/>
       <c r="U33" s="7"/>
-      <c r="V33" s="7"/>
-      <c r="W33" s="7" t="s">
-        <v>177</v>
-      </c>
+      <c r="V33" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="W33" s="7"/>
       <c r="X33" s="7"/>
-      <c r="Y33" s="7"/>
+      <c r="Y33" s="7" t="s">
+        <v>66</v>
+      </c>
       <c r="Z33" s="7"/>
       <c r="AA33" s="7"/>
       <c r="AB33" s="7"/>
       <c r="AC33" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD33" s="9"/>
+        <v>67</v>
+      </c>
+      <c r="AD33" s="9" t="n">
+        <v>0.023766</v>
+      </c>
       <c r="AE33" s="7"/>
       <c r="AF33" s="7"/>
       <c r="AG33" s="7"/>
@@ -3791,16 +3717,16 @@
         <v>3</v>
       </c>
       <c r="AJ33" s="7" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AK33" s="7"/>
       <c r="AL33" s="7" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="7" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>38</v>
@@ -3812,75 +3738,77 @@
         <v>40</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>181</v>
+        <v>60</v>
       </c>
       <c r="I34" s="7"/>
       <c r="J34" s="7" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K34" s="7"/>
       <c r="L34" s="7"/>
-      <c r="M34" s="7"/>
-      <c r="N34" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="O34" s="8"/>
-      <c r="P34" s="8"/>
-      <c r="Q34" s="7"/>
-      <c r="R34" s="7" t="s">
-        <v>183</v>
+      <c r="M34" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="N34" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="O34" s="7"/>
+      <c r="P34" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="R34" s="22" t="s">
+        <v>93</v>
       </c>
       <c r="S34" s="7"/>
       <c r="T34" s="7"/>
       <c r="U34" s="7"/>
       <c r="V34" s="7"/>
       <c r="W34" s="7" t="s">
-        <v>53</v>
+        <v>165</v>
       </c>
       <c r="X34" s="7" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="Y34" s="7"/>
       <c r="Z34" s="7"/>
       <c r="AA34" s="7"/>
       <c r="AB34" s="7"/>
       <c r="AC34" s="7" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="AD34" s="9" t="n">
         <v>0.045</v>
       </c>
       <c r="AE34" s="7"/>
       <c r="AF34" s="7"/>
-      <c r="AG34" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="AH34" s="7" t="s">
-        <v>166</v>
-      </c>
+      <c r="AG34" s="7"/>
+      <c r="AH34" s="7"/>
       <c r="AI34" s="7" t="n">
         <v>2</v>
       </c>
       <c r="AJ34" s="7" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="AK34" s="7"/>
-      <c r="AL34" s="21" t="n">
-        <v>312</v>
+      <c r="AL34" s="7" t="n">
+        <v>400</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="7" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>38</v>
@@ -3892,75 +3820,77 @@
         <v>40</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="F35" s="14" t="s">
-        <v>185</v>
+        <v>159</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>167</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>187</v>
+        <v>60</v>
       </c>
       <c r="I35" s="7"/>
       <c r="J35" s="7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K35" s="7"/>
       <c r="L35" s="7"/>
       <c r="M35" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="N35" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="O35" s="8"/>
-      <c r="P35" s="8"/>
-      <c r="Q35" s="7"/>
-      <c r="R35" s="7" t="s">
-        <v>176</v>
+        <v>162</v>
+      </c>
+      <c r="N35" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="O35" s="7"/>
+      <c r="P35" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="R35" s="22" t="s">
+        <v>93</v>
       </c>
       <c r="S35" s="7"/>
       <c r="T35" s="7"/>
       <c r="U35" s="7"/>
       <c r="V35" s="7"/>
       <c r="W35" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="X35" s="7"/>
+        <v>165</v>
+      </c>
+      <c r="X35" s="7" t="s">
+        <v>169</v>
+      </c>
       <c r="Y35" s="7"/>
       <c r="Z35" s="7"/>
       <c r="AA35" s="7"/>
       <c r="AB35" s="7"/>
       <c r="AC35" s="7" t="s">
-        <v>163</v>
+        <v>67</v>
       </c>
       <c r="AD35" s="9" t="n">
         <v>0.045</v>
       </c>
       <c r="AE35" s="7"/>
       <c r="AF35" s="7"/>
-      <c r="AG35" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="AH35" s="7" t="s">
-        <v>166</v>
-      </c>
+      <c r="AG35" s="7"/>
+      <c r="AH35" s="7"/>
       <c r="AI35" s="7" t="n">
         <v>2</v>
       </c>
       <c r="AJ35" s="7" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AK35" s="7"/>
-      <c r="AL35" s="21" t="n">
-        <v>312</v>
+      <c r="AL35" s="7" t="n">
+        <v>400</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="7" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>38</v>
@@ -3972,77 +3902,67 @@
         <v>40</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="H36" s="22" t="s">
-        <v>191</v>
+        <v>172</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>173</v>
       </c>
       <c r="I36" s="7"/>
       <c r="J36" s="7"/>
-      <c r="K36" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="L36" s="7" t="n">
-        <v>15</v>
-      </c>
-      <c r="M36" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="N36" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="O36" s="8"/>
-      <c r="P36" s="8"/>
-      <c r="Q36" s="7"/>
-      <c r="R36" s="7" t="s">
-        <v>176</v>
-      </c>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="11"/>
+      <c r="P36" s="11"/>
+      <c r="Q36" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="R36" s="7"/>
       <c r="S36" s="7"/>
       <c r="T36" s="7"/>
       <c r="U36" s="7"/>
       <c r="V36" s="7"/>
-      <c r="W36" s="7" t="s">
-        <v>170</v>
-      </c>
+      <c r="W36" s="7"/>
       <c r="X36" s="7"/>
       <c r="Y36" s="7"/>
       <c r="Z36" s="7"/>
       <c r="AA36" s="7"/>
       <c r="AB36" s="7"/>
       <c r="AC36" s="7" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="AD36" s="9" t="n">
-        <v>0.045</v>
+        <v>0.135</v>
       </c>
       <c r="AE36" s="7"/>
       <c r="AF36" s="7"/>
       <c r="AG36" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="AH36" s="7" t="s">
-        <v>166</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="AH36" s="7"/>
       <c r="AI36" s="7" t="n">
         <v>2</v>
       </c>
       <c r="AJ36" s="7" t="n">
-        <v>35</v>
-      </c>
-      <c r="AK36" s="7"/>
-      <c r="AL36" s="21" t="n">
-        <v>312</v>
+        <v>30</v>
+      </c>
+      <c r="AK36" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="AL36" s="7" t="n">
+        <v>311</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="7" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B37" s="7" t="s">
         <v>38</v>
@@ -4054,71 +3974,67 @@
         <v>40</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="I37" s="7"/>
       <c r="J37" s="7" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="K37" s="7"/>
       <c r="L37" s="7"/>
-      <c r="M37" s="7"/>
-      <c r="N37" s="7"/>
-      <c r="O37" s="7"/>
-      <c r="P37" s="7"/>
-      <c r="Q37" s="7" t="s">
-        <v>51</v>
-      </c>
+      <c r="M37" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="N37" s="11"/>
+      <c r="O37" s="11"/>
+      <c r="P37" s="11"/>
+      <c r="Q37" s="7"/>
       <c r="R37" s="7"/>
       <c r="S37" s="7"/>
       <c r="T37" s="7"/>
       <c r="U37" s="7"/>
       <c r="V37" s="7"/>
       <c r="W37" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="X37" s="7" t="s">
-        <v>197</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="X37" s="7"/>
       <c r="Y37" s="7"/>
       <c r="Z37" s="7"/>
       <c r="AA37" s="7"/>
       <c r="AB37" s="7"/>
       <c r="AC37" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD37" s="9" t="n">
-        <v>0.05</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="AD37" s="9"/>
       <c r="AE37" s="7"/>
       <c r="AF37" s="7"/>
-      <c r="AG37" s="7"/>
+      <c r="AG37" s="7" t="s">
+        <v>183</v>
+      </c>
       <c r="AH37" s="7"/>
       <c r="AI37" s="7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ37" s="7" t="n">
-        <v>36</v>
-      </c>
-      <c r="AK37" s="10" t="s">
-        <v>198</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="AK37" s="7"/>
       <c r="AL37" s="7" t="n">
-        <v>400</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="7" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>38</v>
@@ -4130,57 +4046,49 @@
         <v>40</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>48</v>
+        <v>186</v>
       </c>
       <c r="I38" s="7"/>
       <c r="J38" s="7" t="n">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="K38" s="7"/>
       <c r="L38" s="7"/>
       <c r="M38" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="N38" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="O38" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="R38" s="20" t="s">
-        <v>81</v>
+        <v>181</v>
+      </c>
+      <c r="N38" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="O38" s="11"/>
+      <c r="P38" s="11"/>
+      <c r="Q38" s="7"/>
+      <c r="R38" s="7" t="s">
+        <v>188</v>
       </c>
       <c r="S38" s="7"/>
       <c r="T38" s="7"/>
       <c r="U38" s="7"/>
       <c r="V38" s="7"/>
       <c r="W38" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="X38" s="7" t="s">
-        <v>197</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="X38" s="7"/>
       <c r="Y38" s="7"/>
       <c r="Z38" s="7"/>
       <c r="AA38" s="7"/>
       <c r="AB38" s="7"/>
       <c r="AC38" s="7" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="AD38" s="9"/>
       <c r="AE38" s="7"/>
@@ -4191,16 +4099,16 @@
         <v>3</v>
       </c>
       <c r="AJ38" s="7" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="AK38" s="7"/>
       <c r="AL38" s="7" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="7" t="n">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B39" s="7" t="s">
         <v>38</v>
@@ -4212,16 +4120,16 @@
         <v>40</v>
       </c>
       <c r="E39" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="H39" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="H39" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="I39" s="7"/>
       <c r="J39" s="7" t="n">
@@ -4229,60 +4137,58 @@
       </c>
       <c r="K39" s="7"/>
       <c r="L39" s="7"/>
-      <c r="M39" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="N39" s="7" t="n">
-        <v>5000034</v>
-      </c>
-      <c r="O39" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="P39" s="7"/>
-      <c r="Q39" s="7" t="s">
-        <v>51</v>
-      </c>
+      <c r="M39" s="7"/>
+      <c r="N39" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="O39" s="11"/>
+      <c r="P39" s="11"/>
+      <c r="Q39" s="7"/>
       <c r="R39" s="7" t="s">
-        <v>52</v>
+        <v>195</v>
       </c>
       <c r="S39" s="7"/>
       <c r="T39" s="7"/>
       <c r="U39" s="7"/>
       <c r="V39" s="7"/>
       <c r="W39" s="7" t="s">
-        <v>153</v>
+        <v>65</v>
       </c>
       <c r="X39" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="Y39" s="7"/>
       <c r="Z39" s="7"/>
       <c r="AA39" s="7"/>
       <c r="AB39" s="7"/>
       <c r="AC39" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD39" s="9"/>
+        <v>67</v>
+      </c>
+      <c r="AD39" s="9" t="n">
+        <v>0.045</v>
+      </c>
       <c r="AE39" s="7"/>
       <c r="AF39" s="7"/>
       <c r="AG39" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="AH39" s="7"/>
+        <v>196</v>
+      </c>
+      <c r="AH39" s="7" t="s">
+        <v>178</v>
+      </c>
       <c r="AI39" s="7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ39" s="7" t="n">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AK39" s="7"/>
-      <c r="AL39" s="7" t="n">
-        <v>36</v>
+      <c r="AL39" s="23" t="n">
+        <v>312</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="7" t="n">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>38</v>
@@ -4294,71 +4200,75 @@
         <v>40</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>208</v>
+        <v>190</v>
+      </c>
+      <c r="F40" s="16" t="s">
+        <v>197</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="I40" s="7"/>
       <c r="J40" s="7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K40" s="7"/>
       <c r="L40" s="7"/>
-      <c r="M40" s="7"/>
-      <c r="N40" s="7"/>
-      <c r="O40" s="7"/>
-      <c r="P40" s="7"/>
-      <c r="Q40" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="R40" s="7"/>
+      <c r="M40" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="N40" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="O40" s="11"/>
+      <c r="P40" s="11"/>
+      <c r="Q40" s="7"/>
+      <c r="R40" s="7" t="s">
+        <v>188</v>
+      </c>
       <c r="S40" s="7"/>
       <c r="T40" s="7"/>
       <c r="U40" s="7"/>
       <c r="V40" s="7"/>
       <c r="W40" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="X40" s="7" t="s">
-        <v>197</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="X40" s="7"/>
       <c r="Y40" s="7"/>
       <c r="Z40" s="7"/>
       <c r="AA40" s="7"/>
       <c r="AB40" s="7"/>
       <c r="AC40" s="7" t="s">
-        <v>55</v>
+        <v>175</v>
       </c>
       <c r="AD40" s="9" t="n">
-        <v>0.05</v>
+        <v>0.045</v>
       </c>
       <c r="AE40" s="7"/>
       <c r="AF40" s="7"/>
-      <c r="AG40" s="7"/>
-      <c r="AH40" s="7"/>
+      <c r="AG40" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="AH40" s="7" t="s">
+        <v>178</v>
+      </c>
       <c r="AI40" s="7" t="n">
         <v>2</v>
       </c>
       <c r="AJ40" s="7" t="n">
-        <v>39</v>
-      </c>
-      <c r="AK40" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="AL40" s="7" t="n">
-        <v>400</v>
+        <v>34</v>
+      </c>
+      <c r="AK40" s="7"/>
+      <c r="AL40" s="23" t="n">
+        <v>312</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="7" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B41" s="7" t="s">
         <v>38</v>
@@ -4370,77 +4280,77 @@
         <v>40</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="H41" s="7" t="s">
-        <v>48</v>
+        <v>202</v>
+      </c>
+      <c r="H41" s="24" t="s">
+        <v>203</v>
       </c>
       <c r="I41" s="7"/>
-      <c r="J41" s="7" t="n">
+      <c r="J41" s="7"/>
+      <c r="K41" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="K41" s="7"/>
-      <c r="L41" s="7"/>
+      <c r="L41" s="7" t="n">
+        <v>15</v>
+      </c>
       <c r="M41" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="N41" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="O41" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="P41" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>51</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="N41" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="O41" s="11"/>
+      <c r="P41" s="11"/>
+      <c r="Q41" s="7"/>
       <c r="R41" s="7" t="s">
-        <v>52</v>
+        <v>188</v>
       </c>
       <c r="S41" s="7"/>
       <c r="T41" s="7"/>
       <c r="U41" s="7"/>
       <c r="V41" s="7"/>
       <c r="W41" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="X41" s="7" t="s">
-        <v>197</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="X41" s="7"/>
       <c r="Y41" s="7"/>
       <c r="Z41" s="7"/>
       <c r="AA41" s="7"/>
       <c r="AB41" s="7"/>
       <c r="AC41" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD41" s="9"/>
+        <v>204</v>
+      </c>
+      <c r="AD41" s="9" t="n">
+        <v>0.045</v>
+      </c>
       <c r="AE41" s="7"/>
       <c r="AF41" s="7"/>
-      <c r="AG41" s="7"/>
-      <c r="AH41" s="7"/>
+      <c r="AG41" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="AH41" s="7" t="s">
+        <v>178</v>
+      </c>
       <c r="AI41" s="7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ41" s="7" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AK41" s="7"/>
-      <c r="AL41" s="7" t="n">
-        <v>39</v>
+      <c r="AL41" s="23" t="n">
+        <v>312</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="7" t="n">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B42" s="7" t="s">
         <v>38</v>
@@ -4452,77 +4362,71 @@
         <v>40</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="I42" s="7"/>
       <c r="J42" s="7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K42" s="7"/>
       <c r="L42" s="7"/>
-      <c r="M42" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="N42" s="7" t="n">
-        <v>5000034</v>
-      </c>
-      <c r="O42" s="7" t="s">
-        <v>203</v>
-      </c>
+      <c r="M42" s="7"/>
+      <c r="N42" s="7"/>
+      <c r="O42" s="7"/>
       <c r="P42" s="7"/>
       <c r="Q42" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="R42" s="7" t="s">
-        <v>52</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="R42" s="7"/>
       <c r="S42" s="7"/>
       <c r="T42" s="7"/>
       <c r="U42" s="7"/>
       <c r="V42" s="7"/>
       <c r="W42" s="7" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="X42" s="7" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="Y42" s="7"/>
       <c r="Z42" s="7"/>
       <c r="AA42" s="7"/>
       <c r="AB42" s="7"/>
       <c r="AC42" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD42" s="9"/>
+        <v>67</v>
+      </c>
+      <c r="AD42" s="9" t="n">
+        <v>0.05</v>
+      </c>
       <c r="AE42" s="7"/>
       <c r="AF42" s="7"/>
-      <c r="AG42" s="7" t="s">
-        <v>207</v>
-      </c>
+      <c r="AG42" s="7"/>
       <c r="AH42" s="7"/>
       <c r="AI42" s="7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ42" s="7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AK42" s="7"/>
+        <v>36</v>
+      </c>
+      <c r="AK42" s="12" t="s">
+        <v>210</v>
+      </c>
       <c r="AL42" s="7" t="n">
-        <v>39</v>
+        <v>400</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="7" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B43" s="7" t="s">
         <v>38</v>
@@ -4531,62 +4435,80 @@
         <v>39</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="E43" s="21" t="s">
-        <v>178</v>
-      </c>
-      <c r="F43" s="21" t="s">
-        <v>220</v>
-      </c>
-      <c r="G43" s="21" t="s">
-        <v>221</v>
+        <v>40</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>212</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="I43" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="J43" s="7"/>
+        <v>60</v>
+      </c>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="K43" s="7"/>
       <c r="L43" s="7"/>
-      <c r="M43" s="7"/>
-      <c r="N43" s="7"/>
-      <c r="O43" s="7"/>
-      <c r="P43" s="7"/>
-      <c r="Q43" s="7"/>
-      <c r="R43" s="7" t="s">
-        <v>224</v>
+      <c r="M43" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="N43" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="O43" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q43" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="R43" s="22" t="s">
+        <v>93</v>
       </c>
       <c r="S43" s="7"/>
       <c r="T43" s="7"/>
       <c r="U43" s="7"/>
       <c r="V43" s="7"/>
-      <c r="W43" s="7"/>
-      <c r="X43" s="7"/>
+      <c r="W43" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="X43" s="7" t="s">
+        <v>209</v>
+      </c>
       <c r="Y43" s="7"/>
       <c r="Z43" s="7"/>
       <c r="AA43" s="7"/>
       <c r="AB43" s="7"/>
-      <c r="AC43" s="7"/>
+      <c r="AC43" s="7" t="s">
+        <v>67</v>
+      </c>
       <c r="AD43" s="9"/>
       <c r="AE43" s="7"/>
       <c r="AF43" s="7"/>
       <c r="AG43" s="7"/>
       <c r="AH43" s="7"/>
-      <c r="AI43" s="7"/>
+      <c r="AI43" s="7" t="n">
+        <v>3</v>
+      </c>
       <c r="AJ43" s="7" t="n">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="AK43" s="7"/>
-      <c r="AL43" s="10" t="s">
-        <v>225</v>
+      <c r="AL43" s="7" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="7" t="n">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B44" s="7" t="s">
         <v>38</v>
@@ -4595,62 +4517,80 @@
         <v>39</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>219</v>
+        <v>40</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="F44" s="21" t="s">
-        <v>226</v>
+        <v>205</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>216</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="I44" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="J44" s="7"/>
+        <v>60</v>
+      </c>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="K44" s="7"/>
       <c r="L44" s="7"/>
-      <c r="M44" s="7"/>
-      <c r="N44" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="O44" s="7"/>
+      <c r="M44" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="N44" s="7" t="n">
+        <v>5000034</v>
+      </c>
+      <c r="O44" s="7" t="s">
+        <v>215</v>
+      </c>
       <c r="P44" s="7"/>
-      <c r="Q44" s="7"/>
+      <c r="Q44" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="R44" s="7" t="s">
-        <v>224</v>
+        <v>64</v>
       </c>
       <c r="S44" s="7"/>
       <c r="T44" s="7"/>
       <c r="U44" s="7"/>
       <c r="V44" s="7"/>
-      <c r="W44" s="7"/>
-      <c r="X44" s="7"/>
+      <c r="W44" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="X44" s="7" t="s">
+        <v>209</v>
+      </c>
       <c r="Y44" s="7"/>
       <c r="Z44" s="7"/>
       <c r="AA44" s="7"/>
       <c r="AB44" s="7"/>
-      <c r="AC44" s="7"/>
+      <c r="AC44" s="7" t="s">
+        <v>67</v>
+      </c>
       <c r="AD44" s="9"/>
       <c r="AE44" s="7"/>
       <c r="AF44" s="7"/>
-      <c r="AG44" s="7"/>
+      <c r="AG44" s="7" t="s">
+        <v>219</v>
+      </c>
       <c r="AH44" s="7"/>
-      <c r="AI44" s="7"/>
+      <c r="AI44" s="7" t="n">
+        <v>3</v>
+      </c>
       <c r="AJ44" s="7" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AK44" s="7"/>
-      <c r="AL44" s="7"/>
+      <c r="AL44" s="7" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="7" t="n">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B45" s="7" t="s">
         <v>38</v>
@@ -4659,62 +4599,74 @@
         <v>39</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>219</v>
+        <v>40</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="F45" s="21" t="s">
-        <v>226</v>
+        <v>205</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>220</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="I45" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="J45" s="7"/>
+        <v>208</v>
+      </c>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7" t="n">
+        <v>2</v>
+      </c>
       <c r="K45" s="7"/>
       <c r="L45" s="7"/>
       <c r="M45" s="7"/>
-      <c r="N45" s="10" t="s">
-        <v>231</v>
-      </c>
+      <c r="N45" s="7"/>
       <c r="O45" s="7"/>
       <c r="P45" s="7"/>
-      <c r="Q45" s="7"/>
-      <c r="R45" s="7" t="s">
-        <v>224</v>
-      </c>
+      <c r="Q45" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="R45" s="7"/>
       <c r="S45" s="7"/>
       <c r="T45" s="7"/>
       <c r="U45" s="7"/>
       <c r="V45" s="7"/>
-      <c r="W45" s="7"/>
-      <c r="X45" s="7"/>
+      <c r="W45" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="X45" s="7" t="s">
+        <v>209</v>
+      </c>
       <c r="Y45" s="7"/>
       <c r="Z45" s="7"/>
       <c r="AA45" s="7"/>
       <c r="AB45" s="7"/>
-      <c r="AC45" s="7"/>
-      <c r="AD45" s="9"/>
+      <c r="AC45" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD45" s="9" t="n">
+        <v>0.05</v>
+      </c>
       <c r="AE45" s="7"/>
       <c r="AF45" s="7"/>
       <c r="AG45" s="7"/>
       <c r="AH45" s="7"/>
-      <c r="AI45" s="7"/>
+      <c r="AI45" s="7" t="n">
+        <v>2</v>
+      </c>
       <c r="AJ45" s="7" t="n">
-        <v>45</v>
-      </c>
-      <c r="AK45" s="7"/>
-      <c r="AL45" s="7"/>
+        <v>39</v>
+      </c>
+      <c r="AK45" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="AL45" s="7" t="n">
+        <v>400</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="7" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B46" s="7" t="s">
         <v>38</v>
@@ -4723,62 +4675,80 @@
         <v>39</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="E46" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="F46" s="21" t="s">
-        <v>232</v>
-      </c>
-      <c r="G46" s="21" t="s">
-        <v>233</v>
+        <v>40</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="I46" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="J46" s="7"/>
+        <v>60</v>
+      </c>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="K46" s="7"/>
       <c r="L46" s="7"/>
-      <c r="M46" s="7"/>
-      <c r="N46" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="O46" s="7"/>
-      <c r="P46" s="7"/>
-      <c r="Q46" s="7"/>
+      <c r="M46" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="N46" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="O46" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q46" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="R46" s="7" t="s">
-        <v>224</v>
+        <v>64</v>
       </c>
       <c r="S46" s="7"/>
       <c r="T46" s="7"/>
       <c r="U46" s="7"/>
       <c r="V46" s="7"/>
-      <c r="W46" s="7"/>
-      <c r="X46" s="7"/>
+      <c r="W46" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="X46" s="7" t="s">
+        <v>209</v>
+      </c>
       <c r="Y46" s="7"/>
       <c r="Z46" s="7"/>
       <c r="AA46" s="7"/>
       <c r="AB46" s="7"/>
-      <c r="AC46" s="7"/>
+      <c r="AC46" s="7" t="s">
+        <v>67</v>
+      </c>
       <c r="AD46" s="9"/>
       <c r="AE46" s="7"/>
       <c r="AF46" s="7"/>
       <c r="AG46" s="7"/>
       <c r="AH46" s="7"/>
-      <c r="AI46" s="7"/>
+      <c r="AI46" s="7" t="n">
+        <v>3</v>
+      </c>
       <c r="AJ46" s="7" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AK46" s="7"/>
-      <c r="AL46" s="7"/>
+      <c r="AL46" s="7" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="7" t="n">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B47" s="7" t="s">
         <v>38</v>
@@ -4787,62 +4757,80 @@
         <v>39</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="E47" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="F47" s="21" t="s">
-        <v>232</v>
-      </c>
-      <c r="G47" s="21" t="s">
-        <v>233</v>
+        <v>40</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>229</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="I47" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="J47" s="7"/>
+        <v>230</v>
+      </c>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="K47" s="7"/>
       <c r="L47" s="7"/>
-      <c r="M47" s="7"/>
-      <c r="N47" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="O47" s="7"/>
+      <c r="M47" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="N47" s="7" t="n">
+        <v>5000034</v>
+      </c>
+      <c r="O47" s="7" t="s">
+        <v>215</v>
+      </c>
       <c r="P47" s="7"/>
-      <c r="Q47" s="7"/>
+      <c r="Q47" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="R47" s="7" t="s">
-        <v>224</v>
+        <v>64</v>
       </c>
       <c r="S47" s="7"/>
       <c r="T47" s="7"/>
       <c r="U47" s="7"/>
       <c r="V47" s="7"/>
-      <c r="W47" s="7"/>
-      <c r="X47" s="7"/>
+      <c r="W47" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="X47" s="7" t="s">
+        <v>209</v>
+      </c>
       <c r="Y47" s="7"/>
       <c r="Z47" s="7"/>
       <c r="AA47" s="7"/>
       <c r="AB47" s="7"/>
-      <c r="AC47" s="7"/>
+      <c r="AC47" s="7" t="s">
+        <v>67</v>
+      </c>
       <c r="AD47" s="9"/>
       <c r="AE47" s="7"/>
       <c r="AF47" s="7"/>
-      <c r="AG47" s="7"/>
+      <c r="AG47" s="7" t="s">
+        <v>219</v>
+      </c>
       <c r="AH47" s="7"/>
-      <c r="AI47" s="7"/>
+      <c r="AI47" s="7" t="n">
+        <v>3</v>
+      </c>
       <c r="AJ47" s="7" t="n">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="AK47" s="7"/>
-      <c r="AL47" s="7"/>
+      <c r="AL47" s="7" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="7" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B48" s="7" t="s">
         <v>38</v>
@@ -4851,35 +4839,33 @@
         <v>39</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="E48" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="F48" s="21" t="s">
-        <v>237</v>
-      </c>
-      <c r="G48" s="21" t="s">
-        <v>238</v>
+        <v>231</v>
+      </c>
+      <c r="E48" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="F48" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="G48" s="23" t="s">
+        <v>233</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="I48" s="7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="J48" s="7"/>
       <c r="K48" s="7"/>
       <c r="L48" s="7"/>
       <c r="M48" s="7"/>
-      <c r="N48" s="10" t="s">
-        <v>239</v>
-      </c>
+      <c r="N48" s="7"/>
       <c r="O48" s="7"/>
       <c r="P48" s="7"/>
       <c r="Q48" s="7"/>
       <c r="R48" s="7" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="S48" s="7"/>
       <c r="T48" s="7"/>
@@ -4899,14 +4885,16 @@
       <c r="AH48" s="7"/>
       <c r="AI48" s="7"/>
       <c r="AJ48" s="7" t="n">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="AK48" s="7"/>
-      <c r="AL48" s="7"/>
+      <c r="AL48" s="12" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="7" t="n">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B49" s="7" t="s">
         <v>38</v>
@@ -4915,28 +4903,36 @@
         <v>39</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E49" s="7"/>
+        <v>231</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>205</v>
+      </c>
       <c r="F49" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="I49" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="G49" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="H49" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="I49" s="7"/>
       <c r="J49" s="7"/>
       <c r="K49" s="7"/>
       <c r="L49" s="7"/>
       <c r="M49" s="7"/>
-      <c r="N49" s="7"/>
+      <c r="N49" s="12" t="s">
+        <v>241</v>
+      </c>
       <c r="O49" s="7"/>
       <c r="P49" s="7"/>
       <c r="Q49" s="7"/>
-      <c r="R49" s="7"/>
+      <c r="R49" s="7" t="s">
+        <v>236</v>
+      </c>
       <c r="S49" s="7"/>
       <c r="T49" s="7"/>
       <c r="U49" s="7"/>
@@ -4949,22 +4945,20 @@
       <c r="AB49" s="7"/>
       <c r="AC49" s="7"/>
       <c r="AD49" s="9"/>
-      <c r="AE49" s="24"/>
+      <c r="AE49" s="7"/>
       <c r="AF49" s="7"/>
       <c r="AG49" s="7"/>
-      <c r="AH49" s="8"/>
-      <c r="AI49" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ49" s="8" t="n">
-        <v>300</v>
+      <c r="AH49" s="7"/>
+      <c r="AI49" s="7"/>
+      <c r="AJ49" s="7" t="n">
+        <v>44</v>
       </c>
       <c r="AK49" s="7"/>
       <c r="AL49" s="7"/>
     </row>
     <row r="50" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="7" t="n">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B50" s="7" t="s">
         <v>38</v>
@@ -4973,28 +4967,36 @@
         <v>39</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E50" s="7"/>
+        <v>231</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>205</v>
+      </c>
       <c r="F50" s="23" t="s">
-        <v>242</v>
-      </c>
-      <c r="G50" s="23" t="s">
-        <v>243</v>
-      </c>
-      <c r="H50" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="I50" s="7"/>
+        <v>237</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="H50" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="I50" s="7" t="s">
+        <v>240</v>
+      </c>
       <c r="J50" s="7"/>
       <c r="K50" s="7"/>
       <c r="L50" s="7"/>
       <c r="M50" s="7"/>
-      <c r="N50" s="7"/>
+      <c r="N50" s="12" t="s">
+        <v>242</v>
+      </c>
       <c r="O50" s="7"/>
       <c r="P50" s="7"/>
       <c r="Q50" s="7"/>
-      <c r="R50" s="7"/>
+      <c r="R50" s="7" t="s">
+        <v>236</v>
+      </c>
       <c r="S50" s="7"/>
       <c r="T50" s="7"/>
       <c r="U50" s="7"/>
@@ -5007,22 +5009,20 @@
       <c r="AB50" s="7"/>
       <c r="AC50" s="7"/>
       <c r="AD50" s="9"/>
-      <c r="AE50" s="24"/>
+      <c r="AE50" s="7"/>
       <c r="AF50" s="7"/>
       <c r="AG50" s="7"/>
-      <c r="AH50" s="8"/>
-      <c r="AI50" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ50" s="8" t="n">
-        <v>310</v>
+      <c r="AH50" s="7"/>
+      <c r="AI50" s="7"/>
+      <c r="AJ50" s="7" t="n">
+        <v>45</v>
       </c>
       <c r="AK50" s="7"/>
-      <c r="AL50" s="8"/>
+      <c r="AL50" s="7"/>
     </row>
     <row r="51" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="7" t="n">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B51" s="7" t="s">
         <v>38</v>
@@ -5031,28 +5031,36 @@
         <v>39</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E51" s="7"/>
+        <v>231</v>
+      </c>
+      <c r="E51" s="23" t="s">
+        <v>159</v>
+      </c>
       <c r="F51" s="23" t="s">
+        <v>243</v>
+      </c>
+      <c r="G51" s="23" t="s">
         <v>244</v>
       </c>
-      <c r="G51" s="23" t="s">
-        <v>245</v>
-      </c>
-      <c r="H51" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="I51" s="7"/>
+      <c r="H51" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="I51" s="7" t="s">
+        <v>240</v>
+      </c>
       <c r="J51" s="7"/>
       <c r="K51" s="7"/>
       <c r="L51" s="7"/>
       <c r="M51" s="7"/>
-      <c r="N51" s="7"/>
+      <c r="N51" s="12" t="s">
+        <v>245</v>
+      </c>
       <c r="O51" s="7"/>
       <c r="P51" s="7"/>
       <c r="Q51" s="7"/>
-      <c r="R51" s="7"/>
+      <c r="R51" s="7" t="s">
+        <v>236</v>
+      </c>
       <c r="S51" s="7"/>
       <c r="T51" s="7"/>
       <c r="U51" s="7"/>
@@ -5065,24 +5073,20 @@
       <c r="AB51" s="7"/>
       <c r="AC51" s="7"/>
       <c r="AD51" s="9"/>
-      <c r="AE51" s="24"/>
+      <c r="AE51" s="7"/>
       <c r="AF51" s="7"/>
       <c r="AG51" s="7"/>
-      <c r="AH51" s="8"/>
-      <c r="AI51" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ51" s="8" t="n">
-        <v>311</v>
+      <c r="AH51" s="7"/>
+      <c r="AI51" s="7"/>
+      <c r="AJ51" s="7" t="n">
+        <v>46</v>
       </c>
       <c r="AK51" s="7"/>
-      <c r="AL51" s="8" t="n">
-        <v>310</v>
-      </c>
+      <c r="AL51" s="7"/>
     </row>
     <row r="52" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="7" t="n">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B52" s="7" t="s">
         <v>38</v>
@@ -5091,28 +5095,36 @@
         <v>39</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E52" s="7"/>
+        <v>231</v>
+      </c>
+      <c r="E52" s="23" t="s">
+        <v>159</v>
+      </c>
       <c r="F52" s="23" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G52" s="23" t="s">
-        <v>247</v>
-      </c>
-      <c r="H52" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="I52" s="7"/>
+        <v>244</v>
+      </c>
+      <c r="H52" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="I52" s="7" t="s">
+        <v>240</v>
+      </c>
       <c r="J52" s="7"/>
       <c r="K52" s="7"/>
       <c r="L52" s="7"/>
       <c r="M52" s="7"/>
-      <c r="N52" s="7"/>
+      <c r="N52" s="12" t="s">
+        <v>246</v>
+      </c>
       <c r="O52" s="7"/>
       <c r="P52" s="7"/>
       <c r="Q52" s="7"/>
-      <c r="R52" s="7"/>
+      <c r="R52" s="7" t="s">
+        <v>236</v>
+      </c>
       <c r="S52" s="7"/>
       <c r="T52" s="7"/>
       <c r="U52" s="7"/>
@@ -5125,26 +5137,20 @@
       <c r="AB52" s="7"/>
       <c r="AC52" s="7"/>
       <c r="AD52" s="9"/>
-      <c r="AE52" s="24"/>
+      <c r="AE52" s="7"/>
       <c r="AF52" s="7"/>
       <c r="AG52" s="7"/>
-      <c r="AH52" s="8"/>
-      <c r="AI52" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ52" s="8" t="n">
-        <v>312</v>
-      </c>
-      <c r="AK52" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="AL52" s="8" t="n">
-        <v>310</v>
-      </c>
+      <c r="AH52" s="7"/>
+      <c r="AI52" s="7"/>
+      <c r="AJ52" s="7" t="n">
+        <v>47</v>
+      </c>
+      <c r="AK52" s="7"/>
+      <c r="AL52" s="7"/>
     </row>
     <row r="53" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="7" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B53" s="7" t="s">
         <v>38</v>
@@ -5153,28 +5159,36 @@
         <v>39</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E53" s="7"/>
+        <v>231</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>247</v>
+      </c>
       <c r="F53" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="G53" s="23" t="s">
         <v>249</v>
       </c>
-      <c r="G53" s="23" t="s">
-        <v>250</v>
-      </c>
-      <c r="H53" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="I53" s="7"/>
+      <c r="H53" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="I53" s="7" t="s">
+        <v>240</v>
+      </c>
       <c r="J53" s="7"/>
       <c r="K53" s="7"/>
       <c r="L53" s="7"/>
       <c r="M53" s="7"/>
-      <c r="N53" s="7"/>
+      <c r="N53" s="12" t="s">
+        <v>250</v>
+      </c>
       <c r="O53" s="7"/>
       <c r="P53" s="7"/>
       <c r="Q53" s="7"/>
-      <c r="R53" s="7"/>
+      <c r="R53" s="7" t="s">
+        <v>236</v>
+      </c>
       <c r="S53" s="7"/>
       <c r="T53" s="7"/>
       <c r="U53" s="7"/>
@@ -5187,23 +5201,86 @@
       <c r="AB53" s="7"/>
       <c r="AC53" s="7"/>
       <c r="AD53" s="9"/>
-      <c r="AE53" s="24"/>
+      <c r="AE53" s="7"/>
       <c r="AF53" s="7"/>
       <c r="AG53" s="7"/>
-      <c r="AH53" s="8"/>
-      <c r="AI53" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ53" s="8" t="n">
-        <v>400</v>
-      </c>
-      <c r="AK53" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="AL53" s="8"/>
-    </row>
+      <c r="AH53" s="7"/>
+      <c r="AI53" s="7"/>
+      <c r="AJ53" s="7" t="n">
+        <v>48</v>
+      </c>
+      <c r="AK53" s="7"/>
+      <c r="AL53" s="7"/>
+    </row>
+    <row r="54" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="7" t="n">
+        <v>401</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="E54" s="7"/>
+      <c r="F54" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="G54" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="H54" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="I54" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="J54" s="7"/>
+      <c r="K54" s="7"/>
+      <c r="L54" s="7"/>
+      <c r="M54" s="7"/>
+      <c r="N54" s="7"/>
+      <c r="O54" s="7"/>
+      <c r="P54" s="7"/>
+      <c r="Q54" s="7"/>
+      <c r="R54" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="S54" s="7"/>
+      <c r="T54" s="7"/>
+      <c r="U54" s="7"/>
+      <c r="V54" s="7"/>
+      <c r="W54" s="7"/>
+      <c r="X54" s="7"/>
+      <c r="Y54" s="7"/>
+      <c r="Z54" s="7"/>
+      <c r="AA54" s="7"/>
+      <c r="AB54" s="7"/>
+      <c r="AC54" s="7"/>
+      <c r="AD54" s="9"/>
+      <c r="AE54" s="10"/>
+      <c r="AF54" s="7"/>
+      <c r="AG54" s="7"/>
+      <c r="AH54" s="11"/>
+      <c r="AI54" s="11"/>
+      <c r="AJ54" s="11" t="n">
+        <v>401</v>
+      </c>
+      <c r="AK54" s="12"/>
+      <c r="AL54" s="11"/>
+    </row>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:AF53"/>
+  <autoFilter ref="A1:AL53"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - IC Canteen - OTH.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - IC Canteen - OTH.xlsx
@@ -5,20 +5,19 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Canteen" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Canteen!$A$1:$AL$53</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Canteen!$A$1:$AF$53</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">Canteen!$A$1:$AL$53</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">Canteen!$A$1:$AL$53</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Canteen!$A$1:$AF$53</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Canteen!$A$1:$AL$53</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Canteen!$A$1:$AF$53</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Canteen!$A$1:$AL$53</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Canteen!$A$1:$AF$53</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Canteen!$A$1:$AL$53</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Canteen!$A$1:$AF$53</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Canteen!$A$1:$AL$53</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Canteen!$A$1:$AF$53</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="251">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -153,49 +152,6 @@
   </si>
   <si>
     <t xml:space="preserve">Group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Availability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Представленность</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coolers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильники</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coolers: Doors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильник: Двери</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coolers: Quality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильник: Качество</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34
-35
-36
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Activations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Активации</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29
-30
-37
-40
-</t>
   </si>
   <si>
     <t xml:space="preserve">STANDARD 1</t>
@@ -774,6 +730,13 @@
     <t xml:space="preserve">SESSION LEVEL</t>
   </si>
   <si>
+    <t xml:space="preserve">29
+30
+37
+40
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">ACTIVATION_OTHER</t>
   </si>
   <si>
@@ -821,13 +784,40 @@
 No_AtWork</t>
   </si>
   <si>
-    <t xml:space="preserve">PLAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Integer</t>
+    <t xml:space="preserve">Availability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Представленность</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coolers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coolers: Doors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильник: Двери</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coolers: Quality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильник: Качество</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34
+35
+36
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Activations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Активации</t>
   </si>
 </sst>
 </file>
@@ -839,9 +829,9 @@
     <numFmt numFmtId="165" formatCode="0"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* \-??\ _₽_-;_-@_-"/>
     <numFmt numFmtId="167" formatCode="#,##0.0000000"/>
-    <numFmt numFmtId="168" formatCode="0.00"/>
-    <numFmt numFmtId="169" formatCode="0.00%"/>
-    <numFmt numFmtId="170" formatCode="@"/>
+    <numFmt numFmtId="168" formatCode="@"/>
+    <numFmt numFmtId="169" formatCode="0.00"/>
+    <numFmt numFmtId="170" formatCode="0.00%"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -1010,20 +1000,12 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="6" fillId="0" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1038,7 +1020,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1058,11 +1040,11 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1075,6 +1057,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1160,50 +1150,50 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:65536"/>
+  <dimension ref="1:53"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A54" activeCellId="0" sqref="A54"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.0688259109312"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="12.9595141700405"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="12.4251012145749"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="74.4493927125506"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="75.4129554655871"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="41.2388663967611"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="12.3198380566802"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="73.8056680161943"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="74.7692307692308"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="40.919028340081"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="16.0688259109312"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.1740890688259"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="135.182186234818"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="82.3724696356275"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="19.4939271255061"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="46.0607287449393"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="134.004048582996"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="81.6234817813765"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="45.6315789473684"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="18.4251012145749"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="1" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="12.4251012145749"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="12.3198380566802"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="17.3522267206478"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="22.2793522267206"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="21.5303643724696"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="25.0647773279352"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="15.5303643724696"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="15.9595141700405"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="13.2834008097166"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="12.5344129554656"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="13.0688259109312"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="59.9878542510121"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="17.246963562753"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="22.0647773279352"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="24.8502024291498"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="25.3886639676113"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="12.4251012145749"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="59.4493927125506"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="21.3157894736842"/>
     <col collapsed="false" hidden="false" max="35" min="35" style="1" width="7.60728744939271"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="1" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="1" width="10.6032388663968"/>
@@ -1332,7 +1322,7 @@
     </row>
     <row r="2" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="n">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>38</v>
@@ -1343,24 +1333,26 @@
       <c r="D2" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>41</v>
       </c>
+      <c r="F2" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="G2" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>40</v>
+        <v>43</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>44</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
       <c r="Q2" s="7"/>
       <c r="R2" s="7"/>
       <c r="S2" s="7"/>
@@ -1373,24 +1365,30 @@
       <c r="Z2" s="7"/>
       <c r="AA2" s="7"/>
       <c r="AB2" s="7"/>
-      <c r="AC2" s="7"/>
+      <c r="AC2" s="7" t="s">
+        <v>44</v>
+      </c>
       <c r="AD2" s="9"/>
-      <c r="AE2" s="10"/>
+      <c r="AE2" s="7"/>
       <c r="AF2" s="7"/>
       <c r="AG2" s="7"/>
-      <c r="AH2" s="11"/>
-      <c r="AI2" s="11" t="n">
+      <c r="AH2" s="7"/>
+      <c r="AI2" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ2" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="AJ2" s="11" t="n">
+      <c r="AK2" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL2" s="7" t="n">
         <v>300</v>
       </c>
-      <c r="AK2" s="7"/>
-      <c r="AL2" s="7"/>
     </row>
     <row r="3" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="n">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>38</v>
@@ -1401,54 +1399,76 @@
       <c r="D3" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>40</v>
+      <c r="E3" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
+      <c r="J3" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
+      <c r="M3" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>52</v>
+      </c>
       <c r="S3" s="7"/>
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
-      <c r="V3" s="7"/>
+      <c r="V3" s="7" t="s">
+        <v>53</v>
+      </c>
       <c r="W3" s="7"/>
       <c r="X3" s="7"/>
-      <c r="Y3" s="7"/>
+      <c r="Y3" s="7" t="s">
+        <v>54</v>
+      </c>
       <c r="Z3" s="7"/>
       <c r="AA3" s="7"/>
       <c r="AB3" s="7"/>
-      <c r="AC3" s="7"/>
-      <c r="AD3" s="9"/>
-      <c r="AE3" s="10"/>
+      <c r="AC3" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD3" s="9" t="n">
+        <v>0.03502</v>
+      </c>
+      <c r="AE3" s="7"/>
       <c r="AF3" s="7"/>
       <c r="AG3" s="7"/>
-      <c r="AH3" s="11"/>
-      <c r="AI3" s="11" t="n">
+      <c r="AH3" s="7"/>
+      <c r="AI3" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ3" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK3" s="7"/>
+      <c r="AL3" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="AJ3" s="11" t="n">
-        <v>310</v>
-      </c>
-      <c r="AK3" s="7"/>
-      <c r="AL3" s="11"/>
     </row>
     <row r="4" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="n">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>38</v>
@@ -1459,56 +1479,76 @@
       <c r="D4" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>40</v>
+      <c r="E4" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
+      <c r="J4" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
+      <c r="M4" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="N4" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="R4" s="7" t="s">
+        <v>52</v>
+      </c>
       <c r="S4" s="7"/>
       <c r="T4" s="7"/>
       <c r="U4" s="7"/>
-      <c r="V4" s="7"/>
+      <c r="V4" s="7" t="s">
+        <v>53</v>
+      </c>
       <c r="W4" s="7"/>
       <c r="X4" s="7"/>
-      <c r="Y4" s="7"/>
+      <c r="Y4" s="7" t="s">
+        <v>54</v>
+      </c>
       <c r="Z4" s="7"/>
       <c r="AA4" s="7"/>
       <c r="AB4" s="7"/>
-      <c r="AC4" s="7"/>
-      <c r="AD4" s="9"/>
-      <c r="AE4" s="10"/>
+      <c r="AC4" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD4" s="9" t="n">
+        <v>0.0325</v>
+      </c>
+      <c r="AE4" s="7"/>
       <c r="AF4" s="7"/>
       <c r="AG4" s="7"/>
-      <c r="AH4" s="11"/>
-      <c r="AI4" s="11" t="n">
+      <c r="AH4" s="7"/>
+      <c r="AI4" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ4" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK4" s="7"/>
+      <c r="AL4" s="7" t="n">
         <v>1</v>
-      </c>
-      <c r="AJ4" s="11" t="n">
-        <v>311</v>
-      </c>
-      <c r="AK4" s="7"/>
-      <c r="AL4" s="11" t="n">
-        <v>310</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="n">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>38</v>
@@ -1519,58 +1559,76 @@
       <c r="D5" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G5" s="8" t="s">
+      <c r="E5" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="H5" s="8" t="s">
-        <v>40</v>
-      </c>
       <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
+      <c r="J5" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
+      <c r="M5" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="N5" s="8" t="n">
+        <v>54491472</v>
+      </c>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="R5" s="7" t="s">
+        <v>52</v>
+      </c>
       <c r="S5" s="7"/>
       <c r="T5" s="7"/>
       <c r="U5" s="7"/>
-      <c r="V5" s="7"/>
+      <c r="V5" s="7" t="s">
+        <v>53</v>
+      </c>
       <c r="W5" s="7"/>
       <c r="X5" s="7"/>
-      <c r="Y5" s="7"/>
+      <c r="Y5" s="7" t="s">
+        <v>54</v>
+      </c>
       <c r="Z5" s="7"/>
       <c r="AA5" s="7"/>
       <c r="AB5" s="7"/>
-      <c r="AC5" s="7"/>
-      <c r="AD5" s="9"/>
-      <c r="AE5" s="10"/>
+      <c r="AC5" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD5" s="9" t="n">
+        <v>0.0325</v>
+      </c>
+      <c r="AE5" s="7"/>
       <c r="AF5" s="7"/>
       <c r="AG5" s="7"/>
-      <c r="AH5" s="11"/>
-      <c r="AI5" s="11" t="n">
+      <c r="AH5" s="7"/>
+      <c r="AI5" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ5" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK5" s="7"/>
+      <c r="AL5" s="7" t="n">
         <v>1</v>
-      </c>
-      <c r="AJ5" s="11" t="n">
-        <v>312</v>
-      </c>
-      <c r="AK5" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="AL5" s="11" t="n">
-        <v>310</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="n">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>38</v>
@@ -1581,56 +1639,76 @@
       <c r="D6" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>40</v>
+      <c r="E6" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
+      <c r="J6" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
+      <c r="M6" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="R6" s="7" t="s">
+        <v>52</v>
+      </c>
       <c r="S6" s="7"/>
       <c r="T6" s="7"/>
       <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
+      <c r="V6" s="7" t="s">
+        <v>53</v>
+      </c>
       <c r="W6" s="7"/>
       <c r="X6" s="7"/>
-      <c r="Y6" s="7"/>
+      <c r="Y6" s="7" t="s">
+        <v>54</v>
+      </c>
       <c r="Z6" s="7"/>
       <c r="AA6" s="7"/>
       <c r="AB6" s="7"/>
-      <c r="AC6" s="7"/>
-      <c r="AD6" s="9"/>
-      <c r="AE6" s="10"/>
+      <c r="AC6" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD6" s="9" t="n">
+        <v>0.0325</v>
+      </c>
+      <c r="AE6" s="7"/>
       <c r="AF6" s="7"/>
       <c r="AG6" s="7"/>
-      <c r="AH6" s="11"/>
-      <c r="AI6" s="11" t="n">
+      <c r="AH6" s="7"/>
+      <c r="AI6" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ6" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK6" s="7"/>
+      <c r="AL6" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="AJ6" s="11" t="n">
-        <v>400</v>
-      </c>
-      <c r="AK6" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="AL6" s="11"/>
     </row>
     <row r="7" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>38</v>
@@ -1642,61 +1720,75 @@
         <v>40</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>55</v>
+        <v>66</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>67</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
+      <c r="J7" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
+      <c r="M7" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="N7" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="R7" s="7" t="s">
+        <v>52</v>
+      </c>
       <c r="S7" s="7"/>
       <c r="T7" s="7"/>
       <c r="U7" s="7"/>
-      <c r="V7" s="7"/>
+      <c r="V7" s="7" t="s">
+        <v>53</v>
+      </c>
       <c r="W7" s="7"/>
       <c r="X7" s="7"/>
-      <c r="Y7" s="7"/>
+      <c r="Y7" s="7" t="s">
+        <v>54</v>
+      </c>
       <c r="Z7" s="7"/>
       <c r="AA7" s="7"/>
       <c r="AB7" s="7"/>
       <c r="AC7" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD7" s="9"/>
+        <v>55</v>
+      </c>
+      <c r="AD7" s="9" t="n">
+        <v>0.0325</v>
+      </c>
       <c r="AE7" s="7"/>
       <c r="AF7" s="7"/>
       <c r="AG7" s="7"/>
       <c r="AH7" s="7"/>
       <c r="AI7" s="7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ7" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="AK7" s="7"/>
+      <c r="AL7" s="7" t="n">
         <v>1</v>
-      </c>
-      <c r="AK7" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL7" s="7" t="n">
-        <v>300</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>38</v>
@@ -1708,16 +1800,16 @@
         <v>40</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>59</v>
+        <v>70</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>71</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7" t="n">
@@ -1726,38 +1818,38 @@
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
       <c r="M8" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="N8" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
+        <v>72</v>
+      </c>
+      <c r="N8" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
       <c r="Q8" s="7" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="R8" s="7" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="S8" s="7"/>
       <c r="T8" s="7"/>
       <c r="U8" s="7"/>
       <c r="V8" s="7" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="W8" s="7"/>
       <c r="X8" s="7"/>
       <c r="Y8" s="7" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="Z8" s="7"/>
       <c r="AA8" s="7"/>
       <c r="AB8" s="7"/>
       <c r="AC8" s="7" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="AD8" s="9" t="n">
-        <v>0.03502</v>
+        <v>0.01166</v>
       </c>
       <c r="AE8" s="7"/>
       <c r="AF8" s="7"/>
@@ -1767,7 +1859,7 @@
         <v>3</v>
       </c>
       <c r="AJ8" s="7" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AK8" s="7"/>
       <c r="AL8" s="7" t="n">
@@ -1776,7 +1868,7 @@
     </row>
     <row r="9" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>38</v>
@@ -1788,16 +1880,16 @@
         <v>40</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>69</v>
+        <v>74</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="I9" s="7"/>
       <c r="J9" s="7" t="n">
@@ -1806,38 +1898,38 @@
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
       <c r="M9" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="N9" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
+        <v>76</v>
+      </c>
+      <c r="N9" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
       <c r="Q9" s="7" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="R9" s="7" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="S9" s="7"/>
       <c r="T9" s="7"/>
       <c r="U9" s="7"/>
       <c r="V9" s="7" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="W9" s="7"/>
       <c r="X9" s="7"/>
       <c r="Y9" s="7" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="Z9" s="7"/>
       <c r="AA9" s="7"/>
       <c r="AB9" s="7"/>
       <c r="AC9" s="7" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="AD9" s="9" t="n">
-        <v>0.0325</v>
+        <v>0.01166</v>
       </c>
       <c r="AE9" s="7"/>
       <c r="AF9" s="7"/>
@@ -1847,7 +1939,7 @@
         <v>3</v>
       </c>
       <c r="AJ9" s="7" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AK9" s="7"/>
       <c r="AL9" s="7" t="n">
@@ -1856,7 +1948,7 @@
     </row>
     <row r="10" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>38</v>
@@ -1868,16 +1960,16 @@
         <v>40</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>73</v>
+        <v>41</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>79</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="I10" s="7"/>
       <c r="J10" s="7" t="n">
@@ -1885,39 +1977,41 @@
       </c>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
-      <c r="M10" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="N10" s="11" t="n">
-        <v>54491472</v>
-      </c>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8" t="s">
+        <v>80</v>
+      </c>
       <c r="Q10" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="R10" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="S10" s="7"/>
+        <v>51</v>
+      </c>
+      <c r="R10" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="S10" s="14" t="s">
+        <v>82</v>
+      </c>
       <c r="T10" s="7"/>
       <c r="U10" s="7"/>
       <c r="V10" s="7" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="W10" s="7"/>
       <c r="X10" s="7"/>
       <c r="Y10" s="7" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="Z10" s="7"/>
       <c r="AA10" s="7"/>
       <c r="AB10" s="7"/>
       <c r="AC10" s="7" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="AD10" s="9" t="n">
-        <v>0.0325</v>
+        <v>0.01166</v>
       </c>
       <c r="AE10" s="7"/>
       <c r="AF10" s="7"/>
@@ -1927,7 +2021,7 @@
         <v>3</v>
       </c>
       <c r="AJ10" s="7" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AK10" s="7"/>
       <c r="AL10" s="7" t="n">
@@ -1936,7 +2030,7 @@
     </row>
     <row r="11" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>38</v>
@@ -1948,75 +2042,61 @@
         <v>40</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>75</v>
+        <v>84</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>85</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="I11" s="7"/>
-      <c r="J11" s="7" t="n">
-        <v>1</v>
-      </c>
+      <c r="J11" s="7"/>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
-      <c r="M11" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="N11" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="R11" s="7" t="s">
-        <v>64</v>
-      </c>
+      <c r="M11" s="7"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
       <c r="S11" s="7"/>
       <c r="T11" s="7"/>
       <c r="U11" s="7"/>
-      <c r="V11" s="7" t="s">
-        <v>65</v>
-      </c>
+      <c r="V11" s="7"/>
       <c r="W11" s="7"/>
       <c r="X11" s="7"/>
-      <c r="Y11" s="7" t="s">
-        <v>66</v>
-      </c>
+      <c r="Y11" s="7"/>
       <c r="Z11" s="7"/>
       <c r="AA11" s="7"/>
       <c r="AB11" s="7"/>
       <c r="AC11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD11" s="9" t="n">
-        <v>0.0325</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="AD11" s="9"/>
       <c r="AE11" s="7"/>
       <c r="AF11" s="7"/>
       <c r="AG11" s="7"/>
       <c r="AH11" s="7"/>
       <c r="AI11" s="7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ11" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK11" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="AK11" s="10" t="s">
+        <v>86</v>
+      </c>
       <c r="AL11" s="7" t="n">
-        <v>1</v>
+        <v>300</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>38</v>
@@ -2028,16 +2108,16 @@
         <v>40</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>79</v>
+        <v>87</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>88</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="I12" s="7"/>
       <c r="J12" s="7" t="n">
@@ -2045,39 +2125,39 @@
       </c>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
-      <c r="M12" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="N12" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
+      <c r="M12" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="N12" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
       <c r="Q12" s="7" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="R12" s="7" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="S12" s="7"/>
       <c r="T12" s="7"/>
       <c r="U12" s="7"/>
       <c r="V12" s="7" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="W12" s="7"/>
       <c r="X12" s="7"/>
       <c r="Y12" s="7" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="Z12" s="7"/>
       <c r="AA12" s="7"/>
       <c r="AB12" s="7"/>
       <c r="AC12" s="7" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="AD12" s="9" t="n">
-        <v>0.0325</v>
+        <v>0.034986</v>
       </c>
       <c r="AE12" s="7"/>
       <c r="AF12" s="7"/>
@@ -2087,16 +2167,16 @@
         <v>3</v>
       </c>
       <c r="AJ12" s="7" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AK12" s="7"/>
       <c r="AL12" s="7" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="7" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>38</v>
@@ -2108,16 +2188,16 @@
         <v>40</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>83</v>
+        <v>91</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>92</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="I13" s="7"/>
       <c r="J13" s="7" t="n">
@@ -2126,38 +2206,38 @@
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
       <c r="M13" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="N13" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
+        <v>93</v>
+      </c>
+      <c r="N13" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
       <c r="Q13" s="7" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="R13" s="7" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="S13" s="7"/>
       <c r="T13" s="7"/>
       <c r="U13" s="7"/>
       <c r="V13" s="7" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="W13" s="7"/>
       <c r="X13" s="7"/>
       <c r="Y13" s="7" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="Z13" s="7"/>
       <c r="AA13" s="7"/>
       <c r="AB13" s="7"/>
       <c r="AC13" s="7" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="AD13" s="9" t="n">
-        <v>0.01166</v>
+        <v>0.01496</v>
       </c>
       <c r="AE13" s="7"/>
       <c r="AF13" s="7"/>
@@ -2167,16 +2247,16 @@
         <v>3</v>
       </c>
       <c r="AJ13" s="7" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AK13" s="7"/>
       <c r="AL13" s="7" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="7" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>38</v>
@@ -2188,75 +2268,61 @@
         <v>40</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>87</v>
+        <v>95</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>96</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="I14" s="7"/>
-      <c r="J14" s="7" t="n">
-        <v>1</v>
-      </c>
+      <c r="J14" s="7"/>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
-      <c r="M14" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="N14" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="R14" s="7" t="s">
-        <v>64</v>
-      </c>
+      <c r="M14" s="7"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
       <c r="S14" s="7"/>
       <c r="T14" s="7"/>
       <c r="U14" s="7"/>
-      <c r="V14" s="7" t="s">
-        <v>65</v>
-      </c>
+      <c r="V14" s="7"/>
       <c r="W14" s="7"/>
       <c r="X14" s="7"/>
-      <c r="Y14" s="7" t="s">
-        <v>66</v>
-      </c>
+      <c r="Y14" s="7"/>
       <c r="Z14" s="7"/>
       <c r="AA14" s="7"/>
       <c r="AB14" s="7"/>
       <c r="AC14" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD14" s="9" t="n">
-        <v>0.01166</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="AD14" s="9"/>
       <c r="AE14" s="7"/>
       <c r="AF14" s="7"/>
       <c r="AG14" s="7"/>
       <c r="AH14" s="7"/>
       <c r="AI14" s="7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ14" s="7" t="n">
-        <v>8</v>
-      </c>
-      <c r="AK14" s="7"/>
+        <v>13</v>
+      </c>
+      <c r="AK14" s="10" t="s">
+        <v>97</v>
+      </c>
       <c r="AL14" s="7" t="n">
-        <v>1</v>
+        <v>300</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="7" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>38</v>
@@ -2268,16 +2334,16 @@
         <v>40</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="G15" s="17" t="s">
-        <v>91</v>
+        <v>83</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>99</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="I15" s="7"/>
       <c r="J15" s="7" t="n">
@@ -2285,41 +2351,39 @@
       </c>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11" t="s">
-        <v>92</v>
-      </c>
+      <c r="M15" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="N15" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
       <c r="Q15" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="R15" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="S15" s="16" t="s">
-        <v>94</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="R15" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="S15" s="7"/>
       <c r="T15" s="7"/>
       <c r="U15" s="7"/>
       <c r="V15" s="7" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="W15" s="7"/>
       <c r="X15" s="7"/>
       <c r="Y15" s="7" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="Z15" s="7"/>
       <c r="AA15" s="7"/>
       <c r="AB15" s="7"/>
       <c r="AC15" s="7" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="AD15" s="9" t="n">
-        <v>0.01166</v>
+        <v>0.034986</v>
       </c>
       <c r="AE15" s="7"/>
       <c r="AF15" s="7"/>
@@ -2329,16 +2393,16 @@
         <v>3</v>
       </c>
       <c r="AJ15" s="7" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AK15" s="7"/>
       <c r="AL15" s="7" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="7" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>38</v>
@@ -2350,61 +2414,75 @@
         <v>40</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>97</v>
+        <v>102</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>103</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
+      <c r="J16" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
+      <c r="M16" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="N16" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="R16" s="7" t="s">
+        <v>52</v>
+      </c>
       <c r="S16" s="7"/>
       <c r="T16" s="7"/>
       <c r="U16" s="7"/>
-      <c r="V16" s="7"/>
+      <c r="V16" s="7" t="s">
+        <v>53</v>
+      </c>
       <c r="W16" s="7"/>
       <c r="X16" s="7"/>
-      <c r="Y16" s="7"/>
+      <c r="Y16" s="7" t="s">
+        <v>54</v>
+      </c>
       <c r="Z16" s="7"/>
       <c r="AA16" s="7"/>
       <c r="AB16" s="7"/>
       <c r="AC16" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD16" s="9"/>
+        <v>55</v>
+      </c>
+      <c r="AD16" s="9" t="n">
+        <v>0.023766</v>
+      </c>
       <c r="AE16" s="7"/>
       <c r="AF16" s="7"/>
       <c r="AG16" s="7"/>
       <c r="AH16" s="7"/>
       <c r="AI16" s="7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ16" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK16" s="12" t="s">
-        <v>98</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="AK16" s="7"/>
       <c r="AL16" s="7" t="n">
-        <v>300</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="7" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>38</v>
@@ -2416,16 +2494,16 @@
         <v>40</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="13" t="s">
-        <v>100</v>
+        <v>105</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>106</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="I17" s="7"/>
       <c r="J17" s="7" t="n">
@@ -2433,39 +2511,39 @@
       </c>
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
-      <c r="M17" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="N17" s="11" t="s">
-        <v>102</v>
+      <c r="M17" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="N17" s="19" t="s">
+        <v>108</v>
       </c>
       <c r="O17" s="7"/>
       <c r="P17" s="7"/>
       <c r="Q17" s="7" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="R17" s="7" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="S17" s="7"/>
       <c r="T17" s="7"/>
       <c r="U17" s="7"/>
       <c r="V17" s="7" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="W17" s="7"/>
       <c r="X17" s="7"/>
       <c r="Y17" s="7" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="Z17" s="7"/>
       <c r="AA17" s="7"/>
       <c r="AB17" s="7"/>
       <c r="AC17" s="7" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="AD17" s="9" t="n">
-        <v>0.034986</v>
+        <v>0.023766</v>
       </c>
       <c r="AE17" s="7"/>
       <c r="AF17" s="7"/>
@@ -2475,16 +2553,16 @@
         <v>3</v>
       </c>
       <c r="AJ17" s="7" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AK17" s="7"/>
       <c r="AL17" s="7" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="7" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>38</v>
@@ -2496,16 +2574,16 @@
         <v>40</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="G18" s="13" t="s">
-        <v>104</v>
+        <v>109</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>110</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="I18" s="7"/>
       <c r="J18" s="7" t="n">
@@ -2514,35 +2592,35 @@
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
       <c r="M18" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="N18" s="11" t="s">
-        <v>106</v>
+        <v>111</v>
+      </c>
+      <c r="N18" s="8" t="s">
+        <v>112</v>
       </c>
       <c r="O18" s="7"/>
       <c r="P18" s="7"/>
       <c r="Q18" s="7" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="R18" s="7" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="S18" s="7"/>
       <c r="T18" s="7"/>
       <c r="U18" s="7"/>
       <c r="V18" s="7" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="W18" s="7"/>
       <c r="X18" s="7"/>
       <c r="Y18" s="7" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="Z18" s="7"/>
       <c r="AA18" s="7"/>
       <c r="AB18" s="7"/>
       <c r="AC18" s="7" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="AD18" s="9" t="n">
         <v>0.01496</v>
@@ -2555,16 +2633,16 @@
         <v>3</v>
       </c>
       <c r="AJ18" s="7" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AK18" s="7"/>
       <c r="AL18" s="7" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="7" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>38</v>
@@ -2576,25 +2654,25 @@
         <v>40</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="11"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
       <c r="Q19" s="7"/>
       <c r="R19" s="7"/>
       <c r="S19" s="7"/>
@@ -2608,7 +2686,7 @@
       <c r="AA19" s="7"/>
       <c r="AB19" s="7"/>
       <c r="AC19" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="AD19" s="9"/>
       <c r="AE19" s="7"/>
@@ -2619,10 +2697,10 @@
         <v>2</v>
       </c>
       <c r="AJ19" s="7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK19" s="12" t="s">
-        <v>109</v>
+        <v>18</v>
+      </c>
+      <c r="AK19" s="10" t="s">
+        <v>115</v>
       </c>
       <c r="AL19" s="7" t="n">
         <v>300</v>
@@ -2630,7 +2708,7 @@
     </row>
     <row r="20" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="7" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>38</v>
@@ -2642,16 +2720,16 @@
         <v>40</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>111</v>
+        <v>116</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>117</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="I20" s="7"/>
       <c r="J20" s="7" t="n">
@@ -2660,35 +2738,35 @@
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
       <c r="M20" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="N20" s="19" t="s">
-        <v>113</v>
+        <v>118</v>
+      </c>
+      <c r="N20" s="8" t="s">
+        <v>119</v>
       </c>
       <c r="O20" s="7"/>
       <c r="P20" s="7"/>
       <c r="Q20" s="7" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="R20" s="7" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="S20" s="7"/>
       <c r="T20" s="7"/>
       <c r="U20" s="7"/>
       <c r="V20" s="7" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="W20" s="7"/>
       <c r="X20" s="7"/>
       <c r="Y20" s="7" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="Z20" s="7"/>
       <c r="AA20" s="7"/>
       <c r="AB20" s="7"/>
       <c r="AC20" s="7" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="AD20" s="9" t="n">
         <v>0.034986</v>
@@ -2701,16 +2779,16 @@
         <v>3</v>
       </c>
       <c r="AJ20" s="7" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AK20" s="7"/>
       <c r="AL20" s="7" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="7" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>38</v>
@@ -2722,16 +2800,16 @@
         <v>40</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G21" s="13" t="s">
-        <v>115</v>
+        <v>120</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>121</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="I21" s="7"/>
       <c r="J21" s="7" t="n">
@@ -2740,35 +2818,35 @@
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
       <c r="M21" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="N21" s="20" t="s">
-        <v>116</v>
+        <v>120</v>
+      </c>
+      <c r="N21" s="8" t="n">
+        <v>4607174577787</v>
       </c>
       <c r="O21" s="7"/>
       <c r="P21" s="7"/>
       <c r="Q21" s="7" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="R21" s="7" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="S21" s="7"/>
       <c r="T21" s="7"/>
       <c r="U21" s="7"/>
       <c r="V21" s="7" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="W21" s="7"/>
       <c r="X21" s="7"/>
       <c r="Y21" s="7" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="Z21" s="7"/>
       <c r="AA21" s="7"/>
       <c r="AB21" s="7"/>
       <c r="AC21" s="7" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="AD21" s="9" t="n">
         <v>0.023766</v>
@@ -2781,16 +2859,16 @@
         <v>3</v>
       </c>
       <c r="AJ21" s="7" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AK21" s="7"/>
       <c r="AL21" s="7" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="7" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>38</v>
@@ -2802,16 +2880,16 @@
         <v>40</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G22" s="13" t="s">
-        <v>118</v>
+        <v>122</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>123</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="I22" s="7"/>
       <c r="J22" s="7" t="n">
@@ -2820,35 +2898,35 @@
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
       <c r="M22" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="N22" s="21" t="s">
-        <v>120</v>
+        <v>124</v>
+      </c>
+      <c r="N22" s="8" t="s">
+        <v>125</v>
       </c>
       <c r="O22" s="7"/>
       <c r="P22" s="7"/>
       <c r="Q22" s="7" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="R22" s="7" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="S22" s="7"/>
       <c r="T22" s="7"/>
       <c r="U22" s="7"/>
       <c r="V22" s="7" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="W22" s="7"/>
       <c r="X22" s="7"/>
       <c r="Y22" s="7" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="Z22" s="7"/>
       <c r="AA22" s="7"/>
       <c r="AB22" s="7"/>
       <c r="AC22" s="7" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="AD22" s="9" t="n">
         <v>0.023766</v>
@@ -2861,16 +2939,16 @@
         <v>3</v>
       </c>
       <c r="AJ22" s="7" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AK22" s="7"/>
       <c r="AL22" s="7" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="7" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>38</v>
@@ -2882,16 +2960,16 @@
         <v>40</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="G23" s="13" t="s">
-        <v>122</v>
+        <v>126</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>127</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="I23" s="7"/>
       <c r="J23" s="7" t="n">
@@ -2900,38 +2978,38 @@
       <c r="K23" s="7"/>
       <c r="L23" s="7"/>
       <c r="M23" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="N23" s="11" t="s">
-        <v>124</v>
+        <v>126</v>
+      </c>
+      <c r="N23" s="8" t="n">
+        <v>4650075420980</v>
       </c>
       <c r="O23" s="7"/>
       <c r="P23" s="7"/>
       <c r="Q23" s="7" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="R23" s="7" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="S23" s="7"/>
       <c r="T23" s="7"/>
       <c r="U23" s="7"/>
       <c r="V23" s="7" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="W23" s="7"/>
       <c r="X23" s="7"/>
       <c r="Y23" s="7" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="Z23" s="7"/>
       <c r="AA23" s="7"/>
       <c r="AB23" s="7"/>
       <c r="AC23" s="7" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="AD23" s="9" t="n">
-        <v>0.01496</v>
+        <v>0.023766</v>
       </c>
       <c r="AE23" s="7"/>
       <c r="AF23" s="7"/>
@@ -2941,16 +3019,16 @@
         <v>3</v>
       </c>
       <c r="AJ23" s="7" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AK23" s="7"/>
       <c r="AL23" s="7" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="7" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>38</v>
@@ -2962,61 +3040,75 @@
         <v>40</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>129</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
+      <c r="J24" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="11"/>
-      <c r="P24" s="11"/>
-      <c r="Q24" s="7"/>
-      <c r="R24" s="7"/>
+      <c r="M24" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="N24" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="R24" s="7" t="s">
+        <v>52</v>
+      </c>
       <c r="S24" s="7"/>
       <c r="T24" s="7"/>
       <c r="U24" s="7"/>
-      <c r="V24" s="7"/>
+      <c r="V24" s="7" t="s">
+        <v>53</v>
+      </c>
       <c r="W24" s="7"/>
       <c r="X24" s="7"/>
-      <c r="Y24" s="7"/>
+      <c r="Y24" s="7" t="s">
+        <v>54</v>
+      </c>
       <c r="Z24" s="7"/>
       <c r="AA24" s="7"/>
       <c r="AB24" s="7"/>
       <c r="AC24" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD24" s="9"/>
+        <v>55</v>
+      </c>
+      <c r="AD24" s="9" t="n">
+        <v>0.023766</v>
+      </c>
       <c r="AE24" s="7"/>
       <c r="AF24" s="7"/>
       <c r="AG24" s="7"/>
       <c r="AH24" s="7"/>
       <c r="AI24" s="7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ24" s="7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK24" s="7"/>
+      <c r="AL24" s="7" t="n">
         <v>18</v>
-      </c>
-      <c r="AK24" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="AL24" s="7" t="n">
-        <v>300</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="7" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>38</v>
@@ -3028,16 +3120,16 @@
         <v>40</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G25" s="13" t="s">
-        <v>129</v>
+        <v>132</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>133</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="I25" s="7"/>
       <c r="J25" s="7" t="n">
@@ -3045,39 +3137,39 @@
       </c>
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
-      <c r="M25" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="N25" s="11" t="s">
-        <v>131</v>
+      <c r="M25" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="N25" s="8" t="n">
+        <v>4607174579729</v>
       </c>
       <c r="O25" s="7"/>
       <c r="P25" s="7"/>
       <c r="Q25" s="7" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="R25" s="7" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="S25" s="7"/>
       <c r="T25" s="7"/>
       <c r="U25" s="7"/>
       <c r="V25" s="7" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="W25" s="7"/>
       <c r="X25" s="7"/>
       <c r="Y25" s="7" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="Z25" s="7"/>
       <c r="AA25" s="7"/>
       <c r="AB25" s="7"/>
       <c r="AC25" s="7" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="AD25" s="9" t="n">
-        <v>0.034986</v>
+        <v>0.023766</v>
       </c>
       <c r="AE25" s="7"/>
       <c r="AF25" s="7"/>
@@ -3087,7 +3179,7 @@
         <v>3</v>
       </c>
       <c r="AJ25" s="7" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="AK25" s="7"/>
       <c r="AL25" s="7" t="n">
@@ -3096,7 +3188,7 @@
     </row>
     <row r="26" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="7" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>38</v>
@@ -3108,16 +3200,16 @@
         <v>40</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="G26" s="13" t="s">
-        <v>133</v>
+        <v>134</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>135</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="I26" s="7"/>
       <c r="J26" s="7" t="n">
@@ -3126,38 +3218,38 @@
       <c r="K26" s="7"/>
       <c r="L26" s="7"/>
       <c r="M26" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="N26" s="11" t="n">
-        <v>4607174577787</v>
+        <v>136</v>
+      </c>
+      <c r="N26" s="8" t="s">
+        <v>137</v>
       </c>
       <c r="O26" s="7"/>
       <c r="P26" s="7"/>
       <c r="Q26" s="7" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="R26" s="7" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="S26" s="7"/>
       <c r="T26" s="7"/>
       <c r="U26" s="7"/>
       <c r="V26" s="7" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="W26" s="7"/>
       <c r="X26" s="7"/>
       <c r="Y26" s="7" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="Z26" s="7"/>
       <c r="AA26" s="7"/>
       <c r="AB26" s="7"/>
       <c r="AC26" s="7" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="AD26" s="9" t="n">
-        <v>0.023766</v>
+        <v>0.014994</v>
       </c>
       <c r="AE26" s="7"/>
       <c r="AF26" s="7"/>
@@ -3167,7 +3259,7 @@
         <v>3</v>
       </c>
       <c r="AJ26" s="7" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AK26" s="7"/>
       <c r="AL26" s="7" t="n">
@@ -3176,7 +3268,7 @@
     </row>
     <row r="27" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="7" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>38</v>
@@ -3188,75 +3280,63 @@
         <v>40</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="G27" s="13" t="s">
-        <v>135</v>
+        <v>138</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>139</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="I27" s="7"/>
-      <c r="J27" s="7" t="n">
-        <v>1</v>
-      </c>
+      <c r="J27" s="7"/>
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
-      <c r="M27" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="N27" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="O27" s="7"/>
-      <c r="P27" s="7"/>
-      <c r="Q27" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="R27" s="7" t="s">
-        <v>64</v>
-      </c>
+      <c r="M27" s="7"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="8"/>
+      <c r="Q27" s="8"/>
+      <c r="R27" s="8"/>
       <c r="S27" s="7"/>
       <c r="T27" s="7"/>
       <c r="U27" s="7"/>
       <c r="V27" s="7" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="W27" s="7"/>
       <c r="X27" s="7"/>
-      <c r="Y27" s="7" t="s">
-        <v>66</v>
-      </c>
+      <c r="Y27" s="7"/>
       <c r="Z27" s="7"/>
       <c r="AA27" s="7"/>
       <c r="AB27" s="7"/>
       <c r="AC27" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD27" s="9" t="n">
-        <v>0.023766</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="AD27" s="9"/>
       <c r="AE27" s="7"/>
       <c r="AF27" s="7"/>
       <c r="AG27" s="7"/>
       <c r="AH27" s="7"/>
       <c r="AI27" s="7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ27" s="7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK27" s="7"/>
+        <v>26</v>
+      </c>
+      <c r="AK27" s="7" t="n">
+        <v>27</v>
+      </c>
       <c r="AL27" s="7" t="n">
-        <v>18</v>
+        <v>300</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="7" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>38</v>
@@ -3268,16 +3348,16 @@
         <v>40</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="G28" s="13" t="s">
-        <v>139</v>
+        <v>141</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>142</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>60</v>
+        <v>143</v>
       </c>
       <c r="I28" s="7"/>
       <c r="J28" s="7" t="n">
@@ -3285,36 +3365,38 @@
       </c>
       <c r="K28" s="7"/>
       <c r="L28" s="7"/>
-      <c r="M28" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="N28" s="11" t="n">
-        <v>4650075420980</v>
+      <c r="M28" s="7"/>
+      <c r="N28" s="16" t="s">
+        <v>144</v>
       </c>
       <c r="O28" s="7"/>
-      <c r="P28" s="7"/>
+      <c r="P28" s="8" t="s">
+        <v>145</v>
+      </c>
       <c r="Q28" s="7" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="R28" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="S28" s="7"/>
+        <v>81</v>
+      </c>
+      <c r="S28" s="7" t="s">
+        <v>146</v>
+      </c>
       <c r="T28" s="7"/>
       <c r="U28" s="7"/>
       <c r="V28" s="7" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="W28" s="7"/>
       <c r="X28" s="7"/>
       <c r="Y28" s="7" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="Z28" s="7"/>
       <c r="AA28" s="7"/>
       <c r="AB28" s="7"/>
       <c r="AC28" s="7" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="AD28" s="9" t="n">
         <v>0.023766</v>
@@ -3327,16 +3409,16 @@
         <v>3</v>
       </c>
       <c r="AJ28" s="7" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="AK28" s="7"/>
       <c r="AL28" s="7" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="7" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>38</v>
@@ -3348,75 +3430,77 @@
         <v>40</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>95</v>
+        <v>147</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="G29" s="13" t="s">
-        <v>141</v>
+        <v>148</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>149</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="I29" s="7"/>
       <c r="J29" s="7" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K29" s="7"/>
       <c r="L29" s="7"/>
       <c r="M29" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="N29" s="11" t="s">
-        <v>143</v>
+        <v>150</v>
+      </c>
+      <c r="N29" s="20" t="s">
+        <v>151</v>
       </c>
       <c r="O29" s="7"/>
-      <c r="P29" s="7"/>
+      <c r="P29" s="7" t="s">
+        <v>152</v>
+      </c>
       <c r="Q29" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="R29" s="7" t="s">
-        <v>64</v>
+        <v>51</v>
+      </c>
+      <c r="R29" s="20" t="s">
+        <v>81</v>
       </c>
       <c r="S29" s="7"/>
       <c r="T29" s="7"/>
       <c r="U29" s="7"/>
-      <c r="V29" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="W29" s="7"/>
-      <c r="X29" s="7"/>
-      <c r="Y29" s="7" t="s">
-        <v>66</v>
-      </c>
+      <c r="V29" s="7"/>
+      <c r="W29" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="X29" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y29" s="7"/>
       <c r="Z29" s="7"/>
       <c r="AA29" s="7"/>
       <c r="AB29" s="7"/>
       <c r="AC29" s="7" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="AD29" s="9" t="n">
-        <v>0.023766</v>
+        <v>0.045</v>
       </c>
       <c r="AE29" s="7"/>
       <c r="AF29" s="7"/>
       <c r="AG29" s="7"/>
       <c r="AH29" s="7"/>
       <c r="AI29" s="7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ29" s="7" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AK29" s="7"/>
       <c r="AL29" s="7" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="7" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>38</v>
@@ -3428,75 +3512,77 @@
         <v>40</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>95</v>
+        <v>147</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G30" s="13" t="s">
-        <v>145</v>
+        <v>155</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>156</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="I30" s="7"/>
       <c r="J30" s="7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K30" s="7"/>
       <c r="L30" s="7"/>
-      <c r="M30" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="N30" s="11" t="n">
-        <v>4607174579729</v>
+      <c r="M30" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="N30" s="20" t="s">
+        <v>151</v>
       </c>
       <c r="O30" s="7"/>
-      <c r="P30" s="7"/>
+      <c r="P30" s="7" t="s">
+        <v>152</v>
+      </c>
       <c r="Q30" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="R30" s="7" t="s">
-        <v>64</v>
+        <v>51</v>
+      </c>
+      <c r="R30" s="20" t="s">
+        <v>81</v>
       </c>
       <c r="S30" s="7"/>
       <c r="T30" s="7"/>
       <c r="U30" s="7"/>
-      <c r="V30" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="W30" s="7"/>
-      <c r="X30" s="7"/>
-      <c r="Y30" s="7" t="s">
-        <v>66</v>
-      </c>
+      <c r="V30" s="7"/>
+      <c r="W30" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="X30" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y30" s="7"/>
       <c r="Z30" s="7"/>
       <c r="AA30" s="7"/>
       <c r="AB30" s="7"/>
       <c r="AC30" s="7" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="AD30" s="9" t="n">
-        <v>0.023766</v>
+        <v>0.045</v>
       </c>
       <c r="AE30" s="7"/>
       <c r="AF30" s="7"/>
       <c r="AG30" s="7"/>
       <c r="AH30" s="7"/>
       <c r="AI30" s="7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ30" s="7" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="AK30" s="7"/>
       <c r="AL30" s="7" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="7" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>38</v>
@@ -3508,75 +3594,67 @@
         <v>40</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>95</v>
+        <v>158</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="G31" s="13" t="s">
-        <v>147</v>
+        <v>159</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>160</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>60</v>
+        <v>161</v>
       </c>
       <c r="I31" s="7"/>
-      <c r="J31" s="7" t="n">
-        <v>1</v>
-      </c>
+      <c r="J31" s="7"/>
       <c r="K31" s="7"/>
       <c r="L31" s="7"/>
-      <c r="M31" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="N31" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="O31" s="7"/>
-      <c r="P31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="8"/>
       <c r="Q31" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="R31" s="7" t="s">
-        <v>64</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="R31" s="7"/>
       <c r="S31" s="7"/>
       <c r="T31" s="7"/>
       <c r="U31" s="7"/>
-      <c r="V31" s="7" t="s">
-        <v>65</v>
-      </c>
+      <c r="V31" s="7"/>
       <c r="W31" s="7"/>
       <c r="X31" s="7"/>
-      <c r="Y31" s="7" t="s">
-        <v>66</v>
-      </c>
+      <c r="Y31" s="7"/>
       <c r="Z31" s="7"/>
       <c r="AA31" s="7"/>
       <c r="AB31" s="7"/>
       <c r="AC31" s="7" t="s">
-        <v>67</v>
+        <v>163</v>
       </c>
       <c r="AD31" s="9" t="n">
-        <v>0.014994</v>
+        <v>0.135</v>
       </c>
       <c r="AE31" s="7"/>
       <c r="AF31" s="7"/>
-      <c r="AG31" s="7"/>
+      <c r="AG31" s="7" t="s">
+        <v>164</v>
+      </c>
       <c r="AH31" s="7"/>
       <c r="AI31" s="7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ31" s="7" t="n">
-        <v>25</v>
-      </c>
-      <c r="AK31" s="7"/>
+        <v>30</v>
+      </c>
+      <c r="AK31" s="10" t="s">
+        <v>165</v>
+      </c>
       <c r="AL31" s="7" t="n">
-        <v>18</v>
+        <v>311</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="7" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>38</v>
@@ -3588,63 +3666,67 @@
         <v>40</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>95</v>
+        <v>158</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>56</v>
+        <v>168</v>
       </c>
       <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
+      <c r="J32" s="7" t="n">
+        <v>0.5</v>
+      </c>
       <c r="K32" s="7"/>
       <c r="L32" s="7"/>
-      <c r="M32" s="7"/>
-      <c r="N32" s="11"/>
-      <c r="O32" s="11"/>
-      <c r="P32" s="11"/>
-      <c r="Q32" s="11"/>
-      <c r="R32" s="11"/>
+      <c r="M32" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="N32" s="8"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="8"/>
+      <c r="Q32" s="7"/>
+      <c r="R32" s="7"/>
       <c r="S32" s="7"/>
       <c r="T32" s="7"/>
       <c r="U32" s="7"/>
-      <c r="V32" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="W32" s="7"/>
+      <c r="V32" s="7"/>
+      <c r="W32" s="7" t="s">
+        <v>170</v>
+      </c>
       <c r="X32" s="7"/>
       <c r="Y32" s="7"/>
       <c r="Z32" s="7"/>
       <c r="AA32" s="7"/>
       <c r="AB32" s="7"/>
       <c r="AC32" s="7" t="s">
-        <v>152</v>
+        <v>55</v>
       </c>
       <c r="AD32" s="9"/>
       <c r="AE32" s="7"/>
       <c r="AF32" s="7"/>
-      <c r="AG32" s="7"/>
+      <c r="AG32" s="7" t="s">
+        <v>171</v>
+      </c>
       <c r="AH32" s="7"/>
       <c r="AI32" s="7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ32" s="7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AK32" s="7" t="n">
-        <v>27</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="AK32" s="7"/>
       <c r="AL32" s="7" t="n">
-        <v>300</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="7" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>38</v>
@@ -3656,59 +3738,51 @@
         <v>40</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>95</v>
+        <v>158</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G33" s="13" t="s">
-        <v>154</v>
+        <v>172</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>173</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="I33" s="7"/>
       <c r="J33" s="7" t="n">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="K33" s="7"/>
       <c r="L33" s="7"/>
-      <c r="M33" s="7"/>
-      <c r="N33" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="O33" s="7"/>
-      <c r="P33" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>63</v>
-      </c>
+      <c r="M33" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="N33" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="O33" s="8"/>
+      <c r="P33" s="8"/>
+      <c r="Q33" s="7"/>
       <c r="R33" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="S33" s="7" t="s">
-        <v>158</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="S33" s="7"/>
       <c r="T33" s="7"/>
       <c r="U33" s="7"/>
-      <c r="V33" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="W33" s="7"/>
+      <c r="V33" s="7"/>
+      <c r="W33" s="7" t="s">
+        <v>177</v>
+      </c>
       <c r="X33" s="7"/>
-      <c r="Y33" s="7" t="s">
-        <v>66</v>
-      </c>
+      <c r="Y33" s="7"/>
       <c r="Z33" s="7"/>
       <c r="AA33" s="7"/>
       <c r="AB33" s="7"/>
       <c r="AC33" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD33" s="9" t="n">
-        <v>0.023766</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="AD33" s="9"/>
       <c r="AE33" s="7"/>
       <c r="AF33" s="7"/>
       <c r="AG33" s="7"/>
@@ -3717,16 +3791,16 @@
         <v>3</v>
       </c>
       <c r="AJ33" s="7" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AK33" s="7"/>
       <c r="AL33" s="7" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="7" t="n">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>38</v>
@@ -3738,77 +3812,75 @@
         <v>40</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>60</v>
+        <v>181</v>
       </c>
       <c r="I34" s="7"/>
       <c r="J34" s="7" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="K34" s="7"/>
       <c r="L34" s="7"/>
-      <c r="M34" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="N34" s="22" t="s">
-        <v>163</v>
-      </c>
-      <c r="O34" s="7"/>
-      <c r="P34" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="R34" s="22" t="s">
-        <v>93</v>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="O34" s="8"/>
+      <c r="P34" s="8"/>
+      <c r="Q34" s="7"/>
+      <c r="R34" s="7" t="s">
+        <v>183</v>
       </c>
       <c r="S34" s="7"/>
       <c r="T34" s="7"/>
       <c r="U34" s="7"/>
       <c r="V34" s="7"/>
       <c r="W34" s="7" t="s">
-        <v>165</v>
+        <v>53</v>
       </c>
       <c r="X34" s="7" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="Y34" s="7"/>
       <c r="Z34" s="7"/>
       <c r="AA34" s="7"/>
       <c r="AB34" s="7"/>
       <c r="AC34" s="7" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="AD34" s="9" t="n">
         <v>0.045</v>
       </c>
       <c r="AE34" s="7"/>
       <c r="AF34" s="7"/>
-      <c r="AG34" s="7"/>
-      <c r="AH34" s="7"/>
+      <c r="AG34" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="AH34" s="7" t="s">
+        <v>166</v>
+      </c>
       <c r="AI34" s="7" t="n">
         <v>2</v>
       </c>
       <c r="AJ34" s="7" t="n">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="AK34" s="7"/>
-      <c r="AL34" s="7" t="n">
-        <v>400</v>
+      <c r="AL34" s="21" t="n">
+        <v>312</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="7" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>38</v>
@@ -3820,77 +3892,75 @@
         <v>40</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>167</v>
+        <v>178</v>
+      </c>
+      <c r="F35" s="14" t="s">
+        <v>185</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>60</v>
+        <v>187</v>
       </c>
       <c r="I35" s="7"/>
       <c r="J35" s="7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K35" s="7"/>
       <c r="L35" s="7"/>
       <c r="M35" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="N35" s="22" t="s">
-        <v>163</v>
-      </c>
-      <c r="O35" s="7"/>
-      <c r="P35" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="R35" s="22" t="s">
-        <v>93</v>
+        <v>169</v>
+      </c>
+      <c r="N35" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="O35" s="8"/>
+      <c r="P35" s="8"/>
+      <c r="Q35" s="7"/>
+      <c r="R35" s="7" t="s">
+        <v>176</v>
       </c>
       <c r="S35" s="7"/>
       <c r="T35" s="7"/>
       <c r="U35" s="7"/>
       <c r="V35" s="7"/>
       <c r="W35" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="X35" s="7" t="s">
-        <v>169</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="X35" s="7"/>
       <c r="Y35" s="7"/>
       <c r="Z35" s="7"/>
       <c r="AA35" s="7"/>
       <c r="AB35" s="7"/>
       <c r="AC35" s="7" t="s">
-        <v>67</v>
+        <v>163</v>
       </c>
       <c r="AD35" s="9" t="n">
         <v>0.045</v>
       </c>
       <c r="AE35" s="7"/>
       <c r="AF35" s="7"/>
-      <c r="AG35" s="7"/>
-      <c r="AH35" s="7"/>
+      <c r="AG35" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="AH35" s="7" t="s">
+        <v>166</v>
+      </c>
       <c r="AI35" s="7" t="n">
         <v>2</v>
       </c>
       <c r="AJ35" s="7" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AK35" s="7"/>
-      <c r="AL35" s="7" t="n">
-        <v>400</v>
+      <c r="AL35" s="21" t="n">
+        <v>312</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="7" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>38</v>
@@ -3902,67 +3972,77 @@
         <v>40</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="H36" s="7" t="s">
-        <v>173</v>
+        <v>190</v>
+      </c>
+      <c r="H36" s="22" t="s">
+        <v>191</v>
       </c>
       <c r="I36" s="7"/>
       <c r="J36" s="7"/>
-      <c r="K36" s="7"/>
-      <c r="L36" s="7"/>
-      <c r="M36" s="7"/>
-      <c r="N36" s="11"/>
-      <c r="O36" s="11"/>
-      <c r="P36" s="11"/>
-      <c r="Q36" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="R36" s="7"/>
+      <c r="K36" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" s="7" t="n">
+        <v>15</v>
+      </c>
+      <c r="M36" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="N36" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="O36" s="8"/>
+      <c r="P36" s="8"/>
+      <c r="Q36" s="7"/>
+      <c r="R36" s="7" t="s">
+        <v>176</v>
+      </c>
       <c r="S36" s="7"/>
       <c r="T36" s="7"/>
       <c r="U36" s="7"/>
       <c r="V36" s="7"/>
-      <c r="W36" s="7"/>
+      <c r="W36" s="7" t="s">
+        <v>170</v>
+      </c>
       <c r="X36" s="7"/>
       <c r="Y36" s="7"/>
       <c r="Z36" s="7"/>
       <c r="AA36" s="7"/>
       <c r="AB36" s="7"/>
       <c r="AC36" s="7" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="AD36" s="9" t="n">
-        <v>0.135</v>
+        <v>0.045</v>
       </c>
       <c r="AE36" s="7"/>
       <c r="AF36" s="7"/>
       <c r="AG36" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="AH36" s="7"/>
+        <v>188</v>
+      </c>
+      <c r="AH36" s="7" t="s">
+        <v>166</v>
+      </c>
       <c r="AI36" s="7" t="n">
         <v>2</v>
       </c>
       <c r="AJ36" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="AK36" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="AL36" s="7" t="n">
-        <v>311</v>
+        <v>35</v>
+      </c>
+      <c r="AK36" s="7"/>
+      <c r="AL36" s="21" t="n">
+        <v>312</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="7" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B37" s="7" t="s">
         <v>38</v>
@@ -3974,67 +4054,71 @@
         <v>40</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>170</v>
+        <v>193</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="I37" s="7"/>
       <c r="J37" s="7" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="K37" s="7"/>
       <c r="L37" s="7"/>
-      <c r="M37" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="N37" s="11"/>
-      <c r="O37" s="11"/>
-      <c r="P37" s="11"/>
-      <c r="Q37" s="7"/>
+      <c r="M37" s="7"/>
+      <c r="N37" s="7"/>
+      <c r="O37" s="7"/>
+      <c r="P37" s="7"/>
+      <c r="Q37" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="R37" s="7"/>
       <c r="S37" s="7"/>
       <c r="T37" s="7"/>
       <c r="U37" s="7"/>
       <c r="V37" s="7"/>
       <c r="W37" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="X37" s="7"/>
+        <v>153</v>
+      </c>
+      <c r="X37" s="7" t="s">
+        <v>197</v>
+      </c>
       <c r="Y37" s="7"/>
       <c r="Z37" s="7"/>
       <c r="AA37" s="7"/>
       <c r="AB37" s="7"/>
       <c r="AC37" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD37" s="9"/>
+        <v>55</v>
+      </c>
+      <c r="AD37" s="9" t="n">
+        <v>0.05</v>
+      </c>
       <c r="AE37" s="7"/>
       <c r="AF37" s="7"/>
-      <c r="AG37" s="7" t="s">
-        <v>183</v>
-      </c>
+      <c r="AG37" s="7"/>
       <c r="AH37" s="7"/>
       <c r="AI37" s="7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ37" s="7" t="n">
-        <v>31</v>
-      </c>
-      <c r="AK37" s="7"/>
+        <v>36</v>
+      </c>
+      <c r="AK37" s="10" t="s">
+        <v>198</v>
+      </c>
       <c r="AL37" s="7" t="n">
-        <v>30</v>
+        <v>400</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="7" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>38</v>
@@ -4046,49 +4130,57 @@
         <v>40</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>170</v>
+        <v>193</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>186</v>
+        <v>48</v>
       </c>
       <c r="I38" s="7"/>
       <c r="J38" s="7" t="n">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="K38" s="7"/>
       <c r="L38" s="7"/>
       <c r="M38" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="N38" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="O38" s="11"/>
-      <c r="P38" s="11"/>
-      <c r="Q38" s="7"/>
-      <c r="R38" s="7" t="s">
-        <v>188</v>
+        <v>201</v>
+      </c>
+      <c r="N38" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="O38" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q38" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="R38" s="20" t="s">
+        <v>81</v>
       </c>
       <c r="S38" s="7"/>
       <c r="T38" s="7"/>
       <c r="U38" s="7"/>
       <c r="V38" s="7"/>
       <c r="W38" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="X38" s="7"/>
+        <v>153</v>
+      </c>
+      <c r="X38" s="7" t="s">
+        <v>197</v>
+      </c>
       <c r="Y38" s="7"/>
       <c r="Z38" s="7"/>
       <c r="AA38" s="7"/>
       <c r="AB38" s="7"/>
       <c r="AC38" s="7" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="AD38" s="9"/>
       <c r="AE38" s="7"/>
@@ -4099,16 +4191,16 @@
         <v>3</v>
       </c>
       <c r="AJ38" s="7" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AK38" s="7"/>
       <c r="AL38" s="7" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="7" t="n">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B39" s="7" t="s">
         <v>38</v>
@@ -4120,16 +4212,16 @@
         <v>40</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>193</v>
+        <v>48</v>
       </c>
       <c r="I39" s="7"/>
       <c r="J39" s="7" t="n">
@@ -4137,58 +4229,60 @@
       </c>
       <c r="K39" s="7"/>
       <c r="L39" s="7"/>
-      <c r="M39" s="7"/>
-      <c r="N39" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="O39" s="11"/>
-      <c r="P39" s="11"/>
-      <c r="Q39" s="7"/>
+      <c r="M39" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="N39" s="7" t="n">
+        <v>5000034</v>
+      </c>
+      <c r="O39" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="P39" s="7"/>
+      <c r="Q39" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="R39" s="7" t="s">
-        <v>195</v>
+        <v>52</v>
       </c>
       <c r="S39" s="7"/>
       <c r="T39" s="7"/>
       <c r="U39" s="7"/>
       <c r="V39" s="7"/>
       <c r="W39" s="7" t="s">
-        <v>65</v>
+        <v>153</v>
       </c>
       <c r="X39" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Y39" s="7"/>
       <c r="Z39" s="7"/>
       <c r="AA39" s="7"/>
       <c r="AB39" s="7"/>
       <c r="AC39" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD39" s="9" t="n">
-        <v>0.045</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="AD39" s="9"/>
       <c r="AE39" s="7"/>
       <c r="AF39" s="7"/>
       <c r="AG39" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="AH39" s="7" t="s">
-        <v>178</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="AH39" s="7"/>
       <c r="AI39" s="7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ39" s="7" t="n">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="AK39" s="7"/>
-      <c r="AL39" s="23" t="n">
-        <v>312</v>
+      <c r="AL39" s="7" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="7" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>38</v>
@@ -4200,75 +4294,71 @@
         <v>40</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="F40" s="16" t="s">
-        <v>197</v>
+        <v>193</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>208</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="I40" s="7"/>
       <c r="J40" s="7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K40" s="7"/>
       <c r="L40" s="7"/>
-      <c r="M40" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="N40" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="O40" s="11"/>
-      <c r="P40" s="11"/>
-      <c r="Q40" s="7"/>
-      <c r="R40" s="7" t="s">
-        <v>188</v>
-      </c>
+      <c r="M40" s="7"/>
+      <c r="N40" s="7"/>
+      <c r="O40" s="7"/>
+      <c r="P40" s="7"/>
+      <c r="Q40" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="R40" s="7"/>
       <c r="S40" s="7"/>
       <c r="T40" s="7"/>
       <c r="U40" s="7"/>
       <c r="V40" s="7"/>
       <c r="W40" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="X40" s="7"/>
+        <v>153</v>
+      </c>
+      <c r="X40" s="7" t="s">
+        <v>197</v>
+      </c>
       <c r="Y40" s="7"/>
       <c r="Z40" s="7"/>
       <c r="AA40" s="7"/>
       <c r="AB40" s="7"/>
       <c r="AC40" s="7" t="s">
-        <v>175</v>
+        <v>55</v>
       </c>
       <c r="AD40" s="9" t="n">
-        <v>0.045</v>
+        <v>0.05</v>
       </c>
       <c r="AE40" s="7"/>
       <c r="AF40" s="7"/>
-      <c r="AG40" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="AH40" s="7" t="s">
-        <v>178</v>
-      </c>
+      <c r="AG40" s="7"/>
+      <c r="AH40" s="7"/>
       <c r="AI40" s="7" t="n">
         <v>2</v>
       </c>
       <c r="AJ40" s="7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK40" s="7"/>
-      <c r="AL40" s="23" t="n">
-        <v>312</v>
+        <v>39</v>
+      </c>
+      <c r="AK40" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="AL40" s="7" t="n">
+        <v>400</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="7" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B41" s="7" t="s">
         <v>38</v>
@@ -4280,77 +4370,77 @@
         <v>40</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="H41" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="N41" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="O41" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="I41" s="7"/>
-      <c r="J41" s="7"/>
-      <c r="K41" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="L41" s="7" t="n">
-        <v>15</v>
-      </c>
-      <c r="M41" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="N41" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="O41" s="11"/>
-      <c r="P41" s="11"/>
-      <c r="Q41" s="7"/>
+      <c r="P41" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q41" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="R41" s="7" t="s">
-        <v>188</v>
+        <v>52</v>
       </c>
       <c r="S41" s="7"/>
       <c r="T41" s="7"/>
       <c r="U41" s="7"/>
       <c r="V41" s="7"/>
       <c r="W41" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="X41" s="7"/>
+        <v>153</v>
+      </c>
+      <c r="X41" s="7" t="s">
+        <v>197</v>
+      </c>
       <c r="Y41" s="7"/>
       <c r="Z41" s="7"/>
       <c r="AA41" s="7"/>
       <c r="AB41" s="7"/>
       <c r="AC41" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="AD41" s="9" t="n">
-        <v>0.045</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="AD41" s="9"/>
       <c r="AE41" s="7"/>
       <c r="AF41" s="7"/>
-      <c r="AG41" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="AH41" s="7" t="s">
-        <v>178</v>
-      </c>
+      <c r="AG41" s="7"/>
+      <c r="AH41" s="7"/>
       <c r="AI41" s="7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ41" s="7" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AK41" s="7"/>
-      <c r="AL41" s="23" t="n">
-        <v>312</v>
+      <c r="AL41" s="7" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="7" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B42" s="7" t="s">
         <v>38</v>
@@ -4362,71 +4452,77 @@
         <v>40</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="I42" s="7"/>
       <c r="J42" s="7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K42" s="7"/>
       <c r="L42" s="7"/>
-      <c r="M42" s="7"/>
-      <c r="N42" s="7"/>
-      <c r="O42" s="7"/>
+      <c r="M42" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="N42" s="7" t="n">
+        <v>5000034</v>
+      </c>
+      <c r="O42" s="7" t="s">
+        <v>203</v>
+      </c>
       <c r="P42" s="7"/>
       <c r="Q42" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="R42" s="7"/>
+        <v>51</v>
+      </c>
+      <c r="R42" s="7" t="s">
+        <v>52</v>
+      </c>
       <c r="S42" s="7"/>
       <c r="T42" s="7"/>
       <c r="U42" s="7"/>
       <c r="V42" s="7"/>
       <c r="W42" s="7" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="X42" s="7" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="Y42" s="7"/>
       <c r="Z42" s="7"/>
       <c r="AA42" s="7"/>
       <c r="AB42" s="7"/>
       <c r="AC42" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD42" s="9" t="n">
-        <v>0.05</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="AD42" s="9"/>
       <c r="AE42" s="7"/>
       <c r="AF42" s="7"/>
-      <c r="AG42" s="7"/>
+      <c r="AG42" s="7" t="s">
+        <v>207</v>
+      </c>
       <c r="AH42" s="7"/>
       <c r="AI42" s="7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ42" s="7" t="n">
-        <v>36</v>
-      </c>
-      <c r="AK42" s="12" t="s">
-        <v>210</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="AK42" s="7"/>
       <c r="AL42" s="7" t="n">
-        <v>400</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="7" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B43" s="7" t="s">
         <v>38</v>
@@ -4435,80 +4531,62 @@
         <v>39</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>212</v>
+        <v>219</v>
+      </c>
+      <c r="E43" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="F43" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="G43" s="21" t="s">
+        <v>221</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="I43" s="7"/>
-      <c r="J43" s="7" t="n">
-        <v>1</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="I43" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="J43" s="7"/>
       <c r="K43" s="7"/>
       <c r="L43" s="7"/>
-      <c r="M43" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="N43" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="O43" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="P43" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q43" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="R43" s="22" t="s">
-        <v>93</v>
+      <c r="M43" s="7"/>
+      <c r="N43" s="7"/>
+      <c r="O43" s="7"/>
+      <c r="P43" s="7"/>
+      <c r="Q43" s="7"/>
+      <c r="R43" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="S43" s="7"/>
       <c r="T43" s="7"/>
       <c r="U43" s="7"/>
       <c r="V43" s="7"/>
-      <c r="W43" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="X43" s="7" t="s">
-        <v>209</v>
-      </c>
+      <c r="W43" s="7"/>
+      <c r="X43" s="7"/>
       <c r="Y43" s="7"/>
       <c r="Z43" s="7"/>
       <c r="AA43" s="7"/>
       <c r="AB43" s="7"/>
-      <c r="AC43" s="7" t="s">
-        <v>67</v>
-      </c>
+      <c r="AC43" s="7"/>
       <c r="AD43" s="9"/>
       <c r="AE43" s="7"/>
       <c r="AF43" s="7"/>
       <c r="AG43" s="7"/>
       <c r="AH43" s="7"/>
-      <c r="AI43" s="7" t="n">
-        <v>3</v>
-      </c>
+      <c r="AI43" s="7"/>
       <c r="AJ43" s="7" t="n">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="AK43" s="7"/>
-      <c r="AL43" s="7" t="n">
-        <v>36</v>
+      <c r="AL43" s="10" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="7" t="n">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="B44" s="7" t="s">
         <v>38</v>
@@ -4517,80 +4595,62 @@
         <v>39</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>40</v>
+        <v>219</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>216</v>
+        <v>193</v>
+      </c>
+      <c r="F44" s="21" t="s">
+        <v>226</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="I44" s="7"/>
-      <c r="J44" s="7" t="n">
-        <v>1</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="I44" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="J44" s="7"/>
       <c r="K44" s="7"/>
       <c r="L44" s="7"/>
-      <c r="M44" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="N44" s="7" t="n">
-        <v>5000034</v>
-      </c>
-      <c r="O44" s="7" t="s">
-        <v>215</v>
-      </c>
+      <c r="M44" s="7"/>
+      <c r="N44" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="O44" s="7"/>
       <c r="P44" s="7"/>
-      <c r="Q44" s="7" t="s">
-        <v>63</v>
-      </c>
+      <c r="Q44" s="7"/>
       <c r="R44" s="7" t="s">
-        <v>64</v>
+        <v>224</v>
       </c>
       <c r="S44" s="7"/>
       <c r="T44" s="7"/>
       <c r="U44" s="7"/>
       <c r="V44" s="7"/>
-      <c r="W44" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="X44" s="7" t="s">
-        <v>209</v>
-      </c>
+      <c r="W44" s="7"/>
+      <c r="X44" s="7"/>
       <c r="Y44" s="7"/>
       <c r="Z44" s="7"/>
       <c r="AA44" s="7"/>
       <c r="AB44" s="7"/>
-      <c r="AC44" s="7" t="s">
-        <v>67</v>
-      </c>
+      <c r="AC44" s="7"/>
       <c r="AD44" s="9"/>
       <c r="AE44" s="7"/>
       <c r="AF44" s="7"/>
-      <c r="AG44" s="7" t="s">
-        <v>219</v>
-      </c>
+      <c r="AG44" s="7"/>
       <c r="AH44" s="7"/>
-      <c r="AI44" s="7" t="n">
-        <v>3</v>
-      </c>
+      <c r="AI44" s="7"/>
       <c r="AJ44" s="7" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AK44" s="7"/>
-      <c r="AL44" s="7" t="n">
-        <v>36</v>
-      </c>
+      <c r="AL44" s="7"/>
     </row>
     <row r="45" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="7" t="n">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B45" s="7" t="s">
         <v>38</v>
@@ -4599,74 +4659,62 @@
         <v>39</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>40</v>
+        <v>219</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>220</v>
+        <v>193</v>
+      </c>
+      <c r="F45" s="21" t="s">
+        <v>226</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="I45" s="7"/>
-      <c r="J45" s="7" t="n">
-        <v>2</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="I45" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="J45" s="7"/>
       <c r="K45" s="7"/>
       <c r="L45" s="7"/>
       <c r="M45" s="7"/>
-      <c r="N45" s="7"/>
+      <c r="N45" s="10" t="s">
+        <v>231</v>
+      </c>
       <c r="O45" s="7"/>
       <c r="P45" s="7"/>
-      <c r="Q45" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="R45" s="7"/>
+      <c r="Q45" s="7"/>
+      <c r="R45" s="7" t="s">
+        <v>224</v>
+      </c>
       <c r="S45" s="7"/>
       <c r="T45" s="7"/>
       <c r="U45" s="7"/>
       <c r="V45" s="7"/>
-      <c r="W45" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="X45" s="7" t="s">
-        <v>209</v>
-      </c>
+      <c r="W45" s="7"/>
+      <c r="X45" s="7"/>
       <c r="Y45" s="7"/>
       <c r="Z45" s="7"/>
       <c r="AA45" s="7"/>
       <c r="AB45" s="7"/>
-      <c r="AC45" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD45" s="9" t="n">
-        <v>0.05</v>
-      </c>
+      <c r="AC45" s="7"/>
+      <c r="AD45" s="9"/>
       <c r="AE45" s="7"/>
       <c r="AF45" s="7"/>
       <c r="AG45" s="7"/>
       <c r="AH45" s="7"/>
-      <c r="AI45" s="7" t="n">
-        <v>2</v>
-      </c>
+      <c r="AI45" s="7"/>
       <c r="AJ45" s="7" t="n">
-        <v>39</v>
-      </c>
-      <c r="AK45" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="AL45" s="7" t="n">
-        <v>400</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="AK45" s="7"/>
+      <c r="AL45" s="7"/>
     </row>
     <row r="46" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="7" t="n">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B46" s="7" t="s">
         <v>38</v>
@@ -4675,80 +4723,62 @@
         <v>39</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
+      </c>
+      <c r="E46" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="F46" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="G46" s="21" t="s">
+        <v>233</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="I46" s="7"/>
-      <c r="J46" s="7" t="n">
-        <v>1</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="I46" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="J46" s="7"/>
       <c r="K46" s="7"/>
       <c r="L46" s="7"/>
-      <c r="M46" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="N46" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="O46" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="P46" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q46" s="7" t="s">
-        <v>63</v>
-      </c>
+      <c r="M46" s="7"/>
+      <c r="N46" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="O46" s="7"/>
+      <c r="P46" s="7"/>
+      <c r="Q46" s="7"/>
       <c r="R46" s="7" t="s">
-        <v>64</v>
+        <v>224</v>
       </c>
       <c r="S46" s="7"/>
       <c r="T46" s="7"/>
       <c r="U46" s="7"/>
       <c r="V46" s="7"/>
-      <c r="W46" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="X46" s="7" t="s">
-        <v>209</v>
-      </c>
+      <c r="W46" s="7"/>
+      <c r="X46" s="7"/>
       <c r="Y46" s="7"/>
       <c r="Z46" s="7"/>
       <c r="AA46" s="7"/>
       <c r="AB46" s="7"/>
-      <c r="AC46" s="7" t="s">
-        <v>67</v>
-      </c>
+      <c r="AC46" s="7"/>
       <c r="AD46" s="9"/>
       <c r="AE46" s="7"/>
       <c r="AF46" s="7"/>
       <c r="AG46" s="7"/>
       <c r="AH46" s="7"/>
-      <c r="AI46" s="7" t="n">
-        <v>3</v>
-      </c>
+      <c r="AI46" s="7"/>
       <c r="AJ46" s="7" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AK46" s="7"/>
-      <c r="AL46" s="7" t="n">
-        <v>39</v>
-      </c>
+      <c r="AL46" s="7"/>
     </row>
     <row r="47" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="7" t="n">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B47" s="7" t="s">
         <v>38</v>
@@ -4757,80 +4787,62 @@
         <v>39</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="F47" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="E47" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="F47" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="G47" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="H47" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="G47" s="7" t="s">
+      <c r="I47" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="H47" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="I47" s="7"/>
-      <c r="J47" s="7" t="n">
-        <v>1</v>
-      </c>
+      <c r="J47" s="7"/>
       <c r="K47" s="7"/>
       <c r="L47" s="7"/>
-      <c r="M47" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="N47" s="7" t="n">
-        <v>5000034</v>
-      </c>
-      <c r="O47" s="7" t="s">
-        <v>215</v>
-      </c>
+      <c r="M47" s="7"/>
+      <c r="N47" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="O47" s="7"/>
       <c r="P47" s="7"/>
-      <c r="Q47" s="7" t="s">
-        <v>63</v>
-      </c>
+      <c r="Q47" s="7"/>
       <c r="R47" s="7" t="s">
-        <v>64</v>
+        <v>224</v>
       </c>
       <c r="S47" s="7"/>
       <c r="T47" s="7"/>
       <c r="U47" s="7"/>
       <c r="V47" s="7"/>
-      <c r="W47" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="X47" s="7" t="s">
-        <v>209</v>
-      </c>
+      <c r="W47" s="7"/>
+      <c r="X47" s="7"/>
       <c r="Y47" s="7"/>
       <c r="Z47" s="7"/>
       <c r="AA47" s="7"/>
       <c r="AB47" s="7"/>
-      <c r="AC47" s="7" t="s">
-        <v>67</v>
-      </c>
+      <c r="AC47" s="7"/>
       <c r="AD47" s="9"/>
       <c r="AE47" s="7"/>
       <c r="AF47" s="7"/>
-      <c r="AG47" s="7" t="s">
-        <v>219</v>
-      </c>
+      <c r="AG47" s="7"/>
       <c r="AH47" s="7"/>
-      <c r="AI47" s="7" t="n">
-        <v>3</v>
-      </c>
+      <c r="AI47" s="7"/>
       <c r="AJ47" s="7" t="n">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="AK47" s="7"/>
-      <c r="AL47" s="7" t="n">
-        <v>39</v>
-      </c>
+      <c r="AL47" s="7"/>
     </row>
     <row r="48" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="7" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B48" s="7" t="s">
         <v>38</v>
@@ -4839,33 +4851,35 @@
         <v>39</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="E48" s="23" t="s">
-        <v>190</v>
-      </c>
-      <c r="F48" s="23" t="s">
-        <v>232</v>
-      </c>
-      <c r="G48" s="23" t="s">
-        <v>233</v>
+        <v>219</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F48" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="G48" s="21" t="s">
+        <v>238</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="I48" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="J48" s="7"/>
       <c r="K48" s="7"/>
       <c r="L48" s="7"/>
       <c r="M48" s="7"/>
-      <c r="N48" s="7"/>
+      <c r="N48" s="10" t="s">
+        <v>239</v>
+      </c>
       <c r="O48" s="7"/>
       <c r="P48" s="7"/>
       <c r="Q48" s="7"/>
       <c r="R48" s="7" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="S48" s="7"/>
       <c r="T48" s="7"/>
@@ -4885,16 +4899,14 @@
       <c r="AH48" s="7"/>
       <c r="AI48" s="7"/>
       <c r="AJ48" s="7" t="n">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="AK48" s="7"/>
-      <c r="AL48" s="12" t="s">
-        <v>52</v>
-      </c>
+      <c r="AL48" s="7"/>
     </row>
     <row r="49" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="7" t="n">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B49" s="7" t="s">
         <v>38</v>
@@ -4903,36 +4915,28 @@
         <v>39</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>205</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="E49" s="7"/>
       <c r="F49" s="23" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="H49" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="I49" s="7" t="s">
-        <v>240</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="H49" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="I49" s="7"/>
       <c r="J49" s="7"/>
       <c r="K49" s="7"/>
       <c r="L49" s="7"/>
       <c r="M49" s="7"/>
-      <c r="N49" s="12" t="s">
-        <v>241</v>
-      </c>
+      <c r="N49" s="7"/>
       <c r="O49" s="7"/>
       <c r="P49" s="7"/>
       <c r="Q49" s="7"/>
-      <c r="R49" s="7" t="s">
-        <v>236</v>
-      </c>
+      <c r="R49" s="7"/>
       <c r="S49" s="7"/>
       <c r="T49" s="7"/>
       <c r="U49" s="7"/>
@@ -4945,20 +4949,22 @@
       <c r="AB49" s="7"/>
       <c r="AC49" s="7"/>
       <c r="AD49" s="9"/>
-      <c r="AE49" s="7"/>
+      <c r="AE49" s="24"/>
       <c r="AF49" s="7"/>
       <c r="AG49" s="7"/>
-      <c r="AH49" s="7"/>
-      <c r="AI49" s="7"/>
-      <c r="AJ49" s="7" t="n">
-        <v>44</v>
+      <c r="AH49" s="8"/>
+      <c r="AI49" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ49" s="8" t="n">
+        <v>300</v>
       </c>
       <c r="AK49" s="7"/>
       <c r="AL49" s="7"/>
     </row>
     <row r="50" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="7" t="n">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B50" s="7" t="s">
         <v>38</v>
@@ -4967,36 +4973,28 @@
         <v>39</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="E50" s="7" t="s">
-        <v>205</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="E50" s="7"/>
       <c r="F50" s="23" t="s">
-        <v>237</v>
-      </c>
-      <c r="G50" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="H50" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="I50" s="7" t="s">
-        <v>240</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="G50" s="23" t="s">
+        <v>243</v>
+      </c>
+      <c r="H50" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="I50" s="7"/>
       <c r="J50" s="7"/>
       <c r="K50" s="7"/>
       <c r="L50" s="7"/>
       <c r="M50" s="7"/>
-      <c r="N50" s="12" t="s">
-        <v>242</v>
-      </c>
+      <c r="N50" s="7"/>
       <c r="O50" s="7"/>
       <c r="P50" s="7"/>
       <c r="Q50" s="7"/>
-      <c r="R50" s="7" t="s">
-        <v>236</v>
-      </c>
+      <c r="R50" s="7"/>
       <c r="S50" s="7"/>
       <c r="T50" s="7"/>
       <c r="U50" s="7"/>
@@ -5009,20 +5007,22 @@
       <c r="AB50" s="7"/>
       <c r="AC50" s="7"/>
       <c r="AD50" s="9"/>
-      <c r="AE50" s="7"/>
+      <c r="AE50" s="24"/>
       <c r="AF50" s="7"/>
       <c r="AG50" s="7"/>
-      <c r="AH50" s="7"/>
-      <c r="AI50" s="7"/>
-      <c r="AJ50" s="7" t="n">
-        <v>45</v>
+      <c r="AH50" s="8"/>
+      <c r="AI50" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ50" s="8" t="n">
+        <v>310</v>
       </c>
       <c r="AK50" s="7"/>
-      <c r="AL50" s="7"/>
+      <c r="AL50" s="8"/>
     </row>
     <row r="51" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="7" t="n">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B51" s="7" t="s">
         <v>38</v>
@@ -5031,36 +5031,28 @@
         <v>39</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="E51" s="23" t="s">
-        <v>159</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="E51" s="7"/>
       <c r="F51" s="23" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G51" s="23" t="s">
-        <v>244</v>
-      </c>
-      <c r="H51" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="I51" s="7" t="s">
-        <v>240</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="H51" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="I51" s="7"/>
       <c r="J51" s="7"/>
       <c r="K51" s="7"/>
       <c r="L51" s="7"/>
       <c r="M51" s="7"/>
-      <c r="N51" s="12" t="s">
-        <v>245</v>
-      </c>
+      <c r="N51" s="7"/>
       <c r="O51" s="7"/>
       <c r="P51" s="7"/>
       <c r="Q51" s="7"/>
-      <c r="R51" s="7" t="s">
-        <v>236</v>
-      </c>
+      <c r="R51" s="7"/>
       <c r="S51" s="7"/>
       <c r="T51" s="7"/>
       <c r="U51" s="7"/>
@@ -5073,20 +5065,24 @@
       <c r="AB51" s="7"/>
       <c r="AC51" s="7"/>
       <c r="AD51" s="9"/>
-      <c r="AE51" s="7"/>
+      <c r="AE51" s="24"/>
       <c r="AF51" s="7"/>
       <c r="AG51" s="7"/>
-      <c r="AH51" s="7"/>
-      <c r="AI51" s="7"/>
-      <c r="AJ51" s="7" t="n">
-        <v>46</v>
+      <c r="AH51" s="8"/>
+      <c r="AI51" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ51" s="8" t="n">
+        <v>311</v>
       </c>
       <c r="AK51" s="7"/>
-      <c r="AL51" s="7"/>
+      <c r="AL51" s="8" t="n">
+        <v>310</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="7" t="n">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B52" s="7" t="s">
         <v>38</v>
@@ -5095,36 +5091,28 @@
         <v>39</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="E52" s="23" t="s">
-        <v>159</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="E52" s="7"/>
       <c r="F52" s="23" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="G52" s="23" t="s">
-        <v>244</v>
-      </c>
-      <c r="H52" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="I52" s="7" t="s">
-        <v>240</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="H52" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="I52" s="7"/>
       <c r="J52" s="7"/>
       <c r="K52" s="7"/>
       <c r="L52" s="7"/>
       <c r="M52" s="7"/>
-      <c r="N52" s="12" t="s">
-        <v>246</v>
-      </c>
+      <c r="N52" s="7"/>
       <c r="O52" s="7"/>
       <c r="P52" s="7"/>
       <c r="Q52" s="7"/>
-      <c r="R52" s="7" t="s">
-        <v>236</v>
-      </c>
+      <c r="R52" s="7"/>
       <c r="S52" s="7"/>
       <c r="T52" s="7"/>
       <c r="U52" s="7"/>
@@ -5137,20 +5125,26 @@
       <c r="AB52" s="7"/>
       <c r="AC52" s="7"/>
       <c r="AD52" s="9"/>
-      <c r="AE52" s="7"/>
+      <c r="AE52" s="24"/>
       <c r="AF52" s="7"/>
       <c r="AG52" s="7"/>
-      <c r="AH52" s="7"/>
-      <c r="AI52" s="7"/>
-      <c r="AJ52" s="7" t="n">
-        <v>47</v>
-      </c>
-      <c r="AK52" s="7"/>
-      <c r="AL52" s="7"/>
+      <c r="AH52" s="8"/>
+      <c r="AI52" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ52" s="8" t="n">
+        <v>312</v>
+      </c>
+      <c r="AK52" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="AL52" s="8" t="n">
+        <v>310</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="7" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B53" s="7" t="s">
         <v>38</v>
@@ -5159,36 +5153,28 @@
         <v>39</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="E53" s="7" t="s">
-        <v>247</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="E53" s="7"/>
       <c r="F53" s="23" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G53" s="23" t="s">
-        <v>249</v>
-      </c>
-      <c r="H53" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="I53" s="7" t="s">
-        <v>240</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="H53" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="I53" s="7"/>
       <c r="J53" s="7"/>
       <c r="K53" s="7"/>
       <c r="L53" s="7"/>
       <c r="M53" s="7"/>
-      <c r="N53" s="12" t="s">
-        <v>250</v>
-      </c>
+      <c r="N53" s="7"/>
       <c r="O53" s="7"/>
       <c r="P53" s="7"/>
       <c r="Q53" s="7"/>
-      <c r="R53" s="7" t="s">
-        <v>236</v>
-      </c>
+      <c r="R53" s="7"/>
       <c r="S53" s="7"/>
       <c r="T53" s="7"/>
       <c r="U53" s="7"/>
@@ -5201,86 +5187,23 @@
       <c r="AB53" s="7"/>
       <c r="AC53" s="7"/>
       <c r="AD53" s="9"/>
-      <c r="AE53" s="7"/>
+      <c r="AE53" s="24"/>
       <c r="AF53" s="7"/>
       <c r="AG53" s="7"/>
-      <c r="AH53" s="7"/>
-      <c r="AI53" s="7"/>
-      <c r="AJ53" s="7" t="n">
-        <v>48</v>
-      </c>
-      <c r="AK53" s="7"/>
-      <c r="AL53" s="7"/>
+      <c r="AH53" s="8"/>
+      <c r="AI53" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ53" s="8" t="n">
+        <v>400</v>
+      </c>
+      <c r="AK53" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="AL53" s="8"/>
     </row>
-    <row r="54" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="7" t="n">
-        <v>401</v>
-      </c>
-      <c r="B54" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D54" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="E54" s="7"/>
-      <c r="F54" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="G54" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="H54" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="I54" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="J54" s="7"/>
-      <c r="K54" s="7"/>
-      <c r="L54" s="7"/>
-      <c r="M54" s="7"/>
-      <c r="N54" s="7"/>
-      <c r="O54" s="7"/>
-      <c r="P54" s="7"/>
-      <c r="Q54" s="7"/>
-      <c r="R54" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="S54" s="7"/>
-      <c r="T54" s="7"/>
-      <c r="U54" s="7"/>
-      <c r="V54" s="7"/>
-      <c r="W54" s="7"/>
-      <c r="X54" s="7"/>
-      <c r="Y54" s="7"/>
-      <c r="Z54" s="7"/>
-      <c r="AA54" s="7"/>
-      <c r="AB54" s="7"/>
-      <c r="AC54" s="7"/>
-      <c r="AD54" s="9"/>
-      <c r="AE54" s="10"/>
-      <c r="AF54" s="7"/>
-      <c r="AG54" s="7"/>
-      <c r="AH54" s="11"/>
-      <c r="AI54" s="11"/>
-      <c r="AJ54" s="11" t="n">
-        <v>401</v>
-      </c>
-      <c r="AK54" s="12"/>
-      <c r="AL54" s="11"/>
-    </row>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:AL53"/>
+  <autoFilter ref="A1:AF53"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - IC Canteen - OTH.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - IC Canteen - OTH.xlsx
@@ -11,13 +11,14 @@
     <sheet name="Canteen" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Canteen!$A$1:$AF$53</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Canteen!$A$1:$AL$54</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">Canteen!$A$1:$AL$53</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">Canteen!$A$1:$AL$53</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Canteen!$A$1:$AL$53</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Canteen!$A$1:$AF$53</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Canteen!$A$1:$AL$53</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Canteen!$A$1:$AF$53</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Canteen!$A$1:$AF$53</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Canteen!$A$1:$AL$53</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Canteen!$A$1:$AF$53</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Canteen!$A$1:$AL$53</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Canteen!$A$1:$AF$53</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="254">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -152,6 +153,49 @@
   </si>
   <si>
     <t xml:space="preserve">Group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Availability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Представленность</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coolers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coolers: Doors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильник: Двери</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coolers: Quality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильник: Качество</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34
+35
+36
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Activations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Активации</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29
+30
+37
+40
+</t>
   </si>
   <si>
     <t xml:space="preserve">STANDARD 1</t>
@@ -730,13 +774,6 @@
     <t xml:space="preserve">SESSION LEVEL</t>
   </si>
   <si>
-    <t xml:space="preserve">29
-30
-37
-40
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">ACTIVATION_OTHER</t>
   </si>
   <si>
@@ -784,54 +821,28 @@
 No_AtWork</t>
   </si>
   <si>
-    <t xml:space="preserve">Availability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Представленность</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coolers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильники</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coolers: Doors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильник: Двери</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coolers: Quality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильник: Качество</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34
-35
-36
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Activations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Активации</t>
+    <t xml:space="preserve">PLAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Integer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="7">
+  <numFmts count="8">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* \-??\ _₽_-;_-@_-"/>
     <numFmt numFmtId="167" formatCode="#,##0.0000000"/>
-    <numFmt numFmtId="168" formatCode="@"/>
-    <numFmt numFmtId="169" formatCode="0.00"/>
-    <numFmt numFmtId="170" formatCode="0.00%"/>
+    <numFmt numFmtId="168" formatCode="0.00"/>
+    <numFmt numFmtId="169" formatCode="0.00%"/>
+    <numFmt numFmtId="170" formatCode="@"/>
+    <numFmt numFmtId="171" formatCode="0.0"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -967,7 +978,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1000,12 +1011,20 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="6" fillId="0" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1020,7 +1039,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1040,11 +1059,11 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1060,12 +1079,16 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="171" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="170" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1150,50 +1173,50 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:53"/>
+  <dimension ref="1:65536"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AA1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="AA1" activeCellId="0" sqref="AA1"/>
+      <selection pane="bottomLeft" activeCell="AA54" activeCellId="0" sqref="54:54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.0688259109312"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.1781376518219"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="13.0688259109312"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="12.3198380566802"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="73.8056680161943"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="74.7692307692308"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="40.919028340081"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="12.4251012145749"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="74.4493927125506"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="75.4129554655871"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="41.2388663967611"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="16.1740890688259"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.2834008097166"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="134.004048582996"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="81.6234817813765"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="19.3886639676113"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="45.6315789473684"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="135.182186234818"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="82.3724696356275"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="46.0607287449393"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="18.5303643724696"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="1" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="12.3198380566802"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="12.4251012145749"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="17.246963562753"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="22.0647773279352"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="22.3886639676113"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="24.8502024291498"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="25.3886639676113"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="15.4251012145749"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="15.8542510121457"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="13.1740890688259"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="12.4251012145749"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="12.9595141700405"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="59.4493927125506"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="17.3522267206478"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="22.2793522267206"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="25.0647773279352"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="12.5344129554656"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="59.9878542510121"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="21.5303643724696"/>
     <col collapsed="false" hidden="false" max="35" min="35" style="1" width="7.60728744939271"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="1" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="1" width="10.6032388663968"/>
@@ -1322,7 +1345,7 @@
     </row>
     <row r="2" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="n">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>38</v>
@@ -1333,26 +1356,24 @@
       <c r="D2" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="7"/>
+      <c r="F2" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="G2" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>44</v>
+      <c r="H2" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
       <c r="Q2" s="7"/>
       <c r="R2" s="7"/>
       <c r="S2" s="7"/>
@@ -1365,30 +1386,24 @@
       <c r="Z2" s="7"/>
       <c r="AA2" s="7"/>
       <c r="AB2" s="7"/>
-      <c r="AC2" s="7" t="s">
-        <v>44</v>
-      </c>
+      <c r="AC2" s="7"/>
       <c r="AD2" s="9"/>
-      <c r="AE2" s="7"/>
+      <c r="AE2" s="10"/>
       <c r="AF2" s="7"/>
       <c r="AG2" s="7"/>
-      <c r="AH2" s="7"/>
-      <c r="AI2" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="AJ2" s="7" t="n">
+      <c r="AH2" s="11"/>
+      <c r="AI2" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="AK2" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL2" s="7" t="n">
+      <c r="AJ2" s="11" t="n">
         <v>300</v>
       </c>
+      <c r="AK2" s="7"/>
+      <c r="AL2" s="7"/>
     </row>
     <row r="3" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="n">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>38</v>
@@ -1399,76 +1414,54 @@
       <c r="D3" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>48</v>
+      <c r="E3" s="7"/>
+      <c r="F3" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="I3" s="7"/>
-      <c r="J3" s="7" t="n">
-        <v>1</v>
-      </c>
+      <c r="J3" s="7"/>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
-      <c r="M3" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="R3" s="7" t="s">
-        <v>52</v>
-      </c>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
       <c r="S3" s="7"/>
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
-      <c r="V3" s="7" t="s">
-        <v>53</v>
-      </c>
+      <c r="V3" s="7"/>
       <c r="W3" s="7"/>
       <c r="X3" s="7"/>
-      <c r="Y3" s="7" t="s">
-        <v>54</v>
-      </c>
+      <c r="Y3" s="7"/>
       <c r="Z3" s="7"/>
       <c r="AA3" s="7"/>
       <c r="AB3" s="7"/>
-      <c r="AC3" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD3" s="9" t="n">
-        <v>0.03502</v>
-      </c>
-      <c r="AE3" s="7"/>
+      <c r="AC3" s="7"/>
+      <c r="AD3" s="9"/>
+      <c r="AE3" s="10"/>
       <c r="AF3" s="7"/>
       <c r="AG3" s="7"/>
-      <c r="AH3" s="7"/>
-      <c r="AI3" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="AJ3" s="7" t="n">
-        <v>2</v>
+      <c r="AH3" s="11"/>
+      <c r="AI3" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ3" s="11" t="n">
+        <v>310</v>
       </c>
       <c r="AK3" s="7"/>
-      <c r="AL3" s="7" t="n">
-        <v>1</v>
-      </c>
+      <c r="AL3" s="11"/>
     </row>
     <row r="4" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="n">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>38</v>
@@ -1479,76 +1472,56 @@
       <c r="D4" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>48</v>
+      <c r="E4" s="7"/>
+      <c r="F4" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="I4" s="7"/>
-      <c r="J4" s="7" t="n">
-        <v>1</v>
-      </c>
+      <c r="J4" s="7"/>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
-      <c r="M4" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="N4" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="R4" s="7" t="s">
-        <v>52</v>
-      </c>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
       <c r="S4" s="7"/>
       <c r="T4" s="7"/>
       <c r="U4" s="7"/>
-      <c r="V4" s="7" t="s">
-        <v>53</v>
-      </c>
+      <c r="V4" s="7"/>
       <c r="W4" s="7"/>
       <c r="X4" s="7"/>
-      <c r="Y4" s="7" t="s">
-        <v>54</v>
-      </c>
+      <c r="Y4" s="7"/>
       <c r="Z4" s="7"/>
       <c r="AA4" s="7"/>
       <c r="AB4" s="7"/>
-      <c r="AC4" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD4" s="9" t="n">
-        <v>0.0325</v>
-      </c>
-      <c r="AE4" s="7"/>
+      <c r="AC4" s="7"/>
+      <c r="AD4" s="9"/>
+      <c r="AE4" s="10"/>
       <c r="AF4" s="7"/>
       <c r="AG4" s="7"/>
-      <c r="AH4" s="7"/>
-      <c r="AI4" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="AJ4" s="7" t="n">
-        <v>3</v>
+      <c r="AH4" s="11"/>
+      <c r="AI4" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ4" s="11" t="n">
+        <v>311</v>
       </c>
       <c r="AK4" s="7"/>
-      <c r="AL4" s="7" t="n">
-        <v>1</v>
+      <c r="AL4" s="11" t="n">
+        <v>310</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="n">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>38</v>
@@ -1559,76 +1532,58 @@
       <c r="D5" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="H5" s="7" t="s">
+      <c r="E5" s="7"/>
+      <c r="F5" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="8" t="s">
         <v>48</v>
       </c>
+      <c r="H5" s="8" t="s">
+        <v>40</v>
+      </c>
       <c r="I5" s="7"/>
-      <c r="J5" s="7" t="n">
-        <v>1</v>
-      </c>
+      <c r="J5" s="7"/>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
-      <c r="M5" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="N5" s="8" t="n">
-        <v>54491472</v>
-      </c>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="R5" s="7" t="s">
-        <v>52</v>
-      </c>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
       <c r="S5" s="7"/>
       <c r="T5" s="7"/>
       <c r="U5" s="7"/>
-      <c r="V5" s="7" t="s">
-        <v>53</v>
-      </c>
+      <c r="V5" s="7"/>
       <c r="W5" s="7"/>
       <c r="X5" s="7"/>
-      <c r="Y5" s="7" t="s">
-        <v>54</v>
-      </c>
+      <c r="Y5" s="7"/>
       <c r="Z5" s="7"/>
       <c r="AA5" s="7"/>
       <c r="AB5" s="7"/>
-      <c r="AC5" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD5" s="9" t="n">
-        <v>0.0325</v>
-      </c>
-      <c r="AE5" s="7"/>
+      <c r="AC5" s="7"/>
+      <c r="AD5" s="9"/>
+      <c r="AE5" s="10"/>
       <c r="AF5" s="7"/>
       <c r="AG5" s="7"/>
-      <c r="AH5" s="7"/>
-      <c r="AI5" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="AJ5" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="AK5" s="7"/>
-      <c r="AL5" s="7" t="n">
+      <c r="AH5" s="11"/>
+      <c r="AI5" s="11" t="n">
         <v>1</v>
+      </c>
+      <c r="AJ5" s="11" t="n">
+        <v>312</v>
+      </c>
+      <c r="AK5" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL5" s="11" t="n">
+        <v>310</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="n">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>38</v>
@@ -1639,76 +1594,56 @@
       <c r="D6" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>48</v>
+      <c r="E6" s="7"/>
+      <c r="F6" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="I6" s="7"/>
-      <c r="J6" s="7" t="n">
-        <v>1</v>
-      </c>
+      <c r="J6" s="7"/>
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
-      <c r="M6" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="N6" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="R6" s="7" t="s">
-        <v>52</v>
-      </c>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
       <c r="S6" s="7"/>
       <c r="T6" s="7"/>
       <c r="U6" s="7"/>
-      <c r="V6" s="7" t="s">
-        <v>53</v>
-      </c>
+      <c r="V6" s="7"/>
       <c r="W6" s="7"/>
       <c r="X6" s="7"/>
-      <c r="Y6" s="7" t="s">
-        <v>54</v>
-      </c>
+      <c r="Y6" s="7"/>
       <c r="Z6" s="7"/>
       <c r="AA6" s="7"/>
       <c r="AB6" s="7"/>
-      <c r="AC6" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD6" s="9" t="n">
-        <v>0.0325</v>
-      </c>
-      <c r="AE6" s="7"/>
+      <c r="AC6" s="7"/>
+      <c r="AD6" s="9"/>
+      <c r="AE6" s="10"/>
       <c r="AF6" s="7"/>
       <c r="AG6" s="7"/>
-      <c r="AH6" s="7"/>
-      <c r="AI6" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="AJ6" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK6" s="7"/>
-      <c r="AL6" s="7" t="n">
+      <c r="AH6" s="11"/>
+      <c r="AI6" s="11" t="n">
         <v>1</v>
       </c>
+      <c r="AJ6" s="11" t="n">
+        <v>400</v>
+      </c>
+      <c r="AK6" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL6" s="11"/>
     </row>
     <row r="7" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>38</v>
@@ -1720,75 +1655,61 @@
         <v>40</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>67</v>
+        <v>54</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="I7" s="7"/>
-      <c r="J7" s="7" t="n">
-        <v>1</v>
-      </c>
+      <c r="J7" s="7"/>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
-      <c r="M7" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="N7" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="R7" s="7" t="s">
-        <v>52</v>
-      </c>
+      <c r="M7" s="7"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
       <c r="S7" s="7"/>
       <c r="T7" s="7"/>
       <c r="U7" s="7"/>
-      <c r="V7" s="7" t="s">
-        <v>53</v>
-      </c>
+      <c r="V7" s="7"/>
       <c r="W7" s="7"/>
       <c r="X7" s="7"/>
-      <c r="Y7" s="7" t="s">
-        <v>54</v>
-      </c>
+      <c r="Y7" s="7"/>
       <c r="Z7" s="7"/>
       <c r="AA7" s="7"/>
       <c r="AB7" s="7"/>
       <c r="AC7" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD7" s="9" t="n">
-        <v>0.0325</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="AD7" s="9"/>
       <c r="AE7" s="7"/>
       <c r="AF7" s="7"/>
       <c r="AG7" s="7"/>
       <c r="AH7" s="7"/>
       <c r="AI7" s="7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ7" s="7" t="n">
-        <v>6</v>
-      </c>
-      <c r="AK7" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="AK7" s="12" t="s">
+        <v>57</v>
+      </c>
       <c r="AL7" s="7" t="n">
-        <v>1</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>38</v>
@@ -1800,16 +1721,16 @@
         <v>40</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>71</v>
+        <v>58</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>59</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7" t="n">
@@ -1818,38 +1739,38 @@
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
       <c r="M8" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="N8" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
+        <v>61</v>
+      </c>
+      <c r="N8" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
       <c r="Q8" s="7" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="R8" s="7" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="S8" s="7"/>
       <c r="T8" s="7"/>
       <c r="U8" s="7"/>
       <c r="V8" s="7" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="W8" s="7"/>
       <c r="X8" s="7"/>
       <c r="Y8" s="7" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="Z8" s="7"/>
       <c r="AA8" s="7"/>
       <c r="AB8" s="7"/>
       <c r="AC8" s="7" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="AD8" s="9" t="n">
-        <v>0.01166</v>
+        <v>0.03502</v>
       </c>
       <c r="AE8" s="7"/>
       <c r="AF8" s="7"/>
@@ -1859,7 +1780,7 @@
         <v>3</v>
       </c>
       <c r="AJ8" s="7" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AK8" s="7"/>
       <c r="AL8" s="7" t="n">
@@ -1868,7 +1789,7 @@
     </row>
     <row r="9" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>38</v>
@@ -1880,16 +1801,16 @@
         <v>40</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>75</v>
+        <v>68</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>69</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="I9" s="7"/>
       <c r="J9" s="7" t="n">
@@ -1898,38 +1819,38 @@
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
       <c r="M9" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="N9" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
+        <v>70</v>
+      </c>
+      <c r="N9" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
       <c r="Q9" s="7" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="R9" s="7" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="S9" s="7"/>
       <c r="T9" s="7"/>
       <c r="U9" s="7"/>
       <c r="V9" s="7" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="W9" s="7"/>
       <c r="X9" s="7"/>
       <c r="Y9" s="7" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="Z9" s="7"/>
       <c r="AA9" s="7"/>
       <c r="AB9" s="7"/>
       <c r="AC9" s="7" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="AD9" s="9" t="n">
-        <v>0.01166</v>
+        <v>0.0325</v>
       </c>
       <c r="AE9" s="7"/>
       <c r="AF9" s="7"/>
@@ -1939,7 +1860,7 @@
         <v>3</v>
       </c>
       <c r="AJ9" s="7" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AK9" s="7"/>
       <c r="AL9" s="7" t="n">
@@ -1948,7 +1869,7 @@
     </row>
     <row r="10" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>38</v>
@@ -1960,16 +1881,16 @@
         <v>40</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>79</v>
+        <v>53</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>73</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="I10" s="7"/>
       <c r="J10" s="7" t="n">
@@ -1977,41 +1898,39 @@
       </c>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8" t="s">
-        <v>80</v>
-      </c>
+      <c r="M10" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="N10" s="11" t="n">
+        <v>54491472</v>
+      </c>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
       <c r="Q10" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="R10" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="S10" s="14" t="s">
-        <v>82</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="R10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="S10" s="7"/>
       <c r="T10" s="7"/>
       <c r="U10" s="7"/>
       <c r="V10" s="7" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="W10" s="7"/>
       <c r="X10" s="7"/>
       <c r="Y10" s="7" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="Z10" s="7"/>
       <c r="AA10" s="7"/>
       <c r="AB10" s="7"/>
       <c r="AC10" s="7" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="AD10" s="9" t="n">
-        <v>0.01166</v>
+        <v>0.0325</v>
       </c>
       <c r="AE10" s="7"/>
       <c r="AF10" s="7"/>
@@ -2021,7 +1940,7 @@
         <v>3</v>
       </c>
       <c r="AJ10" s="7" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AK10" s="7"/>
       <c r="AL10" s="7" t="n">
@@ -2030,7 +1949,7 @@
     </row>
     <row r="11" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>38</v>
@@ -2042,61 +1961,75 @@
         <v>40</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>85</v>
+        <v>74</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>75</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
+      <c r="J11" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
+      <c r="M11" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="N11" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="R11" s="7" t="s">
+        <v>64</v>
+      </c>
       <c r="S11" s="7"/>
       <c r="T11" s="7"/>
       <c r="U11" s="7"/>
-      <c r="V11" s="7"/>
+      <c r="V11" s="7" t="s">
+        <v>65</v>
+      </c>
       <c r="W11" s="7"/>
       <c r="X11" s="7"/>
-      <c r="Y11" s="7"/>
+      <c r="Y11" s="7" t="s">
+        <v>66</v>
+      </c>
       <c r="Z11" s="7"/>
       <c r="AA11" s="7"/>
       <c r="AB11" s="7"/>
       <c r="AC11" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="AD11" s="9"/>
+        <v>67</v>
+      </c>
+      <c r="AD11" s="9" t="n">
+        <v>0.0325</v>
+      </c>
       <c r="AE11" s="7"/>
       <c r="AF11" s="7"/>
       <c r="AG11" s="7"/>
       <c r="AH11" s="7"/>
       <c r="AI11" s="7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ11" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK11" s="10" t="s">
-        <v>86</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="AK11" s="7"/>
       <c r="AL11" s="7" t="n">
-        <v>300</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>38</v>
@@ -2108,16 +2041,16 @@
         <v>40</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>88</v>
+        <v>78</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>79</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="I12" s="7"/>
       <c r="J12" s="7" t="n">
@@ -2125,39 +2058,39 @@
       </c>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
-      <c r="M12" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="N12" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
+      <c r="M12" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="N12" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
       <c r="Q12" s="7" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="R12" s="7" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="S12" s="7"/>
       <c r="T12" s="7"/>
       <c r="U12" s="7"/>
       <c r="V12" s="7" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="W12" s="7"/>
       <c r="X12" s="7"/>
       <c r="Y12" s="7" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="Z12" s="7"/>
       <c r="AA12" s="7"/>
       <c r="AB12" s="7"/>
       <c r="AC12" s="7" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="AD12" s="9" t="n">
-        <v>0.034986</v>
+        <v>0.0325</v>
       </c>
       <c r="AE12" s="7"/>
       <c r="AF12" s="7"/>
@@ -2167,16 +2100,16 @@
         <v>3</v>
       </c>
       <c r="AJ12" s="7" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AK12" s="7"/>
       <c r="AL12" s="7" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="7" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>38</v>
@@ -2188,16 +2121,16 @@
         <v>40</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G13" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>92</v>
-      </c>
       <c r="H13" s="7" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="I13" s="7"/>
       <c r="J13" s="7" t="n">
@@ -2206,38 +2139,38 @@
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
       <c r="M13" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="N13" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
+        <v>84</v>
+      </c>
+      <c r="N13" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
       <c r="Q13" s="7" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="R13" s="7" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="S13" s="7"/>
       <c r="T13" s="7"/>
       <c r="U13" s="7"/>
       <c r="V13" s="7" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="W13" s="7"/>
       <c r="X13" s="7"/>
       <c r="Y13" s="7" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="Z13" s="7"/>
       <c r="AA13" s="7"/>
       <c r="AB13" s="7"/>
       <c r="AC13" s="7" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="AD13" s="9" t="n">
-        <v>0.01496</v>
+        <v>0.01166</v>
       </c>
       <c r="AE13" s="7"/>
       <c r="AF13" s="7"/>
@@ -2247,16 +2180,16 @@
         <v>3</v>
       </c>
       <c r="AJ13" s="7" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AK13" s="7"/>
       <c r="AL13" s="7" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="7" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>38</v>
@@ -2268,61 +2201,75 @@
         <v>40</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>96</v>
+        <v>86</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>87</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
+      <c r="J14" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
+      <c r="M14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="N14" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="R14" s="7" t="s">
+        <v>64</v>
+      </c>
       <c r="S14" s="7"/>
       <c r="T14" s="7"/>
       <c r="U14" s="7"/>
-      <c r="V14" s="7"/>
+      <c r="V14" s="7" t="s">
+        <v>65</v>
+      </c>
       <c r="W14" s="7"/>
       <c r="X14" s="7"/>
-      <c r="Y14" s="7"/>
+      <c r="Y14" s="7" t="s">
+        <v>66</v>
+      </c>
       <c r="Z14" s="7"/>
       <c r="AA14" s="7"/>
       <c r="AB14" s="7"/>
       <c r="AC14" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="AD14" s="9"/>
+        <v>67</v>
+      </c>
+      <c r="AD14" s="9" t="n">
+        <v>0.01166</v>
+      </c>
       <c r="AE14" s="7"/>
       <c r="AF14" s="7"/>
       <c r="AG14" s="7"/>
       <c r="AH14" s="7"/>
       <c r="AI14" s="7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ14" s="7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK14" s="10" t="s">
-        <v>97</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="AK14" s="7"/>
       <c r="AL14" s="7" t="n">
-        <v>300</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="7" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>38</v>
@@ -2334,16 +2281,16 @@
         <v>40</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>99</v>
+        <v>53</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>91</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="I15" s="7"/>
       <c r="J15" s="7" t="n">
@@ -2351,39 +2298,41 @@
       </c>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
-      <c r="M15" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="N15" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11" t="s">
+        <v>92</v>
+      </c>
       <c r="Q15" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="R15" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="S15" s="7"/>
+        <v>63</v>
+      </c>
+      <c r="R15" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="S15" s="16" t="s">
+        <v>94</v>
+      </c>
       <c r="T15" s="7"/>
       <c r="U15" s="7"/>
       <c r="V15" s="7" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="W15" s="7"/>
       <c r="X15" s="7"/>
       <c r="Y15" s="7" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="Z15" s="7"/>
       <c r="AA15" s="7"/>
       <c r="AB15" s="7"/>
       <c r="AC15" s="7" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="AD15" s="9" t="n">
-        <v>0.034986</v>
+        <v>0.01166</v>
       </c>
       <c r="AE15" s="7"/>
       <c r="AF15" s="7"/>
@@ -2393,16 +2342,16 @@
         <v>3</v>
       </c>
       <c r="AJ15" s="7" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AK15" s="7"/>
       <c r="AL15" s="7" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="7" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>38</v>
@@ -2414,75 +2363,61 @@
         <v>40</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>103</v>
+        <v>96</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>97</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="I16" s="7"/>
-      <c r="J16" s="7" t="n">
-        <v>1</v>
-      </c>
+      <c r="J16" s="7"/>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
-      <c r="M16" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="N16" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="R16" s="7" t="s">
-        <v>52</v>
-      </c>
+      <c r="M16" s="7"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
       <c r="S16" s="7"/>
       <c r="T16" s="7"/>
       <c r="U16" s="7"/>
-      <c r="V16" s="7" t="s">
-        <v>53</v>
-      </c>
+      <c r="V16" s="7"/>
       <c r="W16" s="7"/>
       <c r="X16" s="7"/>
-      <c r="Y16" s="7" t="s">
-        <v>54</v>
-      </c>
+      <c r="Y16" s="7"/>
       <c r="Z16" s="7"/>
       <c r="AA16" s="7"/>
       <c r="AB16" s="7"/>
       <c r="AC16" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD16" s="9" t="n">
-        <v>0.023766</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="AD16" s="9"/>
       <c r="AE16" s="7"/>
       <c r="AF16" s="7"/>
       <c r="AG16" s="7"/>
       <c r="AH16" s="7"/>
       <c r="AI16" s="7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ16" s="7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK16" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="AK16" s="12" t="s">
+        <v>98</v>
+      </c>
       <c r="AL16" s="7" t="n">
-        <v>13</v>
+        <v>300</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="7" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>38</v>
@@ -2494,16 +2429,16 @@
         <v>40</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>106</v>
+        <v>99</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>100</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="I17" s="7"/>
       <c r="J17" s="7" t="n">
@@ -2511,39 +2446,39 @@
       </c>
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
-      <c r="M17" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="N17" s="19" t="s">
-        <v>108</v>
+      <c r="M17" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="N17" s="11" t="s">
+        <v>102</v>
       </c>
       <c r="O17" s="7"/>
       <c r="P17" s="7"/>
       <c r="Q17" s="7" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="R17" s="7" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="S17" s="7"/>
       <c r="T17" s="7"/>
       <c r="U17" s="7"/>
       <c r="V17" s="7" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="W17" s="7"/>
       <c r="X17" s="7"/>
       <c r="Y17" s="7" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="Z17" s="7"/>
       <c r="AA17" s="7"/>
       <c r="AB17" s="7"/>
       <c r="AC17" s="7" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="AD17" s="9" t="n">
-        <v>0.023766</v>
+        <v>0.034986</v>
       </c>
       <c r="AE17" s="7"/>
       <c r="AF17" s="7"/>
@@ -2553,16 +2488,16 @@
         <v>3</v>
       </c>
       <c r="AJ17" s="7" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="AK17" s="7"/>
       <c r="AL17" s="7" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="7" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>38</v>
@@ -2574,16 +2509,16 @@
         <v>40</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>110</v>
+        <v>103</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>104</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="I18" s="7"/>
       <c r="J18" s="7" t="n">
@@ -2592,35 +2527,35 @@
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
       <c r="M18" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="N18" s="8" t="s">
-        <v>112</v>
+        <v>105</v>
+      </c>
+      <c r="N18" s="11" t="s">
+        <v>106</v>
       </c>
       <c r="O18" s="7"/>
       <c r="P18" s="7"/>
       <c r="Q18" s="7" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="R18" s="7" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="S18" s="7"/>
       <c r="T18" s="7"/>
       <c r="U18" s="7"/>
       <c r="V18" s="7" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="W18" s="7"/>
       <c r="X18" s="7"/>
       <c r="Y18" s="7" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="Z18" s="7"/>
       <c r="AA18" s="7"/>
       <c r="AB18" s="7"/>
       <c r="AC18" s="7" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="AD18" s="9" t="n">
         <v>0.01496</v>
@@ -2633,16 +2568,16 @@
         <v>3</v>
       </c>
       <c r="AJ18" s="7" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AK18" s="7"/>
       <c r="AL18" s="7" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="7" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>38</v>
@@ -2654,25 +2589,25 @@
         <v>40</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
       <c r="Q19" s="7"/>
       <c r="R19" s="7"/>
       <c r="S19" s="7"/>
@@ -2686,7 +2621,7 @@
       <c r="AA19" s="7"/>
       <c r="AB19" s="7"/>
       <c r="AC19" s="7" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="AD19" s="9"/>
       <c r="AE19" s="7"/>
@@ -2697,10 +2632,10 @@
         <v>2</v>
       </c>
       <c r="AJ19" s="7" t="n">
-        <v>18</v>
-      </c>
-      <c r="AK19" s="10" t="s">
-        <v>115</v>
+        <v>13</v>
+      </c>
+      <c r="AK19" s="12" t="s">
+        <v>109</v>
       </c>
       <c r="AL19" s="7" t="n">
         <v>300</v>
@@ -2708,7 +2643,7 @@
     </row>
     <row r="20" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="7" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>38</v>
@@ -2720,16 +2655,16 @@
         <v>40</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>117</v>
+        <v>110</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>111</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="I20" s="7"/>
       <c r="J20" s="7" t="n">
@@ -2738,35 +2673,35 @@
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
       <c r="M20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="N20" s="8" t="s">
-        <v>119</v>
+        <v>112</v>
+      </c>
+      <c r="N20" s="19" t="s">
+        <v>113</v>
       </c>
       <c r="O20" s="7"/>
       <c r="P20" s="7"/>
       <c r="Q20" s="7" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="R20" s="7" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="S20" s="7"/>
       <c r="T20" s="7"/>
       <c r="U20" s="7"/>
       <c r="V20" s="7" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="W20" s="7"/>
       <c r="X20" s="7"/>
       <c r="Y20" s="7" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="Z20" s="7"/>
       <c r="AA20" s="7"/>
       <c r="AB20" s="7"/>
       <c r="AC20" s="7" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="AD20" s="9" t="n">
         <v>0.034986</v>
@@ -2779,16 +2714,16 @@
         <v>3</v>
       </c>
       <c r="AJ20" s="7" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="AK20" s="7"/>
       <c r="AL20" s="7" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="7" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>38</v>
@@ -2800,16 +2735,16 @@
         <v>40</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G21" s="11" t="s">
-        <v>121</v>
+        <v>114</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>115</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="I21" s="7"/>
       <c r="J21" s="7" t="n">
@@ -2818,35 +2753,35 @@
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
       <c r="M21" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="N21" s="8" t="n">
-        <v>4607174577787</v>
+        <v>114</v>
+      </c>
+      <c r="N21" s="20" t="s">
+        <v>116</v>
       </c>
       <c r="O21" s="7"/>
       <c r="P21" s="7"/>
       <c r="Q21" s="7" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="R21" s="7" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="S21" s="7"/>
       <c r="T21" s="7"/>
       <c r="U21" s="7"/>
       <c r="V21" s="7" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="W21" s="7"/>
       <c r="X21" s="7"/>
       <c r="Y21" s="7" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="Z21" s="7"/>
       <c r="AA21" s="7"/>
       <c r="AB21" s="7"/>
       <c r="AC21" s="7" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="AD21" s="9" t="n">
         <v>0.023766</v>
@@ -2859,16 +2794,16 @@
         <v>3</v>
       </c>
       <c r="AJ21" s="7" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="AK21" s="7"/>
       <c r="AL21" s="7" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="7" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>38</v>
@@ -2880,16 +2815,16 @@
         <v>40</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="G22" s="11" t="s">
-        <v>123</v>
+        <v>117</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>118</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="I22" s="7"/>
       <c r="J22" s="7" t="n">
@@ -2898,35 +2833,35 @@
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
       <c r="M22" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="N22" s="8" t="s">
-        <v>125</v>
+        <v>119</v>
+      </c>
+      <c r="N22" s="21" t="s">
+        <v>120</v>
       </c>
       <c r="O22" s="7"/>
       <c r="P22" s="7"/>
       <c r="Q22" s="7" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="R22" s="7" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="S22" s="7"/>
       <c r="T22" s="7"/>
       <c r="U22" s="7"/>
       <c r="V22" s="7" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="W22" s="7"/>
       <c r="X22" s="7"/>
       <c r="Y22" s="7" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="Z22" s="7"/>
       <c r="AA22" s="7"/>
       <c r="AB22" s="7"/>
       <c r="AC22" s="7" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="AD22" s="9" t="n">
         <v>0.023766</v>
@@ -2939,16 +2874,16 @@
         <v>3</v>
       </c>
       <c r="AJ22" s="7" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AK22" s="7"/>
       <c r="AL22" s="7" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="7" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>38</v>
@@ -2960,16 +2895,16 @@
         <v>40</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>127</v>
+        <v>121</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>122</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="I23" s="7"/>
       <c r="J23" s="7" t="n">
@@ -2978,38 +2913,38 @@
       <c r="K23" s="7"/>
       <c r="L23" s="7"/>
       <c r="M23" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="N23" s="8" t="n">
-        <v>4650075420980</v>
+        <v>123</v>
+      </c>
+      <c r="N23" s="11" t="s">
+        <v>124</v>
       </c>
       <c r="O23" s="7"/>
       <c r="P23" s="7"/>
       <c r="Q23" s="7" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="R23" s="7" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="S23" s="7"/>
       <c r="T23" s="7"/>
       <c r="U23" s="7"/>
       <c r="V23" s="7" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="W23" s="7"/>
       <c r="X23" s="7"/>
       <c r="Y23" s="7" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="Z23" s="7"/>
       <c r="AA23" s="7"/>
       <c r="AB23" s="7"/>
       <c r="AC23" s="7" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="AD23" s="9" t="n">
-        <v>0.023766</v>
+        <v>0.01496</v>
       </c>
       <c r="AE23" s="7"/>
       <c r="AF23" s="7"/>
@@ -3019,16 +2954,16 @@
         <v>3</v>
       </c>
       <c r="AJ23" s="7" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="AK23" s="7"/>
       <c r="AL23" s="7" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="7" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>38</v>
@@ -3040,75 +2975,61 @@
         <v>40</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>129</v>
+        <v>125</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>126</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="I24" s="7"/>
-      <c r="J24" s="7" t="n">
-        <v>1</v>
-      </c>
+      <c r="J24" s="7"/>
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
-      <c r="M24" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="N24" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="O24" s="7"/>
-      <c r="P24" s="7"/>
-      <c r="Q24" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="R24" s="7" t="s">
-        <v>52</v>
-      </c>
+      <c r="M24" s="7"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
       <c r="S24" s="7"/>
       <c r="T24" s="7"/>
       <c r="U24" s="7"/>
-      <c r="V24" s="7" t="s">
-        <v>53</v>
-      </c>
+      <c r="V24" s="7"/>
       <c r="W24" s="7"/>
       <c r="X24" s="7"/>
-      <c r="Y24" s="7" t="s">
-        <v>54</v>
-      </c>
+      <c r="Y24" s="7"/>
       <c r="Z24" s="7"/>
       <c r="AA24" s="7"/>
       <c r="AB24" s="7"/>
       <c r="AC24" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD24" s="9" t="n">
-        <v>0.023766</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="AD24" s="9"/>
       <c r="AE24" s="7"/>
       <c r="AF24" s="7"/>
       <c r="AG24" s="7"/>
       <c r="AH24" s="7"/>
       <c r="AI24" s="7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ24" s="7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK24" s="7"/>
+        <v>18</v>
+      </c>
+      <c r="AK24" s="12" t="s">
+        <v>127</v>
+      </c>
       <c r="AL24" s="7" t="n">
-        <v>18</v>
+        <v>300</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="7" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>38</v>
@@ -3120,16 +3041,16 @@
         <v>40</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="G25" s="11" t="s">
-        <v>133</v>
+        <v>128</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>129</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="I25" s="7"/>
       <c r="J25" s="7" t="n">
@@ -3137,39 +3058,39 @@
       </c>
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
-      <c r="M25" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="N25" s="8" t="n">
-        <v>4607174579729</v>
+      <c r="M25" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="N25" s="11" t="s">
+        <v>131</v>
       </c>
       <c r="O25" s="7"/>
       <c r="P25" s="7"/>
       <c r="Q25" s="7" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="R25" s="7" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="S25" s="7"/>
       <c r="T25" s="7"/>
       <c r="U25" s="7"/>
       <c r="V25" s="7" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="W25" s="7"/>
       <c r="X25" s="7"/>
       <c r="Y25" s="7" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="Z25" s="7"/>
       <c r="AA25" s="7"/>
       <c r="AB25" s="7"/>
       <c r="AC25" s="7" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="AD25" s="9" t="n">
-        <v>0.023766</v>
+        <v>0.034986</v>
       </c>
       <c r="AE25" s="7"/>
       <c r="AF25" s="7"/>
@@ -3179,7 +3100,7 @@
         <v>3</v>
       </c>
       <c r="AJ25" s="7" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="AK25" s="7"/>
       <c r="AL25" s="7" t="n">
@@ -3188,7 +3109,7 @@
     </row>
     <row r="26" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="7" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>38</v>
@@ -3200,16 +3121,16 @@
         <v>40</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="G26" s="11" t="s">
-        <v>135</v>
+        <v>132</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>133</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="I26" s="7"/>
       <c r="J26" s="7" t="n">
@@ -3218,38 +3139,38 @@
       <c r="K26" s="7"/>
       <c r="L26" s="7"/>
       <c r="M26" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="N26" s="8" t="s">
-        <v>137</v>
+        <v>132</v>
+      </c>
+      <c r="N26" s="11" t="n">
+        <v>4607174577787</v>
       </c>
       <c r="O26" s="7"/>
       <c r="P26" s="7"/>
       <c r="Q26" s="7" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="R26" s="7" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="S26" s="7"/>
       <c r="T26" s="7"/>
       <c r="U26" s="7"/>
       <c r="V26" s="7" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="W26" s="7"/>
       <c r="X26" s="7"/>
       <c r="Y26" s="7" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="Z26" s="7"/>
       <c r="AA26" s="7"/>
       <c r="AB26" s="7"/>
       <c r="AC26" s="7" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="AD26" s="9" t="n">
-        <v>0.014994</v>
+        <v>0.023766</v>
       </c>
       <c r="AE26" s="7"/>
       <c r="AF26" s="7"/>
@@ -3259,7 +3180,7 @@
         <v>3</v>
       </c>
       <c r="AJ26" s="7" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AK26" s="7"/>
       <c r="AL26" s="7" t="n">
@@ -3268,7 +3189,7 @@
     </row>
     <row r="27" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="7" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>38</v>
@@ -3280,63 +3201,75 @@
         <v>40</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>139</v>
+        <v>134</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>135</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
+      <c r="J27" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="8"/>
-      <c r="P27" s="8"/>
-      <c r="Q27" s="8"/>
-      <c r="R27" s="8"/>
+      <c r="M27" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="N27" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="R27" s="7" t="s">
+        <v>64</v>
+      </c>
       <c r="S27" s="7"/>
       <c r="T27" s="7"/>
       <c r="U27" s="7"/>
       <c r="V27" s="7" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="W27" s="7"/>
       <c r="X27" s="7"/>
-      <c r="Y27" s="7"/>
+      <c r="Y27" s="7" t="s">
+        <v>66</v>
+      </c>
       <c r="Z27" s="7"/>
       <c r="AA27" s="7"/>
       <c r="AB27" s="7"/>
       <c r="AC27" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="AD27" s="9"/>
+        <v>67</v>
+      </c>
+      <c r="AD27" s="9" t="n">
+        <v>0.023766</v>
+      </c>
       <c r="AE27" s="7"/>
       <c r="AF27" s="7"/>
       <c r="AG27" s="7"/>
       <c r="AH27" s="7"/>
       <c r="AI27" s="7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ27" s="7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AK27" s="7" t="n">
-        <v>27</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="AK27" s="7"/>
       <c r="AL27" s="7" t="n">
-        <v>300</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="7" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>38</v>
@@ -3348,16 +3281,16 @@
         <v>40</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G28" s="11" t="s">
-        <v>142</v>
+        <v>138</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>139</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>143</v>
+        <v>60</v>
       </c>
       <c r="I28" s="7"/>
       <c r="J28" s="7" t="n">
@@ -3365,38 +3298,36 @@
       </c>
       <c r="K28" s="7"/>
       <c r="L28" s="7"/>
-      <c r="M28" s="7"/>
-      <c r="N28" s="16" t="s">
-        <v>144</v>
+      <c r="M28" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="N28" s="11" t="n">
+        <v>4650075420980</v>
       </c>
       <c r="O28" s="7"/>
-      <c r="P28" s="8" t="s">
-        <v>145</v>
-      </c>
+      <c r="P28" s="7"/>
       <c r="Q28" s="7" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="R28" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="S28" s="7" t="s">
-        <v>146</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="S28" s="7"/>
       <c r="T28" s="7"/>
       <c r="U28" s="7"/>
       <c r="V28" s="7" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="W28" s="7"/>
       <c r="X28" s="7"/>
       <c r="Y28" s="7" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="Z28" s="7"/>
       <c r="AA28" s="7"/>
       <c r="AB28" s="7"/>
       <c r="AC28" s="7" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="AD28" s="9" t="n">
         <v>0.023766</v>
@@ -3409,16 +3340,16 @@
         <v>3</v>
       </c>
       <c r="AJ28" s="7" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="AK28" s="7"/>
       <c r="AL28" s="7" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="7" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>38</v>
@@ -3430,77 +3361,75 @@
         <v>40</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>147</v>
+        <v>95</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>149</v>
+        <v>140</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>141</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="I29" s="7"/>
       <c r="J29" s="7" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="K29" s="7"/>
       <c r="L29" s="7"/>
       <c r="M29" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="N29" s="20" t="s">
-        <v>151</v>
+        <v>142</v>
+      </c>
+      <c r="N29" s="11" t="s">
+        <v>143</v>
       </c>
       <c r="O29" s="7"/>
-      <c r="P29" s="7" t="s">
-        <v>152</v>
-      </c>
+      <c r="P29" s="7"/>
       <c r="Q29" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="R29" s="20" t="s">
-        <v>81</v>
+        <v>63</v>
+      </c>
+      <c r="R29" s="7" t="s">
+        <v>64</v>
       </c>
       <c r="S29" s="7"/>
       <c r="T29" s="7"/>
       <c r="U29" s="7"/>
-      <c r="V29" s="7"/>
-      <c r="W29" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="X29" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="Y29" s="7"/>
+      <c r="V29" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="W29" s="7"/>
+      <c r="X29" s="7"/>
+      <c r="Y29" s="7" t="s">
+        <v>66</v>
+      </c>
       <c r="Z29" s="7"/>
       <c r="AA29" s="7"/>
       <c r="AB29" s="7"/>
       <c r="AC29" s="7" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="AD29" s="9" t="n">
-        <v>0.045</v>
+        <v>0.023766</v>
       </c>
       <c r="AE29" s="7"/>
       <c r="AF29" s="7"/>
       <c r="AG29" s="7"/>
       <c r="AH29" s="7"/>
       <c r="AI29" s="7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ29" s="7" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AK29" s="7"/>
       <c r="AL29" s="7" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="7" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>38</v>
@@ -3512,77 +3441,75 @@
         <v>40</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>147</v>
+        <v>95</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>156</v>
+        <v>144</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>145</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="I30" s="7"/>
       <c r="J30" s="7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K30" s="7"/>
       <c r="L30" s="7"/>
-      <c r="M30" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="N30" s="20" t="s">
-        <v>151</v>
+      <c r="M30" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="N30" s="11" t="n">
+        <v>4607174579729</v>
       </c>
       <c r="O30" s="7"/>
-      <c r="P30" s="7" t="s">
-        <v>152</v>
-      </c>
+      <c r="P30" s="7"/>
       <c r="Q30" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="R30" s="20" t="s">
-        <v>81</v>
+        <v>63</v>
+      </c>
+      <c r="R30" s="7" t="s">
+        <v>64</v>
       </c>
       <c r="S30" s="7"/>
       <c r="T30" s="7"/>
       <c r="U30" s="7"/>
-      <c r="V30" s="7"/>
-      <c r="W30" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="X30" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="Y30" s="7"/>
+      <c r="V30" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="W30" s="7"/>
+      <c r="X30" s="7"/>
+      <c r="Y30" s="7" t="s">
+        <v>66</v>
+      </c>
       <c r="Z30" s="7"/>
       <c r="AA30" s="7"/>
       <c r="AB30" s="7"/>
       <c r="AC30" s="7" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="AD30" s="9" t="n">
-        <v>0.045</v>
+        <v>0.023766</v>
       </c>
       <c r="AE30" s="7"/>
       <c r="AF30" s="7"/>
       <c r="AG30" s="7"/>
       <c r="AH30" s="7"/>
       <c r="AI30" s="7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ30" s="7" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="AK30" s="7"/>
       <c r="AL30" s="7" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="7" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>38</v>
@@ -3594,67 +3521,75 @@
         <v>40</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>158</v>
+        <v>95</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>160</v>
+        <v>146</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>147</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>161</v>
+        <v>60</v>
       </c>
       <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
+      <c r="J31" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="K31" s="7"/>
       <c r="L31" s="7"/>
-      <c r="M31" s="7"/>
-      <c r="N31" s="8"/>
-      <c r="O31" s="8"/>
-      <c r="P31" s="8"/>
+      <c r="M31" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="N31" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="O31" s="7"/>
+      <c r="P31" s="7"/>
       <c r="Q31" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="R31" s="7"/>
+        <v>63</v>
+      </c>
+      <c r="R31" s="7" t="s">
+        <v>64</v>
+      </c>
       <c r="S31" s="7"/>
       <c r="T31" s="7"/>
       <c r="U31" s="7"/>
-      <c r="V31" s="7"/>
+      <c r="V31" s="7" t="s">
+        <v>65</v>
+      </c>
       <c r="W31" s="7"/>
       <c r="X31" s="7"/>
-      <c r="Y31" s="7"/>
+      <c r="Y31" s="7" t="s">
+        <v>66</v>
+      </c>
       <c r="Z31" s="7"/>
       <c r="AA31" s="7"/>
       <c r="AB31" s="7"/>
       <c r="AC31" s="7" t="s">
-        <v>163</v>
+        <v>67</v>
       </c>
       <c r="AD31" s="9" t="n">
-        <v>0.135</v>
+        <v>0.014994</v>
       </c>
       <c r="AE31" s="7"/>
       <c r="AF31" s="7"/>
-      <c r="AG31" s="7" t="s">
-        <v>164</v>
-      </c>
+      <c r="AG31" s="7"/>
       <c r="AH31" s="7"/>
       <c r="AI31" s="7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ31" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="AK31" s="10" t="s">
-        <v>165</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="AK31" s="7"/>
       <c r="AL31" s="7" t="n">
-        <v>311</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="7" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>38</v>
@@ -3666,67 +3601,63 @@
         <v>40</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>158</v>
+        <v>95</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>168</v>
+        <v>56</v>
       </c>
       <c r="I32" s="7"/>
-      <c r="J32" s="7" t="n">
-        <v>0.5</v>
-      </c>
+      <c r="J32" s="7"/>
       <c r="K32" s="7"/>
       <c r="L32" s="7"/>
-      <c r="M32" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="N32" s="8"/>
-      <c r="O32" s="8"/>
-      <c r="P32" s="8"/>
-      <c r="Q32" s="7"/>
-      <c r="R32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="11"/>
       <c r="S32" s="7"/>
       <c r="T32" s="7"/>
       <c r="U32" s="7"/>
-      <c r="V32" s="7"/>
-      <c r="W32" s="7" t="s">
-        <v>170</v>
-      </c>
+      <c r="V32" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="W32" s="7"/>
       <c r="X32" s="7"/>
       <c r="Y32" s="7"/>
       <c r="Z32" s="7"/>
       <c r="AA32" s="7"/>
       <c r="AB32" s="7"/>
       <c r="AC32" s="7" t="s">
-        <v>55</v>
+        <v>152</v>
       </c>
       <c r="AD32" s="9"/>
       <c r="AE32" s="7"/>
       <c r="AF32" s="7"/>
-      <c r="AG32" s="7" t="s">
-        <v>171</v>
-      </c>
+      <c r="AG32" s="7"/>
       <c r="AH32" s="7"/>
       <c r="AI32" s="7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ32" s="7" t="n">
-        <v>31</v>
-      </c>
-      <c r="AK32" s="7"/>
+        <v>26</v>
+      </c>
+      <c r="AK32" s="7" t="n">
+        <v>27</v>
+      </c>
       <c r="AL32" s="7" t="n">
-        <v>30</v>
+        <v>300</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="7" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>38</v>
@@ -3738,51 +3669,59 @@
         <v>40</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>158</v>
+        <v>95</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>173</v>
+        <v>153</v>
+      </c>
+      <c r="G33" s="13" t="s">
+        <v>154</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="I33" s="7"/>
       <c r="J33" s="7" t="n">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="K33" s="7"/>
       <c r="L33" s="7"/>
-      <c r="M33" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="N33" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="O33" s="8"/>
-      <c r="P33" s="8"/>
-      <c r="Q33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="O33" s="7"/>
+      <c r="P33" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="R33" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="S33" s="7"/>
+        <v>93</v>
+      </c>
+      <c r="S33" s="7" t="s">
+        <v>158</v>
+      </c>
       <c r="T33" s="7"/>
       <c r="U33" s="7"/>
-      <c r="V33" s="7"/>
-      <c r="W33" s="7" t="s">
-        <v>177</v>
-      </c>
+      <c r="V33" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="W33" s="7"/>
       <c r="X33" s="7"/>
-      <c r="Y33" s="7"/>
+      <c r="Y33" s="7" t="s">
+        <v>66</v>
+      </c>
       <c r="Z33" s="7"/>
       <c r="AA33" s="7"/>
       <c r="AB33" s="7"/>
       <c r="AC33" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD33" s="9"/>
+        <v>67</v>
+      </c>
+      <c r="AD33" s="9" t="n">
+        <v>0.023766</v>
+      </c>
       <c r="AE33" s="7"/>
       <c r="AF33" s="7"/>
       <c r="AG33" s="7"/>
@@ -3791,16 +3730,16 @@
         <v>3</v>
       </c>
       <c r="AJ33" s="7" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AK33" s="7"/>
       <c r="AL33" s="7" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="7" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>38</v>
@@ -3812,75 +3751,77 @@
         <v>40</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>181</v>
+        <v>60</v>
       </c>
       <c r="I34" s="7"/>
       <c r="J34" s="7" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K34" s="7"/>
       <c r="L34" s="7"/>
-      <c r="M34" s="7"/>
-      <c r="N34" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="O34" s="8"/>
-      <c r="P34" s="8"/>
-      <c r="Q34" s="7"/>
-      <c r="R34" s="7" t="s">
-        <v>183</v>
+      <c r="M34" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="N34" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="O34" s="7"/>
+      <c r="P34" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="R34" s="22" t="s">
+        <v>93</v>
       </c>
       <c r="S34" s="7"/>
       <c r="T34" s="7"/>
       <c r="U34" s="7"/>
       <c r="V34" s="7"/>
       <c r="W34" s="7" t="s">
-        <v>53</v>
+        <v>165</v>
       </c>
       <c r="X34" s="7" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="Y34" s="7"/>
       <c r="Z34" s="7"/>
       <c r="AA34" s="7"/>
       <c r="AB34" s="7"/>
       <c r="AC34" s="7" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="AD34" s="9" t="n">
         <v>0.045</v>
       </c>
       <c r="AE34" s="7"/>
       <c r="AF34" s="7"/>
-      <c r="AG34" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="AH34" s="7" t="s">
-        <v>166</v>
-      </c>
+      <c r="AG34" s="7"/>
+      <c r="AH34" s="7"/>
       <c r="AI34" s="7" t="n">
         <v>2</v>
       </c>
       <c r="AJ34" s="7" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="AK34" s="7"/>
-      <c r="AL34" s="21" t="n">
-        <v>312</v>
+      <c r="AL34" s="7" t="n">
+        <v>400</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="7" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>38</v>
@@ -3892,75 +3833,77 @@
         <v>40</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="F35" s="14" t="s">
-        <v>185</v>
+        <v>159</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>167</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>187</v>
+        <v>60</v>
       </c>
       <c r="I35" s="7"/>
       <c r="J35" s="7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K35" s="7"/>
       <c r="L35" s="7"/>
       <c r="M35" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="N35" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="O35" s="8"/>
-      <c r="P35" s="8"/>
-      <c r="Q35" s="7"/>
-      <c r="R35" s="7" t="s">
-        <v>176</v>
+        <v>162</v>
+      </c>
+      <c r="N35" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="O35" s="7"/>
+      <c r="P35" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="R35" s="22" t="s">
+        <v>93</v>
       </c>
       <c r="S35" s="7"/>
       <c r="T35" s="7"/>
       <c r="U35" s="7"/>
       <c r="V35" s="7"/>
       <c r="W35" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="X35" s="7"/>
+        <v>165</v>
+      </c>
+      <c r="X35" s="7" t="s">
+        <v>169</v>
+      </c>
       <c r="Y35" s="7"/>
       <c r="Z35" s="7"/>
       <c r="AA35" s="7"/>
       <c r="AB35" s="7"/>
       <c r="AC35" s="7" t="s">
-        <v>163</v>
+        <v>67</v>
       </c>
       <c r="AD35" s="9" t="n">
         <v>0.045</v>
       </c>
       <c r="AE35" s="7"/>
       <c r="AF35" s="7"/>
-      <c r="AG35" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="AH35" s="7" t="s">
-        <v>166</v>
-      </c>
+      <c r="AG35" s="7"/>
+      <c r="AH35" s="7"/>
       <c r="AI35" s="7" t="n">
         <v>2</v>
       </c>
       <c r="AJ35" s="7" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AK35" s="7"/>
-      <c r="AL35" s="21" t="n">
-        <v>312</v>
+      <c r="AL35" s="7" t="n">
+        <v>400</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="7" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>38</v>
@@ -3972,77 +3915,67 @@
         <v>40</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="H36" s="22" t="s">
-        <v>191</v>
+        <v>172</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>173</v>
       </c>
       <c r="I36" s="7"/>
       <c r="J36" s="7"/>
-      <c r="K36" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="L36" s="7" t="n">
-        <v>15</v>
-      </c>
-      <c r="M36" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="N36" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="O36" s="8"/>
-      <c r="P36" s="8"/>
-      <c r="Q36" s="7"/>
-      <c r="R36" s="7" t="s">
-        <v>176</v>
-      </c>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="11"/>
+      <c r="P36" s="11"/>
+      <c r="Q36" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="R36" s="7"/>
       <c r="S36" s="7"/>
       <c r="T36" s="7"/>
       <c r="U36" s="7"/>
       <c r="V36" s="7"/>
-      <c r="W36" s="7" t="s">
-        <v>170</v>
-      </c>
+      <c r="W36" s="7"/>
       <c r="X36" s="7"/>
       <c r="Y36" s="7"/>
       <c r="Z36" s="7"/>
       <c r="AA36" s="7"/>
       <c r="AB36" s="7"/>
       <c r="AC36" s="7" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="AD36" s="9" t="n">
-        <v>0.045</v>
+        <v>0.135</v>
       </c>
       <c r="AE36" s="7"/>
       <c r="AF36" s="7"/>
       <c r="AG36" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="AH36" s="7" t="s">
-        <v>166</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="AH36" s="7"/>
       <c r="AI36" s="7" t="n">
         <v>2</v>
       </c>
       <c r="AJ36" s="7" t="n">
-        <v>35</v>
-      </c>
-      <c r="AK36" s="7"/>
-      <c r="AL36" s="21" t="n">
-        <v>312</v>
+        <v>30</v>
+      </c>
+      <c r="AK36" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="AL36" s="7" t="n">
+        <v>311</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="7" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B37" s="7" t="s">
         <v>38</v>
@@ -4054,71 +3987,67 @@
         <v>40</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="I37" s="7"/>
       <c r="J37" s="7" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="K37" s="7"/>
       <c r="L37" s="7"/>
-      <c r="M37" s="7"/>
-      <c r="N37" s="7"/>
-      <c r="O37" s="7"/>
-      <c r="P37" s="7"/>
-      <c r="Q37" s="7" t="s">
-        <v>51</v>
-      </c>
+      <c r="M37" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="N37" s="11"/>
+      <c r="O37" s="11"/>
+      <c r="P37" s="11"/>
+      <c r="Q37" s="7"/>
       <c r="R37" s="7"/>
       <c r="S37" s="7"/>
       <c r="T37" s="7"/>
       <c r="U37" s="7"/>
       <c r="V37" s="7"/>
       <c r="W37" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="X37" s="7" t="s">
-        <v>197</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="X37" s="7"/>
       <c r="Y37" s="7"/>
       <c r="Z37" s="7"/>
       <c r="AA37" s="7"/>
       <c r="AB37" s="7"/>
       <c r="AC37" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD37" s="9" t="n">
-        <v>0.05</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="AD37" s="9"/>
       <c r="AE37" s="7"/>
       <c r="AF37" s="7"/>
-      <c r="AG37" s="7"/>
+      <c r="AG37" s="7" t="s">
+        <v>183</v>
+      </c>
       <c r="AH37" s="7"/>
       <c r="AI37" s="7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ37" s="7" t="n">
-        <v>36</v>
-      </c>
-      <c r="AK37" s="10" t="s">
-        <v>198</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="AK37" s="7"/>
       <c r="AL37" s="7" t="n">
-        <v>400</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="7" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>38</v>
@@ -4130,57 +4059,49 @@
         <v>40</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>48</v>
+        <v>186</v>
       </c>
       <c r="I38" s="7"/>
       <c r="J38" s="7" t="n">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="K38" s="7"/>
       <c r="L38" s="7"/>
       <c r="M38" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="N38" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="O38" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="R38" s="20" t="s">
-        <v>81</v>
+        <v>181</v>
+      </c>
+      <c r="N38" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="O38" s="11"/>
+      <c r="P38" s="11"/>
+      <c r="Q38" s="7"/>
+      <c r="R38" s="7" t="s">
+        <v>188</v>
       </c>
       <c r="S38" s="7"/>
       <c r="T38" s="7"/>
       <c r="U38" s="7"/>
       <c r="V38" s="7"/>
       <c r="W38" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="X38" s="7" t="s">
-        <v>197</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="X38" s="7"/>
       <c r="Y38" s="7"/>
       <c r="Z38" s="7"/>
       <c r="AA38" s="7"/>
       <c r="AB38" s="7"/>
       <c r="AC38" s="7" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="AD38" s="9"/>
       <c r="AE38" s="7"/>
@@ -4191,16 +4112,16 @@
         <v>3</v>
       </c>
       <c r="AJ38" s="7" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="AK38" s="7"/>
       <c r="AL38" s="7" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="7" t="n">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B39" s="7" t="s">
         <v>38</v>
@@ -4212,16 +4133,16 @@
         <v>40</v>
       </c>
       <c r="E39" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="H39" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="H39" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="I39" s="7"/>
       <c r="J39" s="7" t="n">
@@ -4229,60 +4150,58 @@
       </c>
       <c r="K39" s="7"/>
       <c r="L39" s="7"/>
-      <c r="M39" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="N39" s="7" t="n">
-        <v>5000034</v>
-      </c>
-      <c r="O39" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="P39" s="7"/>
-      <c r="Q39" s="7" t="s">
-        <v>51</v>
-      </c>
+      <c r="M39" s="7"/>
+      <c r="N39" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="O39" s="11"/>
+      <c r="P39" s="11"/>
+      <c r="Q39" s="7"/>
       <c r="R39" s="7" t="s">
-        <v>52</v>
+        <v>195</v>
       </c>
       <c r="S39" s="7"/>
       <c r="T39" s="7"/>
       <c r="U39" s="7"/>
       <c r="V39" s="7"/>
       <c r="W39" s="7" t="s">
-        <v>153</v>
+        <v>65</v>
       </c>
       <c r="X39" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="Y39" s="7"/>
       <c r="Z39" s="7"/>
       <c r="AA39" s="7"/>
       <c r="AB39" s="7"/>
       <c r="AC39" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD39" s="9"/>
+        <v>67</v>
+      </c>
+      <c r="AD39" s="9" t="n">
+        <v>0.045</v>
+      </c>
       <c r="AE39" s="7"/>
       <c r="AF39" s="7"/>
       <c r="AG39" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="AH39" s="7"/>
+        <v>196</v>
+      </c>
+      <c r="AH39" s="7" t="s">
+        <v>178</v>
+      </c>
       <c r="AI39" s="7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ39" s="7" t="n">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AK39" s="7"/>
-      <c r="AL39" s="7" t="n">
-        <v>36</v>
+      <c r="AL39" s="23" t="n">
+        <v>312</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="7" t="n">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>38</v>
@@ -4294,71 +4213,75 @@
         <v>40</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>208</v>
+        <v>190</v>
+      </c>
+      <c r="F40" s="16" t="s">
+        <v>197</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="I40" s="7"/>
       <c r="J40" s="7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K40" s="7"/>
       <c r="L40" s="7"/>
-      <c r="M40" s="7"/>
-      <c r="N40" s="7"/>
-      <c r="O40" s="7"/>
-      <c r="P40" s="7"/>
-      <c r="Q40" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="R40" s="7"/>
+      <c r="M40" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="N40" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="O40" s="11"/>
+      <c r="P40" s="11"/>
+      <c r="Q40" s="7"/>
+      <c r="R40" s="7" t="s">
+        <v>188</v>
+      </c>
       <c r="S40" s="7"/>
       <c r="T40" s="7"/>
       <c r="U40" s="7"/>
       <c r="V40" s="7"/>
       <c r="W40" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="X40" s="7" t="s">
-        <v>197</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="X40" s="7"/>
       <c r="Y40" s="7"/>
       <c r="Z40" s="7"/>
       <c r="AA40" s="7"/>
       <c r="AB40" s="7"/>
       <c r="AC40" s="7" t="s">
-        <v>55</v>
+        <v>175</v>
       </c>
       <c r="AD40" s="9" t="n">
-        <v>0.05</v>
+        <v>0.045</v>
       </c>
       <c r="AE40" s="7"/>
       <c r="AF40" s="7"/>
-      <c r="AG40" s="7"/>
-      <c r="AH40" s="7"/>
+      <c r="AG40" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="AH40" s="7" t="s">
+        <v>178</v>
+      </c>
       <c r="AI40" s="7" t="n">
         <v>2</v>
       </c>
       <c r="AJ40" s="7" t="n">
-        <v>39</v>
-      </c>
-      <c r="AK40" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="AL40" s="7" t="n">
-        <v>400</v>
+        <v>34</v>
+      </c>
+      <c r="AK40" s="7"/>
+      <c r="AL40" s="23" t="n">
+        <v>312</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="7" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B41" s="7" t="s">
         <v>38</v>
@@ -4370,77 +4293,77 @@
         <v>40</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="H41" s="7" t="s">
-        <v>48</v>
+        <v>202</v>
+      </c>
+      <c r="H41" s="24" t="s">
+        <v>203</v>
       </c>
       <c r="I41" s="7"/>
-      <c r="J41" s="7" t="n">
+      <c r="J41" s="7"/>
+      <c r="K41" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="K41" s="7"/>
-      <c r="L41" s="7"/>
+      <c r="L41" s="7" t="n">
+        <v>15</v>
+      </c>
       <c r="M41" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="N41" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="O41" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="P41" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>51</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="N41" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="O41" s="11"/>
+      <c r="P41" s="11"/>
+      <c r="Q41" s="7"/>
       <c r="R41" s="7" t="s">
-        <v>52</v>
+        <v>188</v>
       </c>
       <c r="S41" s="7"/>
       <c r="T41" s="7"/>
       <c r="U41" s="7"/>
       <c r="V41" s="7"/>
       <c r="W41" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="X41" s="7" t="s">
-        <v>197</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="X41" s="7"/>
       <c r="Y41" s="7"/>
       <c r="Z41" s="7"/>
       <c r="AA41" s="7"/>
       <c r="AB41" s="7"/>
       <c r="AC41" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD41" s="9"/>
+        <v>204</v>
+      </c>
+      <c r="AD41" s="9" t="n">
+        <v>0.045</v>
+      </c>
       <c r="AE41" s="7"/>
       <c r="AF41" s="7"/>
-      <c r="AG41" s="7"/>
-      <c r="AH41" s="7"/>
+      <c r="AG41" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="AH41" s="7" t="s">
+        <v>178</v>
+      </c>
       <c r="AI41" s="7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ41" s="7" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AK41" s="7"/>
-      <c r="AL41" s="7" t="n">
-        <v>39</v>
+      <c r="AL41" s="23" t="n">
+        <v>312</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="7" t="n">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B42" s="7" t="s">
         <v>38</v>
@@ -4452,77 +4375,71 @@
         <v>40</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="I42" s="7"/>
       <c r="J42" s="7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K42" s="7"/>
       <c r="L42" s="7"/>
-      <c r="M42" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="N42" s="7" t="n">
-        <v>5000034</v>
-      </c>
-      <c r="O42" s="7" t="s">
-        <v>203</v>
-      </c>
+      <c r="M42" s="7"/>
+      <c r="N42" s="7"/>
+      <c r="O42" s="7"/>
       <c r="P42" s="7"/>
       <c r="Q42" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="R42" s="7" t="s">
-        <v>52</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="R42" s="7"/>
       <c r="S42" s="7"/>
       <c r="T42" s="7"/>
       <c r="U42" s="7"/>
       <c r="V42" s="7"/>
       <c r="W42" s="7" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="X42" s="7" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="Y42" s="7"/>
       <c r="Z42" s="7"/>
       <c r="AA42" s="7"/>
       <c r="AB42" s="7"/>
       <c r="AC42" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD42" s="9"/>
+        <v>67</v>
+      </c>
+      <c r="AD42" s="9" t="n">
+        <v>0.05</v>
+      </c>
       <c r="AE42" s="7"/>
       <c r="AF42" s="7"/>
-      <c r="AG42" s="7" t="s">
-        <v>207</v>
-      </c>
+      <c r="AG42" s="7"/>
       <c r="AH42" s="7"/>
       <c r="AI42" s="7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ42" s="7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AK42" s="7"/>
+        <v>36</v>
+      </c>
+      <c r="AK42" s="12" t="s">
+        <v>210</v>
+      </c>
       <c r="AL42" s="7" t="n">
-        <v>39</v>
+        <v>400</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="7" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B43" s="7" t="s">
         <v>38</v>
@@ -4531,62 +4448,80 @@
         <v>39</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="E43" s="21" t="s">
-        <v>178</v>
-      </c>
-      <c r="F43" s="21" t="s">
-        <v>220</v>
-      </c>
-      <c r="G43" s="21" t="s">
-        <v>221</v>
+        <v>40</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>212</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="I43" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="J43" s="7"/>
+        <v>60</v>
+      </c>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="K43" s="7"/>
       <c r="L43" s="7"/>
-      <c r="M43" s="7"/>
-      <c r="N43" s="7"/>
-      <c r="O43" s="7"/>
-      <c r="P43" s="7"/>
-      <c r="Q43" s="7"/>
-      <c r="R43" s="7" t="s">
-        <v>224</v>
+      <c r="M43" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="N43" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="O43" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q43" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="R43" s="22" t="s">
+        <v>93</v>
       </c>
       <c r="S43" s="7"/>
       <c r="T43" s="7"/>
       <c r="U43" s="7"/>
       <c r="V43" s="7"/>
-      <c r="W43" s="7"/>
-      <c r="X43" s="7"/>
+      <c r="W43" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="X43" s="7" t="s">
+        <v>209</v>
+      </c>
       <c r="Y43" s="7"/>
       <c r="Z43" s="7"/>
       <c r="AA43" s="7"/>
       <c r="AB43" s="7"/>
-      <c r="AC43" s="7"/>
+      <c r="AC43" s="7" t="s">
+        <v>67</v>
+      </c>
       <c r="AD43" s="9"/>
       <c r="AE43" s="7"/>
       <c r="AF43" s="7"/>
       <c r="AG43" s="7"/>
       <c r="AH43" s="7"/>
-      <c r="AI43" s="7"/>
+      <c r="AI43" s="7" t="n">
+        <v>3</v>
+      </c>
       <c r="AJ43" s="7" t="n">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="AK43" s="7"/>
-      <c r="AL43" s="10" t="s">
-        <v>225</v>
+      <c r="AL43" s="7" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="7" t="n">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B44" s="7" t="s">
         <v>38</v>
@@ -4595,62 +4530,80 @@
         <v>39</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>219</v>
+        <v>40</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="F44" s="21" t="s">
-        <v>226</v>
+        <v>205</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>216</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="I44" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="J44" s="7"/>
+        <v>60</v>
+      </c>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="K44" s="7"/>
       <c r="L44" s="7"/>
-      <c r="M44" s="7"/>
-      <c r="N44" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="O44" s="7"/>
+      <c r="M44" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="N44" s="7" t="n">
+        <v>5000034</v>
+      </c>
+      <c r="O44" s="7" t="s">
+        <v>215</v>
+      </c>
       <c r="P44" s="7"/>
-      <c r="Q44" s="7"/>
+      <c r="Q44" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="R44" s="7" t="s">
-        <v>224</v>
+        <v>64</v>
       </c>
       <c r="S44" s="7"/>
       <c r="T44" s="7"/>
       <c r="U44" s="7"/>
       <c r="V44" s="7"/>
-      <c r="W44" s="7"/>
-      <c r="X44" s="7"/>
+      <c r="W44" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="X44" s="7" t="s">
+        <v>209</v>
+      </c>
       <c r="Y44" s="7"/>
       <c r="Z44" s="7"/>
       <c r="AA44" s="7"/>
       <c r="AB44" s="7"/>
-      <c r="AC44" s="7"/>
+      <c r="AC44" s="7" t="s">
+        <v>67</v>
+      </c>
       <c r="AD44" s="9"/>
       <c r="AE44" s="7"/>
       <c r="AF44" s="7"/>
-      <c r="AG44" s="7"/>
+      <c r="AG44" s="7" t="s">
+        <v>219</v>
+      </c>
       <c r="AH44" s="7"/>
-      <c r="AI44" s="7"/>
+      <c r="AI44" s="7" t="n">
+        <v>3</v>
+      </c>
       <c r="AJ44" s="7" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AK44" s="7"/>
-      <c r="AL44" s="7"/>
+      <c r="AL44" s="7" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="7" t="n">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B45" s="7" t="s">
         <v>38</v>
@@ -4659,62 +4612,74 @@
         <v>39</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>219</v>
+        <v>40</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="F45" s="21" t="s">
-        <v>226</v>
+        <v>205</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>220</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="I45" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="J45" s="7"/>
+        <v>208</v>
+      </c>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7" t="n">
+        <v>2</v>
+      </c>
       <c r="K45" s="7"/>
       <c r="L45" s="7"/>
       <c r="M45" s="7"/>
-      <c r="N45" s="10" t="s">
-        <v>231</v>
-      </c>
+      <c r="N45" s="7"/>
       <c r="O45" s="7"/>
       <c r="P45" s="7"/>
-      <c r="Q45" s="7"/>
-      <c r="R45" s="7" t="s">
-        <v>224</v>
-      </c>
+      <c r="Q45" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="R45" s="7"/>
       <c r="S45" s="7"/>
       <c r="T45" s="7"/>
       <c r="U45" s="7"/>
       <c r="V45" s="7"/>
-      <c r="W45" s="7"/>
-      <c r="X45" s="7"/>
+      <c r="W45" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="X45" s="7" t="s">
+        <v>209</v>
+      </c>
       <c r="Y45" s="7"/>
       <c r="Z45" s="7"/>
       <c r="AA45" s="7"/>
       <c r="AB45" s="7"/>
-      <c r="AC45" s="7"/>
-      <c r="AD45" s="9"/>
+      <c r="AC45" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD45" s="9" t="n">
+        <v>0.05</v>
+      </c>
       <c r="AE45" s="7"/>
       <c r="AF45" s="7"/>
       <c r="AG45" s="7"/>
       <c r="AH45" s="7"/>
-      <c r="AI45" s="7"/>
+      <c r="AI45" s="7" t="n">
+        <v>2</v>
+      </c>
       <c r="AJ45" s="7" t="n">
-        <v>45</v>
-      </c>
-      <c r="AK45" s="7"/>
-      <c r="AL45" s="7"/>
+        <v>39</v>
+      </c>
+      <c r="AK45" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="AL45" s="7" t="n">
+        <v>400</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="7" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B46" s="7" t="s">
         <v>38</v>
@@ -4723,62 +4688,80 @@
         <v>39</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="E46" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="F46" s="21" t="s">
-        <v>232</v>
-      </c>
-      <c r="G46" s="21" t="s">
-        <v>233</v>
+        <v>40</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="I46" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="J46" s="7"/>
+        <v>60</v>
+      </c>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="K46" s="7"/>
       <c r="L46" s="7"/>
-      <c r="M46" s="7"/>
-      <c r="N46" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="O46" s="7"/>
-      <c r="P46" s="7"/>
-      <c r="Q46" s="7"/>
+      <c r="M46" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="N46" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="O46" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q46" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="R46" s="7" t="s">
-        <v>224</v>
+        <v>64</v>
       </c>
       <c r="S46" s="7"/>
       <c r="T46" s="7"/>
       <c r="U46" s="7"/>
       <c r="V46" s="7"/>
-      <c r="W46" s="7"/>
-      <c r="X46" s="7"/>
+      <c r="W46" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="X46" s="7" t="s">
+        <v>209</v>
+      </c>
       <c r="Y46" s="7"/>
       <c r="Z46" s="7"/>
       <c r="AA46" s="7"/>
       <c r="AB46" s="7"/>
-      <c r="AC46" s="7"/>
+      <c r="AC46" s="7" t="s">
+        <v>67</v>
+      </c>
       <c r="AD46" s="9"/>
       <c r="AE46" s="7"/>
       <c r="AF46" s="7"/>
       <c r="AG46" s="7"/>
       <c r="AH46" s="7"/>
-      <c r="AI46" s="7"/>
+      <c r="AI46" s="7" t="n">
+        <v>3</v>
+      </c>
       <c r="AJ46" s="7" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AK46" s="7"/>
-      <c r="AL46" s="7"/>
+      <c r="AL46" s="7" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="7" t="n">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B47" s="7" t="s">
         <v>38</v>
@@ -4787,62 +4770,80 @@
         <v>39</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="E47" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="F47" s="21" t="s">
-        <v>232</v>
-      </c>
-      <c r="G47" s="21" t="s">
-        <v>233</v>
+        <v>40</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>229</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="I47" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="J47" s="7"/>
+        <v>230</v>
+      </c>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="K47" s="7"/>
       <c r="L47" s="7"/>
-      <c r="M47" s="7"/>
-      <c r="N47" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="O47" s="7"/>
+      <c r="M47" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="N47" s="7" t="n">
+        <v>5000034</v>
+      </c>
+      <c r="O47" s="7" t="s">
+        <v>215</v>
+      </c>
       <c r="P47" s="7"/>
-      <c r="Q47" s="7"/>
+      <c r="Q47" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="R47" s="7" t="s">
-        <v>224</v>
+        <v>64</v>
       </c>
       <c r="S47" s="7"/>
       <c r="T47" s="7"/>
       <c r="U47" s="7"/>
       <c r="V47" s="7"/>
-      <c r="W47" s="7"/>
-      <c r="X47" s="7"/>
+      <c r="W47" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="X47" s="7" t="s">
+        <v>209</v>
+      </c>
       <c r="Y47" s="7"/>
       <c r="Z47" s="7"/>
       <c r="AA47" s="7"/>
       <c r="AB47" s="7"/>
-      <c r="AC47" s="7"/>
+      <c r="AC47" s="7" t="s">
+        <v>67</v>
+      </c>
       <c r="AD47" s="9"/>
       <c r="AE47" s="7"/>
       <c r="AF47" s="7"/>
-      <c r="AG47" s="7"/>
+      <c r="AG47" s="7" t="s">
+        <v>219</v>
+      </c>
       <c r="AH47" s="7"/>
-      <c r="AI47" s="7"/>
+      <c r="AI47" s="7" t="n">
+        <v>3</v>
+      </c>
       <c r="AJ47" s="7" t="n">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="AK47" s="7"/>
-      <c r="AL47" s="7"/>
+      <c r="AL47" s="7" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="7" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B48" s="7" t="s">
         <v>38</v>
@@ -4851,35 +4852,33 @@
         <v>39</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="E48" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="F48" s="21" t="s">
-        <v>237</v>
-      </c>
-      <c r="G48" s="21" t="s">
-        <v>238</v>
+        <v>231</v>
+      </c>
+      <c r="E48" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="F48" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="G48" s="23" t="s">
+        <v>233</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="I48" s="7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="J48" s="7"/>
       <c r="K48" s="7"/>
       <c r="L48" s="7"/>
       <c r="M48" s="7"/>
-      <c r="N48" s="10" t="s">
-        <v>239</v>
-      </c>
+      <c r="N48" s="7"/>
       <c r="O48" s="7"/>
       <c r="P48" s="7"/>
       <c r="Q48" s="7"/>
       <c r="R48" s="7" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="S48" s="7"/>
       <c r="T48" s="7"/>
@@ -4899,14 +4898,16 @@
       <c r="AH48" s="7"/>
       <c r="AI48" s="7"/>
       <c r="AJ48" s="7" t="n">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="AK48" s="7"/>
-      <c r="AL48" s="7"/>
+      <c r="AL48" s="12" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="7" t="n">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B49" s="7" t="s">
         <v>38</v>
@@ -4915,28 +4916,36 @@
         <v>39</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E49" s="7"/>
+        <v>231</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>205</v>
+      </c>
       <c r="F49" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="I49" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="G49" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="H49" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="I49" s="7"/>
       <c r="J49" s="7"/>
       <c r="K49" s="7"/>
       <c r="L49" s="7"/>
       <c r="M49" s="7"/>
-      <c r="N49" s="7"/>
+      <c r="N49" s="12" t="s">
+        <v>241</v>
+      </c>
       <c r="O49" s="7"/>
       <c r="P49" s="7"/>
       <c r="Q49" s="7"/>
-      <c r="R49" s="7"/>
+      <c r="R49" s="7" t="s">
+        <v>236</v>
+      </c>
       <c r="S49" s="7"/>
       <c r="T49" s="7"/>
       <c r="U49" s="7"/>
@@ -4949,22 +4958,20 @@
       <c r="AB49" s="7"/>
       <c r="AC49" s="7"/>
       <c r="AD49" s="9"/>
-      <c r="AE49" s="24"/>
+      <c r="AE49" s="7"/>
       <c r="AF49" s="7"/>
       <c r="AG49" s="7"/>
-      <c r="AH49" s="8"/>
-      <c r="AI49" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ49" s="8" t="n">
-        <v>300</v>
+      <c r="AH49" s="7"/>
+      <c r="AI49" s="7"/>
+      <c r="AJ49" s="7" t="n">
+        <v>44</v>
       </c>
       <c r="AK49" s="7"/>
       <c r="AL49" s="7"/>
     </row>
     <row r="50" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="7" t="n">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B50" s="7" t="s">
         <v>38</v>
@@ -4973,28 +4980,36 @@
         <v>39</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E50" s="7"/>
+        <v>231</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>205</v>
+      </c>
       <c r="F50" s="23" t="s">
-        <v>242</v>
-      </c>
-      <c r="G50" s="23" t="s">
-        <v>243</v>
-      </c>
-      <c r="H50" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="I50" s="7"/>
+        <v>237</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="H50" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="I50" s="7" t="s">
+        <v>240</v>
+      </c>
       <c r="J50" s="7"/>
       <c r="K50" s="7"/>
       <c r="L50" s="7"/>
       <c r="M50" s="7"/>
-      <c r="N50" s="7"/>
+      <c r="N50" s="12" t="s">
+        <v>242</v>
+      </c>
       <c r="O50" s="7"/>
       <c r="P50" s="7"/>
       <c r="Q50" s="7"/>
-      <c r="R50" s="7"/>
+      <c r="R50" s="7" t="s">
+        <v>236</v>
+      </c>
       <c r="S50" s="7"/>
       <c r="T50" s="7"/>
       <c r="U50" s="7"/>
@@ -5007,22 +5022,20 @@
       <c r="AB50" s="7"/>
       <c r="AC50" s="7"/>
       <c r="AD50" s="9"/>
-      <c r="AE50" s="24"/>
+      <c r="AE50" s="7"/>
       <c r="AF50" s="7"/>
       <c r="AG50" s="7"/>
-      <c r="AH50" s="8"/>
-      <c r="AI50" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ50" s="8" t="n">
-        <v>310</v>
+      <c r="AH50" s="7"/>
+      <c r="AI50" s="7"/>
+      <c r="AJ50" s="7" t="n">
+        <v>45</v>
       </c>
       <c r="AK50" s="7"/>
-      <c r="AL50" s="8"/>
+      <c r="AL50" s="7"/>
     </row>
     <row r="51" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="7" t="n">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B51" s="7" t="s">
         <v>38</v>
@@ -5031,28 +5044,36 @@
         <v>39</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E51" s="7"/>
+        <v>231</v>
+      </c>
+      <c r="E51" s="23" t="s">
+        <v>159</v>
+      </c>
       <c r="F51" s="23" t="s">
+        <v>243</v>
+      </c>
+      <c r="G51" s="23" t="s">
         <v>244</v>
       </c>
-      <c r="G51" s="23" t="s">
-        <v>245</v>
-      </c>
-      <c r="H51" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="I51" s="7"/>
+      <c r="H51" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="I51" s="7" t="s">
+        <v>240</v>
+      </c>
       <c r="J51" s="7"/>
       <c r="K51" s="7"/>
       <c r="L51" s="7"/>
       <c r="M51" s="7"/>
-      <c r="N51" s="7"/>
+      <c r="N51" s="12" t="s">
+        <v>245</v>
+      </c>
       <c r="O51" s="7"/>
       <c r="P51" s="7"/>
       <c r="Q51" s="7"/>
-      <c r="R51" s="7"/>
+      <c r="R51" s="7" t="s">
+        <v>236</v>
+      </c>
       <c r="S51" s="7"/>
       <c r="T51" s="7"/>
       <c r="U51" s="7"/>
@@ -5065,24 +5086,20 @@
       <c r="AB51" s="7"/>
       <c r="AC51" s="7"/>
       <c r="AD51" s="9"/>
-      <c r="AE51" s="24"/>
+      <c r="AE51" s="7"/>
       <c r="AF51" s="7"/>
       <c r="AG51" s="7"/>
-      <c r="AH51" s="8"/>
-      <c r="AI51" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ51" s="8" t="n">
-        <v>311</v>
+      <c r="AH51" s="7"/>
+      <c r="AI51" s="7"/>
+      <c r="AJ51" s="7" t="n">
+        <v>46</v>
       </c>
       <c r="AK51" s="7"/>
-      <c r="AL51" s="8" t="n">
-        <v>310</v>
-      </c>
+      <c r="AL51" s="7"/>
     </row>
     <row r="52" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="7" t="n">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B52" s="7" t="s">
         <v>38</v>
@@ -5091,28 +5108,36 @@
         <v>39</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E52" s="7"/>
+        <v>231</v>
+      </c>
+      <c r="E52" s="23" t="s">
+        <v>159</v>
+      </c>
       <c r="F52" s="23" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G52" s="23" t="s">
-        <v>247</v>
-      </c>
-      <c r="H52" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="I52" s="7"/>
+        <v>244</v>
+      </c>
+      <c r="H52" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="I52" s="7" t="s">
+        <v>240</v>
+      </c>
       <c r="J52" s="7"/>
       <c r="K52" s="7"/>
       <c r="L52" s="7"/>
       <c r="M52" s="7"/>
-      <c r="N52" s="7"/>
+      <c r="N52" s="12" t="s">
+        <v>246</v>
+      </c>
       <c r="O52" s="7"/>
       <c r="P52" s="7"/>
       <c r="Q52" s="7"/>
-      <c r="R52" s="7"/>
+      <c r="R52" s="7" t="s">
+        <v>236</v>
+      </c>
       <c r="S52" s="7"/>
       <c r="T52" s="7"/>
       <c r="U52" s="7"/>
@@ -5125,26 +5150,20 @@
       <c r="AB52" s="7"/>
       <c r="AC52" s="7"/>
       <c r="AD52" s="9"/>
-      <c r="AE52" s="24"/>
+      <c r="AE52" s="7"/>
       <c r="AF52" s="7"/>
       <c r="AG52" s="7"/>
-      <c r="AH52" s="8"/>
-      <c r="AI52" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ52" s="8" t="n">
-        <v>312</v>
-      </c>
-      <c r="AK52" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="AL52" s="8" t="n">
-        <v>310</v>
-      </c>
+      <c r="AH52" s="7"/>
+      <c r="AI52" s="7"/>
+      <c r="AJ52" s="7" t="n">
+        <v>47</v>
+      </c>
+      <c r="AK52" s="7"/>
+      <c r="AL52" s="7"/>
     </row>
     <row r="53" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="7" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B53" s="7" t="s">
         <v>38</v>
@@ -5153,28 +5172,36 @@
         <v>39</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E53" s="7"/>
+        <v>231</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>247</v>
+      </c>
       <c r="F53" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="G53" s="23" t="s">
         <v>249</v>
       </c>
-      <c r="G53" s="23" t="s">
-        <v>250</v>
-      </c>
-      <c r="H53" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="I53" s="7"/>
+      <c r="H53" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="I53" s="7" t="s">
+        <v>240</v>
+      </c>
       <c r="J53" s="7"/>
       <c r="K53" s="7"/>
       <c r="L53" s="7"/>
       <c r="M53" s="7"/>
-      <c r="N53" s="7"/>
+      <c r="N53" s="12" t="s">
+        <v>250</v>
+      </c>
       <c r="O53" s="7"/>
       <c r="P53" s="7"/>
       <c r="Q53" s="7"/>
-      <c r="R53" s="7"/>
+      <c r="R53" s="7" t="s">
+        <v>236</v>
+      </c>
       <c r="S53" s="7"/>
       <c r="T53" s="7"/>
       <c r="U53" s="7"/>
@@ -5187,23 +5214,85 @@
       <c r="AB53" s="7"/>
       <c r="AC53" s="7"/>
       <c r="AD53" s="9"/>
-      <c r="AE53" s="24"/>
+      <c r="AE53" s="7"/>
       <c r="AF53" s="7"/>
       <c r="AG53" s="7"/>
-      <c r="AH53" s="8"/>
-      <c r="AI53" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ53" s="8" t="n">
-        <v>400</v>
-      </c>
-      <c r="AK53" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="AL53" s="8"/>
+      <c r="AH53" s="7"/>
+      <c r="AI53" s="7"/>
+      <c r="AJ53" s="7" t="n">
+        <v>48</v>
+      </c>
+      <c r="AK53" s="7"/>
+      <c r="AL53" s="7"/>
     </row>
+    <row r="54" s="27" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="7" t="n">
+        <v>401</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="E54" s="23"/>
+      <c r="F54" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="G54" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="H54" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="I54" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="J54" s="25"/>
+      <c r="K54" s="25"/>
+      <c r="L54" s="25"/>
+      <c r="M54" s="7"/>
+      <c r="N54" s="26"/>
+      <c r="O54" s="7"/>
+      <c r="P54" s="7"/>
+      <c r="Q54" s="7"/>
+      <c r="R54" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="S54" s="7"/>
+      <c r="T54" s="7"/>
+      <c r="U54" s="7"/>
+      <c r="V54" s="7"/>
+      <c r="W54" s="7"/>
+      <c r="X54" s="7"/>
+      <c r="Y54" s="7"/>
+      <c r="Z54" s="7"/>
+      <c r="AA54" s="7"/>
+      <c r="AB54" s="7"/>
+      <c r="AC54" s="7"/>
+      <c r="AD54" s="9"/>
+      <c r="AE54" s="7"/>
+      <c r="AF54" s="7"/>
+      <c r="AG54" s="7"/>
+      <c r="AH54" s="7"/>
+      <c r="AI54" s="7"/>
+      <c r="AJ54" s="7" t="n">
+        <v>401</v>
+      </c>
+      <c r="AK54" s="7"/>
+      <c r="AL54" s="7"/>
+      <c r="AMJ54" s="0"/>
+    </row>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:AF53"/>
+  <autoFilter ref="A1:AL54"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - IC Canteen - OTH.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - IC Canteen - OTH.xlsx
@@ -13,6 +13,7 @@
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Canteen!$A$1:$AL$55</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Canteen!$A$1:$AL$55</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Canteen!$A$1:$AL$55</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -245,7 +246,7 @@
     <t xml:space="preserve">BINARY</t>
   </si>
   <si>
-    <t xml:space="preserve">Coca-Cola Zero-0.25L Slim/0.33L Glass /Coca-Cola Zero Cherry-0.25L Slim</t>
+    <t xml:space="preserve">Coca-Cola Zero - 0.25L Slim/0.33L Glass/Coca-Cola Zero Cherry - 0.25L Slim</t>
   </si>
   <si>
     <t xml:space="preserve">Кока-Кола Зеро-0.25л слим/0.33л стекло/ Кока-Кола Зеро Вишня-0.25л слим</t>
@@ -438,7 +439,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Dobriy -Apple - 0.33L/Rich -Apple - 0.3L /0.2L Glass</t>
+    <t xml:space="preserve">Dobriy - Apple - 0.33L/Rich - Apple - 0.3L/0.2L Glass</t>
   </si>
   <si>
     <t xml:space="preserve">Добрый-Яблоко-0.33л/Рич-Яблоко-0.3л ПЭТ/0.2л стекло</t>
@@ -456,7 +457,7 @@
     <t xml:space="preserve">Палпи - Апельсин - 0.45л</t>
   </si>
   <si>
-    <t xml:space="preserve">Dobriy - Multifruit - 0.33L/Rich - Orange - 0.2L Glass/ 0.3L </t>
+    <t xml:space="preserve">Dobriy - Multifruit - 0.33L/Rich - Orange - 0.2L Glass/0.3L </t>
   </si>
   <si>
     <t xml:space="preserve">Добрый - Мультифрут - 0.33л/Рич - Апельсин - 0.2л стекло/0.3л </t>
@@ -492,7 +493,7 @@
     <t xml:space="preserve">Палпи - Тропик - 0.45л</t>
   </si>
   <si>
-    <t xml:space="preserve">Dobriy - Peach-Apple/Orange - 0.33L/Rich - Peach/Pineapple/ Grapefruit/Tomato - 0.2L Glass</t>
+    <t xml:space="preserve">Dobriy - Peach-Apple/Orange - 0.33L/Rich - Peach/Pineapple/Grapefruit/Tomato - 0.2L Glass</t>
   </si>
   <si>
     <t xml:space="preserve">Добрый-Персик/Апельсин-0.33л/ Рич - Персик/ Ананас/Грейпфрут/Томат - 0.2л стекло</t>
@@ -1249,48 +1250,48 @@
   </sheetPr>
   <dimension ref="1:55"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="M1" activeCellId="0" sqref="M1"/>
-      <selection pane="bottomLeft" activeCell="P35" activeCellId="0" sqref="P35"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="F1" activeCellId="0" sqref="F:F"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="22.45"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.85425101214575"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.96356275303644"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.748987854251"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.8542510121458"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.6761133603239"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="72.6275303643725"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="73.4817813765182"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="40.2753036437247"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.7813765182186"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="73.2712550607288"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="74.1255060728745"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="40.5991902834008"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.9595141700405"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="13.0688259109312"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="131.647773279352"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="80.2307692307692"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="18.9595141700405"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="44.8825910931174"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="18.2105263157895"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="13.1740890688259"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="12.1052631578947"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="132.825910931174"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="80.8744939271255"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="45.2024291497976"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="12.2105263157895"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="0" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="17.0323886639676"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="21.6396761133603"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="21.1012145748988"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="21.9595141700405"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="19.3886639676113"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="24.4251012145749"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="24.9595141700405"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="15.2105263157895"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="15.6396761133603"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="12.9595141700405"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="12.2105263157895"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="12.748987854251"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="58.5951417004049"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="17.1376518218624"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="21.8542510121457"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="24.6356275303644"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="25.1740890688259"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="12.3198380566802"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="59.0242914979757"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="21.2105263157895"/>
     <col collapsed="false" hidden="false" max="35" min="35" style="0" width="7.60728744939271"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="0" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="0" width="10.6032388663968"/>

--- a/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - IC Canteen - OTH.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - IC Canteen - OTH.xlsx
@@ -14,6 +14,7 @@
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Canteen!$A$1:$AL$55</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Canteen!$A$1:$AL$55</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Canteen!$A$1:$AL$55</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Canteen!$A$1:$AL$55</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -376,7 +377,7 @@
     <t xml:space="preserve">5449000236777, 4607042431692, 5449000238863</t>
   </si>
   <si>
-    <t xml:space="preserve">Juice Availability</t>
+    <t xml:space="preserve">Juice (JNSD) Availability</t>
   </si>
   <si>
     <t xml:space="preserve">Представленность Сока</t>
@@ -884,12 +885,18 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -939,7 +946,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -965,6 +972,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1058,50 +1069,50 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H15" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="bottomLeft" activeCell="F20" activeCellId="0" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.45"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.3036437246964"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.8259109311741"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="12.6761133603239"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.4898785425101"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.5627530364372"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="70.5182186234818"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="78.834008097166"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="43.0404858299595"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="16.7449392712551"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9.45344129554656"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.6963562753036"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="14.2024291497976"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="102.412955465587"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="57.1214574898785"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="20.1376518218623"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="16.4089068825911"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="19.2955465587045"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.3886639676113"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.7813765182186"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="12.748987854251"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.4615384615385"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="71.1255060728745"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="79.4817813765182"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="43.3846153846154"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="16.9230769230769"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9.4251012145749"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.7125506072874"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="14.3522267206478"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="103.368421052632"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="57.6315789473684"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="16.497975708502"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="19.4939271255061"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="1" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="7.24696356275304"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="14.7125506072875"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="17.9392712550607"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="22.8502024291498"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="22.3441295546559"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="23.3643724696356"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="20.4817813765182"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="25.9068825910931"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="26.417004048583"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="16.0688259109312"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="16.7449392712551"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="13.6963562753036"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="12.8461538461538"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="13.3522267206478"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="62.5506072874494"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="22.5182186234818"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="7.2834008097166"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="14.7813765182186"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="23.4574898785425"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="26.0283400809717"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="26.6720647773279"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="16.9230769230769"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="13.7125506072874"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="63.0931174089069"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="22.7085020242915"/>
     <col collapsed="false" hidden="false" max="35" min="35" style="1" width="7.92712550607287"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="9.11336032388664"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="11.1457489878543"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="9.62753036437247"/>
-    <col collapsed="false" hidden="false" max="1025" min="39" style="1" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="11.1417004048583"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="9.74898785425101"/>
+    <col collapsed="false" hidden="false" max="1025" min="39" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2612,7 +2623,7 @@
       <c r="E20" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="6" t="s">
         <v>112</v>
       </c>
       <c r="G20" s="3" t="s">
@@ -4173,7 +4184,7 @@
       <c r="G41" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="H41" s="6" t="s">
+      <c r="H41" s="7" t="s">
         <v>199</v>
       </c>
       <c r="I41" s="3"/>
@@ -4643,7 +4654,7 @@
       <c r="G47" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="H47" s="6" t="s">
+      <c r="H47" s="7" t="s">
         <v>50</v>
       </c>
       <c r="I47" s="3"/>
@@ -4801,7 +4812,7 @@
       <c r="M49" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="N49" s="7" t="s">
+      <c r="N49" s="8" t="s">
         <v>235</v>
       </c>
       <c r="O49" s="3"/>
@@ -4869,7 +4880,7 @@
       <c r="M50" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="N50" s="7" t="s">
+      <c r="N50" s="8" t="s">
         <v>236</v>
       </c>
       <c r="O50" s="3"/>
@@ -4937,7 +4948,7 @@
       <c r="M51" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="N51" s="7" t="s">
+      <c r="N51" s="8" t="s">
         <v>239</v>
       </c>
       <c r="O51" s="3"/>
@@ -5005,7 +5016,7 @@
       <c r="M52" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="N52" s="7" t="s">
+      <c r="N52" s="8" t="s">
         <v>240</v>
       </c>
       <c r="O52" s="3"/>
@@ -5073,7 +5084,7 @@
       <c r="M53" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="N53" s="7" t="s">
+      <c r="N53" s="8" t="s">
         <v>245</v>
       </c>
       <c r="O53" s="3"/>

--- a/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - IC Canteen - OTH.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - IC Canteen - OTH.xlsx
@@ -5,13 +5,13 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My folder\RED\POS\POS_2019-10-17\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My folder\RED\POS\POS_2019-10-21\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B38E64BC-E3D6-409E-B89E-29405702F278}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35DA6BDD-4277-414D-BDB9-9D2C7CF608B7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView xWindow="1884" yWindow="1884" windowWidth="17280" windowHeight="9024" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Canteen" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="258">
   <si>
     <t>Sorting</t>
   </si>
@@ -215,9 +215,6 @@
     <t>Other</t>
   </si>
   <si>
-    <t>Panoramic Photo</t>
-  </si>
-  <si>
     <t>BINARY</t>
   </si>
   <si>
@@ -844,10 +841,16 @@
     <t>Integer</t>
   </si>
   <si>
-    <t>Bufet line, Cash Zone, SS_Bufet line, SS_Cash Zone</t>
-  </si>
-  <si>
-    <t>Menu Board, Cash Zone, SS_Menu Board, SS_Cash Zone</t>
+    <t>Panoramic Photo, SS_Panoramic Photo</t>
+  </si>
+  <si>
+    <t>Panoramic photo of Cooler, SS_Panoramic photo of Cooler - Horeca</t>
+  </si>
+  <si>
+    <t>Menu Board, Cash Zone, SS_Cash Zone - Canteen, QSR, SS_Menu Board - Canteen, QSR</t>
+  </si>
+  <si>
+    <t>Bufet line, Cash Zone, SS_Bufet line, SS_Cash Zone - Canteen, QSR</t>
   </si>
 </sst>
 </file>
@@ -913,7 +916,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -933,6 +936,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1318,9 +1324,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK55"/>
   <sheetViews>
-    <sheetView windowProtection="1" tabSelected="1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X41" sqref="X41:X47"/>
+    <sheetView windowProtection="1" tabSelected="1" topLeftCell="T1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="X44" sqref="X44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1661,13 +1667,13 @@
       <c r="W4" s="4"/>
       <c r="X4" s="4"/>
       <c r="Y4" s="4" t="s">
-        <v>56</v>
+        <v>254</v>
       </c>
       <c r="Z4" s="4"/>
       <c r="AA4" s="4"/>
       <c r="AB4" s="4"/>
       <c r="AC4" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD4" s="4">
         <v>4.3400000000000001E-2</v>
@@ -1704,10 +1710,10 @@
         <v>43</v>
       </c>
       <c r="F5" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>59</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>50</v>
@@ -1719,10 +1725,10 @@
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="N5" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>61</v>
       </c>
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
@@ -1741,13 +1747,13 @@
       <c r="W5" s="4"/>
       <c r="X5" s="4"/>
       <c r="Y5" s="4" t="s">
-        <v>56</v>
+        <v>254</v>
       </c>
       <c r="Z5" s="4"/>
       <c r="AA5" s="4"/>
       <c r="AB5" s="4"/>
       <c r="AC5" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD5" s="4">
         <v>4.3400000000000001E-2</v>
@@ -1784,10 +1790,10 @@
         <v>43</v>
       </c>
       <c r="F6" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>50</v>
@@ -1799,7 +1805,7 @@
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N6" s="5">
         <v>54491472</v>
@@ -1821,13 +1827,13 @@
       <c r="W6" s="4"/>
       <c r="X6" s="4"/>
       <c r="Y6" s="4" t="s">
-        <v>56</v>
+        <v>254</v>
       </c>
       <c r="Z6" s="4"/>
       <c r="AA6" s="4"/>
       <c r="AB6" s="4"/>
       <c r="AC6" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD6" s="4">
         <v>4.3400000000000001E-2</v>
@@ -1864,10 +1870,10 @@
         <v>43</v>
       </c>
       <c r="F7" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>65</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>50</v>
@@ -1879,10 +1885,10 @@
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
       <c r="M7" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="N7" s="5" t="s">
         <v>66</v>
-      </c>
-      <c r="N7" s="5" t="s">
-        <v>67</v>
       </c>
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
@@ -1901,13 +1907,13 @@
       <c r="W7" s="4"/>
       <c r="X7" s="4"/>
       <c r="Y7" s="4" t="s">
-        <v>56</v>
+        <v>254</v>
       </c>
       <c r="Z7" s="4"/>
       <c r="AA7" s="4"/>
       <c r="AB7" s="4"/>
       <c r="AC7" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD7" s="4">
         <v>2.6863000000000001E-2</v>
@@ -1944,10 +1950,10 @@
         <v>43</v>
       </c>
       <c r="F8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>69</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>50</v>
@@ -1959,10 +1965,10 @@
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
       <c r="M8" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="N8" s="5" t="s">
         <v>70</v>
-      </c>
-      <c r="N8" s="5" t="s">
-        <v>71</v>
       </c>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
@@ -1981,13 +1987,13 @@
       <c r="W8" s="4"/>
       <c r="X8" s="4"/>
       <c r="Y8" s="4" t="s">
-        <v>56</v>
+        <v>254</v>
       </c>
       <c r="Z8" s="4"/>
       <c r="AA8" s="4"/>
       <c r="AB8" s="4"/>
       <c r="AC8" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD8" s="4">
         <v>2.6863000000000001E-2</v>
@@ -2024,10 +2030,10 @@
         <v>43</v>
       </c>
       <c r="F9" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>72</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>73</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>50</v>
@@ -2039,10 +2045,10 @@
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
@@ -2061,13 +2067,13 @@
       <c r="W9" s="4"/>
       <c r="X9" s="4"/>
       <c r="Y9" s="4" t="s">
-        <v>56</v>
+        <v>254</v>
       </c>
       <c r="Z9" s="4"/>
       <c r="AA9" s="4"/>
       <c r="AB9" s="4"/>
       <c r="AC9" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD9" s="4">
         <v>2.6863000000000001E-2</v>
@@ -2104,10 +2110,10 @@
         <v>43</v>
       </c>
       <c r="F10" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>75</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>76</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>50</v>
@@ -2119,10 +2125,10 @@
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
       <c r="M10" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="N10" s="5" t="s">
         <v>77</v>
-      </c>
-      <c r="N10" s="5" t="s">
-        <v>78</v>
       </c>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
@@ -2141,13 +2147,13 @@
       <c r="W10" s="4"/>
       <c r="X10" s="4"/>
       <c r="Y10" s="4" t="s">
-        <v>56</v>
+        <v>254</v>
       </c>
       <c r="Z10" s="4"/>
       <c r="AA10" s="4"/>
       <c r="AB10" s="4"/>
       <c r="AC10" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD10" s="4">
         <v>2.6863000000000001E-2</v>
@@ -2184,10 +2190,10 @@
         <v>43</v>
       </c>
       <c r="F11" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>80</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>50</v>
@@ -2199,10 +2205,10 @@
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
       <c r="M11" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
@@ -2221,13 +2227,13 @@
       <c r="W11" s="4"/>
       <c r="X11" s="4"/>
       <c r="Y11" s="4" t="s">
-        <v>56</v>
+        <v>254</v>
       </c>
       <c r="Z11" s="4"/>
       <c r="AA11" s="4"/>
       <c r="AB11" s="4"/>
       <c r="AC11" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD11" s="4">
         <v>1.9E-2</v>
@@ -2261,13 +2267,13 @@
         <v>40</v>
       </c>
       <c r="E12" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="G12" s="4" t="s">
         <v>83</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>84</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>46</v>
@@ -2307,7 +2313,7 @@
         <v>10</v>
       </c>
       <c r="AK12" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AL12" s="4">
         <v>300</v>
@@ -2318,7 +2324,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>39</v>
@@ -2327,13 +2333,13 @@
         <v>40</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F13" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G13" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>88</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>50</v>
@@ -2345,10 +2351,10 @@
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
@@ -2367,13 +2373,13 @@
       <c r="W13" s="4"/>
       <c r="X13" s="4"/>
       <c r="Y13" s="4" t="s">
-        <v>56</v>
+        <v>254</v>
       </c>
       <c r="Z13" s="4"/>
       <c r="AA13" s="4"/>
       <c r="AB13" s="4"/>
       <c r="AC13" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD13" s="4">
         <v>3.2488000000000003E-2</v>
@@ -2398,7 +2404,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>39</v>
@@ -2407,13 +2413,13 @@
         <v>40</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F14" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G14" s="4" t="s">
         <v>90</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>91</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>50</v>
@@ -2425,10 +2431,10 @@
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
       <c r="M14" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="N14" s="5" t="s">
         <v>92</v>
-      </c>
-      <c r="N14" s="5" t="s">
-        <v>93</v>
       </c>
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
@@ -2447,13 +2453,13 @@
       <c r="W14" s="4"/>
       <c r="X14" s="4"/>
       <c r="Y14" s="4" t="s">
-        <v>56</v>
+        <v>254</v>
       </c>
       <c r="Z14" s="4"/>
       <c r="AA14" s="4"/>
       <c r="AB14" s="4"/>
       <c r="AC14" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD14" s="4">
         <v>9.6419999999999995E-3</v>
@@ -2487,13 +2493,13 @@
         <v>40</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F15" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G15" s="4" t="s">
         <v>94</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>95</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>46</v>
@@ -2533,7 +2539,7 @@
         <v>13</v>
       </c>
       <c r="AK15" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AL15" s="4">
         <v>300</v>
@@ -2553,13 +2559,13 @@
         <v>40</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F16" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G16" s="4" t="s">
         <v>97</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>98</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>50</v>
@@ -2571,10 +2577,10 @@
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
       <c r="M16" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="N16" s="5" t="s">
         <v>99</v>
-      </c>
-      <c r="N16" s="5" t="s">
-        <v>100</v>
       </c>
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
@@ -2593,13 +2599,13 @@
       <c r="W16" s="4"/>
       <c r="X16" s="4"/>
       <c r="Y16" s="4" t="s">
-        <v>56</v>
+        <v>254</v>
       </c>
       <c r="Z16" s="4"/>
       <c r="AA16" s="4"/>
       <c r="AB16" s="4"/>
       <c r="AC16" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD16" s="4">
         <v>3.2455999999999999E-2</v>
@@ -2633,13 +2639,13 @@
         <v>40</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F17" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G17" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>102</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>50</v>
@@ -2651,10 +2657,10 @@
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
       <c r="M17" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N17" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
@@ -2673,13 +2679,13 @@
       <c r="W17" s="4"/>
       <c r="X17" s="4"/>
       <c r="Y17" s="4" t="s">
-        <v>56</v>
+        <v>254</v>
       </c>
       <c r="Z17" s="4"/>
       <c r="AA17" s="4"/>
       <c r="AB17" s="4"/>
       <c r="AC17" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD17" s="4">
         <v>3.2455999999999999E-2</v>
@@ -2713,13 +2719,13 @@
         <v>40</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F18" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="G18" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>105</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>50</v>
@@ -2731,10 +2737,10 @@
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
       <c r="M18" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="N18" s="5" t="s">
         <v>106</v>
-      </c>
-      <c r="N18" s="5" t="s">
-        <v>107</v>
       </c>
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
@@ -2753,13 +2759,13 @@
       <c r="W18" s="4"/>
       <c r="X18" s="4"/>
       <c r="Y18" s="4" t="s">
-        <v>56</v>
+        <v>254</v>
       </c>
       <c r="Z18" s="4"/>
       <c r="AA18" s="4"/>
       <c r="AB18" s="4"/>
       <c r="AC18" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD18" s="4">
         <v>2.1989999999999999E-2</v>
@@ -2784,7 +2790,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>39</v>
@@ -2793,13 +2799,13 @@
         <v>40</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F19" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" s="4" t="s">
         <v>108</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>109</v>
       </c>
       <c r="H19" s="4" t="s">
         <v>50</v>
@@ -2811,10 +2817,10 @@
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
       <c r="M19" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="N19" s="5" t="s">
         <v>110</v>
-      </c>
-      <c r="N19" s="5" t="s">
-        <v>111</v>
       </c>
       <c r="O19" s="4"/>
       <c r="P19" s="4"/>
@@ -2833,13 +2839,13 @@
       <c r="W19" s="4"/>
       <c r="X19" s="4"/>
       <c r="Y19" s="4" t="s">
-        <v>56</v>
+        <v>254</v>
       </c>
       <c r="Z19" s="4"/>
       <c r="AA19" s="4"/>
       <c r="AB19" s="4"/>
       <c r="AC19" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD19" s="4">
         <v>1.1009E-2</v>
@@ -2873,13 +2879,13 @@
         <v>40</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F20" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G20" s="4" t="s">
         <v>112</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>113</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>46</v>
@@ -2919,7 +2925,7 @@
         <v>18</v>
       </c>
       <c r="AK20" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AL20" s="4">
         <v>300</v>
@@ -2930,7 +2936,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>39</v>
@@ -2939,13 +2945,13 @@
         <v>40</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F21" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="G21" s="4" t="s">
         <v>115</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="H21" s="4" t="s">
         <v>50</v>
@@ -2957,10 +2963,10 @@
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
       <c r="M21" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N21" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O21" s="4"/>
       <c r="P21" s="4"/>
@@ -2979,13 +2985,13 @@
       <c r="W21" s="4"/>
       <c r="X21" s="4"/>
       <c r="Y21" s="4" t="s">
-        <v>56</v>
+        <v>254</v>
       </c>
       <c r="Z21" s="4"/>
       <c r="AA21" s="4"/>
       <c r="AB21" s="4"/>
       <c r="AC21" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD21" s="4">
         <v>3.2455999999999999E-2</v>
@@ -3010,7 +3016,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>39</v>
@@ -3019,13 +3025,13 @@
         <v>40</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F22" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="G22" s="4" t="s">
         <v>118</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>119</v>
       </c>
       <c r="H22" s="4" t="s">
         <v>50</v>
@@ -3037,10 +3043,10 @@
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
       <c r="M22" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N22" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O22" s="4"/>
       <c r="P22" s="4"/>
@@ -3059,13 +3065,13 @@
       <c r="W22" s="4"/>
       <c r="X22" s="4"/>
       <c r="Y22" s="4" t="s">
-        <v>56</v>
+        <v>254</v>
       </c>
       <c r="Z22" s="4"/>
       <c r="AA22" s="4"/>
       <c r="AB22" s="4"/>
       <c r="AC22" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD22" s="4">
         <v>3.2455999999999999E-2</v>
@@ -3090,7 +3096,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>39</v>
@@ -3099,13 +3105,13 @@
         <v>40</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F23" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="G23" s="4" t="s">
         <v>121</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>122</v>
       </c>
       <c r="H23" s="4" t="s">
         <v>50</v>
@@ -3117,10 +3123,10 @@
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
       <c r="M23" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="N23" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O23" s="4"/>
       <c r="P23" s="4"/>
@@ -3139,13 +3145,13 @@
       <c r="W23" s="4"/>
       <c r="X23" s="4"/>
       <c r="Y23" s="4" t="s">
-        <v>56</v>
+        <v>254</v>
       </c>
       <c r="Z23" s="4"/>
       <c r="AA23" s="4"/>
       <c r="AB23" s="4"/>
       <c r="AC23" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD23" s="4">
         <v>2.1989999999999999E-2</v>
@@ -3179,13 +3185,13 @@
         <v>40</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F24" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G24" s="4" t="s">
         <v>124</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>125</v>
       </c>
       <c r="H24" s="4" t="s">
         <v>50</v>
@@ -3197,7 +3203,7 @@
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
       <c r="M24" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N24" s="5">
         <v>4607174577787</v>
@@ -3219,13 +3225,13 @@
       <c r="W24" s="4"/>
       <c r="X24" s="4"/>
       <c r="Y24" s="4" t="s">
-        <v>56</v>
+        <v>254</v>
       </c>
       <c r="Z24" s="4"/>
       <c r="AA24" s="4"/>
       <c r="AB24" s="4"/>
       <c r="AC24" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD24" s="4">
         <v>2.1989999999999999E-2</v>
@@ -3259,13 +3265,13 @@
         <v>40</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F25" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="G25" s="4" t="s">
         <v>126</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>127</v>
       </c>
       <c r="H25" s="4" t="s">
         <v>50</v>
@@ -3277,7 +3283,7 @@
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
       <c r="M25" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N25" s="5">
         <v>4650075420980</v>
@@ -3299,13 +3305,13 @@
       <c r="W25" s="4"/>
       <c r="X25" s="4"/>
       <c r="Y25" s="4" t="s">
-        <v>56</v>
+        <v>254</v>
       </c>
       <c r="Z25" s="4"/>
       <c r="AA25" s="4"/>
       <c r="AB25" s="4"/>
       <c r="AC25" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD25" s="4">
         <v>1.1009E-2</v>
@@ -3330,7 +3336,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>39</v>
@@ -3339,13 +3345,13 @@
         <v>40</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F26" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="G26" s="4" t="s">
         <v>128</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>129</v>
       </c>
       <c r="H26" s="4" t="s">
         <v>50</v>
@@ -3357,10 +3363,10 @@
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
       <c r="M26" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="N26" s="5" t="s">
         <v>130</v>
-      </c>
-      <c r="N26" s="5" t="s">
-        <v>131</v>
       </c>
       <c r="O26" s="4"/>
       <c r="P26" s="4"/>
@@ -3379,13 +3385,13 @@
       <c r="W26" s="4"/>
       <c r="X26" s="4"/>
       <c r="Y26" s="4" t="s">
-        <v>56</v>
+        <v>254</v>
       </c>
       <c r="Z26" s="4"/>
       <c r="AA26" s="4"/>
       <c r="AB26" s="4"/>
       <c r="AC26" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD26" s="4">
         <v>1.1009E-2</v>
@@ -3410,7 +3416,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>39</v>
@@ -3419,13 +3425,13 @@
         <v>40</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F27" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="G27" s="4" t="s">
         <v>132</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>133</v>
       </c>
       <c r="H27" s="4" t="s">
         <v>50</v>
@@ -3437,10 +3443,10 @@
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
       <c r="M27" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="N27" s="5" t="s">
         <v>134</v>
-      </c>
-      <c r="N27" s="5" t="s">
-        <v>135</v>
       </c>
       <c r="O27" s="4"/>
       <c r="P27" s="4"/>
@@ -3459,13 +3465,13 @@
       <c r="W27" s="4"/>
       <c r="X27" s="4"/>
       <c r="Y27" s="4" t="s">
-        <v>56</v>
+        <v>254</v>
       </c>
       <c r="Z27" s="4"/>
       <c r="AA27" s="4"/>
       <c r="AB27" s="4"/>
       <c r="AC27" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD27" s="4">
         <v>1.1009E-2</v>
@@ -3499,13 +3505,13 @@
         <v>40</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F28" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="G28" s="4" t="s">
         <v>136</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>137</v>
       </c>
       <c r="H28" s="4" t="s">
         <v>46</v>
@@ -3531,7 +3537,7 @@
       <c r="AA28" s="4"/>
       <c r="AB28" s="4"/>
       <c r="AC28" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AD28" s="4"/>
       <c r="AE28" s="4"/>
@@ -3556,7 +3562,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>39</v>
@@ -3565,13 +3571,13 @@
         <v>40</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F29" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="G29" s="4" t="s">
         <v>140</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>141</v>
       </c>
       <c r="H29" s="4" t="s">
         <v>50</v>
@@ -3587,7 +3593,7 @@
         <v>Burn Original - 0.5L</v>
       </c>
       <c r="N29" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O29" s="4"/>
       <c r="P29" s="4"/>
@@ -3606,13 +3612,13 @@
       <c r="W29" s="4"/>
       <c r="X29" s="4"/>
       <c r="Y29" s="4" t="s">
-        <v>56</v>
+        <v>254</v>
       </c>
       <c r="Z29" s="4"/>
       <c r="AA29" s="4"/>
       <c r="AB29" s="4"/>
       <c r="AC29" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD29" s="4">
         <v>1.3879999999999999E-3</v>
@@ -3647,10 +3653,10 @@
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="G30" s="4" t="s">
         <v>143</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>144</v>
       </c>
       <c r="H30" s="4" t="s">
         <v>40</v>
@@ -3705,10 +3711,10 @@
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="G31" s="4" t="s">
         <v>145</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>146</v>
       </c>
       <c r="H31" s="4" t="s">
         <v>40</v>
@@ -3764,16 +3770,16 @@
         <v>40</v>
       </c>
       <c r="E32" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="F32" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="F32" s="4" t="s">
+      <c r="G32" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="G32" s="4" t="s">
+      <c r="H32" s="4" t="s">
         <v>149</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>150</v>
       </c>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
@@ -3784,7 +3790,7 @@
       <c r="O32" s="4"/>
       <c r="P32" s="4"/>
       <c r="Q32" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="R32" s="4"/>
       <c r="S32" s="4"/>
@@ -3798,7 +3804,7 @@
       <c r="AA32" s="4"/>
       <c r="AB32" s="4"/>
       <c r="AC32" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AD32" s="4">
         <v>0.13500000000000001</v>
@@ -3806,7 +3812,7 @@
       <c r="AE32" s="4"/>
       <c r="AF32" s="4"/>
       <c r="AG32" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AH32" s="4"/>
       <c r="AI32" s="4">
@@ -3816,7 +3822,7 @@
         <v>30</v>
       </c>
       <c r="AK32" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AL32" s="4">
         <v>311</v>
@@ -3836,16 +3842,16 @@
         <v>40</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F33" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="G33" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="G33" s="4" t="s">
+      <c r="H33" s="4" t="s">
         <v>156</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>157</v>
       </c>
       <c r="I33" s="4"/>
       <c r="J33" s="4">
@@ -3854,7 +3860,7 @@
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
       <c r="M33" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N33" s="5"/>
       <c r="O33" s="4"/>
@@ -3866,7 +3872,7 @@
       <c r="U33" s="4"/>
       <c r="V33" s="4"/>
       <c r="W33" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="X33" s="4"/>
       <c r="Y33" s="4"/>
@@ -3874,13 +3880,13 @@
       <c r="AA33" s="4"/>
       <c r="AB33" s="4"/>
       <c r="AC33" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD33" s="4"/>
       <c r="AE33" s="4"/>
       <c r="AF33" s="4"/>
       <c r="AG33" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AH33" s="4"/>
       <c r="AI33" s="4">
@@ -3908,16 +3914,16 @@
         <v>40</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F34" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="G34" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="G34" s="4" t="s">
+      <c r="H34" s="4" t="s">
         <v>162</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>163</v>
       </c>
       <c r="I34" s="4"/>
       <c r="J34" s="4">
@@ -3926,23 +3932,23 @@
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
       <c r="M34" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N34" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O34" s="4"/>
       <c r="P34" s="4"/>
       <c r="Q34" s="4"/>
       <c r="R34" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="S34" s="4"/>
       <c r="T34" s="4"/>
       <c r="U34" s="4"/>
       <c r="V34" s="4"/>
       <c r="W34" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="X34" s="4"/>
       <c r="Y34" s="4"/>
@@ -3950,7 +3956,7 @@
       <c r="AA34" s="4"/>
       <c r="AB34" s="4"/>
       <c r="AC34" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD34" s="4"/>
       <c r="AE34" s="4"/>
@@ -3983,10 +3989,10 @@
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="G35" s="4" t="s">
         <v>167</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>168</v>
       </c>
       <c r="H35" s="4" t="s">
         <v>40</v>
@@ -4024,7 +4030,7 @@
         <v>312</v>
       </c>
       <c r="AK35" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AL35" s="4">
         <v>310</v>
@@ -4044,16 +4050,16 @@
         <v>40</v>
       </c>
       <c r="E36" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F36" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="F36" s="4" t="s">
+      <c r="G36" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="G36" s="4" t="s">
+      <c r="H36" s="4" t="s">
         <v>172</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>173</v>
       </c>
       <c r="I36" s="4"/>
       <c r="J36" s="4">
@@ -4063,13 +4069,13 @@
       <c r="L36" s="4"/>
       <c r="M36" s="4"/>
       <c r="N36" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O36" s="4"/>
       <c r="P36" s="4"/>
       <c r="Q36" s="4"/>
       <c r="R36" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="S36" s="4"/>
       <c r="T36" s="4"/>
@@ -4078,15 +4084,15 @@
       <c r="W36" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="X36" s="4" t="s">
-        <v>174</v>
+      <c r="X36" s="8" t="s">
+        <v>255</v>
       </c>
       <c r="Y36" s="4"/>
       <c r="Z36" s="4"/>
       <c r="AA36" s="4"/>
       <c r="AB36" s="4"/>
       <c r="AC36" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD36" s="4">
         <v>4.4999999999999998E-2</v>
@@ -4094,10 +4100,10 @@
       <c r="AE36" s="4"/>
       <c r="AF36" s="4"/>
       <c r="AG36" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AH36" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AI36" s="4">
         <v>2</v>
@@ -4124,16 +4130,16 @@
         <v>40</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F37" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="G37" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="G37" s="4" t="s">
+      <c r="H37" s="4" t="s">
         <v>178</v>
-      </c>
-      <c r="H37" s="4" t="s">
-        <v>179</v>
       </c>
       <c r="I37" s="4"/>
       <c r="J37" s="4">
@@ -4142,23 +4148,23 @@
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
       <c r="M37" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N37" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O37" s="4"/>
       <c r="P37" s="4"/>
       <c r="Q37" s="4"/>
       <c r="R37" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="S37" s="4"/>
       <c r="T37" s="4"/>
       <c r="U37" s="4"/>
       <c r="V37" s="4"/>
       <c r="W37" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="X37" s="4"/>
       <c r="Y37" s="4"/>
@@ -4166,7 +4172,7 @@
       <c r="AA37" s="4"/>
       <c r="AB37" s="4"/>
       <c r="AC37" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AD37" s="4">
         <v>4.4999999999999998E-2</v>
@@ -4174,10 +4180,10 @@
       <c r="AE37" s="4"/>
       <c r="AF37" s="4"/>
       <c r="AG37" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AH37" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AI37" s="4">
         <v>2</v>
@@ -4204,16 +4210,16 @@
         <v>40</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F38" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="G38" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="G38" s="4" t="s">
+      <c r="H38" s="4" t="s">
         <v>182</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>183</v>
       </c>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
@@ -4224,23 +4230,23 @@
         <v>15</v>
       </c>
       <c r="M38" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N38" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O38" s="4"/>
       <c r="P38" s="4"/>
       <c r="Q38" s="4"/>
       <c r="R38" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="S38" s="4"/>
       <c r="T38" s="4"/>
       <c r="U38" s="4"/>
       <c r="V38" s="4"/>
       <c r="W38" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="X38" s="4"/>
       <c r="Y38" s="4"/>
@@ -4248,7 +4254,7 @@
       <c r="AA38" s="4"/>
       <c r="AB38" s="4"/>
       <c r="AC38" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AD38" s="4">
         <v>4.4999999999999998E-2</v>
@@ -4256,10 +4262,10 @@
       <c r="AE38" s="4"/>
       <c r="AF38" s="4"/>
       <c r="AG38" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AH38" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AI38" s="4">
         <v>2</v>
@@ -4287,10 +4293,10 @@
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="G39" s="4" t="s">
         <v>185</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>186</v>
       </c>
       <c r="H39" s="4" t="s">
         <v>40</v>
@@ -4328,7 +4334,7 @@
         <v>400</v>
       </c>
       <c r="AK39" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AL39" s="4"/>
     </row>
@@ -4346,13 +4352,13 @@
         <v>40</v>
       </c>
       <c r="E40" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="F40" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="F40" s="4" t="s">
+      <c r="G40" s="4" t="s">
         <v>189</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>190</v>
       </c>
       <c r="H40" s="4" t="s">
         <v>50</v>
@@ -4364,37 +4370,37 @@
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
       <c r="M40" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="N40" s="5" t="s">
         <v>191</v>
-      </c>
-      <c r="N40" s="5" t="s">
-        <v>192</v>
       </c>
       <c r="O40" s="4"/>
       <c r="P40" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Q40" s="4" t="s">
         <v>53</v>
       </c>
       <c r="R40" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="S40" s="4"/>
       <c r="T40" s="4"/>
       <c r="U40" s="4"/>
       <c r="V40" s="4"/>
       <c r="W40" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="X40" s="4" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Y40" s="4"/>
       <c r="Z40" s="4"/>
       <c r="AA40" s="4"/>
       <c r="AB40" s="4"/>
       <c r="AC40" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD40" s="4">
         <v>0.09</v>
@@ -4428,16 +4434,16 @@
         <v>40</v>
       </c>
       <c r="E41" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="F41" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="F41" s="4" t="s">
+      <c r="G41" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="G41" s="4" t="s">
+      <c r="H41" s="4" t="s">
         <v>197</v>
-      </c>
-      <c r="H41" s="4" t="s">
-        <v>198</v>
       </c>
       <c r="I41" s="4"/>
       <c r="J41" s="4">
@@ -4458,9 +4464,9 @@
       <c r="U41" s="4"/>
       <c r="V41" s="4"/>
       <c r="W41" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="X41" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="X41" s="8" t="s">
         <v>256</v>
       </c>
       <c r="Y41" s="4"/>
@@ -4468,7 +4474,7 @@
       <c r="AA41" s="4"/>
       <c r="AB41" s="4"/>
       <c r="AC41" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD41" s="4">
         <v>0.1</v>
@@ -4484,7 +4490,7 @@
         <v>678</v>
       </c>
       <c r="AK41" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AL41" s="4">
         <v>400</v>
@@ -4504,16 +4510,16 @@
         <v>40</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F42" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="G42" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="G42" s="4" t="s">
+      <c r="H42" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>202</v>
       </c>
       <c r="I42" s="4"/>
       <c r="J42" s="4">
@@ -4534,9 +4540,9 @@
       <c r="U42" s="4"/>
       <c r="V42" s="4"/>
       <c r="W42" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="X42" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="X42" s="8" t="s">
         <v>256</v>
       </c>
       <c r="Y42" s="4"/>
@@ -4544,7 +4550,7 @@
       <c r="AA42" s="4"/>
       <c r="AB42" s="4"/>
       <c r="AC42" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD42" s="4"/>
       <c r="AE42" s="4"/>
@@ -4558,7 +4564,7 @@
         <v>36</v>
       </c>
       <c r="AK42" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AL42" s="4">
         <v>678</v>
@@ -4578,13 +4584,13 @@
         <v>40</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F43" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="G43" s="4" t="s">
         <v>204</v>
-      </c>
-      <c r="G43" s="4" t="s">
-        <v>205</v>
       </c>
       <c r="H43" s="4" t="s">
         <v>50</v>
@@ -4596,31 +4602,31 @@
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
       <c r="M43" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="N43" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="N43" s="4" t="s">
+      <c r="O43" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="O43" s="4" t="s">
-        <v>208</v>
-      </c>
       <c r="P43" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Q43" s="4" t="s">
         <v>53</v>
       </c>
       <c r="R43" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="S43" s="4"/>
       <c r="T43" s="4"/>
       <c r="U43" s="4"/>
       <c r="V43" s="4"/>
       <c r="W43" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="X43" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="X43" s="8" t="s">
         <v>256</v>
       </c>
       <c r="Y43" s="4"/>
@@ -4628,7 +4634,7 @@
       <c r="AA43" s="4"/>
       <c r="AB43" s="4"/>
       <c r="AC43" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD43" s="4"/>
       <c r="AE43" s="4"/>
@@ -4660,13 +4666,13 @@
         <v>40</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F44" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="G44" s="4" t="s">
         <v>209</v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>210</v>
       </c>
       <c r="H44" s="4" t="s">
         <v>50</v>
@@ -4678,13 +4684,13 @@
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
       <c r="M44" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N44" s="5">
         <v>5000034</v>
       </c>
       <c r="O44" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="P44" s="4"/>
       <c r="Q44" s="4" t="s">
@@ -4698,9 +4704,9 @@
       <c r="U44" s="4"/>
       <c r="V44" s="4"/>
       <c r="W44" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="X44" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="X44" s="8" t="s">
         <v>256</v>
       </c>
       <c r="Y44" s="4"/>
@@ -4708,13 +4714,13 @@
       <c r="AA44" s="4"/>
       <c r="AB44" s="4"/>
       <c r="AC44" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD44" s="4"/>
       <c r="AE44" s="4"/>
       <c r="AF44" s="4"/>
       <c r="AG44" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AH44" s="4"/>
       <c r="AI44" s="4">
@@ -4742,16 +4748,16 @@
         <v>40</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F45" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="G45" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="G45" s="4" t="s">
-        <v>214</v>
-      </c>
       <c r="H45" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I45" s="4"/>
       <c r="J45" s="4">
@@ -4772,9 +4778,9 @@
       <c r="U45" s="4"/>
       <c r="V45" s="4"/>
       <c r="W45" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="X45" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="X45" s="8" t="s">
         <v>256</v>
       </c>
       <c r="Y45" s="4"/>
@@ -4782,7 +4788,7 @@
       <c r="AA45" s="4"/>
       <c r="AB45" s="4"/>
       <c r="AC45" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD45" s="4"/>
       <c r="AE45" s="4"/>
@@ -4796,7 +4802,7 @@
         <v>39</v>
       </c>
       <c r="AK45" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AL45" s="4">
         <v>678</v>
@@ -4816,13 +4822,13 @@
         <v>40</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F46" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="G46" s="4" t="s">
         <v>216</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>217</v>
       </c>
       <c r="H46" s="4" t="s">
         <v>50</v>
@@ -4834,31 +4840,31 @@
       <c r="K46" s="4"/>
       <c r="L46" s="4"/>
       <c r="M46" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N46" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O46" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="P46" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="Q46" s="4" t="s">
         <v>53</v>
       </c>
       <c r="R46" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="S46" s="4"/>
       <c r="T46" s="4"/>
       <c r="U46" s="4"/>
       <c r="V46" s="4"/>
       <c r="W46" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="X46" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="X46" s="8" t="s">
         <v>256</v>
       </c>
       <c r="Y46" s="4"/>
@@ -4866,7 +4872,7 @@
       <c r="AA46" s="4"/>
       <c r="AB46" s="4"/>
       <c r="AC46" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD46" s="4"/>
       <c r="AE46" s="4"/>
@@ -4898,13 +4904,13 @@
         <v>40</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F47" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="G47" s="4" t="s">
         <v>219</v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>220</v>
       </c>
       <c r="H47" s="4" t="s">
         <v>50</v>
@@ -4916,13 +4922,13 @@
       <c r="K47" s="4"/>
       <c r="L47" s="4"/>
       <c r="M47" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N47" s="5">
         <v>5000034</v>
       </c>
       <c r="O47" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="P47" s="4"/>
       <c r="Q47" s="4" t="s">
@@ -4936,9 +4942,9 @@
       <c r="U47" s="4"/>
       <c r="V47" s="4"/>
       <c r="W47" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="X47" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="X47" s="8" t="s">
         <v>256</v>
       </c>
       <c r="Y47" s="4"/>
@@ -4946,13 +4952,13 @@
       <c r="AA47" s="4"/>
       <c r="AB47" s="4"/>
       <c r="AC47" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD47" s="4"/>
       <c r="AE47" s="4"/>
       <c r="AF47" s="4"/>
       <c r="AG47" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AH47" s="4"/>
       <c r="AI47" s="4">
@@ -4977,22 +4983,22 @@
         <v>39</v>
       </c>
       <c r="D48" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F48" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="E48" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="F48" s="4" t="s">
+      <c r="G48" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="G48" s="4" t="s">
+      <c r="H48" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="H48" s="4" t="s">
+      <c r="I48" s="4" t="s">
         <v>224</v>
-      </c>
-      <c r="I48" s="4" t="s">
-        <v>225</v>
       </c>
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
@@ -5003,7 +5009,7 @@
       <c r="P48" s="4"/>
       <c r="Q48" s="4"/>
       <c r="R48" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="S48" s="4"/>
       <c r="T48" s="4"/>
@@ -5026,7 +5032,7 @@
         <v>43</v>
       </c>
       <c r="AK48" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AL48" s="4"/>
     </row>
@@ -5041,37 +5047,37 @@
         <v>39</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F49" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="G49" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="G49" s="4" t="s">
+      <c r="H49" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="H49" s="4" t="s">
+      <c r="I49" s="4" t="s">
         <v>230</v>
-      </c>
-      <c r="I49" s="4" t="s">
-        <v>231</v>
       </c>
       <c r="J49" s="4"/>
       <c r="K49" s="4"/>
       <c r="L49" s="4"/>
       <c r="M49" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="N49" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="N49" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="O49" s="4"/>
       <c r="P49" s="4"/>
       <c r="Q49" s="4"/>
       <c r="R49" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="S49" s="4"/>
       <c r="T49" s="4"/>
@@ -5109,37 +5115,37 @@
         <v>39</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F50" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="G50" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="G50" s="4" t="s">
+      <c r="H50" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="H50" s="4" t="s">
+      <c r="I50" s="4" t="s">
         <v>230</v>
-      </c>
-      <c r="I50" s="4" t="s">
-        <v>231</v>
       </c>
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>
       <c r="M50" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="N50" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="O50" s="4"/>
       <c r="P50" s="4"/>
       <c r="Q50" s="4"/>
       <c r="R50" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="S50" s="4"/>
       <c r="T50" s="4"/>
@@ -5177,37 +5183,37 @@
         <v>39</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F51" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="G51" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="G51" s="4" t="s">
-        <v>236</v>
-      </c>
       <c r="H51" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="I51" s="4" t="s">
         <v>230</v>
-      </c>
-      <c r="I51" s="4" t="s">
-        <v>231</v>
       </c>
       <c r="J51" s="4"/>
       <c r="K51" s="4"/>
       <c r="L51" s="4"/>
       <c r="M51" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="N51" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O51" s="4"/>
       <c r="P51" s="4"/>
       <c r="Q51" s="4"/>
       <c r="R51" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="S51" s="4"/>
       <c r="T51" s="4"/>
@@ -5245,37 +5251,37 @@
         <v>39</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F52" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="G52" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="G52" s="4" t="s">
-        <v>236</v>
-      </c>
       <c r="H52" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="I52" s="4" t="s">
         <v>230</v>
-      </c>
-      <c r="I52" s="4" t="s">
-        <v>231</v>
       </c>
       <c r="J52" s="4"/>
       <c r="K52" s="4"/>
       <c r="L52" s="4"/>
       <c r="M52" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="N52" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O52" s="4"/>
       <c r="P52" s="4"/>
       <c r="Q52" s="4"/>
       <c r="R52" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="S52" s="4"/>
       <c r="T52" s="4"/>
@@ -5313,37 +5319,37 @@
         <v>39</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E53" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="F53" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="F53" s="4" t="s">
+      <c r="G53" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="G53" s="4" t="s">
-        <v>241</v>
-      </c>
       <c r="H53" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="I53" s="4" t="s">
         <v>230</v>
-      </c>
-      <c r="I53" s="4" t="s">
-        <v>231</v>
       </c>
       <c r="J53" s="4"/>
       <c r="K53" s="4"/>
       <c r="L53" s="4"/>
       <c r="M53" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="N53" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="N53" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="O53" s="4"/>
       <c r="P53" s="4"/>
       <c r="Q53" s="4"/>
       <c r="R53" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="S53" s="4"/>
       <c r="T53" s="4"/>
@@ -5366,7 +5372,7 @@
         <v>48</v>
       </c>
       <c r="AK53" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AL53" s="4"/>
     </row>
@@ -5375,48 +5381,48 @@
         <v>53</v>
       </c>
       <c r="B54" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="E54" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="C54" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="E54" s="4" t="s">
+      <c r="F54" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="F54" s="4" t="s">
+      <c r="G54" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="G54" s="4" t="s">
+      <c r="H54" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="H54" s="4" t="s">
-        <v>249</v>
-      </c>
       <c r="I54" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J54" s="4"/>
       <c r="K54" s="4"/>
       <c r="L54" s="4"/>
       <c r="M54" s="4"/>
       <c r="N54" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O54" s="4"/>
       <c r="P54" s="4"/>
       <c r="Q54" s="4"/>
       <c r="R54" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="S54" s="4"/>
       <c r="T54" s="4"/>
       <c r="U54" s="4"/>
       <c r="V54" s="4"/>
       <c r="W54" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="X54" s="4"/>
       <c r="Y54" s="4"/>
@@ -5447,20 +5453,20 @@
         <v>39</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E55" s="4"/>
       <c r="F55" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="G55" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="G55" s="4" t="s">
+      <c r="H55" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="I55" s="4" t="s">
         <v>253</v>
-      </c>
-      <c r="H55" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="I55" s="4" t="s">
-        <v>254</v>
       </c>
       <c r="J55" s="4"/>
       <c r="K55" s="4"/>
@@ -5471,7 +5477,7 @@
       <c r="P55" s="4"/>
       <c r="Q55" s="4"/>
       <c r="R55" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="S55" s="4"/>
       <c r="T55" s="4"/>

--- a/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - IC Canteen - OTH.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - IC Canteen - OTH.xlsx
@@ -5,23 +5,23 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My folder\RED\POS\POS_2019-10-21\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yuri\Downloads\CCRU new KPI\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35DA6BDD-4277-414D-BDB9-9D2C7CF608B7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F550A8E-5184-4EDD-AF50-A5354D50E537}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Canteen" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">Canteen!$A$1:$AL$55</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="0">Canteen!$A$1:$AL$55</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="0">Canteen!$A$1:$AL$55</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Canteen!$A$1:$AN$55</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="0">Canteen!$A$1:$AN$55</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="0">Canteen!$A$1:$AN$55</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="265">
   <si>
     <t>Sorting</t>
   </si>
@@ -851,6 +851,27 @@
   </si>
   <si>
     <t>Bufet line, Cash Zone, SS_Bufet line, SS_Cash Zone - Canteen, QSR</t>
+  </si>
+  <si>
+    <t>Category KPI Type</t>
+  </si>
+  <si>
+    <t>Category KPI Value</t>
+  </si>
+  <si>
+    <t>SSD</t>
+  </si>
+  <si>
+    <t>Water</t>
+  </si>
+  <si>
+    <t>ice tea</t>
+  </si>
+  <si>
+    <t>Juices</t>
+  </si>
+  <si>
+    <t>Energy</t>
   </si>
 </sst>
 </file>
@@ -881,15 +902,21 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -912,11 +939,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -938,6 +980,12 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1322,58 +1370,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMK55"/>
+  <dimension ref="A1:AMM55"/>
   <sheetViews>
-    <sheetView windowProtection="1" tabSelected="1" topLeftCell="T1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X44" sqref="X44"/>
+    <sheetView windowProtection="1" tabSelected="1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="2"/>
-    <col min="2" max="2" width="11.77734375" style="2"/>
-    <col min="3" max="3" width="12.77734375" style="2"/>
-    <col min="4" max="4" width="11.44140625" style="2"/>
-    <col min="5" max="5" width="15.6640625" style="2"/>
-    <col min="6" max="6" width="71.109375" style="2"/>
-    <col min="7" max="7" width="79.44140625" style="2"/>
-    <col min="8" max="8" width="43.33203125" style="2"/>
-    <col min="9" max="9" width="16.88671875" style="2"/>
-    <col min="10" max="10" width="9.44140625" style="2"/>
-    <col min="11" max="11" width="13.6640625" style="2"/>
-    <col min="12" max="12" width="14.33203125" style="2"/>
-    <col min="13" max="13" width="103.33203125" style="2"/>
-    <col min="14" max="14" width="57.6640625" style="2"/>
-    <col min="15" max="15" width="20.21875" style="2"/>
-    <col min="16" max="16" width="16.44140625" style="2"/>
-    <col min="17" max="17" width="19.44140625" style="2"/>
-    <col min="18" max="18" width="14" style="2"/>
-    <col min="19" max="19" width="7.33203125" style="2"/>
-    <col min="20" max="20" width="14.77734375" style="2"/>
-    <col min="21" max="21" width="18" style="2"/>
-    <col min="22" max="22" width="23" style="2"/>
-    <col min="23" max="23" width="22.44140625" style="2"/>
-    <col min="24" max="24" width="23.44140625" style="2"/>
-    <col min="25" max="25" width="20.5546875" style="2"/>
-    <col min="26" max="26" width="26" style="2"/>
-    <col min="27" max="27" width="26.6640625" style="2"/>
-    <col min="28" max="28" width="16.21875" style="2"/>
-    <col min="29" max="29" width="16.88671875" style="2"/>
-    <col min="30" max="30" width="13.6640625" style="2"/>
-    <col min="31" max="31" width="13" style="2"/>
-    <col min="32" max="32" width="13.33203125" style="2"/>
-    <col min="33" max="33" width="63.109375" style="2"/>
-    <col min="34" max="34" width="22.6640625" style="2"/>
-    <col min="35" max="35" width="7.88671875" style="2"/>
-    <col min="36" max="36" width="9.109375" style="2"/>
-    <col min="37" max="37" width="11.109375" style="2"/>
-    <col min="38" max="38" width="9.77734375" style="2"/>
-    <col min="39" max="1025" width="9.109375" style="2"/>
-    <col min="1026" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="10.28515625" style="2"/>
+    <col min="2" max="2" width="11.7109375" style="2"/>
+    <col min="3" max="3" width="12.7109375" style="2"/>
+    <col min="4" max="4" width="11.42578125" style="2"/>
+    <col min="5" max="5" width="15.7109375" style="2"/>
+    <col min="6" max="6" width="87.42578125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="79.42578125" style="2"/>
+    <col min="8" max="8" width="43.28515625" style="2"/>
+    <col min="9" max="9" width="25" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.85546875" style="2"/>
+    <col min="12" max="12" width="9.42578125" style="2"/>
+    <col min="13" max="13" width="13.7109375" style="2"/>
+    <col min="14" max="14" width="14.28515625" style="2"/>
+    <col min="15" max="15" width="103.28515625" style="2"/>
+    <col min="16" max="16" width="57.7109375" style="2"/>
+    <col min="17" max="17" width="20.28515625" style="2"/>
+    <col min="18" max="18" width="16.42578125" style="2"/>
+    <col min="19" max="19" width="19.42578125" style="2"/>
+    <col min="20" max="20" width="14" style="2"/>
+    <col min="21" max="21" width="7.28515625" style="2"/>
+    <col min="22" max="22" width="14.7109375" style="2"/>
+    <col min="23" max="23" width="18" style="2"/>
+    <col min="24" max="24" width="23" style="2"/>
+    <col min="25" max="25" width="22.42578125" style="2"/>
+    <col min="26" max="26" width="23.42578125" style="2"/>
+    <col min="27" max="27" width="20.5703125" style="2"/>
+    <col min="28" max="28" width="26" style="2"/>
+    <col min="29" max="29" width="26.7109375" style="2"/>
+    <col min="30" max="30" width="16.28515625" style="2"/>
+    <col min="31" max="31" width="16.85546875" style="2"/>
+    <col min="32" max="32" width="13.7109375" style="2"/>
+    <col min="33" max="33" width="13" style="2"/>
+    <col min="34" max="34" width="13.28515625" style="2"/>
+    <col min="35" max="35" width="63.140625" style="2"/>
+    <col min="36" max="36" width="22.7109375" style="2"/>
+    <col min="37" max="37" width="7.85546875" style="2"/>
+    <col min="38" max="38" width="9.140625" style="2"/>
+    <col min="39" max="39" width="11.140625" style="2"/>
+    <col min="40" max="40" width="9.7109375" style="2"/>
+    <col min="41" max="1027" width="9.140625" style="2" customWidth="1"/>
+    <col min="1028" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1398,98 +1448,104 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1517,9 +1573,9 @@
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
-      <c r="N2" s="5"/>
+      <c r="N2" s="4"/>
       <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
+      <c r="P2" s="5"/>
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
       <c r="S2" s="4"/>
@@ -1538,16 +1594,18 @@
       <c r="AF2" s="4"/>
       <c r="AG2" s="4"/>
       <c r="AH2" s="4"/>
-      <c r="AI2" s="4">
+      <c r="AI2" s="4"/>
+      <c r="AJ2" s="4"/>
+      <c r="AK2" s="4">
         <v>1</v>
       </c>
-      <c r="AJ2" s="4">
+      <c r="AL2" s="4">
         <v>300</v>
       </c>
-      <c r="AK2" s="4"/>
-      <c r="AL2" s="4"/>
+      <c r="AM2" s="4"/>
+      <c r="AN2" s="4"/>
     </row>
-    <row r="3" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1572,14 +1630,18 @@
       <c r="H3" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
+      <c r="I3" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>260</v>
+      </c>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
-      <c r="N3" s="5"/>
+      <c r="N3" s="4"/>
       <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
+      <c r="P3" s="5"/>
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
       <c r="S3" s="4"/>
@@ -1592,28 +1654,30 @@
       <c r="Z3" s="4"/>
       <c r="AA3" s="4"/>
       <c r="AB3" s="4"/>
-      <c r="AC3" s="4" t="s">
+      <c r="AC3" s="4"/>
+      <c r="AD3" s="4"/>
+      <c r="AE3" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AD3" s="4"/>
-      <c r="AE3" s="4"/>
       <c r="AF3" s="4"/>
       <c r="AG3" s="4"/>
       <c r="AH3" s="4"/>
-      <c r="AI3" s="4">
+      <c r="AI3" s="4"/>
+      <c r="AJ3" s="4"/>
+      <c r="AK3" s="4">
         <v>2</v>
       </c>
-      <c r="AJ3" s="4">
+      <c r="AL3" s="4">
         <v>1</v>
       </c>
-      <c r="AK3" s="6" t="s">
+      <c r="AM3" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="AL3" s="4">
+      <c r="AN3" s="4">
         <v>300</v>
       </c>
     </row>
-    <row r="4" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1639,61 +1703,63 @@
         <v>50</v>
       </c>
       <c r="I4" s="4"/>
-      <c r="J4" s="4">
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4">
         <v>1</v>
       </c>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4" t="s">
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="N4" s="5" t="s">
+      <c r="P4" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4" t="s">
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="R4" s="4" t="s">
+      <c r="T4" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
       <c r="U4" s="4"/>
-      <c r="V4" s="4" t="s">
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="W4" s="4"/>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="4" t="s">
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4"/>
+      <c r="AA4" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="Z4" s="4"/>
-      <c r="AA4" s="4"/>
       <c r="AB4" s="4"/>
-      <c r="AC4" s="4" t="s">
+      <c r="AC4" s="4"/>
+      <c r="AD4" s="4"/>
+      <c r="AE4" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AD4" s="4">
+      <c r="AF4" s="4">
         <v>4.3400000000000001E-2</v>
       </c>
-      <c r="AE4" s="4"/>
-      <c r="AF4" s="4"/>
       <c r="AG4" s="4"/>
       <c r="AH4" s="4"/>
-      <c r="AI4" s="4">
+      <c r="AI4" s="4"/>
+      <c r="AJ4" s="4"/>
+      <c r="AK4" s="4">
         <v>3</v>
       </c>
-      <c r="AJ4" s="4">
+      <c r="AL4" s="4">
         <v>201</v>
       </c>
-      <c r="AK4" s="4"/>
-      <c r="AL4" s="4">
+      <c r="AM4" s="4"/>
+      <c r="AN4" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1719,61 +1785,63 @@
         <v>50</v>
       </c>
       <c r="I5" s="4"/>
-      <c r="J5" s="4">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4">
         <v>1</v>
       </c>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4" t="s">
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="N5" s="5" t="s">
+      <c r="P5" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4" t="s">
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="R5" s="4" t="s">
+      <c r="T5" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
       <c r="U5" s="4"/>
-      <c r="V5" s="4" t="s">
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="W5" s="4"/>
-      <c r="X5" s="4"/>
-      <c r="Y5" s="4" t="s">
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4"/>
+      <c r="AA5" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="Z5" s="4"/>
-      <c r="AA5" s="4"/>
       <c r="AB5" s="4"/>
-      <c r="AC5" s="4" t="s">
+      <c r="AC5" s="4"/>
+      <c r="AD5" s="4"/>
+      <c r="AE5" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AD5" s="4">
+      <c r="AF5" s="4">
         <v>4.3400000000000001E-2</v>
       </c>
-      <c r="AE5" s="4"/>
-      <c r="AF5" s="4"/>
       <c r="AG5" s="4"/>
       <c r="AH5" s="4"/>
-      <c r="AI5" s="4">
+      <c r="AI5" s="4"/>
+      <c r="AJ5" s="4"/>
+      <c r="AK5" s="4">
         <v>3</v>
       </c>
-      <c r="AJ5" s="4">
+      <c r="AL5" s="4">
         <v>202</v>
       </c>
-      <c r="AK5" s="4"/>
-      <c r="AL5" s="4">
+      <c r="AM5" s="4"/>
+      <c r="AN5" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -1799,61 +1867,63 @@
         <v>50</v>
       </c>
       <c r="I6" s="4"/>
-      <c r="J6" s="4">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4">
         <v>1</v>
       </c>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4" t="s">
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="N6" s="5">
+      <c r="P6" s="5">
         <v>54491472</v>
       </c>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4" t="s">
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="R6" s="4" t="s">
+      <c r="T6" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
       <c r="U6" s="4"/>
-      <c r="V6" s="4" t="s">
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="W6" s="4"/>
-      <c r="X6" s="4"/>
-      <c r="Y6" s="4" t="s">
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4"/>
+      <c r="AA6" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="Z6" s="4"/>
-      <c r="AA6" s="4"/>
       <c r="AB6" s="4"/>
-      <c r="AC6" s="4" t="s">
+      <c r="AC6" s="4"/>
+      <c r="AD6" s="4"/>
+      <c r="AE6" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AD6" s="4">
+      <c r="AF6" s="4">
         <v>4.3400000000000001E-2</v>
       </c>
-      <c r="AE6" s="4"/>
-      <c r="AF6" s="4"/>
       <c r="AG6" s="4"/>
       <c r="AH6" s="4"/>
-      <c r="AI6" s="4">
+      <c r="AI6" s="4"/>
+      <c r="AJ6" s="4"/>
+      <c r="AK6" s="4">
         <v>3</v>
       </c>
-      <c r="AJ6" s="4">
+      <c r="AL6" s="4">
         <v>4</v>
       </c>
-      <c r="AK6" s="4"/>
-      <c r="AL6" s="4">
+      <c r="AM6" s="4"/>
+      <c r="AN6" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -1879,61 +1949,63 @@
         <v>50</v>
       </c>
       <c r="I7" s="4"/>
-      <c r="J7" s="4">
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4">
         <v>1</v>
       </c>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4" t="s">
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="N7" s="5" t="s">
+      <c r="P7" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4" t="s">
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="R7" s="4" t="s">
+      <c r="T7" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
       <c r="U7" s="4"/>
-      <c r="V7" s="4" t="s">
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="W7" s="4"/>
-      <c r="X7" s="4"/>
-      <c r="Y7" s="4" t="s">
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4"/>
+      <c r="AA7" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="Z7" s="4"/>
-      <c r="AA7" s="4"/>
       <c r="AB7" s="4"/>
-      <c r="AC7" s="4" t="s">
+      <c r="AC7" s="4"/>
+      <c r="AD7" s="4"/>
+      <c r="AE7" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AD7" s="4">
+      <c r="AF7" s="4">
         <v>2.6863000000000001E-2</v>
       </c>
-      <c r="AE7" s="4"/>
-      <c r="AF7" s="4"/>
       <c r="AG7" s="4"/>
       <c r="AH7" s="4"/>
-      <c r="AI7" s="4">
+      <c r="AI7" s="4"/>
+      <c r="AJ7" s="4"/>
+      <c r="AK7" s="4">
         <v>3</v>
       </c>
-      <c r="AJ7" s="4">
+      <c r="AL7" s="4">
         <v>209</v>
       </c>
-      <c r="AK7" s="4"/>
-      <c r="AL7" s="4">
+      <c r="AM7" s="4"/>
+      <c r="AN7" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -1959,61 +2031,63 @@
         <v>50</v>
       </c>
       <c r="I8" s="4"/>
-      <c r="J8" s="4">
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4">
         <v>1</v>
       </c>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4" t="s">
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="N8" s="5" t="s">
+      <c r="P8" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4" t="s">
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="R8" s="4" t="s">
+      <c r="T8" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
       <c r="U8" s="4"/>
-      <c r="V8" s="4" t="s">
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="W8" s="4"/>
-      <c r="X8" s="4"/>
-      <c r="Y8" s="4" t="s">
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="4"/>
+      <c r="AA8" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="Z8" s="4"/>
-      <c r="AA8" s="4"/>
       <c r="AB8" s="4"/>
-      <c r="AC8" s="4" t="s">
+      <c r="AC8" s="4"/>
+      <c r="AD8" s="4"/>
+      <c r="AE8" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AD8" s="4">
+      <c r="AF8" s="4">
         <v>2.6863000000000001E-2</v>
       </c>
-      <c r="AE8" s="4"/>
-      <c r="AF8" s="4"/>
       <c r="AG8" s="4"/>
       <c r="AH8" s="4"/>
-      <c r="AI8" s="4">
+      <c r="AI8" s="4"/>
+      <c r="AJ8" s="4"/>
+      <c r="AK8" s="4">
         <v>3</v>
       </c>
-      <c r="AJ8" s="4">
+      <c r="AL8" s="4">
         <v>5</v>
       </c>
-      <c r="AK8" s="4"/>
-      <c r="AL8" s="4">
+      <c r="AM8" s="4"/>
+      <c r="AN8" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -2039,61 +2113,63 @@
         <v>50</v>
       </c>
       <c r="I9" s="4"/>
-      <c r="J9" s="4">
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4">
         <v>1</v>
       </c>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4" t="s">
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="N9" s="5" t="s">
+      <c r="P9" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4" t="s">
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="R9" s="4" t="s">
+      <c r="T9" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
       <c r="U9" s="4"/>
-      <c r="V9" s="4" t="s">
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="W9" s="4"/>
-      <c r="X9" s="4"/>
-      <c r="Y9" s="4" t="s">
+      <c r="Y9" s="4"/>
+      <c r="Z9" s="4"/>
+      <c r="AA9" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="Z9" s="4"/>
-      <c r="AA9" s="4"/>
       <c r="AB9" s="4"/>
-      <c r="AC9" s="4" t="s">
+      <c r="AC9" s="4"/>
+      <c r="AD9" s="4"/>
+      <c r="AE9" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AD9" s="4">
+      <c r="AF9" s="4">
         <v>2.6863000000000001E-2</v>
       </c>
-      <c r="AE9" s="4"/>
-      <c r="AF9" s="4"/>
       <c r="AG9" s="4"/>
       <c r="AH9" s="4"/>
-      <c r="AI9" s="4">
+      <c r="AI9" s="4"/>
+      <c r="AJ9" s="4"/>
+      <c r="AK9" s="4">
         <v>3</v>
       </c>
-      <c r="AJ9" s="4">
+      <c r="AL9" s="4">
         <v>208</v>
       </c>
-      <c r="AK9" s="4"/>
-      <c r="AL9" s="4">
+      <c r="AM9" s="4"/>
+      <c r="AN9" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -2119,61 +2195,63 @@
         <v>50</v>
       </c>
       <c r="I10" s="4"/>
-      <c r="J10" s="4">
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4">
         <v>1</v>
       </c>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4" t="s">
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="N10" s="5" t="s">
+      <c r="P10" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4" t="s">
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="R10" s="4" t="s">
+      <c r="T10" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
       <c r="U10" s="4"/>
-      <c r="V10" s="4" t="s">
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="W10" s="4"/>
-      <c r="X10" s="4"/>
-      <c r="Y10" s="4" t="s">
+      <c r="Y10" s="4"/>
+      <c r="Z10" s="4"/>
+      <c r="AA10" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="Z10" s="4"/>
-      <c r="AA10" s="4"/>
       <c r="AB10" s="4"/>
-      <c r="AC10" s="4" t="s">
+      <c r="AC10" s="4"/>
+      <c r="AD10" s="4"/>
+      <c r="AE10" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AD10" s="4">
+      <c r="AF10" s="4">
         <v>2.6863000000000001E-2</v>
       </c>
-      <c r="AE10" s="4"/>
-      <c r="AF10" s="4"/>
       <c r="AG10" s="4"/>
       <c r="AH10" s="4"/>
-      <c r="AI10" s="4">
+      <c r="AI10" s="4"/>
+      <c r="AJ10" s="4"/>
+      <c r="AK10" s="4">
         <v>3</v>
       </c>
-      <c r="AJ10" s="4">
+      <c r="AL10" s="4">
         <v>6</v>
       </c>
-      <c r="AK10" s="4"/>
-      <c r="AL10" s="4">
+      <c r="AM10" s="4"/>
+      <c r="AN10" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -2199,61 +2277,63 @@
         <v>50</v>
       </c>
       <c r="I11" s="4"/>
-      <c r="J11" s="4">
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4">
         <v>1</v>
       </c>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4" t="s">
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="N11" s="5" t="s">
+      <c r="P11" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4" t="s">
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="R11" s="4" t="s">
+      <c r="T11" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
       <c r="U11" s="4"/>
-      <c r="V11" s="4" t="s">
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="W11" s="4"/>
-      <c r="X11" s="4"/>
-      <c r="Y11" s="4" t="s">
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="4"/>
+      <c r="AA11" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="Z11" s="4"/>
-      <c r="AA11" s="4"/>
       <c r="AB11" s="4"/>
-      <c r="AC11" s="4" t="s">
+      <c r="AC11" s="4"/>
+      <c r="AD11" s="4"/>
+      <c r="AE11" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AD11" s="4">
+      <c r="AF11" s="4">
         <v>1.9E-2</v>
       </c>
-      <c r="AE11" s="4"/>
-      <c r="AF11" s="4"/>
       <c r="AG11" s="4"/>
       <c r="AH11" s="4"/>
-      <c r="AI11" s="4">
+      <c r="AI11" s="4"/>
+      <c r="AJ11" s="4"/>
+      <c r="AK11" s="4">
         <v>3</v>
       </c>
-      <c r="AJ11" s="4">
+      <c r="AL11" s="4">
         <v>203</v>
       </c>
-      <c r="AK11" s="4"/>
-      <c r="AL11" s="4">
+      <c r="AM11" s="4"/>
+      <c r="AN11" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -2278,14 +2358,18 @@
       <c r="H12" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
+      <c r="I12" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>261</v>
+      </c>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
-      <c r="N12" s="5"/>
+      <c r="N12" s="4"/>
       <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
+      <c r="P12" s="5"/>
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
       <c r="S12" s="4"/>
@@ -2298,28 +2382,30 @@
       <c r="Z12" s="4"/>
       <c r="AA12" s="4"/>
       <c r="AB12" s="4"/>
-      <c r="AC12" s="4" t="s">
+      <c r="AC12" s="4"/>
+      <c r="AD12" s="4"/>
+      <c r="AE12" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AD12" s="4"/>
-      <c r="AE12" s="4"/>
       <c r="AF12" s="4"/>
       <c r="AG12" s="4"/>
       <c r="AH12" s="4"/>
-      <c r="AI12" s="4">
+      <c r="AI12" s="4"/>
+      <c r="AJ12" s="4"/>
+      <c r="AK12" s="4">
         <v>2</v>
       </c>
-      <c r="AJ12" s="4">
+      <c r="AL12" s="4">
         <v>10</v>
       </c>
-      <c r="AK12" s="6" t="s">
+      <c r="AM12" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="AL12" s="4">
+      <c r="AN12" s="4">
         <v>300</v>
       </c>
     </row>
-    <row r="13" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -2345,61 +2431,63 @@
         <v>50</v>
       </c>
       <c r="I13" s="4"/>
-      <c r="J13" s="4">
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4">
         <v>1</v>
       </c>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4" t="s">
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="N13" s="5" t="s">
+      <c r="P13" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4" t="s">
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="R13" s="4" t="s">
+      <c r="T13" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
       <c r="U13" s="4"/>
-      <c r="V13" s="4" t="s">
+      <c r="V13" s="4"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="W13" s="4"/>
-      <c r="X13" s="4"/>
-      <c r="Y13" s="4" t="s">
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="4"/>
+      <c r="AA13" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="Z13" s="4"/>
-      <c r="AA13" s="4"/>
       <c r="AB13" s="4"/>
-      <c r="AC13" s="4" t="s">
+      <c r="AC13" s="4"/>
+      <c r="AD13" s="4"/>
+      <c r="AE13" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AD13" s="4">
+      <c r="AF13" s="4">
         <v>3.2488000000000003E-2</v>
       </c>
-      <c r="AE13" s="4"/>
-      <c r="AF13" s="4"/>
       <c r="AG13" s="4"/>
       <c r="AH13" s="4"/>
-      <c r="AI13" s="4">
+      <c r="AI13" s="4"/>
+      <c r="AJ13" s="4"/>
+      <c r="AK13" s="4">
         <v>3</v>
       </c>
-      <c r="AJ13" s="4">
+      <c r="AL13" s="4">
         <v>213</v>
       </c>
-      <c r="AK13" s="4"/>
-      <c r="AL13" s="4">
+      <c r="AM13" s="4"/>
+      <c r="AN13" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -2425,61 +2513,63 @@
         <v>50</v>
       </c>
       <c r="I14" s="4"/>
-      <c r="J14" s="4">
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4">
         <v>1</v>
       </c>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4" t="s">
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="N14" s="5" t="s">
+      <c r="P14" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4" t="s">
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="R14" s="4" t="s">
+      <c r="T14" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
       <c r="U14" s="4"/>
-      <c r="V14" s="4" t="s">
+      <c r="V14" s="4"/>
+      <c r="W14" s="4"/>
+      <c r="X14" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="W14" s="4"/>
-      <c r="X14" s="4"/>
-      <c r="Y14" s="4" t="s">
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="4"/>
+      <c r="AA14" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="Z14" s="4"/>
-      <c r="AA14" s="4"/>
       <c r="AB14" s="4"/>
-      <c r="AC14" s="4" t="s">
+      <c r="AC14" s="4"/>
+      <c r="AD14" s="4"/>
+      <c r="AE14" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AD14" s="4">
+      <c r="AF14" s="4">
         <v>9.6419999999999995E-3</v>
       </c>
-      <c r="AE14" s="4"/>
-      <c r="AF14" s="4"/>
       <c r="AG14" s="4"/>
       <c r="AH14" s="4"/>
-      <c r="AI14" s="4">
+      <c r="AI14" s="4"/>
+      <c r="AJ14" s="4"/>
+      <c r="AK14" s="4">
         <v>3</v>
       </c>
-      <c r="AJ14" s="4">
+      <c r="AL14" s="4">
         <v>214</v>
       </c>
-      <c r="AK14" s="4"/>
-      <c r="AL14" s="4">
+      <c r="AM14" s="4"/>
+      <c r="AN14" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -2504,14 +2594,18 @@
       <c r="H15" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
+      <c r="I15" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>262</v>
+      </c>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
-      <c r="N15" s="5"/>
+      <c r="N15" s="4"/>
       <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
+      <c r="P15" s="5"/>
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
       <c r="S15" s="4"/>
@@ -2524,28 +2618,30 @@
       <c r="Z15" s="4"/>
       <c r="AA15" s="4"/>
       <c r="AB15" s="4"/>
-      <c r="AC15" s="4" t="s">
+      <c r="AC15" s="4"/>
+      <c r="AD15" s="4"/>
+      <c r="AE15" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AD15" s="4"/>
-      <c r="AE15" s="4"/>
       <c r="AF15" s="4"/>
       <c r="AG15" s="4"/>
       <c r="AH15" s="4"/>
-      <c r="AI15" s="4">
+      <c r="AI15" s="4"/>
+      <c r="AJ15" s="4"/>
+      <c r="AK15" s="4">
         <v>2</v>
       </c>
-      <c r="AJ15" s="4">
+      <c r="AL15" s="4">
         <v>13</v>
       </c>
-      <c r="AK15" s="6" t="s">
+      <c r="AM15" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="AL15" s="4">
+      <c r="AN15" s="4">
         <v>300</v>
       </c>
     </row>
-    <row r="16" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -2571,61 +2667,63 @@
         <v>50</v>
       </c>
       <c r="I16" s="4"/>
-      <c r="J16" s="4">
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4">
         <v>1</v>
       </c>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4" t="s">
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="N16" s="5" t="s">
+      <c r="P16" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4" t="s">
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="R16" s="4" t="s">
+      <c r="T16" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
       <c r="U16" s="4"/>
-      <c r="V16" s="4" t="s">
+      <c r="V16" s="4"/>
+      <c r="W16" s="4"/>
+      <c r="X16" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="W16" s="4"/>
-      <c r="X16" s="4"/>
-      <c r="Y16" s="4" t="s">
+      <c r="Y16" s="4"/>
+      <c r="Z16" s="4"/>
+      <c r="AA16" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="Z16" s="4"/>
-      <c r="AA16" s="4"/>
       <c r="AB16" s="4"/>
-      <c r="AC16" s="4" t="s">
+      <c r="AC16" s="4"/>
+      <c r="AD16" s="4"/>
+      <c r="AE16" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AD16" s="4">
+      <c r="AF16" s="4">
         <v>3.2455999999999999E-2</v>
       </c>
-      <c r="AE16" s="4"/>
-      <c r="AF16" s="4"/>
       <c r="AG16" s="4"/>
       <c r="AH16" s="4"/>
-      <c r="AI16" s="4">
+      <c r="AI16" s="4"/>
+      <c r="AJ16" s="4"/>
+      <c r="AK16" s="4">
         <v>3</v>
       </c>
-      <c r="AJ16" s="4">
+      <c r="AL16" s="4">
         <v>16</v>
       </c>
-      <c r="AK16" s="4"/>
-      <c r="AL16" s="4">
+      <c r="AM16" s="4"/>
+      <c r="AN16" s="4">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -2651,61 +2749,63 @@
         <v>50</v>
       </c>
       <c r="I17" s="4"/>
-      <c r="J17" s="4">
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4">
         <v>1</v>
       </c>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4" t="s">
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="N17" s="5" t="s">
+      <c r="P17" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4" t="s">
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="R17" s="4" t="s">
+      <c r="T17" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
       <c r="U17" s="4"/>
-      <c r="V17" s="4" t="s">
+      <c r="V17" s="4"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="W17" s="4"/>
-      <c r="X17" s="4"/>
-      <c r="Y17" s="4" t="s">
+      <c r="Y17" s="4"/>
+      <c r="Z17" s="4"/>
+      <c r="AA17" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="Z17" s="4"/>
-      <c r="AA17" s="4"/>
       <c r="AB17" s="4"/>
-      <c r="AC17" s="4" t="s">
+      <c r="AC17" s="4"/>
+      <c r="AD17" s="4"/>
+      <c r="AE17" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AD17" s="4">
+      <c r="AF17" s="4">
         <v>3.2455999999999999E-2</v>
       </c>
-      <c r="AE17" s="4"/>
-      <c r="AF17" s="4"/>
       <c r="AG17" s="4"/>
       <c r="AH17" s="4"/>
-      <c r="AI17" s="4">
+      <c r="AI17" s="4"/>
+      <c r="AJ17" s="4"/>
+      <c r="AK17" s="4">
         <v>3</v>
       </c>
-      <c r="AJ17" s="4">
+      <c r="AL17" s="4">
         <v>15</v>
       </c>
-      <c r="AK17" s="4"/>
-      <c r="AL17" s="4">
+      <c r="AM17" s="4"/>
+      <c r="AN17" s="4">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -2731,61 +2831,63 @@
         <v>50</v>
       </c>
       <c r="I18" s="4"/>
-      <c r="J18" s="4">
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4">
         <v>1</v>
       </c>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4" t="s">
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="N18" s="5" t="s">
+      <c r="P18" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4" t="s">
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="R18" s="4" t="s">
+      <c r="T18" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="S18" s="4"/>
-      <c r="T18" s="4"/>
       <c r="U18" s="4"/>
-      <c r="V18" s="4" t="s">
+      <c r="V18" s="4"/>
+      <c r="W18" s="4"/>
+      <c r="X18" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="W18" s="4"/>
-      <c r="X18" s="4"/>
-      <c r="Y18" s="4" t="s">
+      <c r="Y18" s="4"/>
+      <c r="Z18" s="4"/>
+      <c r="AA18" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="Z18" s="4"/>
-      <c r="AA18" s="4"/>
       <c r="AB18" s="4"/>
-      <c r="AC18" s="4" t="s">
+      <c r="AC18" s="4"/>
+      <c r="AD18" s="4"/>
+      <c r="AE18" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AD18" s="4">
+      <c r="AF18" s="4">
         <v>2.1989999999999999E-2</v>
       </c>
-      <c r="AE18" s="4"/>
-      <c r="AF18" s="4"/>
       <c r="AG18" s="4"/>
       <c r="AH18" s="4"/>
-      <c r="AI18" s="4">
+      <c r="AI18" s="4"/>
+      <c r="AJ18" s="4"/>
+      <c r="AK18" s="4">
         <v>3</v>
       </c>
-      <c r="AJ18" s="4">
+      <c r="AL18" s="4">
         <v>17</v>
       </c>
-      <c r="AK18" s="4"/>
-      <c r="AL18" s="4">
+      <c r="AM18" s="4"/>
+      <c r="AN18" s="4">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -2811,61 +2913,63 @@
         <v>50</v>
       </c>
       <c r="I19" s="4"/>
-      <c r="J19" s="4">
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4">
         <v>1</v>
       </c>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4" t="s">
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="N19" s="5" t="s">
+      <c r="P19" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4" t="s">
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="R19" s="4" t="s">
+      <c r="T19" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="S19" s="4"/>
-      <c r="T19" s="4"/>
       <c r="U19" s="4"/>
-      <c r="V19" s="4" t="s">
+      <c r="V19" s="4"/>
+      <c r="W19" s="4"/>
+      <c r="X19" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="W19" s="4"/>
-      <c r="X19" s="4"/>
-      <c r="Y19" s="4" t="s">
+      <c r="Y19" s="4"/>
+      <c r="Z19" s="4"/>
+      <c r="AA19" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="Z19" s="4"/>
-      <c r="AA19" s="4"/>
       <c r="AB19" s="4"/>
-      <c r="AC19" s="4" t="s">
+      <c r="AC19" s="4"/>
+      <c r="AD19" s="4"/>
+      <c r="AE19" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AD19" s="4">
+      <c r="AF19" s="4">
         <v>1.1009E-2</v>
       </c>
-      <c r="AE19" s="4"/>
-      <c r="AF19" s="4"/>
       <c r="AG19" s="4"/>
       <c r="AH19" s="4"/>
-      <c r="AI19" s="4">
+      <c r="AI19" s="4"/>
+      <c r="AJ19" s="4"/>
+      <c r="AK19" s="4">
         <v>3</v>
       </c>
-      <c r="AJ19" s="4">
+      <c r="AL19" s="4">
         <v>220</v>
       </c>
-      <c r="AK19" s="4"/>
-      <c r="AL19" s="4">
+      <c r="AM19" s="4"/>
+      <c r="AN19" s="4">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -2890,14 +2994,18 @@
       <c r="H20" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
+      <c r="I20" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="J20" s="10" t="s">
+        <v>263</v>
+      </c>
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
-      <c r="N20" s="5"/>
+      <c r="N20" s="4"/>
       <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
+      <c r="P20" s="5"/>
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
       <c r="S20" s="4"/>
@@ -2910,28 +3018,30 @@
       <c r="Z20" s="4"/>
       <c r="AA20" s="4"/>
       <c r="AB20" s="4"/>
-      <c r="AC20" s="4" t="s">
+      <c r="AC20" s="4"/>
+      <c r="AD20" s="4"/>
+      <c r="AE20" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AD20" s="4"/>
-      <c r="AE20" s="4"/>
       <c r="AF20" s="4"/>
       <c r="AG20" s="4"/>
       <c r="AH20" s="4"/>
-      <c r="AI20" s="4">
+      <c r="AI20" s="4"/>
+      <c r="AJ20" s="4"/>
+      <c r="AK20" s="4">
         <v>2</v>
       </c>
-      <c r="AJ20" s="4">
+      <c r="AL20" s="4">
         <v>18</v>
       </c>
-      <c r="AK20" s="6" t="s">
+      <c r="AM20" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="AL20" s="4">
+      <c r="AN20" s="4">
         <v>300</v>
       </c>
     </row>
-    <row r="21" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -2957,61 +3067,63 @@
         <v>50</v>
       </c>
       <c r="I21" s="4"/>
-      <c r="J21" s="4">
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4">
         <v>1</v>
       </c>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4" t="s">
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="N21" s="5" t="s">
+      <c r="P21" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4" t="s">
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="R21" s="4" t="s">
+      <c r="T21" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="S21" s="4"/>
-      <c r="T21" s="4"/>
       <c r="U21" s="4"/>
-      <c r="V21" s="4" t="s">
+      <c r="V21" s="4"/>
+      <c r="W21" s="4"/>
+      <c r="X21" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="W21" s="4"/>
-      <c r="X21" s="4"/>
-      <c r="Y21" s="4" t="s">
+      <c r="Y21" s="4"/>
+      <c r="Z21" s="4"/>
+      <c r="AA21" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="Z21" s="4"/>
-      <c r="AA21" s="4"/>
       <c r="AB21" s="4"/>
-      <c r="AC21" s="4" t="s">
+      <c r="AC21" s="4"/>
+      <c r="AD21" s="4"/>
+      <c r="AE21" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AD21" s="4">
+      <c r="AF21" s="4">
         <v>3.2455999999999999E-2</v>
       </c>
-      <c r="AE21" s="4"/>
-      <c r="AF21" s="4"/>
       <c r="AG21" s="4"/>
       <c r="AH21" s="4"/>
-      <c r="AI21" s="4">
+      <c r="AI21" s="4"/>
+      <c r="AJ21" s="4"/>
+      <c r="AK21" s="4">
         <v>3</v>
       </c>
-      <c r="AJ21" s="4">
+      <c r="AL21" s="4">
         <v>222</v>
       </c>
-      <c r="AK21" s="4"/>
-      <c r="AL21" s="4">
+      <c r="AM21" s="4"/>
+      <c r="AN21" s="4">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -3037,61 +3149,63 @@
         <v>50</v>
       </c>
       <c r="I22" s="4"/>
-      <c r="J22" s="4">
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4">
         <v>1</v>
       </c>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4" t="s">
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="N22" s="5" t="s">
+      <c r="P22" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4" t="s">
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="R22" s="4" t="s">
+      <c r="T22" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="S22" s="4"/>
-      <c r="T22" s="4"/>
       <c r="U22" s="4"/>
-      <c r="V22" s="4" t="s">
+      <c r="V22" s="4"/>
+      <c r="W22" s="4"/>
+      <c r="X22" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="W22" s="4"/>
-      <c r="X22" s="4"/>
-      <c r="Y22" s="4" t="s">
+      <c r="Y22" s="4"/>
+      <c r="Z22" s="4"/>
+      <c r="AA22" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="Z22" s="4"/>
-      <c r="AA22" s="4"/>
       <c r="AB22" s="4"/>
-      <c r="AC22" s="4" t="s">
+      <c r="AC22" s="4"/>
+      <c r="AD22" s="4"/>
+      <c r="AE22" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AD22" s="4">
+      <c r="AF22" s="4">
         <v>3.2455999999999999E-2</v>
       </c>
-      <c r="AE22" s="4"/>
-      <c r="AF22" s="4"/>
       <c r="AG22" s="4"/>
       <c r="AH22" s="4"/>
-      <c r="AI22" s="4">
+      <c r="AI22" s="4"/>
+      <c r="AJ22" s="4"/>
+      <c r="AK22" s="4">
         <v>3</v>
       </c>
-      <c r="AJ22" s="4">
+      <c r="AL22" s="4">
         <v>223</v>
       </c>
-      <c r="AK22" s="4"/>
-      <c r="AL22" s="4">
+      <c r="AM22" s="4"/>
+      <c r="AN22" s="4">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -3117,61 +3231,63 @@
         <v>50</v>
       </c>
       <c r="I23" s="4"/>
-      <c r="J23" s="4">
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4">
         <v>1</v>
       </c>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4" t="s">
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="N23" s="5" t="s">
+      <c r="P23" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="4" t="s">
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="R23" s="4" t="s">
+      <c r="T23" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="S23" s="4"/>
-      <c r="T23" s="4"/>
       <c r="U23" s="4"/>
-      <c r="V23" s="4" t="s">
+      <c r="V23" s="4"/>
+      <c r="W23" s="4"/>
+      <c r="X23" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="W23" s="4"/>
-      <c r="X23" s="4"/>
-      <c r="Y23" s="4" t="s">
+      <c r="Y23" s="4"/>
+      <c r="Z23" s="4"/>
+      <c r="AA23" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="Z23" s="4"/>
-      <c r="AA23" s="4"/>
       <c r="AB23" s="4"/>
-      <c r="AC23" s="4" t="s">
+      <c r="AC23" s="4"/>
+      <c r="AD23" s="4"/>
+      <c r="AE23" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AD23" s="4">
+      <c r="AF23" s="4">
         <v>2.1989999999999999E-2</v>
       </c>
-      <c r="AE23" s="4"/>
-      <c r="AF23" s="4"/>
       <c r="AG23" s="4"/>
       <c r="AH23" s="4"/>
-      <c r="AI23" s="4">
+      <c r="AI23" s="4"/>
+      <c r="AJ23" s="4"/>
+      <c r="AK23" s="4">
         <v>3</v>
       </c>
-      <c r="AJ23" s="4">
+      <c r="AL23" s="4">
         <v>225</v>
       </c>
-      <c r="AK23" s="4"/>
-      <c r="AL23" s="4">
+      <c r="AM23" s="4"/>
+      <c r="AN23" s="4">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -3197,61 +3313,63 @@
         <v>50</v>
       </c>
       <c r="I24" s="4"/>
-      <c r="J24" s="4">
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4">
         <v>1</v>
       </c>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4" t="s">
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="N24" s="5">
+      <c r="P24" s="5">
         <v>4607174577787</v>
       </c>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="4" t="s">
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4"/>
+      <c r="S24" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="R24" s="4" t="s">
+      <c r="T24" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="S24" s="4"/>
-      <c r="T24" s="4"/>
       <c r="U24" s="4"/>
-      <c r="V24" s="4" t="s">
+      <c r="V24" s="4"/>
+      <c r="W24" s="4"/>
+      <c r="X24" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="W24" s="4"/>
-      <c r="X24" s="4"/>
-      <c r="Y24" s="4" t="s">
+      <c r="Y24" s="4"/>
+      <c r="Z24" s="4"/>
+      <c r="AA24" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="Z24" s="4"/>
-      <c r="AA24" s="4"/>
       <c r="AB24" s="4"/>
-      <c r="AC24" s="4" t="s">
+      <c r="AC24" s="4"/>
+      <c r="AD24" s="4"/>
+      <c r="AE24" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AD24" s="4">
+      <c r="AF24" s="4">
         <v>2.1989999999999999E-2</v>
       </c>
-      <c r="AE24" s="4"/>
-      <c r="AF24" s="4"/>
       <c r="AG24" s="4"/>
       <c r="AH24" s="4"/>
-      <c r="AI24" s="4">
+      <c r="AI24" s="4"/>
+      <c r="AJ24" s="4"/>
+      <c r="AK24" s="4">
         <v>3</v>
       </c>
-      <c r="AJ24" s="4">
+      <c r="AL24" s="4">
         <v>20</v>
       </c>
-      <c r="AK24" s="4"/>
-      <c r="AL24" s="4">
+      <c r="AM24" s="4"/>
+      <c r="AN24" s="4">
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -3277,61 +3395,63 @@
         <v>50</v>
       </c>
       <c r="I25" s="4"/>
-      <c r="J25" s="4">
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4">
         <v>1</v>
       </c>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4" t="s">
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="N25" s="5">
+      <c r="P25" s="5">
         <v>4650075420980</v>
       </c>
-      <c r="O25" s="4"/>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="4" t="s">
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="R25" s="4" t="s">
+      <c r="T25" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="S25" s="4"/>
-      <c r="T25" s="4"/>
       <c r="U25" s="4"/>
-      <c r="V25" s="4" t="s">
+      <c r="V25" s="4"/>
+      <c r="W25" s="4"/>
+      <c r="X25" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="W25" s="4"/>
-      <c r="X25" s="4"/>
-      <c r="Y25" s="4" t="s">
+      <c r="Y25" s="4"/>
+      <c r="Z25" s="4"/>
+      <c r="AA25" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="Z25" s="4"/>
-      <c r="AA25" s="4"/>
       <c r="AB25" s="4"/>
-      <c r="AC25" s="4" t="s">
+      <c r="AC25" s="4"/>
+      <c r="AD25" s="4"/>
+      <c r="AE25" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AD25" s="4">
+      <c r="AF25" s="4">
         <v>1.1009E-2</v>
       </c>
-      <c r="AE25" s="4"/>
-      <c r="AF25" s="4"/>
       <c r="AG25" s="4"/>
       <c r="AH25" s="4"/>
-      <c r="AI25" s="4">
+      <c r="AI25" s="4"/>
+      <c r="AJ25" s="4"/>
+      <c r="AK25" s="4">
         <v>3</v>
       </c>
-      <c r="AJ25" s="4">
+      <c r="AL25" s="4">
         <v>22</v>
       </c>
-      <c r="AK25" s="4"/>
-      <c r="AL25" s="4">
+      <c r="AM25" s="4"/>
+      <c r="AN25" s="4">
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -3357,61 +3477,63 @@
         <v>50</v>
       </c>
       <c r="I26" s="4"/>
-      <c r="J26" s="4">
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4">
         <v>1</v>
       </c>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4" t="s">
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="N26" s="5" t="s">
+      <c r="P26" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="4" t="s">
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
+      <c r="S26" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="R26" s="4" t="s">
+      <c r="T26" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="S26" s="4"/>
-      <c r="T26" s="4"/>
       <c r="U26" s="4"/>
-      <c r="V26" s="4" t="s">
+      <c r="V26" s="4"/>
+      <c r="W26" s="4"/>
+      <c r="X26" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="W26" s="4"/>
-      <c r="X26" s="4"/>
-      <c r="Y26" s="4" t="s">
+      <c r="Y26" s="4"/>
+      <c r="Z26" s="4"/>
+      <c r="AA26" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="Z26" s="4"/>
-      <c r="AA26" s="4"/>
       <c r="AB26" s="4"/>
-      <c r="AC26" s="4" t="s">
+      <c r="AC26" s="4"/>
+      <c r="AD26" s="4"/>
+      <c r="AE26" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AD26" s="4">
+      <c r="AF26" s="4">
         <v>1.1009E-2</v>
       </c>
-      <c r="AE26" s="4"/>
-      <c r="AF26" s="4"/>
       <c r="AG26" s="4"/>
       <c r="AH26" s="4"/>
-      <c r="AI26" s="4">
+      <c r="AI26" s="4"/>
+      <c r="AJ26" s="4"/>
+      <c r="AK26" s="4">
         <v>3</v>
       </c>
-      <c r="AJ26" s="4">
+      <c r="AL26" s="4">
         <v>226</v>
       </c>
-      <c r="AK26" s="4"/>
-      <c r="AL26" s="4">
+      <c r="AM26" s="4"/>
+      <c r="AN26" s="4">
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -3437,61 +3559,63 @@
         <v>50</v>
       </c>
       <c r="I27" s="4"/>
-      <c r="J27" s="4">
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4">
         <v>1</v>
       </c>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4" t="s">
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="N27" s="5" t="s">
+      <c r="P27" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="O27" s="4"/>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="4" t="s">
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="R27" s="4" t="s">
+      <c r="T27" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="S27" s="4"/>
-      <c r="T27" s="4"/>
       <c r="U27" s="4"/>
-      <c r="V27" s="4" t="s">
+      <c r="V27" s="4"/>
+      <c r="W27" s="4"/>
+      <c r="X27" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="W27" s="4"/>
-      <c r="X27" s="4"/>
-      <c r="Y27" s="4" t="s">
+      <c r="Y27" s="4"/>
+      <c r="Z27" s="4"/>
+      <c r="AA27" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="Z27" s="4"/>
-      <c r="AA27" s="4"/>
       <c r="AB27" s="4"/>
-      <c r="AC27" s="4" t="s">
+      <c r="AC27" s="4"/>
+      <c r="AD27" s="4"/>
+      <c r="AE27" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AD27" s="4">
+      <c r="AF27" s="4">
         <v>1.1009E-2</v>
       </c>
-      <c r="AE27" s="4"/>
-      <c r="AF27" s="4"/>
       <c r="AG27" s="4"/>
       <c r="AH27" s="4"/>
-      <c r="AI27" s="4">
+      <c r="AI27" s="4"/>
+      <c r="AJ27" s="4"/>
+      <c r="AK27" s="4">
         <v>3</v>
       </c>
-      <c r="AJ27" s="4">
+      <c r="AL27" s="4">
         <v>227</v>
       </c>
-      <c r="AK27" s="4"/>
-      <c r="AL27" s="4">
+      <c r="AM27" s="4"/>
+      <c r="AN27" s="4">
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -3516,14 +3640,18 @@
       <c r="H28" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
+      <c r="I28" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="J28" s="10" t="s">
+        <v>264</v>
+      </c>
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
       <c r="M28" s="4"/>
-      <c r="N28" s="5"/>
+      <c r="N28" s="4"/>
       <c r="O28" s="4"/>
-      <c r="P28" s="4"/>
+      <c r="P28" s="5"/>
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
       <c r="S28" s="4"/>
@@ -3536,28 +3664,30 @@
       <c r="Z28" s="4"/>
       <c r="AA28" s="4"/>
       <c r="AB28" s="4"/>
-      <c r="AC28" s="4" t="s">
+      <c r="AC28" s="4"/>
+      <c r="AD28" s="4"/>
+      <c r="AE28" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="AD28" s="4"/>
-      <c r="AE28" s="4"/>
       <c r="AF28" s="4"/>
       <c r="AG28" s="4"/>
       <c r="AH28" s="4"/>
-      <c r="AI28" s="4">
+      <c r="AI28" s="4"/>
+      <c r="AJ28" s="4"/>
+      <c r="AK28" s="4">
         <v>2</v>
       </c>
-      <c r="AJ28" s="4">
+      <c r="AL28" s="4">
         <v>26</v>
       </c>
-      <c r="AK28" s="4">
+      <c r="AM28" s="4">
         <v>253</v>
       </c>
-      <c r="AL28" s="4">
+      <c r="AN28" s="4">
         <v>300</v>
       </c>
     </row>
-    <row r="29" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -3583,62 +3713,64 @@
         <v>50</v>
       </c>
       <c r="I29" s="4"/>
-      <c r="J29" s="4">
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4">
         <v>1</v>
       </c>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4" t="str">
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4" t="str">
         <f>F29</f>
         <v>Burn Original - 0.5L</v>
       </c>
-      <c r="N29" s="5" t="s">
+      <c r="P29" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="O29" s="4"/>
-      <c r="P29" s="4"/>
-      <c r="Q29" s="4" t="s">
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="R29" s="4" t="s">
+      <c r="T29" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="S29" s="4"/>
-      <c r="T29" s="4"/>
       <c r="U29" s="4"/>
-      <c r="V29" s="4" t="s">
+      <c r="V29" s="4"/>
+      <c r="W29" s="4"/>
+      <c r="X29" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="W29" s="4"/>
-      <c r="X29" s="4"/>
-      <c r="Y29" s="4" t="s">
+      <c r="Y29" s="4"/>
+      <c r="Z29" s="4"/>
+      <c r="AA29" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="Z29" s="4"/>
-      <c r="AA29" s="4"/>
       <c r="AB29" s="4"/>
-      <c r="AC29" s="4" t="s">
+      <c r="AC29" s="4"/>
+      <c r="AD29" s="4"/>
+      <c r="AE29" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AD29" s="4">
+      <c r="AF29" s="4">
         <v>1.3879999999999999E-3</v>
       </c>
-      <c r="AE29" s="4"/>
-      <c r="AF29" s="4"/>
       <c r="AG29" s="4"/>
       <c r="AH29" s="4"/>
-      <c r="AI29" s="4">
+      <c r="AI29" s="4"/>
+      <c r="AJ29" s="4"/>
+      <c r="AK29" s="4">
         <v>3</v>
       </c>
-      <c r="AJ29" s="4">
+      <c r="AL29" s="4">
         <v>253</v>
       </c>
-      <c r="AK29" s="4"/>
-      <c r="AL29" s="4">
+      <c r="AM29" s="4"/>
+      <c r="AN29" s="4">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -3666,9 +3798,9 @@
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
       <c r="M30" s="4"/>
-      <c r="N30" s="5"/>
+      <c r="N30" s="4"/>
       <c r="O30" s="4"/>
-      <c r="P30" s="4"/>
+      <c r="P30" s="5"/>
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
       <c r="S30" s="4"/>
@@ -3687,16 +3819,18 @@
       <c r="AF30" s="4"/>
       <c r="AG30" s="4"/>
       <c r="AH30" s="4"/>
-      <c r="AI30" s="4">
+      <c r="AI30" s="4"/>
+      <c r="AJ30" s="4"/>
+      <c r="AK30" s="4">
         <v>1</v>
       </c>
-      <c r="AJ30" s="4">
+      <c r="AL30" s="4">
         <v>310</v>
       </c>
-      <c r="AK30" s="4"/>
-      <c r="AL30" s="4"/>
+      <c r="AM30" s="4"/>
+      <c r="AN30" s="4"/>
     </row>
-    <row r="31" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -3724,9 +3858,9 @@
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
       <c r="M31" s="4"/>
-      <c r="N31" s="5"/>
+      <c r="N31" s="4"/>
       <c r="O31" s="4"/>
-      <c r="P31" s="4"/>
+      <c r="P31" s="5"/>
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
       <c r="S31" s="4"/>
@@ -3745,18 +3879,20 @@
       <c r="AF31" s="4"/>
       <c r="AG31" s="4"/>
       <c r="AH31" s="4"/>
-      <c r="AI31" s="4">
+      <c r="AI31" s="4"/>
+      <c r="AJ31" s="4"/>
+      <c r="AK31" s="4">
         <v>1</v>
       </c>
-      <c r="AJ31" s="4">
+      <c r="AL31" s="4">
         <v>311</v>
       </c>
-      <c r="AK31" s="4"/>
-      <c r="AL31" s="4">
+      <c r="AM31" s="4"/>
+      <c r="AN31" s="4">
         <v>310</v>
       </c>
     </row>
-    <row r="32" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -3786,14 +3922,14 @@
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
       <c r="M32" s="4"/>
-      <c r="N32" s="5"/>
+      <c r="N32" s="4"/>
       <c r="O32" s="4"/>
-      <c r="P32" s="4"/>
-      <c r="Q32" s="4" t="s">
+      <c r="P32" s="5"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="4"/>
+      <c r="S32" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="R32" s="4"/>
-      <c r="S32" s="4"/>
       <c r="T32" s="4"/>
       <c r="U32" s="4"/>
       <c r="V32" s="4"/>
@@ -3803,32 +3939,34 @@
       <c r="Z32" s="4"/>
       <c r="AA32" s="4"/>
       <c r="AB32" s="4"/>
-      <c r="AC32" s="4" t="s">
+      <c r="AC32" s="4"/>
+      <c r="AD32" s="4"/>
+      <c r="AE32" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="AD32" s="4">
+      <c r="AF32" s="4">
         <v>0.13500000000000001</v>
       </c>
-      <c r="AE32" s="4"/>
-      <c r="AF32" s="4"/>
-      <c r="AG32" s="4" t="s">
+      <c r="AG32" s="4"/>
+      <c r="AH32" s="4"/>
+      <c r="AI32" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="AH32" s="4"/>
-      <c r="AI32" s="4">
+      <c r="AJ32" s="4"/>
+      <c r="AK32" s="4">
         <v>2</v>
       </c>
-      <c r="AJ32" s="4">
+      <c r="AL32" s="4">
         <v>30</v>
       </c>
-      <c r="AK32" s="6" t="s">
+      <c r="AM32" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="AL32" s="4">
+      <c r="AN32" s="4">
         <v>311</v>
       </c>
     </row>
-    <row r="33" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -3854,53 +3992,55 @@
         <v>156</v>
       </c>
       <c r="I33" s="4"/>
-      <c r="J33" s="4">
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4">
         <v>0.5</v>
       </c>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4" t="s">
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="N33" s="5"/>
-      <c r="O33" s="4"/>
-      <c r="P33" s="4"/>
+      <c r="P33" s="5"/>
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
       <c r="S33" s="4"/>
       <c r="T33" s="4"/>
       <c r="U33" s="4"/>
       <c r="V33" s="4"/>
-      <c r="W33" s="4" t="s">
+      <c r="W33" s="4"/>
+      <c r="X33" s="4"/>
+      <c r="Y33" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="X33" s="4"/>
-      <c r="Y33" s="4"/>
       <c r="Z33" s="4"/>
       <c r="AA33" s="4"/>
       <c r="AB33" s="4"/>
-      <c r="AC33" s="4" t="s">
+      <c r="AC33" s="4"/>
+      <c r="AD33" s="4"/>
+      <c r="AE33" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AD33" s="4"/>
-      <c r="AE33" s="4"/>
       <c r="AF33" s="4"/>
-      <c r="AG33" s="4" t="s">
+      <c r="AG33" s="4"/>
+      <c r="AH33" s="4"/>
+      <c r="AI33" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="AH33" s="4"/>
-      <c r="AI33" s="4">
+      <c r="AJ33" s="4"/>
+      <c r="AK33" s="4">
         <v>3</v>
       </c>
-      <c r="AJ33" s="4">
+      <c r="AL33" s="4">
         <v>31</v>
       </c>
-      <c r="AK33" s="4"/>
-      <c r="AL33" s="4">
+      <c r="AM33" s="4"/>
+      <c r="AN33" s="4">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -3926,55 +4066,57 @@
         <v>162</v>
       </c>
       <c r="I34" s="4"/>
-      <c r="J34" s="4">
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4">
         <v>0.01</v>
       </c>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
-      <c r="M34" s="4" t="s">
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="N34" s="5" t="s">
+      <c r="P34" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="O34" s="4"/>
-      <c r="P34" s="4"/>
       <c r="Q34" s="4"/>
-      <c r="R34" s="4" t="s">
+      <c r="R34" s="4"/>
+      <c r="S34" s="4"/>
+      <c r="T34" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="S34" s="4"/>
-      <c r="T34" s="4"/>
       <c r="U34" s="4"/>
       <c r="V34" s="4"/>
-      <c r="W34" s="4" t="s">
+      <c r="W34" s="4"/>
+      <c r="X34" s="4"/>
+      <c r="Y34" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="X34" s="4"/>
-      <c r="Y34" s="4"/>
       <c r="Z34" s="4"/>
       <c r="AA34" s="4"/>
       <c r="AB34" s="4"/>
-      <c r="AC34" s="4" t="s">
+      <c r="AC34" s="4"/>
+      <c r="AD34" s="4"/>
+      <c r="AE34" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AD34" s="4"/>
-      <c r="AE34" s="4"/>
       <c r="AF34" s="4"/>
       <c r="AG34" s="4"/>
       <c r="AH34" s="4"/>
-      <c r="AI34" s="4">
+      <c r="AI34" s="4"/>
+      <c r="AJ34" s="4"/>
+      <c r="AK34" s="4">
         <v>3</v>
       </c>
-      <c r="AJ34" s="4">
+      <c r="AL34" s="4">
         <v>32</v>
       </c>
-      <c r="AK34" s="4"/>
-      <c r="AL34" s="4">
+      <c r="AM34" s="4"/>
+      <c r="AN34" s="4">
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -4002,9 +4144,9 @@
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
       <c r="M35" s="4"/>
-      <c r="N35" s="5"/>
+      <c r="N35" s="4"/>
       <c r="O35" s="4"/>
-      <c r="P35" s="4"/>
+      <c r="P35" s="5"/>
       <c r="Q35" s="4"/>
       <c r="R35" s="4"/>
       <c r="S35" s="4"/>
@@ -4023,20 +4165,22 @@
       <c r="AF35" s="4"/>
       <c r="AG35" s="4"/>
       <c r="AH35" s="4"/>
-      <c r="AI35" s="4">
+      <c r="AI35" s="4"/>
+      <c r="AJ35" s="4"/>
+      <c r="AK35" s="4">
         <v>1</v>
       </c>
-      <c r="AJ35" s="4">
+      <c r="AL35" s="4">
         <v>312</v>
       </c>
-      <c r="AK35" s="6" t="s">
+      <c r="AM35" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="AL35" s="4">
+      <c r="AN35" s="4">
         <v>310</v>
       </c>
     </row>
-    <row r="36" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -4062,61 +4206,63 @@
         <v>172</v>
       </c>
       <c r="I36" s="4"/>
-      <c r="J36" s="4">
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4">
         <v>1</v>
       </c>
-      <c r="K36" s="4"/>
-      <c r="L36" s="4"/>
       <c r="M36" s="4"/>
-      <c r="N36" s="5" t="s">
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="O36" s="4"/>
-      <c r="P36" s="4"/>
       <c r="Q36" s="4"/>
-      <c r="R36" s="4" t="s">
+      <c r="R36" s="4"/>
+      <c r="S36" s="4"/>
+      <c r="T36" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="S36" s="4"/>
-      <c r="T36" s="4"/>
       <c r="U36" s="4"/>
       <c r="V36" s="4"/>
-      <c r="W36" s="4" t="s">
+      <c r="W36" s="4"/>
+      <c r="X36" s="4"/>
+      <c r="Y36" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="X36" s="8" t="s">
+      <c r="Z36" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="Y36" s="4"/>
-      <c r="Z36" s="4"/>
       <c r="AA36" s="4"/>
       <c r="AB36" s="4"/>
-      <c r="AC36" s="4" t="s">
+      <c r="AC36" s="4"/>
+      <c r="AD36" s="4"/>
+      <c r="AE36" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AD36" s="4">
+      <c r="AF36" s="4">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="AE36" s="4"/>
-      <c r="AF36" s="4"/>
-      <c r="AG36" s="4" t="s">
+      <c r="AG36" s="4"/>
+      <c r="AH36" s="4"/>
+      <c r="AI36" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="AH36" s="4" t="s">
+      <c r="AJ36" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="AI36" s="4">
+      <c r="AK36" s="4">
         <v>2</v>
       </c>
-      <c r="AJ36" s="4">
+      <c r="AL36" s="4">
         <v>33</v>
       </c>
-      <c r="AK36" s="4"/>
-      <c r="AL36" s="4">
+      <c r="AM36" s="4"/>
+      <c r="AN36" s="4">
         <v>312</v>
       </c>
     </row>
-    <row r="37" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -4142,61 +4288,63 @@
         <v>178</v>
       </c>
       <c r="I37" s="4"/>
-      <c r="J37" s="4">
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4">
         <v>1</v>
       </c>
-      <c r="K37" s="4"/>
-      <c r="L37" s="4"/>
-      <c r="M37" s="4" t="s">
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="N37" s="5" t="s">
+      <c r="P37" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="O37" s="4"/>
-      <c r="P37" s="4"/>
       <c r="Q37" s="4"/>
-      <c r="R37" s="4" t="s">
+      <c r="R37" s="4"/>
+      <c r="S37" s="4"/>
+      <c r="T37" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="S37" s="4"/>
-      <c r="T37" s="4"/>
       <c r="U37" s="4"/>
       <c r="V37" s="4"/>
-      <c r="W37" s="4" t="s">
+      <c r="W37" s="4"/>
+      <c r="X37" s="4"/>
+      <c r="Y37" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="X37" s="4"/>
-      <c r="Y37" s="4"/>
       <c r="Z37" s="4"/>
       <c r="AA37" s="4"/>
       <c r="AB37" s="4"/>
-      <c r="AC37" s="4" t="s">
+      <c r="AC37" s="4"/>
+      <c r="AD37" s="4"/>
+      <c r="AE37" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="AD37" s="4">
+      <c r="AF37" s="4">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="AE37" s="4"/>
-      <c r="AF37" s="4"/>
-      <c r="AG37" s="4" t="s">
+      <c r="AG37" s="4"/>
+      <c r="AH37" s="4"/>
+      <c r="AI37" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="AH37" s="4" t="s">
+      <c r="AJ37" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="AI37" s="4">
+      <c r="AK37" s="4">
         <v>2</v>
       </c>
-      <c r="AJ37" s="4">
+      <c r="AL37" s="4">
         <v>34</v>
       </c>
-      <c r="AK37" s="4"/>
-      <c r="AL37" s="4">
+      <c r="AM37" s="4"/>
+      <c r="AN37" s="4">
         <v>312</v>
       </c>
     </row>
-    <row r="38" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -4223,62 +4371,64 @@
       </c>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
-      <c r="K38" s="4">
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4">
         <v>1</v>
       </c>
-      <c r="L38" s="4">
+      <c r="N38" s="4">
         <v>15</v>
       </c>
-      <c r="M38" s="4" t="s">
+      <c r="O38" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="N38" s="5" t="s">
+      <c r="P38" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="O38" s="4"/>
-      <c r="P38" s="4"/>
       <c r="Q38" s="4"/>
-      <c r="R38" s="4" t="s">
+      <c r="R38" s="4"/>
+      <c r="S38" s="4"/>
+      <c r="T38" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="S38" s="4"/>
-      <c r="T38" s="4"/>
       <c r="U38" s="4"/>
       <c r="V38" s="4"/>
-      <c r="W38" s="4" t="s">
+      <c r="W38" s="4"/>
+      <c r="X38" s="4"/>
+      <c r="Y38" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="X38" s="4"/>
-      <c r="Y38" s="4"/>
       <c r="Z38" s="4"/>
       <c r="AA38" s="4"/>
       <c r="AB38" s="4"/>
-      <c r="AC38" s="4" t="s">
+      <c r="AC38" s="4"/>
+      <c r="AD38" s="4"/>
+      <c r="AE38" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="AD38" s="4">
+      <c r="AF38" s="4">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="AE38" s="4"/>
-      <c r="AF38" s="4"/>
-      <c r="AG38" s="4" t="s">
+      <c r="AG38" s="4"/>
+      <c r="AH38" s="4"/>
+      <c r="AI38" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="AH38" s="4" t="s">
+      <c r="AJ38" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="AI38" s="4">
+      <c r="AK38" s="4">
         <v>2</v>
       </c>
-      <c r="AJ38" s="4">
+      <c r="AL38" s="4">
         <v>35</v>
       </c>
-      <c r="AK38" s="4"/>
-      <c r="AL38" s="4">
+      <c r="AM38" s="4"/>
+      <c r="AN38" s="4">
         <v>312</v>
       </c>
     </row>
-    <row r="39" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -4306,9 +4456,9 @@
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
       <c r="M39" s="4"/>
-      <c r="N39" s="5"/>
+      <c r="N39" s="4"/>
       <c r="O39" s="4"/>
-      <c r="P39" s="4"/>
+      <c r="P39" s="5"/>
       <c r="Q39" s="4"/>
       <c r="R39" s="4"/>
       <c r="S39" s="4"/>
@@ -4327,18 +4477,20 @@
       <c r="AF39" s="4"/>
       <c r="AG39" s="4"/>
       <c r="AH39" s="4"/>
-      <c r="AI39" s="4">
+      <c r="AI39" s="4"/>
+      <c r="AJ39" s="4"/>
+      <c r="AK39" s="4">
         <v>1</v>
       </c>
-      <c r="AJ39" s="4">
+      <c r="AL39" s="4">
         <v>400</v>
       </c>
-      <c r="AK39" s="6" t="s">
+      <c r="AM39" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="AL39" s="4"/>
+      <c r="AN39" s="4"/>
     </row>
-    <row r="40" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -4364,63 +4516,65 @@
         <v>50</v>
       </c>
       <c r="I40" s="4"/>
-      <c r="J40" s="4">
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4">
         <v>4</v>
       </c>
-      <c r="K40" s="4"/>
-      <c r="L40" s="4"/>
-      <c r="M40" s="4" t="s">
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="N40" s="5" t="s">
+      <c r="P40" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="O40" s="4"/>
-      <c r="P40" s="4" t="s">
+      <c r="Q40" s="4"/>
+      <c r="R40" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="Q40" s="4" t="s">
+      <c r="S40" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="R40" s="4" t="s">
+      <c r="T40" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="S40" s="4"/>
-      <c r="T40" s="4"/>
       <c r="U40" s="4"/>
       <c r="V40" s="4"/>
-      <c r="W40" s="4" t="s">
+      <c r="W40" s="4"/>
+      <c r="X40" s="4"/>
+      <c r="Y40" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="X40" s="4" t="s">
+      <c r="Z40" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="Y40" s="4"/>
-      <c r="Z40" s="4"/>
       <c r="AA40" s="4"/>
       <c r="AB40" s="4"/>
-      <c r="AC40" s="4" t="s">
+      <c r="AC40" s="4"/>
+      <c r="AD40" s="4"/>
+      <c r="AE40" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AD40" s="4">
+      <c r="AF40" s="4">
         <v>0.09</v>
       </c>
-      <c r="AE40" s="4"/>
-      <c r="AF40" s="4"/>
       <c r="AG40" s="4"/>
       <c r="AH40" s="4"/>
-      <c r="AI40" s="4">
+      <c r="AI40" s="4"/>
+      <c r="AJ40" s="4"/>
+      <c r="AK40" s="4">
         <v>2</v>
       </c>
-      <c r="AJ40" s="4">
+      <c r="AL40" s="4">
         <v>28</v>
       </c>
-      <c r="AK40" s="4"/>
-      <c r="AL40" s="4">
+      <c r="AM40" s="4"/>
+      <c r="AN40" s="4">
         <v>400</v>
       </c>
     </row>
-    <row r="41" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -4446,57 +4600,59 @@
         <v>197</v>
       </c>
       <c r="I41" s="4"/>
-      <c r="J41" s="4">
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4">
         <v>1</v>
       </c>
-      <c r="K41" s="4"/>
-      <c r="L41" s="4"/>
       <c r="M41" s="4"/>
-      <c r="N41" s="5"/>
+      <c r="N41" s="4"/>
       <c r="O41" s="4"/>
-      <c r="P41" s="4"/>
-      <c r="Q41" s="4" t="s">
+      <c r="P41" s="5"/>
+      <c r="Q41" s="4"/>
+      <c r="R41" s="4"/>
+      <c r="S41" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="R41" s="4"/>
-      <c r="S41" s="4"/>
       <c r="T41" s="4"/>
       <c r="U41" s="4"/>
       <c r="V41" s="4"/>
-      <c r="W41" s="4" t="s">
+      <c r="W41" s="4"/>
+      <c r="X41" s="4"/>
+      <c r="Y41" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="X41" s="8" t="s">
+      <c r="Z41" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="Y41" s="4"/>
-      <c r="Z41" s="4"/>
       <c r="AA41" s="4"/>
       <c r="AB41" s="4"/>
-      <c r="AC41" s="4" t="s">
+      <c r="AC41" s="4"/>
+      <c r="AD41" s="4"/>
+      <c r="AE41" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AD41" s="4">
+      <c r="AF41" s="4">
         <v>0.1</v>
       </c>
-      <c r="AE41" s="4"/>
-      <c r="AF41" s="4"/>
       <c r="AG41" s="4"/>
       <c r="AH41" s="4"/>
-      <c r="AI41" s="4">
+      <c r="AI41" s="4"/>
+      <c r="AJ41" s="4"/>
+      <c r="AK41" s="4">
         <v>2</v>
       </c>
-      <c r="AJ41" s="4">
+      <c r="AL41" s="4">
         <v>678</v>
       </c>
-      <c r="AK41" s="6" t="s">
+      <c r="AM41" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="AL41" s="4">
+      <c r="AN41" s="4">
         <v>400</v>
       </c>
     </row>
-    <row r="42" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -4521,56 +4677,56 @@
       <c r="H42" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4">
+      <c r="K42" s="4"/>
+      <c r="L42" s="4">
         <v>2</v>
       </c>
-      <c r="K42" s="4"/>
-      <c r="L42" s="4"/>
       <c r="M42" s="4"/>
-      <c r="N42" s="5"/>
+      <c r="N42" s="4"/>
       <c r="O42" s="4"/>
-      <c r="P42" s="4"/>
-      <c r="Q42" s="4" t="s">
+      <c r="P42" s="5"/>
+      <c r="Q42" s="4"/>
+      <c r="R42" s="4"/>
+      <c r="S42" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="R42" s="4"/>
-      <c r="S42" s="4"/>
       <c r="T42" s="4"/>
       <c r="U42" s="4"/>
       <c r="V42" s="4"/>
-      <c r="W42" s="4" t="s">
+      <c r="W42" s="4"/>
+      <c r="X42" s="4"/>
+      <c r="Y42" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="X42" s="8" t="s">
+      <c r="Z42" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="Y42" s="4"/>
-      <c r="Z42" s="4"/>
       <c r="AA42" s="4"/>
       <c r="AB42" s="4"/>
-      <c r="AC42" s="4" t="s">
+      <c r="AC42" s="4"/>
+      <c r="AD42" s="4"/>
+      <c r="AE42" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AD42" s="4"/>
-      <c r="AE42" s="4"/>
       <c r="AF42" s="4"/>
       <c r="AG42" s="4"/>
       <c r="AH42" s="4"/>
-      <c r="AI42" s="4">
+      <c r="AI42" s="4"/>
+      <c r="AJ42" s="4"/>
+      <c r="AK42" s="4">
         <v>3</v>
       </c>
-      <c r="AJ42" s="4">
+      <c r="AL42" s="4">
         <v>36</v>
       </c>
-      <c r="AK42" s="6" t="s">
+      <c r="AM42" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="AL42" s="4">
+      <c r="AN42" s="4">
         <v>678</v>
       </c>
     </row>
-    <row r="43" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>42</v>
       </c>
@@ -4596,63 +4752,65 @@
         <v>50</v>
       </c>
       <c r="I43" s="4"/>
-      <c r="J43" s="4">
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4">
         <v>1</v>
       </c>
-      <c r="K43" s="4"/>
-      <c r="L43" s="4"/>
-      <c r="M43" s="4" t="s">
+      <c r="M43" s="4"/>
+      <c r="N43" s="4"/>
+      <c r="O43" s="4" t="s">
         <v>205</v>
-      </c>
-      <c r="N43" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="O43" s="4" t="s">
-        <v>207</v>
       </c>
       <c r="P43" s="4" t="s">
         <v>206</v>
       </c>
       <c r="Q43" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="R43" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="S43" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="R43" s="4" t="s">
+      <c r="T43" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="S43" s="4"/>
-      <c r="T43" s="4"/>
       <c r="U43" s="4"/>
       <c r="V43" s="4"/>
-      <c r="W43" s="4" t="s">
+      <c r="W43" s="4"/>
+      <c r="X43" s="4"/>
+      <c r="Y43" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="X43" s="8" t="s">
+      <c r="Z43" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="Y43" s="4"/>
-      <c r="Z43" s="4"/>
       <c r="AA43" s="4"/>
       <c r="AB43" s="4"/>
-      <c r="AC43" s="4" t="s">
+      <c r="AC43" s="4"/>
+      <c r="AD43" s="4"/>
+      <c r="AE43" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AD43" s="4"/>
-      <c r="AE43" s="4"/>
       <c r="AF43" s="4"/>
       <c r="AG43" s="4"/>
       <c r="AH43" s="4"/>
-      <c r="AI43" s="4">
+      <c r="AI43" s="4"/>
+      <c r="AJ43" s="4"/>
+      <c r="AK43" s="4">
         <v>4</v>
       </c>
-      <c r="AJ43" s="4">
+      <c r="AL43" s="4">
         <v>37</v>
       </c>
-      <c r="AK43" s="4"/>
-      <c r="AL43" s="4">
+      <c r="AM43" s="4"/>
+      <c r="AN43" s="4">
         <v>36</v>
       </c>
     </row>
-    <row r="44" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>43</v>
       </c>
@@ -4678,63 +4836,65 @@
         <v>50</v>
       </c>
       <c r="I44" s="4"/>
-      <c r="J44" s="4">
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4">
         <v>1</v>
       </c>
-      <c r="K44" s="4"/>
-      <c r="L44" s="4"/>
-      <c r="M44" s="4" t="s">
+      <c r="M44" s="4"/>
+      <c r="N44" s="4"/>
+      <c r="O44" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="N44" s="5">
+      <c r="P44" s="5">
         <v>5000034</v>
       </c>
-      <c r="O44" s="4" t="s">
+      <c r="Q44" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="P44" s="4"/>
-      <c r="Q44" s="4" t="s">
+      <c r="R44" s="4"/>
+      <c r="S44" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="R44" s="4" t="s">
+      <c r="T44" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="S44" s="4"/>
-      <c r="T44" s="4"/>
       <c r="U44" s="4"/>
       <c r="V44" s="4"/>
-      <c r="W44" s="4" t="s">
+      <c r="W44" s="4"/>
+      <c r="X44" s="4"/>
+      <c r="Y44" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="X44" s="8" t="s">
+      <c r="Z44" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="Y44" s="4"/>
-      <c r="Z44" s="4"/>
       <c r="AA44" s="4"/>
       <c r="AB44" s="4"/>
-      <c r="AC44" s="4" t="s">
+      <c r="AC44" s="4"/>
+      <c r="AD44" s="4"/>
+      <c r="AE44" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AD44" s="4"/>
-      <c r="AE44" s="4"/>
       <c r="AF44" s="4"/>
-      <c r="AG44" s="4" t="s">
+      <c r="AG44" s="4"/>
+      <c r="AH44" s="4"/>
+      <c r="AI44" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="AH44" s="4"/>
-      <c r="AI44" s="4">
+      <c r="AJ44" s="4"/>
+      <c r="AK44" s="4">
         <v>4</v>
       </c>
-      <c r="AJ44" s="4">
+      <c r="AL44" s="4">
         <v>38</v>
       </c>
-      <c r="AK44" s="4"/>
-      <c r="AL44" s="4">
+      <c r="AM44" s="4"/>
+      <c r="AN44" s="4">
         <v>36</v>
       </c>
     </row>
-    <row r="45" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>44</v>
       </c>
@@ -4759,56 +4919,56 @@
       <c r="H45" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="I45" s="4"/>
-      <c r="J45" s="4">
+      <c r="K45" s="4"/>
+      <c r="L45" s="4">
         <v>2</v>
       </c>
-      <c r="K45" s="4"/>
-      <c r="L45" s="4"/>
       <c r="M45" s="4"/>
-      <c r="N45" s="5"/>
+      <c r="N45" s="4"/>
       <c r="O45" s="4"/>
-      <c r="P45" s="4"/>
-      <c r="Q45" s="4" t="s">
+      <c r="P45" s="5"/>
+      <c r="Q45" s="4"/>
+      <c r="R45" s="4"/>
+      <c r="S45" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="R45" s="4"/>
-      <c r="S45" s="4"/>
       <c r="T45" s="4"/>
       <c r="U45" s="4"/>
       <c r="V45" s="4"/>
-      <c r="W45" s="4" t="s">
+      <c r="W45" s="4"/>
+      <c r="X45" s="4"/>
+      <c r="Y45" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="X45" s="8" t="s">
+      <c r="Z45" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="Y45" s="4"/>
-      <c r="Z45" s="4"/>
       <c r="AA45" s="4"/>
       <c r="AB45" s="4"/>
-      <c r="AC45" s="4" t="s">
+      <c r="AC45" s="4"/>
+      <c r="AD45" s="4"/>
+      <c r="AE45" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AD45" s="4"/>
-      <c r="AE45" s="4"/>
       <c r="AF45" s="4"/>
       <c r="AG45" s="4"/>
       <c r="AH45" s="4"/>
-      <c r="AI45" s="4">
+      <c r="AI45" s="4"/>
+      <c r="AJ45" s="4"/>
+      <c r="AK45" s="4">
         <v>3</v>
       </c>
-      <c r="AJ45" s="4">
-        <v>39</v>
-      </c>
-      <c r="AK45" s="6" t="s">
+      <c r="AL45" s="4">
+        <v>39</v>
+      </c>
+      <c r="AM45" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="AL45" s="4">
+      <c r="AN45" s="4">
         <v>678</v>
       </c>
     </row>
-    <row r="46" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>45</v>
       </c>
@@ -4834,63 +4994,65 @@
         <v>50</v>
       </c>
       <c r="I46" s="4"/>
-      <c r="J46" s="4">
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4">
         <v>1</v>
       </c>
-      <c r="K46" s="4"/>
-      <c r="L46" s="4"/>
-      <c r="M46" s="4" t="s">
+      <c r="M46" s="4"/>
+      <c r="N46" s="4"/>
+      <c r="O46" s="4" t="s">
         <v>217</v>
-      </c>
-      <c r="N46" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="O46" s="4" t="s">
-        <v>207</v>
       </c>
       <c r="P46" s="4" t="s">
         <v>217</v>
       </c>
       <c r="Q46" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="R46" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="S46" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="R46" s="4" t="s">
+      <c r="T46" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="S46" s="4"/>
-      <c r="T46" s="4"/>
       <c r="U46" s="4"/>
       <c r="V46" s="4"/>
-      <c r="W46" s="4" t="s">
+      <c r="W46" s="4"/>
+      <c r="X46" s="4"/>
+      <c r="Y46" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="X46" s="8" t="s">
+      <c r="Z46" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="Y46" s="4"/>
-      <c r="Z46" s="4"/>
       <c r="AA46" s="4"/>
       <c r="AB46" s="4"/>
-      <c r="AC46" s="4" t="s">
+      <c r="AC46" s="4"/>
+      <c r="AD46" s="4"/>
+      <c r="AE46" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AD46" s="4"/>
-      <c r="AE46" s="4"/>
       <c r="AF46" s="4"/>
       <c r="AG46" s="4"/>
       <c r="AH46" s="4"/>
-      <c r="AI46" s="4">
+      <c r="AI46" s="4"/>
+      <c r="AJ46" s="4"/>
+      <c r="AK46" s="4">
         <v>4</v>
       </c>
-      <c r="AJ46" s="4">
+      <c r="AL46" s="4">
         <v>40</v>
       </c>
-      <c r="AK46" s="4"/>
-      <c r="AL46" s="4">
+      <c r="AM46" s="4"/>
+      <c r="AN46" s="4">
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>46</v>
       </c>
@@ -4916,63 +5078,65 @@
         <v>50</v>
       </c>
       <c r="I47" s="4"/>
-      <c r="J47" s="4">
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
+      <c r="L47" s="4">
         <v>1</v>
       </c>
-      <c r="K47" s="4"/>
-      <c r="L47" s="4"/>
-      <c r="M47" s="4" t="s">
+      <c r="M47" s="4"/>
+      <c r="N47" s="4"/>
+      <c r="O47" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="N47" s="5">
+      <c r="P47" s="5">
         <v>5000034</v>
       </c>
-      <c r="O47" s="4" t="s">
+      <c r="Q47" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="P47" s="4"/>
-      <c r="Q47" s="4" t="s">
+      <c r="R47" s="4"/>
+      <c r="S47" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="R47" s="4" t="s">
+      <c r="T47" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="S47" s="4"/>
-      <c r="T47" s="4"/>
       <c r="U47" s="4"/>
       <c r="V47" s="4"/>
-      <c r="W47" s="4" t="s">
+      <c r="W47" s="4"/>
+      <c r="X47" s="4"/>
+      <c r="Y47" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="X47" s="8" t="s">
+      <c r="Z47" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="Y47" s="4"/>
-      <c r="Z47" s="4"/>
       <c r="AA47" s="4"/>
       <c r="AB47" s="4"/>
-      <c r="AC47" s="4" t="s">
+      <c r="AC47" s="4"/>
+      <c r="AD47" s="4"/>
+      <c r="AE47" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AD47" s="4"/>
-      <c r="AE47" s="4"/>
       <c r="AF47" s="4"/>
-      <c r="AG47" s="4" t="s">
+      <c r="AG47" s="4"/>
+      <c r="AH47" s="4"/>
+      <c r="AI47" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="AH47" s="4"/>
-      <c r="AI47" s="4">
+      <c r="AJ47" s="4"/>
+      <c r="AK47" s="4">
         <v>4</v>
       </c>
-      <c r="AJ47" s="4">
+      <c r="AL47" s="4">
         <v>41</v>
       </c>
-      <c r="AK47" s="4"/>
-      <c r="AL47" s="4">
+      <c r="AM47" s="4"/>
+      <c r="AN47" s="4">
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>47</v>
       </c>
@@ -4997,22 +5161,22 @@
       <c r="H48" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="I48" s="4" t="s">
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="J48" s="4"/>
-      <c r="K48" s="4"/>
       <c r="L48" s="4"/>
       <c r="M48" s="4"/>
-      <c r="N48" s="5"/>
+      <c r="N48" s="4"/>
       <c r="O48" s="4"/>
-      <c r="P48" s="4"/>
+      <c r="P48" s="5"/>
       <c r="Q48" s="4"/>
-      <c r="R48" s="4" t="s">
+      <c r="R48" s="4"/>
+      <c r="S48" s="4"/>
+      <c r="T48" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="S48" s="4"/>
-      <c r="T48" s="4"/>
       <c r="U48" s="4"/>
       <c r="V48" s="4"/>
       <c r="W48" s="4"/>
@@ -5028,15 +5192,17 @@
       <c r="AG48" s="4"/>
       <c r="AH48" s="4"/>
       <c r="AI48" s="4"/>
-      <c r="AJ48" s="4">
+      <c r="AJ48" s="4"/>
+      <c r="AK48" s="4"/>
+      <c r="AL48" s="4">
         <v>43</v>
       </c>
-      <c r="AK48" s="6" t="s">
+      <c r="AM48" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="AL48" s="4"/>
+      <c r="AN48" s="4"/>
     </row>
-    <row r="49" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>48</v>
       </c>
@@ -5061,26 +5227,26 @@
       <c r="H49" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="I49" s="4" t="s">
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="J49" s="4"/>
-      <c r="K49" s="4"/>
       <c r="L49" s="4"/>
-      <c r="M49" s="4" t="s">
+      <c r="M49" s="4"/>
+      <c r="N49" s="4"/>
+      <c r="O49" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="N49" s="7" t="s">
+      <c r="P49" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="O49" s="4"/>
-      <c r="P49" s="4"/>
       <c r="Q49" s="4"/>
-      <c r="R49" s="4" t="s">
+      <c r="R49" s="4"/>
+      <c r="S49" s="4"/>
+      <c r="T49" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="S49" s="4"/>
-      <c r="T49" s="4"/>
       <c r="U49" s="4"/>
       <c r="V49" s="4"/>
       <c r="W49" s="4"/>
@@ -5096,15 +5262,17 @@
       <c r="AG49" s="4"/>
       <c r="AH49" s="4"/>
       <c r="AI49" s="4"/>
-      <c r="AJ49" s="4">
+      <c r="AJ49" s="4"/>
+      <c r="AK49" s="4"/>
+      <c r="AL49" s="4">
         <v>44</v>
       </c>
-      <c r="AK49" s="4">
-        <v>39</v>
-      </c>
-      <c r="AL49" s="4"/>
+      <c r="AM49" s="4">
+        <v>39</v>
+      </c>
+      <c r="AN49" s="4"/>
     </row>
-    <row r="50" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>49</v>
       </c>
@@ -5129,26 +5297,26 @@
       <c r="H50" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="I50" s="4" t="s">
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
+      <c r="K50" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="J50" s="4"/>
-      <c r="K50" s="4"/>
       <c r="L50" s="4"/>
-      <c r="M50" s="4" t="s">
+      <c r="M50" s="4"/>
+      <c r="N50" s="4"/>
+      <c r="O50" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="N50" s="7" t="s">
+      <c r="P50" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="O50" s="4"/>
-      <c r="P50" s="4"/>
       <c r="Q50" s="4"/>
-      <c r="R50" s="4" t="s">
+      <c r="R50" s="4"/>
+      <c r="S50" s="4"/>
+      <c r="T50" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="S50" s="4"/>
-      <c r="T50" s="4"/>
       <c r="U50" s="4"/>
       <c r="V50" s="4"/>
       <c r="W50" s="4"/>
@@ -5164,15 +5332,17 @@
       <c r="AG50" s="4"/>
       <c r="AH50" s="4"/>
       <c r="AI50" s="4"/>
-      <c r="AJ50" s="4">
+      <c r="AJ50" s="4"/>
+      <c r="AK50" s="4"/>
+      <c r="AL50" s="4">
         <v>45</v>
       </c>
-      <c r="AK50" s="4">
+      <c r="AM50" s="4">
         <v>36</v>
       </c>
-      <c r="AL50" s="4"/>
+      <c r="AN50" s="4"/>
     </row>
-    <row r="51" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>50</v>
       </c>
@@ -5197,26 +5367,26 @@
       <c r="H51" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="I51" s="4" t="s">
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
+      <c r="K51" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="J51" s="4"/>
-      <c r="K51" s="4"/>
       <c r="L51" s="4"/>
-      <c r="M51" s="4" t="s">
+      <c r="M51" s="4"/>
+      <c r="N51" s="4"/>
+      <c r="O51" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="N51" s="7" t="s">
+      <c r="P51" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="O51" s="4"/>
-      <c r="P51" s="4"/>
       <c r="Q51" s="4"/>
-      <c r="R51" s="4" t="s">
+      <c r="R51" s="4"/>
+      <c r="S51" s="4"/>
+      <c r="T51" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="S51" s="4"/>
-      <c r="T51" s="4"/>
       <c r="U51" s="4"/>
       <c r="V51" s="4"/>
       <c r="W51" s="4"/>
@@ -5232,15 +5402,17 @@
       <c r="AG51" s="4"/>
       <c r="AH51" s="4"/>
       <c r="AI51" s="4"/>
-      <c r="AJ51" s="4">
+      <c r="AJ51" s="4"/>
+      <c r="AK51" s="4"/>
+      <c r="AL51" s="4">
         <v>46</v>
       </c>
-      <c r="AK51" s="4">
+      <c r="AM51" s="4">
         <v>28</v>
       </c>
-      <c r="AL51" s="4"/>
+      <c r="AN51" s="4"/>
     </row>
-    <row r="52" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>51</v>
       </c>
@@ -5265,26 +5437,26 @@
       <c r="H52" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="I52" s="4" t="s">
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
+      <c r="K52" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="J52" s="4"/>
-      <c r="K52" s="4"/>
       <c r="L52" s="4"/>
-      <c r="M52" s="4" t="s">
+      <c r="M52" s="4"/>
+      <c r="N52" s="4"/>
+      <c r="O52" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="N52" s="7" t="s">
+      <c r="P52" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="O52" s="4"/>
-      <c r="P52" s="4"/>
       <c r="Q52" s="4"/>
-      <c r="R52" s="4" t="s">
+      <c r="R52" s="4"/>
+      <c r="S52" s="4"/>
+      <c r="T52" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="S52" s="4"/>
-      <c r="T52" s="4"/>
       <c r="U52" s="4"/>
       <c r="V52" s="4"/>
       <c r="W52" s="4"/>
@@ -5300,15 +5472,17 @@
       <c r="AG52" s="4"/>
       <c r="AH52" s="4"/>
       <c r="AI52" s="4"/>
-      <c r="AJ52" s="4">
+      <c r="AJ52" s="4"/>
+      <c r="AK52" s="4"/>
+      <c r="AL52" s="4">
         <v>47</v>
       </c>
-      <c r="AK52" s="4">
+      <c r="AM52" s="4">
         <v>29</v>
       </c>
-      <c r="AL52" s="4"/>
+      <c r="AN52" s="4"/>
     </row>
-    <row r="53" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>52</v>
       </c>
@@ -5333,26 +5507,26 @@
       <c r="H53" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="I53" s="4" t="s">
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
+      <c r="K53" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="J53" s="4"/>
-      <c r="K53" s="4"/>
       <c r="L53" s="4"/>
-      <c r="M53" s="4" t="s">
+      <c r="M53" s="4"/>
+      <c r="N53" s="4"/>
+      <c r="O53" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="N53" s="7" t="s">
+      <c r="P53" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="O53" s="4"/>
-      <c r="P53" s="4"/>
       <c r="Q53" s="4"/>
-      <c r="R53" s="4" t="s">
+      <c r="R53" s="4"/>
+      <c r="S53" s="4"/>
+      <c r="T53" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="S53" s="4"/>
-      <c r="T53" s="4"/>
       <c r="U53" s="4"/>
       <c r="V53" s="4"/>
       <c r="W53" s="4"/>
@@ -5368,15 +5542,17 @@
       <c r="AG53" s="4"/>
       <c r="AH53" s="4"/>
       <c r="AI53" s="4"/>
-      <c r="AJ53" s="4">
+      <c r="AJ53" s="4"/>
+      <c r="AK53" s="4"/>
+      <c r="AL53" s="4">
         <v>48</v>
       </c>
-      <c r="AK53" s="6" t="s">
+      <c r="AM53" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="AL53" s="4"/>
+      <c r="AN53" s="4"/>
     </row>
-    <row r="54" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>53</v>
       </c>
@@ -5401,31 +5577,31 @@
       <c r="H54" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="I54" s="4" t="s">
+      <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
+      <c r="K54" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="J54" s="4"/>
-      <c r="K54" s="4"/>
       <c r="L54" s="4"/>
       <c r="M54" s="4"/>
-      <c r="N54" s="5" t="s">
+      <c r="N54" s="4"/>
+      <c r="O54" s="4"/>
+      <c r="P54" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="O54" s="4"/>
-      <c r="P54" s="4"/>
       <c r="Q54" s="4"/>
-      <c r="R54" s="4" t="s">
+      <c r="R54" s="4"/>
+      <c r="S54" s="4"/>
+      <c r="T54" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="S54" s="4"/>
-      <c r="T54" s="4"/>
       <c r="U54" s="4"/>
       <c r="V54" s="4"/>
-      <c r="W54" s="4" t="s">
+      <c r="W54" s="4"/>
+      <c r="X54" s="4"/>
+      <c r="Y54" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="X54" s="4"/>
-      <c r="Y54" s="4"/>
       <c r="Z54" s="4"/>
       <c r="AA54" s="4"/>
       <c r="AB54" s="4"/>
@@ -5436,13 +5612,15 @@
       <c r="AG54" s="4"/>
       <c r="AH54" s="4"/>
       <c r="AI54" s="4"/>
-      <c r="AJ54" s="4">
+      <c r="AJ54" s="4"/>
+      <c r="AK54" s="4"/>
+      <c r="AL54" s="4">
         <v>49</v>
       </c>
-      <c r="AK54" s="4"/>
-      <c r="AL54" s="4"/>
+      <c r="AM54" s="4"/>
+      <c r="AN54" s="4"/>
     </row>
-    <row r="55" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>54</v>
       </c>
@@ -5465,22 +5643,22 @@
       <c r="H55" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="I55" s="4" t="s">
+      <c r="I55" s="4"/>
+      <c r="J55" s="4"/>
+      <c r="K55" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="J55" s="4"/>
-      <c r="K55" s="4"/>
       <c r="L55" s="4"/>
       <c r="M55" s="4"/>
-      <c r="N55" s="5"/>
+      <c r="N55" s="4"/>
       <c r="O55" s="4"/>
-      <c r="P55" s="4"/>
+      <c r="P55" s="5"/>
       <c r="Q55" s="4"/>
-      <c r="R55" s="4" t="s">
+      <c r="R55" s="4"/>
+      <c r="S55" s="4"/>
+      <c r="T55" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="S55" s="4"/>
-      <c r="T55" s="4"/>
       <c r="U55" s="4"/>
       <c r="V55" s="4"/>
       <c r="W55" s="4"/>
@@ -5496,14 +5674,16 @@
       <c r="AG55" s="4"/>
       <c r="AH55" s="4"/>
       <c r="AI55" s="4"/>
-      <c r="AJ55" s="4">
+      <c r="AJ55" s="4"/>
+      <c r="AK55" s="4"/>
+      <c r="AL55" s="4">
         <v>401</v>
       </c>
-      <c r="AK55" s="4"/>
-      <c r="AL55" s="4"/>
+      <c r="AM55" s="4"/>
+      <c r="AN55" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL55" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:AN55" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>

--- a/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - IC Canteen - OTH.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - IC Canteen - OTH.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yuri\Downloads\CCRU new KPI\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My folder\RED\POS 2019\POS_2019-12-16\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F550A8E-5184-4EDD-AF50-A5354D50E537}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB34974A-E76D-4826-8625-D187C3F0A882}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Canteen" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Canteen!$A$1:$AN$55</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">Canteen!$A$1:$AN$55</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="0">Canteen!$A$1:$AN$55</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="0">Canteen!$A$1:$AN$55</definedName>
   </definedNames>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="264">
   <si>
     <t>Sorting</t>
   </si>
@@ -63,6 +63,12 @@
     <t>Formula</t>
   </si>
   <si>
+    <t>Category KPI Type</t>
+  </si>
+  <si>
+    <t>Category KPI Value</t>
+  </si>
+  <si>
     <t>Result Format</t>
   </si>
   <si>
@@ -178,6 +184,9 @@
   </si>
   <si>
     <t>Weighted Average</t>
+  </si>
+  <si>
+    <t>SSD</t>
   </si>
   <si>
     <t xml:space="preserve">201
@@ -299,6 +308,9 @@
     <t>Представленность Воды</t>
   </si>
   <si>
+    <t>Water</t>
+  </si>
+  <si>
     <t xml:space="preserve">213
 214
 </t>
@@ -332,6 +344,9 @@
   </si>
   <si>
     <t>Представленность Чая</t>
+  </si>
+  <si>
+    <t>ice tea</t>
   </si>
   <si>
     <t>220
@@ -389,6 +404,9 @@
   </si>
   <si>
     <t>Представленность Сока</t>
+  </si>
+  <si>
+    <t>Juices</t>
   </si>
   <si>
     <t xml:space="preserve">222
@@ -470,6 +488,9 @@
     <t>Представленность Энергетиков</t>
   </si>
   <si>
+    <t>Energy</t>
+  </si>
+  <si>
     <t xml:space="preserve">Weighted Average </t>
   </si>
   <si>
@@ -642,9 +663,6 @@
   </si>
   <si>
     <t>BRAND</t>
-  </si>
-  <si>
-    <t>Activation</t>
   </si>
   <si>
     <t>Local 21</t>
@@ -841,37 +859,16 @@
     <t>Integer</t>
   </si>
   <si>
-    <t>Panoramic Photo, SS_Panoramic Photo</t>
-  </si>
-  <si>
-    <t>Panoramic photo of Cooler, SS_Panoramic photo of Cooler - Horeca</t>
-  </si>
-  <si>
-    <t>Menu Board, Cash Zone, SS_Cash Zone - Canteen, QSR, SS_Menu Board - Canteen, QSR</t>
-  </si>
-  <si>
-    <t>Bufet line, Cash Zone, SS_Bufet line, SS_Cash Zone - Canteen, QSR</t>
-  </si>
-  <si>
-    <t>Category KPI Type</t>
-  </si>
-  <si>
-    <t>Category KPI Value</t>
-  </si>
-  <si>
-    <t>SSD</t>
-  </si>
-  <si>
-    <t>Water</t>
-  </si>
-  <si>
-    <t>ice tea</t>
-  </si>
-  <si>
-    <t>Juices</t>
-  </si>
-  <si>
-    <t>Energy</t>
+    <t>Panoramic Photo; SS_Panoramic Photo</t>
+  </si>
+  <si>
+    <t>Panoramic photo of Cooler; SS_Panoramic photo of Cooler - Horeca</t>
+  </si>
+  <si>
+    <t>Bufet line; Cash Zone; SS_Bufet line; SS_Cash Zone - Canteen, QSR; Promo SSD Display IC</t>
+  </si>
+  <si>
+    <t>Menu Board; Cash Zone; SS_Cash Zone - Canteen, QSR; SS_Menu Board - Canteen, QSR</t>
   </si>
 </sst>
 </file>
@@ -902,7 +899,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -913,6 +910,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor rgb="FFFF9900"/>
       </patternFill>
     </fill>
   </fills>
@@ -960,33 +963,35 @@
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1038,8 +1043,8 @@
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF92D050"/>
-      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFC000"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
@@ -1370,203 +1375,203 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMM55"/>
+  <dimension ref="A1:AMK55"/>
   <sheetViews>
-    <sheetView windowProtection="1" tabSelected="1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+    <sheetView windowProtection="1" tabSelected="1" topLeftCell="R1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J28" sqref="J28"/>
+      <selection activeCell="R1" sqref="R1"/>
+      <selection pane="bottomLeft" activeCell="Z7" sqref="Z7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="2"/>
-    <col min="2" max="2" width="11.7109375" style="2"/>
-    <col min="3" max="3" width="12.7109375" style="2"/>
-    <col min="4" max="4" width="11.42578125" style="2"/>
-    <col min="5" max="5" width="15.7109375" style="2"/>
-    <col min="6" max="6" width="87.42578125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="79.42578125" style="2"/>
-    <col min="8" max="8" width="43.28515625" style="2"/>
-    <col min="9" max="9" width="25" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.85546875" style="2"/>
-    <col min="12" max="12" width="9.42578125" style="2"/>
-    <col min="13" max="13" width="13.7109375" style="2"/>
-    <col min="14" max="14" width="14.28515625" style="2"/>
-    <col min="15" max="15" width="103.28515625" style="2"/>
-    <col min="16" max="16" width="57.7109375" style="2"/>
-    <col min="17" max="17" width="20.28515625" style="2"/>
-    <col min="18" max="18" width="16.42578125" style="2"/>
-    <col min="19" max="19" width="19.42578125" style="2"/>
-    <col min="20" max="20" width="14" style="2"/>
-    <col min="21" max="21" width="7.28515625" style="2"/>
-    <col min="22" max="22" width="14.7109375" style="2"/>
-    <col min="23" max="23" width="18" style="2"/>
-    <col min="24" max="24" width="23" style="2"/>
-    <col min="25" max="25" width="22.42578125" style="2"/>
-    <col min="26" max="26" width="23.42578125" style="2"/>
-    <col min="27" max="27" width="20.5703125" style="2"/>
-    <col min="28" max="28" width="26" style="2"/>
-    <col min="29" max="29" width="26.7109375" style="2"/>
-    <col min="30" max="30" width="16.28515625" style="2"/>
-    <col min="31" max="31" width="16.85546875" style="2"/>
-    <col min="32" max="32" width="13.7109375" style="2"/>
-    <col min="33" max="33" width="13" style="2"/>
-    <col min="34" max="34" width="13.28515625" style="2"/>
-    <col min="35" max="35" width="63.140625" style="2"/>
-    <col min="36" max="36" width="22.7109375" style="2"/>
-    <col min="37" max="37" width="7.85546875" style="2"/>
-    <col min="38" max="38" width="9.140625" style="2"/>
-    <col min="39" max="39" width="11.140625" style="2"/>
-    <col min="40" max="40" width="9.7109375" style="2"/>
-    <col min="41" max="1027" width="9.140625" style="2" customWidth="1"/>
-    <col min="1028" max="16384" width="8.85546875" style="3"/>
+    <col min="1" max="1" width="11.109375" style="1"/>
+    <col min="2" max="2" width="12.44140625" style="1"/>
+    <col min="3" max="3" width="13.5546875" style="1"/>
+    <col min="4" max="4" width="12.21875" style="1"/>
+    <col min="5" max="5" width="16.77734375" style="1"/>
+    <col min="6" max="6" width="94" style="1"/>
+    <col min="7" max="7" width="85.44140625" style="1"/>
+    <col min="8" max="8" width="46.6640625" style="1"/>
+    <col min="9" max="9" width="26.88671875" style="1"/>
+    <col min="10" max="10" width="27.44140625" style="1"/>
+    <col min="11" max="11" width="18.109375" style="1"/>
+    <col min="12" max="12" width="10" style="1"/>
+    <col min="13" max="13" width="14.6640625" style="1"/>
+    <col min="14" max="14" width="15.44140625" style="1"/>
+    <col min="15" max="15" width="111.21875" style="1"/>
+    <col min="16" max="16" width="62" style="1"/>
+    <col min="17" max="17" width="21.77734375" style="1"/>
+    <col min="18" max="18" width="17.5546875" style="1"/>
+    <col min="19" max="19" width="20.88671875" style="1"/>
+    <col min="20" max="20" width="15" style="1"/>
+    <col min="21" max="21" width="7.88671875" style="1"/>
+    <col min="22" max="22" width="15.77734375" style="1"/>
+    <col min="23" max="23" width="19.33203125" style="1"/>
+    <col min="24" max="24" width="24.6640625" style="1"/>
+    <col min="25" max="25" width="24.109375" style="1"/>
+    <col min="26" max="26" width="85.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="37.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="27.88671875" style="1"/>
+    <col min="29" max="29" width="28.6640625" style="1"/>
+    <col min="30" max="30" width="17.44140625" style="1"/>
+    <col min="31" max="31" width="18.109375" style="1"/>
+    <col min="32" max="32" width="14.6640625" style="1"/>
+    <col min="33" max="33" width="13.88671875" style="1"/>
+    <col min="34" max="34" width="14.33203125" style="1"/>
+    <col min="35" max="35" width="67.88671875" style="1"/>
+    <col min="36" max="36" width="24.33203125" style="1"/>
+    <col min="37" max="37" width="8.44140625" style="1"/>
+    <col min="38" max="38" width="9.6640625" style="1"/>
+    <col min="39" max="39" width="11.88671875" style="1"/>
+    <col min="40" max="40" width="10.44140625" style="1"/>
+    <col min="41" max="1025" width="9.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="W1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="X1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="Y1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="Z1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AA1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AB1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AC1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AD1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AE1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AF1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AG1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AH1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AI1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AK1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AL1" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="AM1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="2" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="2" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>40</v>
       </c>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
@@ -1605,36 +1610,36 @@
       <c r="AM2" s="4"/>
       <c r="AN2" s="4"/>
     </row>
-    <row r="3" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>260</v>
+      <c r="J3" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
@@ -1657,7 +1662,7 @@
       <c r="AC3" s="4"/>
       <c r="AD3" s="4"/>
       <c r="AE3" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AF3" s="4"/>
       <c r="AG3" s="4"/>
@@ -1670,37 +1675,37 @@
       <c r="AL3" s="4">
         <v>1</v>
       </c>
-      <c r="AM3" s="6" t="s">
-        <v>47</v>
+      <c r="AM3" s="7" t="s">
+        <v>50</v>
       </c>
       <c r="AN3" s="4">
         <v>300</v>
       </c>
     </row>
-    <row r="4" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
@@ -1711,35 +1716,35 @@
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
       <c r="O4" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
       <c r="S4" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="T4" s="4" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="U4" s="4"/>
       <c r="V4" s="4"/>
       <c r="W4" s="4"/>
       <c r="X4" s="4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Y4" s="4"/>
       <c r="Z4" s="4"/>
       <c r="AA4" s="4" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="AB4" s="4"/>
       <c r="AC4" s="4"/>
       <c r="AD4" s="4"/>
       <c r="AE4" s="4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AF4" s="4">
         <v>4.3400000000000001E-2</v>
@@ -1759,30 +1764,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
@@ -1793,35 +1798,35 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
       <c r="O5" s="4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
       <c r="S5" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="T5" s="4" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="U5" s="4"/>
       <c r="V5" s="4"/>
       <c r="W5" s="4"/>
       <c r="X5" s="4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Y5" s="4"/>
       <c r="Z5" s="4"/>
       <c r="AA5" s="4" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="AB5" s="4"/>
       <c r="AC5" s="4"/>
       <c r="AD5" s="4"/>
       <c r="AE5" s="4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AF5" s="4">
         <v>4.3400000000000001E-2</v>
@@ -1841,30 +1846,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
@@ -1875,7 +1880,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
       <c r="O6" s="4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="P6" s="5">
         <v>54491472</v>
@@ -1883,27 +1888,27 @@
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
       <c r="S6" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="T6" s="4" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="U6" s="4"/>
       <c r="V6" s="4"/>
       <c r="W6" s="4"/>
       <c r="X6" s="4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Y6" s="4"/>
       <c r="Z6" s="4"/>
       <c r="AA6" s="4" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="AB6" s="4"/>
       <c r="AC6" s="4"/>
       <c r="AD6" s="4"/>
       <c r="AE6" s="4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AF6" s="4">
         <v>4.3400000000000001E-2</v>
@@ -1923,30 +1928,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
@@ -1957,35 +1962,35 @@
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
       <c r="O7" s="4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
       <c r="S7" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="T7" s="4" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="U7" s="4"/>
       <c r="V7" s="4"/>
       <c r="W7" s="4"/>
       <c r="X7" s="4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Y7" s="4"/>
       <c r="Z7" s="4"/>
       <c r="AA7" s="4" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="AB7" s="4"/>
       <c r="AC7" s="4"/>
       <c r="AD7" s="4"/>
       <c r="AE7" s="4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AF7" s="4">
         <v>2.6863000000000001E-2</v>
@@ -2005,30 +2010,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -2039,35 +2044,35 @@
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
       <c r="O8" s="4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
       <c r="S8" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="T8" s="4" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="U8" s="4"/>
       <c r="V8" s="4"/>
       <c r="W8" s="4"/>
       <c r="X8" s="4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Y8" s="4"/>
       <c r="Z8" s="4"/>
       <c r="AA8" s="4" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="AB8" s="4"/>
       <c r="AC8" s="4"/>
       <c r="AD8" s="4"/>
       <c r="AE8" s="4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AF8" s="4">
         <v>2.6863000000000001E-2</v>
@@ -2087,30 +2092,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -2121,35 +2126,35 @@
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
       <c r="O9" s="4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
       <c r="S9" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="T9" s="4" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="U9" s="4"/>
       <c r="V9" s="4"/>
       <c r="W9" s="4"/>
       <c r="X9" s="4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Y9" s="4"/>
       <c r="Z9" s="4"/>
       <c r="AA9" s="4" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="AB9" s="4"/>
       <c r="AC9" s="4"/>
       <c r="AD9" s="4"/>
       <c r="AE9" s="4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AF9" s="4">
         <v>2.6863000000000001E-2</v>
@@ -2169,30 +2174,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -2203,35 +2208,35 @@
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
       <c r="O10" s="4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
       <c r="S10" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="T10" s="4" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="U10" s="4"/>
       <c r="V10" s="4"/>
       <c r="W10" s="4"/>
       <c r="X10" s="4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Y10" s="4"/>
       <c r="Z10" s="4"/>
       <c r="AA10" s="4" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="AB10" s="4"/>
       <c r="AC10" s="4"/>
       <c r="AD10" s="4"/>
       <c r="AE10" s="4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AF10" s="4">
         <v>2.6863000000000001E-2</v>
@@ -2251,30 +2256,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
@@ -2285,35 +2290,35 @@
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
       <c r="O11" s="4" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
       <c r="S11" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="T11" s="4" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="U11" s="4"/>
       <c r="V11" s="4"/>
       <c r="W11" s="4"/>
       <c r="X11" s="4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Y11" s="4"/>
       <c r="Z11" s="4"/>
       <c r="AA11" s="4" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="AB11" s="4"/>
       <c r="AC11" s="4"/>
       <c r="AD11" s="4"/>
       <c r="AE11" s="4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AF11" s="4">
         <v>1.9E-2</v>
@@ -2333,36 +2338,36 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I12" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="J12" s="10" t="s">
-        <v>261</v>
+        <v>48</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>87</v>
       </c>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
@@ -2385,7 +2390,7 @@
       <c r="AC12" s="4"/>
       <c r="AD12" s="4"/>
       <c r="AE12" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AF12" s="4"/>
       <c r="AG12" s="4"/>
@@ -2398,37 +2403,37 @@
       <c r="AL12" s="4">
         <v>10</v>
       </c>
-      <c r="AM12" s="6" t="s">
-        <v>84</v>
+      <c r="AM12" s="7" t="s">
+        <v>88</v>
       </c>
       <c r="AN12" s="4">
         <v>300</v>
       </c>
     </row>
-    <row r="13" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
@@ -2439,35 +2444,35 @@
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
       <c r="O13" s="4" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="P13" s="5" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
       <c r="S13" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="T13" s="4" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="U13" s="4"/>
       <c r="V13" s="4"/>
       <c r="W13" s="4"/>
       <c r="X13" s="4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Y13" s="4"/>
       <c r="Z13" s="4"/>
       <c r="AA13" s="4" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="AB13" s="4"/>
       <c r="AC13" s="4"/>
       <c r="AD13" s="4"/>
       <c r="AE13" s="4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AF13" s="4">
         <v>3.2488000000000003E-2</v>
@@ -2487,30 +2492,30 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
@@ -2521,35 +2526,35 @@
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
       <c r="O14" s="4" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="P14" s="5" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
       <c r="S14" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="T14" s="4" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="U14" s="4"/>
       <c r="V14" s="4"/>
       <c r="W14" s="4"/>
       <c r="X14" s="4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Y14" s="4"/>
       <c r="Z14" s="4"/>
       <c r="AA14" s="4" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="AB14" s="4"/>
       <c r="AC14" s="4"/>
       <c r="AD14" s="4"/>
       <c r="AE14" s="4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AF14" s="4">
         <v>9.6419999999999995E-3</v>
@@ -2569,36 +2574,36 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I15" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="J15" s="10" t="s">
-        <v>262</v>
+        <v>48</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>99</v>
       </c>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
@@ -2621,7 +2626,7 @@
       <c r="AC15" s="4"/>
       <c r="AD15" s="4"/>
       <c r="AE15" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AF15" s="4"/>
       <c r="AG15" s="4"/>
@@ -2634,37 +2639,37 @@
       <c r="AL15" s="4">
         <v>13</v>
       </c>
-      <c r="AM15" s="6" t="s">
-        <v>95</v>
+      <c r="AM15" s="7" t="s">
+        <v>100</v>
       </c>
       <c r="AN15" s="4">
         <v>300</v>
       </c>
     </row>
-    <row r="16" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
@@ -2675,35 +2680,35 @@
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
       <c r="O16" s="4" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="P16" s="5" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
       <c r="S16" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="T16" s="4" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="U16" s="4"/>
       <c r="V16" s="4"/>
       <c r="W16" s="4"/>
       <c r="X16" s="4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Y16" s="4"/>
       <c r="Z16" s="4"/>
       <c r="AA16" s="4" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="AB16" s="4"/>
       <c r="AC16" s="4"/>
       <c r="AD16" s="4"/>
       <c r="AE16" s="4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AF16" s="4">
         <v>3.2455999999999999E-2</v>
@@ -2723,30 +2728,30 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
@@ -2757,35 +2762,35 @@
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
       <c r="O17" s="4" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="P17" s="5" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
       <c r="S17" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="T17" s="4" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="U17" s="4"/>
       <c r="V17" s="4"/>
       <c r="W17" s="4"/>
       <c r="X17" s="4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Y17" s="4"/>
       <c r="Z17" s="4"/>
       <c r="AA17" s="4" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="AB17" s="4"/>
       <c r="AC17" s="4"/>
       <c r="AD17" s="4"/>
       <c r="AE17" s="4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AF17" s="4">
         <v>3.2455999999999999E-2</v>
@@ -2805,30 +2810,30 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
@@ -2839,35 +2844,35 @@
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
       <c r="O18" s="4" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="P18" s="5" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
       <c r="S18" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="T18" s="4" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="U18" s="4"/>
       <c r="V18" s="4"/>
       <c r="W18" s="4"/>
       <c r="X18" s="4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Y18" s="4"/>
       <c r="Z18" s="4"/>
       <c r="AA18" s="4" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="AB18" s="4"/>
       <c r="AC18" s="4"/>
       <c r="AD18" s="4"/>
       <c r="AE18" s="4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AF18" s="4">
         <v>2.1989999999999999E-2</v>
@@ -2887,30 +2892,30 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
@@ -2921,35 +2926,35 @@
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
       <c r="O19" s="4" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="P19" s="5" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
       <c r="S19" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="T19" s="4" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="U19" s="4"/>
       <c r="V19" s="4"/>
       <c r="W19" s="4"/>
       <c r="X19" s="4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Y19" s="4"/>
       <c r="Z19" s="4"/>
       <c r="AA19" s="4" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="AB19" s="4"/>
       <c r="AC19" s="4"/>
       <c r="AD19" s="4"/>
       <c r="AE19" s="4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AF19" s="4">
         <v>1.1009E-2</v>
@@ -2969,36 +2974,36 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I20" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="J20" s="10" t="s">
-        <v>263</v>
+        <v>48</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>118</v>
       </c>
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
@@ -3021,7 +3026,7 @@
       <c r="AC20" s="4"/>
       <c r="AD20" s="4"/>
       <c r="AE20" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AF20" s="4"/>
       <c r="AG20" s="4"/>
@@ -3034,37 +3039,37 @@
       <c r="AL20" s="4">
         <v>18</v>
       </c>
-      <c r="AM20" s="6" t="s">
-        <v>113</v>
+      <c r="AM20" s="7" t="s">
+        <v>119</v>
       </c>
       <c r="AN20" s="4">
         <v>300</v>
       </c>
     </row>
-    <row r="21" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
@@ -3075,35 +3080,35 @@
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
       <c r="O21" s="4" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="P21" s="5" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
       <c r="S21" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="T21" s="4" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="U21" s="4"/>
       <c r="V21" s="4"/>
       <c r="W21" s="4"/>
       <c r="X21" s="4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Y21" s="4"/>
       <c r="Z21" s="4"/>
       <c r="AA21" s="4" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="AB21" s="4"/>
       <c r="AC21" s="4"/>
       <c r="AD21" s="4"/>
       <c r="AE21" s="4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AF21" s="4">
         <v>3.2455999999999999E-2</v>
@@ -3123,30 +3128,30 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
@@ -3157,35 +3162,35 @@
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
       <c r="O22" s="4" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="P22" s="5" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
       <c r="S22" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="T22" s="4" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="U22" s="4"/>
       <c r="V22" s="4"/>
       <c r="W22" s="4"/>
       <c r="X22" s="4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Y22" s="4"/>
       <c r="Z22" s="4"/>
       <c r="AA22" s="4" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="AB22" s="4"/>
       <c r="AC22" s="4"/>
       <c r="AD22" s="4"/>
       <c r="AE22" s="4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AF22" s="4">
         <v>3.2455999999999999E-2</v>
@@ -3205,30 +3210,30 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
@@ -3239,35 +3244,35 @@
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
       <c r="O23" s="4" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="P23" s="5" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
       <c r="S23" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="T23" s="4" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="U23" s="4"/>
       <c r="V23" s="4"/>
       <c r="W23" s="4"/>
       <c r="X23" s="4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Y23" s="4"/>
       <c r="Z23" s="4"/>
       <c r="AA23" s="4" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="AB23" s="4"/>
       <c r="AC23" s="4"/>
       <c r="AD23" s="4"/>
       <c r="AE23" s="4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AF23" s="4">
         <v>2.1989999999999999E-2</v>
@@ -3287,30 +3292,30 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
@@ -3321,7 +3326,7 @@
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
       <c r="O24" s="4" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="P24" s="5">
         <v>4607174577787</v>
@@ -3329,27 +3334,27 @@
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
       <c r="S24" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="T24" s="4" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="U24" s="4"/>
       <c r="V24" s="4"/>
       <c r="W24" s="4"/>
       <c r="X24" s="4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Y24" s="4"/>
       <c r="Z24" s="4"/>
       <c r="AA24" s="4" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="AB24" s="4"/>
       <c r="AC24" s="4"/>
       <c r="AD24" s="4"/>
       <c r="AE24" s="4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AF24" s="4">
         <v>2.1989999999999999E-2</v>
@@ -3369,30 +3374,30 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
@@ -3403,7 +3408,7 @@
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
       <c r="O25" s="4" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="P25" s="5">
         <v>4650075420980</v>
@@ -3411,27 +3416,27 @@
       <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
       <c r="S25" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="T25" s="4" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="U25" s="4"/>
       <c r="V25" s="4"/>
       <c r="W25" s="4"/>
       <c r="X25" s="4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Y25" s="4"/>
       <c r="Z25" s="4"/>
       <c r="AA25" s="4" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="AB25" s="4"/>
       <c r="AC25" s="4"/>
       <c r="AD25" s="4"/>
       <c r="AE25" s="4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AF25" s="4">
         <v>1.1009E-2</v>
@@ -3451,30 +3456,30 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
@@ -3485,35 +3490,35 @@
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
       <c r="O26" s="4" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="P26" s="5" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
       <c r="S26" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="T26" s="4" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="U26" s="4"/>
       <c r="V26" s="4"/>
       <c r="W26" s="4"/>
       <c r="X26" s="4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Y26" s="4"/>
       <c r="Z26" s="4"/>
       <c r="AA26" s="4" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="AB26" s="4"/>
       <c r="AC26" s="4"/>
       <c r="AD26" s="4"/>
       <c r="AE26" s="4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AF26" s="4">
         <v>1.1009E-2</v>
@@ -3533,30 +3538,30 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
@@ -3567,35 +3572,35 @@
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
       <c r="O27" s="4" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="P27" s="5" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
       <c r="S27" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="T27" s="4" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="U27" s="4"/>
       <c r="V27" s="4"/>
       <c r="W27" s="4"/>
       <c r="X27" s="4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Y27" s="4"/>
       <c r="Z27" s="4"/>
       <c r="AA27" s="4" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="AB27" s="4"/>
       <c r="AC27" s="4"/>
       <c r="AD27" s="4"/>
       <c r="AE27" s="4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AF27" s="4">
         <v>1.1009E-2</v>
@@ -3615,36 +3620,36 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I28" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="J28" s="10" t="s">
-        <v>264</v>
+        <v>48</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>143</v>
       </c>
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
@@ -3667,7 +3672,7 @@
       <c r="AC28" s="4"/>
       <c r="AD28" s="4"/>
       <c r="AE28" s="4" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="AF28" s="4"/>
       <c r="AG28" s="4"/>
@@ -3687,30 +3692,30 @@
         <v>300</v>
       </c>
     </row>
-    <row r="29" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
@@ -3725,32 +3730,32 @@
         <v>Burn Original - 0.5L</v>
       </c>
       <c r="P29" s="5" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
       <c r="S29" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="T29" s="4" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="U29" s="4"/>
       <c r="V29" s="4"/>
       <c r="W29" s="4"/>
       <c r="X29" s="4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Y29" s="4"/>
       <c r="Z29" s="4"/>
       <c r="AA29" s="4" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="AB29" s="4"/>
       <c r="AC29" s="4"/>
       <c r="AD29" s="4"/>
       <c r="AE29" s="4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AF29" s="4">
         <v>1.3879999999999999E-3</v>
@@ -3770,28 +3775,28 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
@@ -3830,28 +3835,28 @@
       <c r="AM30" s="4"/>
       <c r="AN30" s="4"/>
     </row>
-    <row r="31" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="4" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
@@ -3892,30 +3897,30 @@
         <v>310</v>
       </c>
     </row>
-    <row r="32" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
@@ -3928,7 +3933,7 @@
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
       <c r="S32" s="4" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="T32" s="4"/>
       <c r="U32" s="4"/>
@@ -3942,7 +3947,7 @@
       <c r="AC32" s="4"/>
       <c r="AD32" s="4"/>
       <c r="AE32" s="4" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="AF32" s="4">
         <v>0.13500000000000001</v>
@@ -3950,7 +3955,7 @@
       <c r="AG32" s="4"/>
       <c r="AH32" s="4"/>
       <c r="AI32" s="4" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="AJ32" s="4"/>
       <c r="AK32" s="4">
@@ -3959,37 +3964,37 @@
       <c r="AL32" s="4">
         <v>30</v>
       </c>
-      <c r="AM32" s="6" t="s">
-        <v>153</v>
+      <c r="AM32" s="7" t="s">
+        <v>160</v>
       </c>
       <c r="AN32" s="4">
         <v>311</v>
       </c>
     </row>
-    <row r="33" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
@@ -4000,7 +4005,7 @@
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
       <c r="O33" s="4" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="P33" s="5"/>
       <c r="Q33" s="4"/>
@@ -4012,7 +4017,7 @@
       <c r="W33" s="4"/>
       <c r="X33" s="4"/>
       <c r="Y33" s="4" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="Z33" s="4"/>
       <c r="AA33" s="4"/>
@@ -4020,13 +4025,13 @@
       <c r="AC33" s="4"/>
       <c r="AD33" s="4"/>
       <c r="AE33" s="4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AF33" s="4"/>
       <c r="AG33" s="4"/>
       <c r="AH33" s="4"/>
       <c r="AI33" s="4" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="AJ33" s="4"/>
       <c r="AK33" s="4">
@@ -4040,30 +4045,30 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
@@ -4074,23 +4079,23 @@
       <c r="M34" s="4"/>
       <c r="N34" s="4"/>
       <c r="O34" s="4" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="P34" s="5" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="Q34" s="4"/>
       <c r="R34" s="4"/>
       <c r="S34" s="4"/>
       <c r="T34" s="4" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="U34" s="4"/>
       <c r="V34" s="4"/>
       <c r="W34" s="4"/>
       <c r="X34" s="4"/>
       <c r="Y34" s="4" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="Z34" s="4"/>
       <c r="AA34" s="4"/>
@@ -4098,7 +4103,7 @@
       <c r="AC34" s="4"/>
       <c r="AD34" s="4"/>
       <c r="AE34" s="4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AF34" s="4"/>
       <c r="AG34" s="4"/>
@@ -4116,28 +4121,28 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="4" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
@@ -4173,37 +4178,37 @@
       <c r="AL35" s="4">
         <v>312</v>
       </c>
-      <c r="AM35" s="6" t="s">
-        <v>168</v>
+      <c r="AM35" s="7" t="s">
+        <v>175</v>
       </c>
       <c r="AN35" s="4">
         <v>310</v>
       </c>
     </row>
-    <row r="36" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
@@ -4215,30 +4220,28 @@
       <c r="N36" s="4"/>
       <c r="O36" s="4"/>
       <c r="P36" s="5" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="Q36" s="4"/>
       <c r="R36" s="4"/>
       <c r="S36" s="4"/>
       <c r="T36" s="4" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="U36" s="4"/>
       <c r="V36" s="4"/>
       <c r="W36" s="4"/>
       <c r="X36" s="4"/>
-      <c r="Y36" s="4" t="s">
-        <v>55</v>
-      </c>
+      <c r="Y36" s="4"/>
       <c r="Z36" s="8" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="AA36" s="4"/>
       <c r="AB36" s="4"/>
       <c r="AC36" s="4"/>
       <c r="AD36" s="4"/>
       <c r="AE36" s="4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AF36" s="4">
         <v>4.4999999999999998E-2</v>
@@ -4246,10 +4249,10 @@
       <c r="AG36" s="4"/>
       <c r="AH36" s="4"/>
       <c r="AI36" s="4" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="AJ36" s="4" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="AK36" s="4">
         <v>2</v>
@@ -4262,30 +4265,30 @@
         <v>312</v>
       </c>
     </row>
-    <row r="37" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
@@ -4296,23 +4299,23 @@
       <c r="M37" s="4"/>
       <c r="N37" s="4"/>
       <c r="O37" s="4" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="P37" s="5" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="Q37" s="4"/>
       <c r="R37" s="4"/>
       <c r="S37" s="4"/>
       <c r="T37" s="4" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="U37" s="4"/>
       <c r="V37" s="4"/>
       <c r="W37" s="4"/>
       <c r="X37" s="4"/>
       <c r="Y37" s="4" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="Z37" s="4"/>
       <c r="AA37" s="4"/>
@@ -4320,7 +4323,7 @@
       <c r="AC37" s="4"/>
       <c r="AD37" s="4"/>
       <c r="AE37" s="4" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="AF37" s="4">
         <v>4.4999999999999998E-2</v>
@@ -4328,10 +4331,10 @@
       <c r="AG37" s="4"/>
       <c r="AH37" s="4"/>
       <c r="AI37" s="4" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="AJ37" s="4" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="AK37" s="4">
         <v>2</v>
@@ -4344,30 +4347,30 @@
         <v>312</v>
       </c>
     </row>
-    <row r="38" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
@@ -4380,23 +4383,23 @@
         <v>15</v>
       </c>
       <c r="O38" s="4" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="P38" s="5" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="Q38" s="4"/>
       <c r="R38" s="4"/>
       <c r="S38" s="4"/>
       <c r="T38" s="4" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="U38" s="4"/>
       <c r="V38" s="4"/>
       <c r="W38" s="4"/>
       <c r="X38" s="4"/>
       <c r="Y38" s="4" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="Z38" s="4"/>
       <c r="AA38" s="4"/>
@@ -4404,7 +4407,7 @@
       <c r="AC38" s="4"/>
       <c r="AD38" s="4"/>
       <c r="AE38" s="4" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="AF38" s="4">
         <v>4.4999999999999998E-2</v>
@@ -4412,10 +4415,10 @@
       <c r="AG38" s="4"/>
       <c r="AH38" s="4"/>
       <c r="AI38" s="4" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="AJ38" s="4" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="AK38" s="4">
         <v>2</v>
@@ -4428,28 +4431,28 @@
         <v>312</v>
       </c>
     </row>
-    <row r="39" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="4" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
@@ -4485,35 +4488,35 @@
       <c r="AL39" s="4">
         <v>400</v>
       </c>
-      <c r="AM39" s="6" t="s">
-        <v>186</v>
+      <c r="AM39" s="7" t="s">
+        <v>193</v>
       </c>
       <c r="AN39" s="4"/>
     </row>
-    <row r="40" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
@@ -4524,37 +4527,35 @@
       <c r="M40" s="4"/>
       <c r="N40" s="4"/>
       <c r="O40" s="4" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="P40" s="5" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="Q40" s="4"/>
       <c r="R40" s="4" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="S40" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="T40" s="4" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="U40" s="4"/>
       <c r="V40" s="4"/>
       <c r="W40" s="4"/>
       <c r="X40" s="4"/>
-      <c r="Y40" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="Z40" s="4" t="s">
-        <v>257</v>
+      <c r="Y40" s="4"/>
+      <c r="Z40" s="9" t="s">
+        <v>262</v>
       </c>
       <c r="AA40" s="4"/>
       <c r="AB40" s="4"/>
       <c r="AC40" s="4"/>
       <c r="AD40" s="4"/>
       <c r="AE40" s="4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AF40" s="4">
         <v>0.09</v>
@@ -4574,30 +4575,30 @@
         <v>400</v>
       </c>
     </row>
-    <row r="41" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
@@ -4612,25 +4613,23 @@
       <c r="Q41" s="4"/>
       <c r="R41" s="4"/>
       <c r="S41" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="T41" s="4"/>
       <c r="U41" s="4"/>
       <c r="V41" s="4"/>
       <c r="W41" s="4"/>
       <c r="X41" s="4"/>
-      <c r="Y41" s="4" t="s">
-        <v>193</v>
-      </c>
+      <c r="Y41" s="4"/>
       <c r="Z41" s="8" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="AA41" s="4"/>
       <c r="AB41" s="4"/>
       <c r="AC41" s="4"/>
       <c r="AD41" s="4"/>
       <c r="AE41" s="4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AF41" s="4">
         <v>0.1</v>
@@ -4645,38 +4644,40 @@
       <c r="AL41" s="4">
         <v>678</v>
       </c>
-      <c r="AM41" s="6" t="s">
-        <v>198</v>
+      <c r="AM41" s="7" t="s">
+        <v>204</v>
       </c>
       <c r="AN41" s="4">
         <v>400</v>
       </c>
     </row>
-    <row r="42" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>201</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="I42"/>
+      <c r="J42"/>
       <c r="K42" s="4"/>
       <c r="L42" s="4">
         <v>2</v>
@@ -4688,25 +4689,23 @@
       <c r="Q42" s="4"/>
       <c r="R42" s="4"/>
       <c r="S42" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="T42" s="4"/>
       <c r="U42" s="4"/>
       <c r="V42" s="4"/>
       <c r="W42" s="4"/>
       <c r="X42" s="4"/>
-      <c r="Y42" s="4" t="s">
-        <v>193</v>
-      </c>
+      <c r="Y42" s="4"/>
       <c r="Z42" s="8" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="AA42" s="4"/>
       <c r="AB42" s="4"/>
       <c r="AC42" s="4"/>
       <c r="AD42" s="4"/>
       <c r="AE42" s="4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AF42" s="4"/>
       <c r="AG42" s="4"/>
@@ -4719,37 +4718,37 @@
       <c r="AL42" s="4">
         <v>36</v>
       </c>
-      <c r="AM42" s="6" t="s">
-        <v>202</v>
+      <c r="AM42" s="7" t="s">
+        <v>208</v>
       </c>
       <c r="AN42" s="4">
         <v>678</v>
       </c>
     </row>
-    <row r="43" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
@@ -4760,39 +4759,37 @@
       <c r="M43" s="4"/>
       <c r="N43" s="4"/>
       <c r="O43" s="4" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="P43" s="4" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="Q43" s="4" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="R43" s="4" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="S43" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="T43" s="4" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="U43" s="4"/>
       <c r="V43" s="4"/>
       <c r="W43" s="4"/>
       <c r="X43" s="4"/>
-      <c r="Y43" s="4" t="s">
-        <v>193</v>
-      </c>
+      <c r="Y43" s="4"/>
       <c r="Z43" s="8" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="AA43" s="4"/>
       <c r="AB43" s="4"/>
       <c r="AC43" s="4"/>
       <c r="AD43" s="4"/>
       <c r="AE43" s="4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AF43" s="4"/>
       <c r="AG43" s="4"/>
@@ -4810,30 +4807,30 @@
         <v>36</v>
       </c>
     </row>
-    <row r="44" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
@@ -4844,43 +4841,41 @@
       <c r="M44" s="4"/>
       <c r="N44" s="4"/>
       <c r="O44" s="4" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="P44" s="5">
         <v>5000034</v>
       </c>
       <c r="Q44" s="4" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="R44" s="4"/>
       <c r="S44" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="T44" s="4" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="U44" s="4"/>
       <c r="V44" s="4"/>
       <c r="W44" s="4"/>
       <c r="X44" s="4"/>
-      <c r="Y44" s="4" t="s">
-        <v>193</v>
-      </c>
+      <c r="Y44" s="4"/>
       <c r="Z44" s="8" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="AA44" s="4"/>
       <c r="AB44" s="4"/>
       <c r="AC44" s="4"/>
       <c r="AD44" s="4"/>
       <c r="AE44" s="4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AF44" s="4"/>
       <c r="AG44" s="4"/>
       <c r="AH44" s="4"/>
       <c r="AI44" s="4" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="AJ44" s="4"/>
       <c r="AK44" s="4">
@@ -4894,31 +4889,33 @@
         <v>36</v>
       </c>
     </row>
-    <row r="45" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>201</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="I45"/>
+      <c r="J45"/>
       <c r="K45" s="4"/>
       <c r="L45" s="4">
         <v>2</v>
@@ -4930,25 +4927,23 @@
       <c r="Q45" s="4"/>
       <c r="R45" s="4"/>
       <c r="S45" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="T45" s="4"/>
       <c r="U45" s="4"/>
       <c r="V45" s="4"/>
       <c r="W45" s="4"/>
       <c r="X45" s="4"/>
-      <c r="Y45" s="4" t="s">
-        <v>193</v>
-      </c>
+      <c r="Y45" s="4"/>
       <c r="Z45" s="8" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="AA45" s="4"/>
       <c r="AB45" s="4"/>
       <c r="AC45" s="4"/>
       <c r="AD45" s="4"/>
       <c r="AE45" s="4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AF45" s="4"/>
       <c r="AG45" s="4"/>
@@ -4961,37 +4956,37 @@
       <c r="AL45" s="4">
         <v>39</v>
       </c>
-      <c r="AM45" s="6" t="s">
-        <v>214</v>
+      <c r="AM45" s="7" t="s">
+        <v>220</v>
       </c>
       <c r="AN45" s="4">
         <v>678</v>
       </c>
     </row>
-    <row r="46" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>45</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
@@ -5002,39 +4997,37 @@
       <c r="M46" s="4"/>
       <c r="N46" s="4"/>
       <c r="O46" s="4" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="P46" s="4" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="Q46" s="4" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="R46" s="4" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="S46" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="T46" s="4" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="U46" s="4"/>
       <c r="V46" s="4"/>
       <c r="W46" s="4"/>
       <c r="X46" s="4"/>
-      <c r="Y46" s="4" t="s">
-        <v>193</v>
-      </c>
+      <c r="Y46" s="4"/>
       <c r="Z46" s="8" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="AA46" s="4"/>
       <c r="AB46" s="4"/>
       <c r="AC46" s="4"/>
       <c r="AD46" s="4"/>
       <c r="AE46" s="4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AF46" s="4"/>
       <c r="AG46" s="4"/>
@@ -5052,30 +5045,30 @@
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
         <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
@@ -5086,43 +5079,41 @@
       <c r="M47" s="4"/>
       <c r="N47" s="4"/>
       <c r="O47" s="4" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="P47" s="5">
         <v>5000034</v>
       </c>
       <c r="Q47" s="4" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="R47" s="4"/>
       <c r="S47" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="T47" s="4" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="U47" s="4"/>
       <c r="V47" s="4"/>
       <c r="W47" s="4"/>
       <c r="X47" s="4"/>
-      <c r="Y47" s="4" t="s">
-        <v>193</v>
-      </c>
+      <c r="Y47" s="4"/>
       <c r="Z47" s="8" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="AA47" s="4"/>
       <c r="AB47" s="4"/>
       <c r="AC47" s="4"/>
       <c r="AD47" s="4"/>
       <c r="AE47" s="4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AF47" s="4"/>
       <c r="AG47" s="4"/>
       <c r="AH47" s="4"/>
       <c r="AI47" s="4" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="AJ47" s="4"/>
       <c r="AK47" s="4">
@@ -5136,35 +5127,35 @@
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
       <c r="K48" s="4" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="L48" s="4"/>
       <c r="M48" s="4"/>
@@ -5175,7 +5166,7 @@
       <c r="R48" s="4"/>
       <c r="S48" s="4"/>
       <c r="T48" s="4" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="U48" s="4"/>
       <c r="V48" s="4"/>
@@ -5197,55 +5188,55 @@
       <c r="AL48" s="4">
         <v>43</v>
       </c>
-      <c r="AM48" s="6" t="s">
-        <v>226</v>
+      <c r="AM48" s="7" t="s">
+        <v>232</v>
       </c>
       <c r="AN48" s="4"/>
     </row>
-    <row r="49" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
       <c r="K49" s="4" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="L49" s="4"/>
       <c r="M49" s="4"/>
       <c r="N49" s="4"/>
       <c r="O49" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="P49" s="7" t="s">
-        <v>232</v>
+        <v>237</v>
+      </c>
+      <c r="P49" s="10" t="s">
+        <v>238</v>
       </c>
       <c r="Q49" s="4"/>
       <c r="R49" s="4"/>
       <c r="S49" s="4"/>
       <c r="T49" s="4" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="U49" s="4"/>
       <c r="V49" s="4"/>
@@ -5272,50 +5263,50 @@
       </c>
       <c r="AN49" s="4"/>
     </row>
-    <row r="50" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
       <c r="K50" s="4" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="L50" s="4"/>
       <c r="M50" s="4"/>
       <c r="N50" s="4"/>
       <c r="O50" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="P50" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
+      </c>
+      <c r="P50" s="10" t="s">
+        <v>239</v>
       </c>
       <c r="Q50" s="4"/>
       <c r="R50" s="4"/>
       <c r="S50" s="4"/>
       <c r="T50" s="4" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="U50" s="4"/>
       <c r="V50" s="4"/>
@@ -5342,50 +5333,50 @@
       </c>
       <c r="AN50" s="4"/>
     </row>
-    <row r="51" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
         <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="G51" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="H51" s="4" t="s">
         <v>235</v>
-      </c>
-      <c r="H51" s="4" t="s">
-        <v>229</v>
       </c>
       <c r="I51" s="4"/>
       <c r="J51" s="4"/>
       <c r="K51" s="4" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="L51" s="4"/>
       <c r="M51" s="4"/>
       <c r="N51" s="4"/>
       <c r="O51" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="P51" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
+      </c>
+      <c r="P51" s="10" t="s">
+        <v>242</v>
       </c>
       <c r="Q51" s="4"/>
       <c r="R51" s="4"/>
       <c r="S51" s="4"/>
       <c r="T51" s="4" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="U51" s="4"/>
       <c r="V51" s="4"/>
@@ -5412,50 +5403,50 @@
       </c>
       <c r="AN51" s="4"/>
     </row>
-    <row r="52" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="G52" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="H52" s="4" t="s">
         <v>235</v>
-      </c>
-      <c r="H52" s="4" t="s">
-        <v>229</v>
       </c>
       <c r="I52" s="4"/>
       <c r="J52" s="4"/>
       <c r="K52" s="4" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="L52" s="4"/>
       <c r="M52" s="4"/>
       <c r="N52" s="4"/>
       <c r="O52" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="P52" s="7" t="s">
         <v>237</v>
+      </c>
+      <c r="P52" s="10" t="s">
+        <v>243</v>
       </c>
       <c r="Q52" s="4"/>
       <c r="R52" s="4"/>
       <c r="S52" s="4"/>
       <c r="T52" s="4" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="U52" s="4"/>
       <c r="V52" s="4"/>
@@ -5482,50 +5473,50 @@
       </c>
       <c r="AN52" s="4"/>
     </row>
-    <row r="53" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
         <v>52</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
       <c r="K53" s="4" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="L53" s="4"/>
       <c r="M53" s="4"/>
       <c r="N53" s="4"/>
       <c r="O53" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="P53" s="7" t="s">
-        <v>242</v>
+        <v>247</v>
+      </c>
+      <c r="P53" s="10" t="s">
+        <v>248</v>
       </c>
       <c r="Q53" s="4"/>
       <c r="R53" s="4"/>
       <c r="S53" s="4"/>
       <c r="T53" s="4" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="U53" s="4"/>
       <c r="V53" s="4"/>
@@ -5547,60 +5538,60 @@
       <c r="AL53" s="4">
         <v>48</v>
       </c>
-      <c r="AM53" s="6" t="s">
-        <v>243</v>
+      <c r="AM53" s="7" t="s">
+        <v>249</v>
       </c>
       <c r="AN53" s="4"/>
     </row>
-    <row r="54" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
         <v>53</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="I54" s="4"/>
       <c r="J54" s="4"/>
       <c r="K54" s="4" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="L54" s="4"/>
       <c r="M54" s="4"/>
       <c r="N54" s="4"/>
       <c r="O54" s="4"/>
       <c r="P54" s="5" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="Q54" s="4"/>
       <c r="R54" s="4"/>
       <c r="S54" s="4"/>
       <c r="T54" s="4" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="U54" s="4"/>
       <c r="V54" s="4"/>
       <c r="W54" s="4"/>
       <c r="X54" s="4"/>
       <c r="Y54" s="4" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="Z54" s="4"/>
       <c r="AA54" s="4"/>
@@ -5620,33 +5611,33 @@
       <c r="AM54" s="4"/>
       <c r="AN54" s="4"/>
     </row>
-    <row r="55" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="E55" s="4"/>
       <c r="F55" s="4" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
       <c r="K55" s="4" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="L55" s="4"/>
       <c r="M55" s="4"/>
@@ -5657,7 +5648,7 @@
       <c r="R55" s="4"/>
       <c r="S55" s="4"/>
       <c r="T55" s="4" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="U55" s="4"/>
       <c r="V55" s="4"/>
